--- a/1.xlsx
+++ b/1.xlsx
@@ -5,17 +5,19 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ThetNaungHset\Desktop\Python\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ThetNaungHset\Desktop\Kotoba\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Data1" sheetId="5" r:id="rId1"/>
     <sheet name="Data2" sheetId="2" r:id="rId2"/>
     <sheet name="Data3" sheetId="3" r:id="rId3"/>
     <sheet name="Data4" sheetId="4" r:id="rId4"/>
+    <sheet name="Data5" sheetId="6" r:id="rId5"/>
+    <sheet name="Data6" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="378">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="640" uniqueCount="499">
   <si>
     <t>わたし</t>
   </si>
@@ -1161,6 +1163,369 @@
   </si>
   <si>
     <t>အနုပညာပြတိုက်အမည်</t>
+  </si>
+  <si>
+    <t>いきます</t>
+  </si>
+  <si>
+    <t>သွားသည်</t>
+  </si>
+  <si>
+    <t>きます</t>
+  </si>
+  <si>
+    <t>လာသည်</t>
+  </si>
+  <si>
+    <t>かえります</t>
+  </si>
+  <si>
+    <t>ပြန်သည်</t>
+  </si>
+  <si>
+    <t>がっこう</t>
+  </si>
+  <si>
+    <t>ကျောင်း</t>
+  </si>
+  <si>
+    <t>スーパー</t>
+  </si>
+  <si>
+    <t>စူပါမားကတ်</t>
+  </si>
+  <si>
+    <t>えき</t>
+  </si>
+  <si>
+    <t>ဘူတာ</t>
+  </si>
+  <si>
+    <t>ひこうき</t>
+  </si>
+  <si>
+    <t>လေယာဥ်ပျံ</t>
+  </si>
+  <si>
+    <t>ふね</t>
+  </si>
+  <si>
+    <t>သင်္ဘော</t>
+  </si>
+  <si>
+    <t>でんしゃ</t>
+  </si>
+  <si>
+    <t>ရထား</t>
+  </si>
+  <si>
+    <t>ちかてつ</t>
+  </si>
+  <si>
+    <t>မြေအောက်ရထား</t>
+  </si>
+  <si>
+    <t>しんかんせん</t>
+  </si>
+  <si>
+    <t>ကျည်ဆန်ရထား</t>
+  </si>
+  <si>
+    <t>バス</t>
+  </si>
+  <si>
+    <t>ဘတ်စ်ကား</t>
+  </si>
+  <si>
+    <t>タクシー</t>
+  </si>
+  <si>
+    <t>တက္ကစီ</t>
+  </si>
+  <si>
+    <t>じてんしゃ</t>
+  </si>
+  <si>
+    <t>စက်ဘီး</t>
+  </si>
+  <si>
+    <t>あるいて</t>
+  </si>
+  <si>
+    <t>လမ်းလျှောက်ပြီး</t>
+  </si>
+  <si>
+    <t>ひと</t>
+  </si>
+  <si>
+    <t>လူ</t>
+  </si>
+  <si>
+    <t>ともだち</t>
+  </si>
+  <si>
+    <t>သူငယ်ချင်း</t>
+  </si>
+  <si>
+    <t>かれ</t>
+  </si>
+  <si>
+    <t>သူ၊ ယောကျ်ားလေး သူငယ်ချင်း (ရည်းစား)</t>
+  </si>
+  <si>
+    <t>かのじょ</t>
+  </si>
+  <si>
+    <t>သူမ၊ မိန်းကလေး သူငယ်ချင်း (ရည်းစား)</t>
+  </si>
+  <si>
+    <t>かぞく</t>
+  </si>
+  <si>
+    <t>မိသားစု</t>
+  </si>
+  <si>
+    <t>ひとりで</t>
+  </si>
+  <si>
+    <t>တစ်ယောက်တည်း</t>
+  </si>
+  <si>
+    <t>せんしゅう</t>
+  </si>
+  <si>
+    <t>ပြီးခဲ့တဲ့အပတ်</t>
+  </si>
+  <si>
+    <t>こんしゅう</t>
+  </si>
+  <si>
+    <t>ဒီအပတ်</t>
+  </si>
+  <si>
+    <t>らいしゅう</t>
+  </si>
+  <si>
+    <t>လာမည့်အပတ်၊  နောက်အပတ်</t>
+  </si>
+  <si>
+    <t>せんげつ</t>
+  </si>
+  <si>
+    <t>ပြီးခဲ့တဲ့လ</t>
+  </si>
+  <si>
+    <t>こんげつ</t>
+  </si>
+  <si>
+    <t>ဒီလ</t>
+  </si>
+  <si>
+    <t>らいげつ</t>
+  </si>
+  <si>
+    <t>လာမည့်လ၊ နောက်လ</t>
+  </si>
+  <si>
+    <t>きょねん</t>
+  </si>
+  <si>
+    <t>ပြီးခဲ့တဲ့နှစ်၊ မနှစ်က</t>
+  </si>
+  <si>
+    <t>ことし</t>
+  </si>
+  <si>
+    <t>ဒီနှစ်</t>
+  </si>
+  <si>
+    <t>らいねん</t>
+  </si>
+  <si>
+    <t>လာမည့်နှစ်၊ နောက်နှစ်</t>
+  </si>
+  <si>
+    <t>ーねん</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - နှစ်</t>
+  </si>
+  <si>
+    <t>なんねん</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - ဘယ်နှစ်</t>
+  </si>
+  <si>
+    <t>ーがつ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - လ</t>
+  </si>
+  <si>
+    <t>なんがつ</t>
+  </si>
+  <si>
+    <t>ဘယ်လ</t>
+  </si>
+  <si>
+    <t>ついたち</t>
+  </si>
+  <si>
+    <t>၁ ရက်နေ့၊ ၁ ရက်</t>
+  </si>
+  <si>
+    <t>ふつか</t>
+  </si>
+  <si>
+    <t>၂ ရက်နေ့၊ ၂ ရက်</t>
+  </si>
+  <si>
+    <t>みっか</t>
+  </si>
+  <si>
+    <t>၃ ရက်နေ့၊ ၃ ရက်</t>
+  </si>
+  <si>
+    <t>よっか</t>
+  </si>
+  <si>
+    <t>၄ ရက်နေ့၊ ၄ ရက်</t>
+  </si>
+  <si>
+    <t>いつか</t>
+  </si>
+  <si>
+    <t>၅ ရက်နေ့၊ ၅ ရက်</t>
+  </si>
+  <si>
+    <t>むいか</t>
+  </si>
+  <si>
+    <t>၆ ရက်နေ့၊ ၆ ရက်</t>
+  </si>
+  <si>
+    <t>なのか</t>
+  </si>
+  <si>
+    <t>၇ ရက်နေ့၊ ၇ ရက်</t>
+  </si>
+  <si>
+    <t>ようか</t>
+  </si>
+  <si>
+    <t>၈ ရက်နေ့၊ ၈ ရက်</t>
+  </si>
+  <si>
+    <t>ここのか</t>
+  </si>
+  <si>
+    <t>၉ ရက်နေ့၊ ၉ ရက်</t>
+  </si>
+  <si>
+    <t>とおか</t>
+  </si>
+  <si>
+    <t>၁၀ ရက်နေ့၊ ၁၀ ရက်</t>
+  </si>
+  <si>
+    <t>じゅうよっか</t>
+  </si>
+  <si>
+    <t>၁၄ ရက်နေ့၊ ၁၄ ရက်</t>
+  </si>
+  <si>
+    <t>はつか</t>
+  </si>
+  <si>
+    <t>၂၀ ရက်နေ့၊ ၂၀ ရက်</t>
+  </si>
+  <si>
+    <t>にじゅうよっか</t>
+  </si>
+  <si>
+    <t>၂၄ ရက်နေ့၊ ၂၄ ရက်</t>
+  </si>
+  <si>
+    <t>ーにち</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - ရက်နေ့၊ - ရက်</t>
+  </si>
+  <si>
+    <t>なんにち</t>
+  </si>
+  <si>
+    <t>ဘယ်ရက်နေ့၊ ဘယ်ရက်</t>
+  </si>
+  <si>
+    <t>いつ</t>
+  </si>
+  <si>
+    <t>ဘယ်အချိန်၊ ဘယ်တော့</t>
+  </si>
+  <si>
+    <t>たんじょうび</t>
+  </si>
+  <si>
+    <t>မွေးနေ့</t>
+  </si>
+  <si>
+    <t>そうですね</t>
+  </si>
+  <si>
+    <t>ဟုတ်တယ်နော်</t>
+  </si>
+  <si>
+    <t>「どうも」ありがとう　ございました</t>
+  </si>
+  <si>
+    <t>どう　いたしまして</t>
+  </si>
+  <si>
+    <t>မဟုတ်တာ၊ ရပါတယ်</t>
+  </si>
+  <si>
+    <t>ーばんせん</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - စင်္ကြန်</t>
+  </si>
+  <si>
+    <t>つぎの</t>
+  </si>
+  <si>
+    <t>နောက်လာမည့်</t>
+  </si>
+  <si>
+    <t>ふつう</t>
+  </si>
+  <si>
+    <t>ရိုးရိုး (ရထားအမျိုးအစား)</t>
+  </si>
+  <si>
+    <t>きゅうこう</t>
+  </si>
+  <si>
+    <t>အမြန် (ရထားအမျိုးအစား)</t>
+  </si>
+  <si>
+    <t>とっきゅう</t>
+  </si>
+  <si>
+    <t>အထူးအမြန် (ရထားအမျိုးအစား)</t>
+  </si>
+  <si>
+    <t>こうしえん</t>
+  </si>
+  <si>
+    <t>ခိုးရှိအမ်း</t>
+  </si>
+  <si>
+    <t>おおさかじょう</t>
+  </si>
+  <si>
+    <t>အိုဆာကာရဲတိုက်</t>
   </si>
 </sst>
 </file>
@@ -1567,7 +1932,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
@@ -2361,7 +2726,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A33" s="9">
         <v>32</v>
       </c>
@@ -2460,7 +2825,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A42" s="9">
         <v>41</v>
       </c>
@@ -2653,7 +3018,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="51" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -2675,7 +3040,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -2686,7 +3051,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>13</v>
       </c>
@@ -2719,7 +3084,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>16</v>
       </c>
@@ -2741,7 +3106,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>18</v>
       </c>
@@ -2752,7 +3117,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <v>19</v>
       </c>
@@ -2763,7 +3128,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="40.799999999999997" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
         <v>20</v>
       </c>
@@ -2785,7 +3150,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
         <v>22</v>
       </c>
@@ -2851,7 +3216,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="40.799999999999997" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
         <v>28</v>
       </c>
@@ -2873,7 +3238,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
         <v>30</v>
       </c>
@@ -2884,7 +3249,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="40.799999999999997" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
         <v>31</v>
       </c>
@@ -2895,7 +3260,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
         <v>32</v>
       </c>
@@ -2906,7 +3271,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A34" s="4">
         <v>33</v>
       </c>
@@ -2928,7 +3293,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A36" s="4">
         <v>35</v>
       </c>
@@ -2939,7 +3304,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37" s="4">
         <v>36</v>
       </c>
@@ -2950,7 +3315,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A38" s="4">
         <v>37</v>
       </c>
@@ -2961,7 +3326,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A39" s="4">
         <v>38</v>
       </c>
@@ -2972,7 +3337,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A40" s="4">
         <v>39</v>
       </c>
@@ -2983,7 +3348,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A41" s="4">
         <v>40</v>
       </c>
@@ -3005,7 +3370,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A43" s="4">
         <v>42</v>
       </c>
@@ -3060,7 +3425,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A48" s="4">
         <v>47</v>
       </c>
@@ -3082,7 +3447,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A50" s="4">
         <v>49</v>
       </c>
@@ -3109,7 +3474,7 @@
   <dimension ref="A1:C61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3128,7 +3493,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -3150,7 +3515,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -3161,7 +3526,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="40.799999999999997" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -3172,7 +3537,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="61.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -3227,7 +3592,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -3238,7 +3603,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -3271,7 +3636,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>14</v>
       </c>
@@ -3293,7 +3658,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>16</v>
       </c>
@@ -3304,7 +3669,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>17</v>
       </c>
@@ -3315,7 +3680,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>18</v>
       </c>
@@ -3326,7 +3691,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <v>19</v>
       </c>
@@ -3348,7 +3713,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>21</v>
       </c>
@@ -3403,7 +3768,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
         <v>26</v>
       </c>
@@ -3425,7 +3790,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
         <v>28</v>
       </c>
@@ -3447,7 +3812,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="40.799999999999997" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
         <v>30</v>
       </c>
@@ -3458,7 +3823,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
         <v>31</v>
       </c>
@@ -3480,7 +3845,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="61.2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A34" s="4">
         <v>33</v>
       </c>
@@ -3568,7 +3933,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A42" s="4">
         <v>41</v>
       </c>
@@ -3579,7 +3944,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A43" s="4">
         <v>42</v>
       </c>
@@ -3612,7 +3977,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A46" s="4">
         <v>45</v>
       </c>
@@ -3656,7 +4021,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A50" s="4">
         <v>49</v>
       </c>
@@ -3678,7 +4043,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A52" s="4">
         <v>51</v>
       </c>
@@ -3700,7 +4065,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A54" s="4">
         <v>53</v>
       </c>
@@ -3722,7 +4087,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A56" s="4">
         <v>55</v>
       </c>
@@ -3744,7 +4109,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A58" s="4">
         <v>57</v>
       </c>
@@ -3755,7 +4120,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A59" s="4">
         <v>58</v>
       </c>
@@ -3766,7 +4131,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A60" s="4">
         <v>59</v>
       </c>
@@ -3786,6 +4151,1404 @@
       </c>
       <c r="C61" s="8" t="s">
         <v>377</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C62"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="19.77734375" customWidth="1"/>
+    <col min="2" max="2" width="33" customWidth="1"/>
+    <col min="3" max="3" width="20.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A6" s="4">
+        <v>5</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="4">
+        <v>6</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A8" s="4">
+        <v>7</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="4">
+        <v>8</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A10" s="4">
+        <v>9</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A11" s="4">
+        <v>10</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="4">
+        <v>11</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="4">
+        <v>12</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A14" s="4">
+        <v>13</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A15" s="4">
+        <v>14</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A16" s="4">
+        <v>15</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="4">
+        <v>16</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A18" s="4">
+        <v>17</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="51" x14ac:dyDescent="0.3">
+      <c r="A19" s="4">
+        <v>18</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="51" x14ac:dyDescent="0.3">
+      <c r="A20" s="4">
+        <v>19</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A21" s="4">
+        <v>20</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A22" s="4">
+        <v>21</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A23" s="4">
+        <v>22</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A24" s="4">
+        <v>23</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A25" s="4">
+        <v>24</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A26" s="4">
+        <v>25</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A27" s="4">
+        <v>26</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A28" s="4">
+        <v>27</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A29" s="4">
+        <v>28</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A30" s="4">
+        <v>29</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A31" s="4">
+        <v>30</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A32" s="4">
+        <v>31</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A33" s="4">
+        <v>32</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A34" s="4">
+        <v>33</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A35" s="4">
+        <v>34</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A36" s="4">
+        <v>35</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>446</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A37" s="4">
+        <v>36</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A38" s="4">
+        <v>37</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A39" s="4">
+        <v>38</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A40" s="4">
+        <v>39</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A41" s="4">
+        <v>40</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>456</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A42" s="4">
+        <v>41</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A43" s="4">
+        <v>42</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>460</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A44" s="4">
+        <v>43</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>462</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A45" s="4">
+        <v>44</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A46" s="4">
+        <v>45</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>466</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A47" s="4">
+        <v>46</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>468</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A48" s="4">
+        <v>47</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>470</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A49" s="4">
+        <v>48</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>472</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A50" s="4">
+        <v>49</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>474</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A51" s="4">
+        <v>50</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>476</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A52" s="4">
+        <v>51</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>478</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A53" s="4">
+        <v>52</v>
+      </c>
+      <c r="B53" s="7" t="s">
+        <v>480</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="140.4" x14ac:dyDescent="0.3">
+      <c r="A54" s="4">
+        <v>53</v>
+      </c>
+      <c r="B54" s="7" t="s">
+        <v>482</v>
+      </c>
+      <c r="C54" s="8" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="78" x14ac:dyDescent="0.3">
+      <c r="A55" s="4">
+        <v>54</v>
+      </c>
+      <c r="B55" s="7" t="s">
+        <v>483</v>
+      </c>
+      <c r="C55" s="8" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A56" s="4">
+        <v>55</v>
+      </c>
+      <c r="B56" s="7" t="s">
+        <v>485</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A57" s="4">
+        <v>56</v>
+      </c>
+      <c r="B57" s="7" t="s">
+        <v>487</v>
+      </c>
+      <c r="C57" s="8" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A58" s="4">
+        <v>57</v>
+      </c>
+      <c r="B58" s="7" t="s">
+        <v>489</v>
+      </c>
+      <c r="C58" s="8" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A59" s="4">
+        <v>58</v>
+      </c>
+      <c r="B59" s="7" t="s">
+        <v>491</v>
+      </c>
+      <c r="C59" s="8" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A60" s="4">
+        <v>59</v>
+      </c>
+      <c r="B60" s="7" t="s">
+        <v>493</v>
+      </c>
+      <c r="C60" s="8" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A61" s="4">
+        <v>60</v>
+      </c>
+      <c r="B61" s="7" t="s">
+        <v>495</v>
+      </c>
+      <c r="C61" s="8" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A62" s="4">
+        <v>61</v>
+      </c>
+      <c r="B62" s="7" t="s">
+        <v>497</v>
+      </c>
+      <c r="C62" s="8" t="s">
+        <v>498</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C62"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17.77734375" customWidth="1"/>
+    <col min="2" max="2" width="27.88671875" customWidth="1"/>
+    <col min="3" max="3" width="21.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A6" s="4">
+        <v>5</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="4">
+        <v>6</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A8" s="4">
+        <v>7</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="4">
+        <v>8</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A10" s="4">
+        <v>9</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A11" s="4">
+        <v>10</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="4">
+        <v>11</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="4">
+        <v>12</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A14" s="4">
+        <v>13</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A15" s="4">
+        <v>14</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A16" s="4">
+        <v>15</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="4">
+        <v>16</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A18" s="4">
+        <v>17</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="51" x14ac:dyDescent="0.3">
+      <c r="A19" s="4">
+        <v>18</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="51" x14ac:dyDescent="0.3">
+      <c r="A20" s="4">
+        <v>19</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A21" s="4">
+        <v>20</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A22" s="4">
+        <v>21</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A23" s="4">
+        <v>22</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A24" s="4">
+        <v>23</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A25" s="4">
+        <v>24</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A26" s="4">
+        <v>25</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A27" s="4">
+        <v>26</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A28" s="4">
+        <v>27</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A29" s="4">
+        <v>28</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A30" s="4">
+        <v>29</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A31" s="4">
+        <v>30</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A32" s="4">
+        <v>31</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A33" s="4">
+        <v>32</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A34" s="4">
+        <v>33</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A35" s="4">
+        <v>34</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A36" s="4">
+        <v>35</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>446</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A37" s="4">
+        <v>36</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A38" s="4">
+        <v>37</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A39" s="4">
+        <v>38</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A40" s="4">
+        <v>39</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A41" s="4">
+        <v>40</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>456</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A42" s="4">
+        <v>41</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A43" s="4">
+        <v>42</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>460</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A44" s="4">
+        <v>43</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>462</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A45" s="4">
+        <v>44</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A46" s="4">
+        <v>45</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>466</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A47" s="4">
+        <v>46</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>468</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A48" s="4">
+        <v>47</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>470</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A49" s="4">
+        <v>48</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>472</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A50" s="4">
+        <v>49</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>474</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A51" s="4">
+        <v>50</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>476</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A52" s="4">
+        <v>51</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>478</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A53" s="4">
+        <v>52</v>
+      </c>
+      <c r="B53" s="7" t="s">
+        <v>480</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="140.4" x14ac:dyDescent="0.3">
+      <c r="A54" s="4">
+        <v>53</v>
+      </c>
+      <c r="B54" s="7" t="s">
+        <v>482</v>
+      </c>
+      <c r="C54" s="8" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="78" x14ac:dyDescent="0.3">
+      <c r="A55" s="4">
+        <v>54</v>
+      </c>
+      <c r="B55" s="7" t="s">
+        <v>483</v>
+      </c>
+      <c r="C55" s="8" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A56" s="4">
+        <v>55</v>
+      </c>
+      <c r="B56" s="7" t="s">
+        <v>485</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A57" s="4">
+        <v>56</v>
+      </c>
+      <c r="B57" s="7" t="s">
+        <v>487</v>
+      </c>
+      <c r="C57" s="8" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A58" s="4">
+        <v>57</v>
+      </c>
+      <c r="B58" s="7" t="s">
+        <v>489</v>
+      </c>
+      <c r="C58" s="8" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A59" s="4">
+        <v>58</v>
+      </c>
+      <c r="B59" s="7" t="s">
+        <v>491</v>
+      </c>
+      <c r="C59" s="8" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A60" s="4">
+        <v>59</v>
+      </c>
+      <c r="B60" s="7" t="s">
+        <v>493</v>
+      </c>
+      <c r="C60" s="8" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A61" s="4">
+        <v>60</v>
+      </c>
+      <c r="B61" s="7" t="s">
+        <v>495</v>
+      </c>
+      <c r="C61" s="8" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A62" s="4">
+        <v>61</v>
+      </c>
+      <c r="B62" s="7" t="s">
+        <v>497</v>
+      </c>
+      <c r="C62" s="8" t="s">
+        <v>498</v>
       </c>
     </row>
   </sheetData>

--- a/1.xlsx
+++ b/1.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="640" uniqueCount="499">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="607">
   <si>
     <t>わたし</t>
   </si>
@@ -1526,6 +1526,330 @@
   </si>
   <si>
     <t>အိုဆာကာရဲတိုက်</t>
+  </si>
+  <si>
+    <t>たべます</t>
+  </si>
+  <si>
+    <t>စားသည်</t>
+  </si>
+  <si>
+    <t>のみます</t>
+  </si>
+  <si>
+    <t>သောက်သည်</t>
+  </si>
+  <si>
+    <t>すいます　「たばこを～」</t>
+  </si>
+  <si>
+    <t>ရူသည်</t>
+  </si>
+  <si>
+    <t>みます</t>
+  </si>
+  <si>
+    <t>ကြည့်သည်၊ မြင်သည်</t>
+  </si>
+  <si>
+    <t>ききます</t>
+  </si>
+  <si>
+    <t>နားထောင်သည်၊ မေးမြန်းသည်</t>
+  </si>
+  <si>
+    <t>よみます</t>
+  </si>
+  <si>
+    <t>ဖတ်သည်</t>
+  </si>
+  <si>
+    <t>かきます</t>
+  </si>
+  <si>
+    <t>ရေးသည်</t>
+  </si>
+  <si>
+    <t>かいます</t>
+  </si>
+  <si>
+    <t>ဝယ်သည်</t>
+  </si>
+  <si>
+    <t>とります　「しゃしんを～」</t>
+  </si>
+  <si>
+    <t>ရိုက်သည်</t>
+  </si>
+  <si>
+    <t>します</t>
+  </si>
+  <si>
+    <t>ပြုလုပ်သည်၊ လုပ်ဆောင်သည်</t>
+  </si>
+  <si>
+    <t>あいます　「ともだちに～」</t>
+  </si>
+  <si>
+    <t>တွေးသည်</t>
+  </si>
+  <si>
+    <t>ごはん</t>
+  </si>
+  <si>
+    <t>ထမင်း</t>
+  </si>
+  <si>
+    <t>あさごはん</t>
+  </si>
+  <si>
+    <t>မနက်စာ</t>
+  </si>
+  <si>
+    <t>ひるごはん</t>
+  </si>
+  <si>
+    <t>နေ့လယ်စာ</t>
+  </si>
+  <si>
+    <t>ばんごはん</t>
+  </si>
+  <si>
+    <t>ညစာ</t>
+  </si>
+  <si>
+    <t>パン</t>
+  </si>
+  <si>
+    <t>ပေါင်မုန့်</t>
+  </si>
+  <si>
+    <t>たまご</t>
+  </si>
+  <si>
+    <t>ဥ၊ ကြက်ဥ</t>
+  </si>
+  <si>
+    <t>にく</t>
+  </si>
+  <si>
+    <t>အသား</t>
+  </si>
+  <si>
+    <t>さかな</t>
+  </si>
+  <si>
+    <t>ငါး</t>
+  </si>
+  <si>
+    <t>やさい</t>
+  </si>
+  <si>
+    <t>ဟင်းသီးဟင်းရွက်</t>
+  </si>
+  <si>
+    <t>くだもの</t>
+  </si>
+  <si>
+    <t>သစ်သီး</t>
+  </si>
+  <si>
+    <t>みず</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ရေ </t>
+  </si>
+  <si>
+    <t>おちゃ</t>
+  </si>
+  <si>
+    <t>လက်ဖက်ရည်ကြမ်း၊ ရေနွေးကြမ်း</t>
+  </si>
+  <si>
+    <t>こうちゃ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">လက်ဖက်ရည် </t>
+  </si>
+  <si>
+    <t>きゅうにゅ（ミルク）</t>
+  </si>
+  <si>
+    <t>နွားနို့</t>
+  </si>
+  <si>
+    <t>ジュース</t>
+  </si>
+  <si>
+    <t>ဖျော်ဖည်</t>
+  </si>
+  <si>
+    <t>ビール</t>
+  </si>
+  <si>
+    <t>ဘီယာ</t>
+  </si>
+  <si>
+    <t>「お」さけ</t>
+  </si>
+  <si>
+    <t>အရက်</t>
+  </si>
+  <si>
+    <t>たばこ</t>
+  </si>
+  <si>
+    <t>ဆေးလိပ်</t>
+  </si>
+  <si>
+    <t>てがみ</t>
+  </si>
+  <si>
+    <t>စာ</t>
+  </si>
+  <si>
+    <t>レポート</t>
+  </si>
+  <si>
+    <t>အစီအရင်ခံစာ၊ ရီပို့</t>
+  </si>
+  <si>
+    <t>しゃしん</t>
+  </si>
+  <si>
+    <t>ဓာတ်ပုံ</t>
+  </si>
+  <si>
+    <t>ビデオ</t>
+  </si>
+  <si>
+    <t>ဗွီဒီယိုတိပ်၊ ဗွီဒီယိုစက်</t>
+  </si>
+  <si>
+    <t>みせ</t>
+  </si>
+  <si>
+    <t>ဆိုင်</t>
+  </si>
+  <si>
+    <t>にわ</t>
+  </si>
+  <si>
+    <t>ခြံ၊ ခြံ၀န်း</t>
+  </si>
+  <si>
+    <t>しゅくだいい</t>
+  </si>
+  <si>
+    <t>အိမ်စာ</t>
+  </si>
+  <si>
+    <t>テニス</t>
+  </si>
+  <si>
+    <t>တင်းနစ်</t>
+  </si>
+  <si>
+    <t>サッカー</t>
+  </si>
+  <si>
+    <t>ဘောလုံး</t>
+  </si>
+  <si>
+    <t>「お」はなみ</t>
+  </si>
+  <si>
+    <t>ပန်းကြည့်ခြင်း</t>
+  </si>
+  <si>
+    <t>なに</t>
+  </si>
+  <si>
+    <t>ဘာ၊ ဘာလဲ</t>
+  </si>
+  <si>
+    <t>いつしょに</t>
+  </si>
+  <si>
+    <t>အတူတူ၊ အတူတကွ</t>
+  </si>
+  <si>
+    <t>ちょっと</t>
+  </si>
+  <si>
+    <t>ခဏ၊ နည်းနည်း</t>
+  </si>
+  <si>
+    <t>いつも</t>
+  </si>
+  <si>
+    <t>အမြဲတမ်း</t>
+  </si>
+  <si>
+    <t>ときどさ</t>
+  </si>
+  <si>
+    <t>တစ်ခါတစ်ရံ</t>
+  </si>
+  <si>
+    <t>それから</t>
+  </si>
+  <si>
+    <t>အဲဒီနောက်၊ ထို့နောက်</t>
+  </si>
+  <si>
+    <t>ええ</t>
+  </si>
+  <si>
+    <t>အင်း၊ အေး</t>
+  </si>
+  <si>
+    <t>いいですね</t>
+  </si>
+  <si>
+    <t>ကောင်းတယ်နော်၊ ကောင်းတာပေါ့</t>
+  </si>
+  <si>
+    <t>わかりました</t>
+  </si>
+  <si>
+    <t>ကောင်းပါပြီ၊ နားလည်ပါပြီ</t>
+  </si>
+  <si>
+    <t>なんですか</t>
+  </si>
+  <si>
+    <t>ဘာပါလဲ</t>
+  </si>
+  <si>
+    <t>じゃ、また「あした」</t>
+  </si>
+  <si>
+    <t>ဒါဖြင့်၊ မနက်ဖြန် တွေ့ကြမယ်</t>
+  </si>
+  <si>
+    <t>メキシコ</t>
+  </si>
+  <si>
+    <t>မက္ကဆီကို</t>
+  </si>
+  <si>
+    <t>おおさか　デパート</t>
+  </si>
+  <si>
+    <t>ကုန်တိုက်အမည်</t>
+  </si>
+  <si>
+    <t>つるや</t>
+  </si>
+  <si>
+    <t>フランスや</t>
+  </si>
+  <si>
+    <t>စူပါမားကတ်အမည်</t>
+  </si>
+  <si>
+    <t>まいにちや</t>
   </si>
 </sst>
 </file>
@@ -4162,8 +4486,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C62"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+    <sheetView topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4181,7 +4505,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -4192,7 +4516,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -4203,7 +4527,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -4214,7 +4538,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -4225,7 +4549,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -4247,7 +4571,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -4269,7 +4593,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -4280,7 +4604,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -4291,7 +4615,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -4313,7 +4637,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>13</v>
       </c>
@@ -4324,7 +4648,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>14</v>
       </c>
@@ -4335,7 +4659,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>15</v>
       </c>
@@ -4357,7 +4681,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>17</v>
       </c>
@@ -4368,7 +4692,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="51" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>18</v>
       </c>
@@ -4379,7 +4703,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="51" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <v>19</v>
       </c>
@@ -4390,7 +4714,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
         <v>20</v>
       </c>
@@ -4401,7 +4725,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>21</v>
       </c>
@@ -4412,7 +4736,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
         <v>22</v>
       </c>
@@ -4423,7 +4747,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <v>23</v>
       </c>
@@ -4434,7 +4758,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
         <v>24</v>
       </c>
@@ -4445,7 +4769,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
         <v>25</v>
       </c>
@@ -4456,7 +4780,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
         <v>26</v>
       </c>
@@ -4467,7 +4791,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
         <v>27</v>
       </c>
@@ -4478,7 +4802,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
         <v>28</v>
       </c>
@@ -4489,7 +4813,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
         <v>29</v>
       </c>
@@ -4500,7 +4824,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
         <v>30</v>
       </c>
@@ -4511,7 +4835,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
         <v>31</v>
       </c>
@@ -4522,7 +4846,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
         <v>32</v>
       </c>
@@ -4533,7 +4857,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A34" s="4">
         <v>33</v>
       </c>
@@ -4544,7 +4868,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A35" s="4">
         <v>34</v>
       </c>
@@ -4555,7 +4879,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A36" s="4">
         <v>35</v>
       </c>
@@ -4566,7 +4890,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37" s="4">
         <v>36</v>
       </c>
@@ -4577,7 +4901,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A38" s="4">
         <v>37</v>
       </c>
@@ -4588,7 +4912,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A39" s="4">
         <v>38</v>
       </c>
@@ -4599,7 +4923,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A40" s="4">
         <v>39</v>
       </c>
@@ -4610,7 +4934,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A41" s="4">
         <v>40</v>
       </c>
@@ -4621,7 +4945,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A42" s="4">
         <v>41</v>
       </c>
@@ -4632,7 +4956,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A43" s="4">
         <v>42</v>
       </c>
@@ -4643,7 +4967,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A44" s="4">
         <v>43</v>
       </c>
@@ -4654,7 +4978,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A45" s="4">
         <v>44</v>
       </c>
@@ -4665,7 +4989,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A46" s="4">
         <v>45</v>
       </c>
@@ -4676,7 +5000,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A47" s="4">
         <v>46</v>
       </c>
@@ -4687,7 +5011,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A48" s="4">
         <v>47</v>
       </c>
@@ -4698,7 +5022,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A49" s="4">
         <v>48</v>
       </c>
@@ -4709,7 +5033,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A50" s="4">
         <v>49</v>
       </c>
@@ -4720,7 +5044,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A51" s="4">
         <v>50</v>
       </c>
@@ -4731,7 +5055,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A52" s="4">
         <v>51</v>
       </c>
@@ -4742,7 +5066,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A53" s="4">
         <v>52</v>
       </c>
@@ -4753,7 +5077,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="140.4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A54" s="4">
         <v>53</v>
       </c>
@@ -4764,7 +5088,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="78" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A55" s="4">
         <v>54</v>
       </c>
@@ -4775,7 +5099,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A56" s="4">
         <v>55</v>
       </c>
@@ -4786,7 +5110,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A57" s="4">
         <v>56</v>
       </c>
@@ -4797,7 +5121,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A58" s="4">
         <v>57</v>
       </c>
@@ -4808,7 +5132,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A59" s="4">
         <v>58</v>
       </c>
@@ -4819,7 +5143,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A60" s="4">
         <v>59</v>
       </c>
@@ -4830,7 +5154,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A61" s="4">
         <v>60</v>
       </c>
@@ -4841,7 +5165,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A62" s="4">
         <v>61</v>
       </c>
@@ -4861,8 +5185,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C1"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="G50" sqref="G50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4880,59 +5204,59 @@
         <v>165</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>378</v>
+        <v>499</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>380</v>
+        <v>501</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="46.8" x14ac:dyDescent="0.3">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>382</v>
+        <v>503</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>384</v>
+        <v>505</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>5</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>386</v>
+        <v>507</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>387</v>
+        <v>508</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -4940,21 +5264,21 @@
         <v>6</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>388</v>
+        <v>509</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>7</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>390</v>
+        <v>511</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>391</v>
+        <v>512</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -4962,10 +5286,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>392</v>
+        <v>513</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>393</v>
+        <v>514</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
@@ -4973,32 +5297,32 @@
         <v>9</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>394</v>
+        <v>515</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>10</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>396</v>
+        <v>517</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="46.8" x14ac:dyDescent="0.3">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>11</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>398</v>
+        <v>519</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>399</v>
+        <v>520</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -5006,43 +5330,43 @@
         <v>12</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>400</v>
+        <v>521</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>13</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>402</v>
+        <v>523</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="46.8" x14ac:dyDescent="0.3">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>14</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>404</v>
+        <v>525</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>15</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>406</v>
+        <v>527</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>407</v>
+        <v>528</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -5050,506 +5374,470 @@
         <v>16</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>408</v>
+        <v>529</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>17</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>410</v>
+        <v>531</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="51" x14ac:dyDescent="0.3">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>18</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>412</v>
+        <v>533</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="51" x14ac:dyDescent="0.3">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <v>19</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>414</v>
+        <v>535</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
         <v>20</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>416</v>
+        <v>537</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>21</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>418</v>
+        <v>539</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="46.8" x14ac:dyDescent="0.3">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
         <v>22</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>420</v>
+        <v>541</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="46.8" x14ac:dyDescent="0.3">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <v>23</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>422</v>
+        <v>543</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="46.8" x14ac:dyDescent="0.3">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
         <v>24</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>424</v>
+        <v>545</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
         <v>25</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>426</v>
+        <v>547</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
         <v>26</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>428</v>
+        <v>549</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
         <v>27</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>430</v>
+        <v>551</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
         <v>28</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>432</v>
+        <v>553</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
         <v>29</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>434</v>
+        <v>555</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
         <v>30</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>436</v>
+        <v>557</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
         <v>31</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>438</v>
+        <v>559</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
         <v>32</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>440</v>
+        <v>561</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A34" s="4">
         <v>33</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>442</v>
+        <v>563</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A35" s="4">
         <v>34</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>444</v>
+        <v>565</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A36" s="4">
         <v>35</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>446</v>
+        <v>567</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37" s="4">
         <v>36</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>448</v>
+        <v>569</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A38" s="4">
         <v>37</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>450</v>
+        <v>571</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A39" s="4">
         <v>38</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>452</v>
+        <v>573</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A40" s="4">
         <v>39</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>454</v>
+        <v>575</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A41" s="4">
         <v>40</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>456</v>
+        <v>577</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A42" s="4">
         <v>41</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>458</v>
+        <v>579</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A43" s="4">
         <v>42</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>460</v>
+        <v>581</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A44" s="4">
         <v>43</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>462</v>
+        <v>583</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A45" s="4">
         <v>44</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>464</v>
+        <v>585</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="46.8" x14ac:dyDescent="0.3">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A46" s="4">
         <v>45</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>466</v>
+        <v>587</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A47" s="4">
         <v>46</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>468</v>
+        <v>589</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="62.4" x14ac:dyDescent="0.3">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A48" s="4">
         <v>47</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>470</v>
+        <v>591</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A49" s="4">
         <v>48</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>472</v>
+        <v>593</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A50" s="4">
         <v>49</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>474</v>
+        <v>595</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A51" s="4">
         <v>50</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>476</v>
+        <v>597</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" ht="46.8" x14ac:dyDescent="0.3">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A52" s="4">
         <v>51</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>478</v>
+        <v>599</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="46.8" x14ac:dyDescent="0.3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A53" s="4">
         <v>52</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>480</v>
+        <v>601</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" ht="140.4" x14ac:dyDescent="0.3">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A54" s="4">
         <v>53</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>482</v>
+        <v>603</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" ht="78" x14ac:dyDescent="0.3">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A55" s="4">
         <v>54</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>483</v>
+        <v>604</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" ht="46.8" x14ac:dyDescent="0.3">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A56" s="4">
         <v>55</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>485</v>
+        <v>606</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A57" s="4">
-        <v>56</v>
-      </c>
-      <c r="B57" s="7" t="s">
-        <v>487</v>
-      </c>
-      <c r="C57" s="8" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A58" s="4">
-        <v>57</v>
-      </c>
-      <c r="B58" s="7" t="s">
-        <v>489</v>
-      </c>
-      <c r="C58" s="8" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A59" s="4">
-        <v>58</v>
-      </c>
-      <c r="B59" s="7" t="s">
-        <v>491</v>
-      </c>
-      <c r="C59" s="8" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A60" s="4">
-        <v>59</v>
-      </c>
-      <c r="B60" s="7" t="s">
-        <v>493</v>
-      </c>
-      <c r="C60" s="8" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A61" s="4">
-        <v>60</v>
-      </c>
-      <c r="B61" s="7" t="s">
-        <v>495</v>
-      </c>
-      <c r="C61" s="8" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A62" s="4">
-        <v>61</v>
-      </c>
-      <c r="B62" s="7" t="s">
-        <v>497</v>
-      </c>
-      <c r="C62" s="8" t="s">
-        <v>498</v>
-      </c>
+        <v>605</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A57" s="4"/>
+      <c r="B57" s="7"/>
+      <c r="C57" s="8"/>
+    </row>
+    <row r="58" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A58" s="4"/>
+      <c r="B58" s="7"/>
+      <c r="C58" s="8"/>
+    </row>
+    <row r="59" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A59" s="4"/>
+      <c r="B59" s="7"/>
+      <c r="C59" s="8"/>
+    </row>
+    <row r="60" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A60" s="4"/>
+      <c r="B60" s="7"/>
+      <c r="C60" s="8"/>
+    </row>
+    <row r="61" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A61" s="4"/>
+      <c r="B61" s="7"/>
+      <c r="C61" s="8"/>
+    </row>
+    <row r="62" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A62" s="4"/>
+      <c r="B62" s="7"/>
+      <c r="C62" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/1.xlsx
+++ b/1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
   </bookViews>
   <sheets>
     <sheet name="Data1" sheetId="5" r:id="rId1"/>
@@ -199,9 +199,6 @@
     <t>イギリス</t>
   </si>
   <si>
-    <t>အင်္ဂလိပ်</t>
-  </si>
-  <si>
     <t>インド</t>
   </si>
   <si>
@@ -1850,6 +1847,9 @@
   </si>
   <si>
     <t>まいにちや</t>
+  </si>
+  <si>
+    <t>အင်္ဂလန်</t>
   </si>
 </sst>
 </file>
@@ -2256,8 +2256,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2269,10 +2269,10 @@
     <row r="1" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="12"/>
       <c r="B1" s="13" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -2591,7 +2591,7 @@
         <v>55</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>56</v>
+        <v>606</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -2599,10 +2599,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C31" s="6" t="s">
         <v>57</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -2610,10 +2610,10 @@
         <v>31</v>
       </c>
       <c r="B32" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C32" s="6" t="s">
         <v>59</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -2621,10 +2621,10 @@
         <v>32</v>
       </c>
       <c r="B33" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C33" s="6" t="s">
         <v>61</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -2632,10 +2632,10 @@
         <v>33</v>
       </c>
       <c r="B34" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C34" s="6" t="s">
         <v>63</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -2643,10 +2643,10 @@
         <v>34</v>
       </c>
       <c r="B35" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C35" s="6" t="s">
         <v>65</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -2654,10 +2654,10 @@
         <v>35</v>
       </c>
       <c r="B36" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C36" s="6" t="s">
         <v>67</v>
-      </c>
-      <c r="C36" s="6" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -2665,10 +2665,10 @@
         <v>36</v>
       </c>
       <c r="B37" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C37" s="6" t="s">
         <v>69</v>
-      </c>
-      <c r="C37" s="6" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -2676,10 +2676,10 @@
         <v>37</v>
       </c>
       <c r="B38" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C38" s="6" t="s">
         <v>71</v>
-      </c>
-      <c r="C38" s="6" t="s">
-        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -2703,10 +2703,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -2714,10 +2714,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2" s="11" t="s">
         <v>73</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -2725,10 +2725,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="C3" s="11" t="s">
         <v>75</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -2736,10 +2736,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="C4" s="11" t="s">
         <v>77</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -2747,10 +2747,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="C5" s="11" t="s">
         <v>79</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -2758,10 +2758,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="C6" s="11" t="s">
         <v>81</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -2769,10 +2769,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="C7" s="11" t="s">
         <v>83</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -2780,10 +2780,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="C8" s="11" t="s">
         <v>85</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -2791,10 +2791,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="C9" s="11" t="s">
         <v>87</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -2802,10 +2802,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="C10" s="11" t="s">
         <v>89</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -2813,10 +2813,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="C11" s="11" t="s">
         <v>91</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -2824,10 +2824,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="C12" s="11" t="s">
         <v>93</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -2835,10 +2835,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="C13" s="11" t="s">
         <v>95</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -2846,10 +2846,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="C14" s="11" t="s">
         <v>97</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -2857,10 +2857,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="C15" s="11" t="s">
         <v>99</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -2868,10 +2868,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="C16" s="11" t="s">
         <v>101</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -2879,10 +2879,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="C17" s="11" t="s">
         <v>103</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -2890,10 +2890,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="C18" s="11" t="s">
         <v>105</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -2901,10 +2901,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="C19" s="11" t="s">
         <v>107</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -2912,10 +2912,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="C20" s="11" t="s">
         <v>109</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -2923,10 +2923,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="C21" s="11" t="s">
         <v>111</v>
-      </c>
-      <c r="C21" s="11" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -2934,10 +2934,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="C22" s="11" t="s">
         <v>113</v>
-      </c>
-      <c r="C22" s="11" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -2945,10 +2945,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="C23" s="11" t="s">
         <v>115</v>
-      </c>
-      <c r="C23" s="11" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -2956,10 +2956,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="C24" s="11" t="s">
         <v>117</v>
-      </c>
-      <c r="C24" s="11" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -2967,10 +2967,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="C25" s="11" t="s">
         <v>119</v>
-      </c>
-      <c r="C25" s="11" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -2978,10 +2978,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="C26" s="11" t="s">
         <v>121</v>
-      </c>
-      <c r="C26" s="11" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -2989,10 +2989,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="C27" s="11" t="s">
         <v>123</v>
-      </c>
-      <c r="C27" s="11" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -3000,10 +3000,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="C28" s="11" t="s">
         <v>125</v>
-      </c>
-      <c r="C28" s="11" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -3011,10 +3011,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="C29" s="11" t="s">
         <v>127</v>
-      </c>
-      <c r="C29" s="11" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -3022,10 +3022,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="C30" s="11" t="s">
         <v>129</v>
-      </c>
-      <c r="C30" s="11" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -3033,10 +3033,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="C31" s="11" t="s">
         <v>131</v>
-      </c>
-      <c r="C31" s="11" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -3044,10 +3044,10 @@
         <v>31</v>
       </c>
       <c r="B32" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="C32" s="11" t="s">
         <v>133</v>
-      </c>
-      <c r="C32" s="11" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -3055,10 +3055,10 @@
         <v>32</v>
       </c>
       <c r="B33" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="C33" s="11" t="s">
         <v>135</v>
-      </c>
-      <c r="C33" s="11" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -3066,10 +3066,10 @@
         <v>33</v>
       </c>
       <c r="B34" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="C34" s="11" t="s">
         <v>137</v>
-      </c>
-      <c r="C34" s="11" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -3077,10 +3077,10 @@
         <v>34</v>
       </c>
       <c r="B35" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="C35" s="11" t="s">
         <v>139</v>
-      </c>
-      <c r="C35" s="11" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -3088,10 +3088,10 @@
         <v>35</v>
       </c>
       <c r="B36" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="C36" s="11" t="s">
         <v>141</v>
-      </c>
-      <c r="C36" s="11" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -3099,10 +3099,10 @@
         <v>36</v>
       </c>
       <c r="B37" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="C37" s="11" t="s">
         <v>143</v>
-      </c>
-      <c r="C37" s="11" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -3110,10 +3110,10 @@
         <v>37</v>
       </c>
       <c r="B38" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="C38" s="11" t="s">
         <v>145</v>
-      </c>
-      <c r="C38" s="11" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -3121,10 +3121,10 @@
         <v>38</v>
       </c>
       <c r="B39" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="C39" s="11" t="s">
         <v>147</v>
-      </c>
-      <c r="C39" s="11" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -3132,10 +3132,10 @@
         <v>39</v>
       </c>
       <c r="B40" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="C40" s="11" t="s">
         <v>149</v>
-      </c>
-      <c r="C40" s="11" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -3143,10 +3143,10 @@
         <v>40</v>
       </c>
       <c r="B41" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="C41" s="11" t="s">
         <v>151</v>
-      </c>
-      <c r="C41" s="11" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
@@ -3154,10 +3154,10 @@
         <v>41</v>
       </c>
       <c r="B42" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="C42" s="11" t="s">
         <v>153</v>
-      </c>
-      <c r="C42" s="11" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -3165,10 +3165,10 @@
         <v>42</v>
       </c>
       <c r="B43" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="C43" s="11" t="s">
         <v>155</v>
-      </c>
-      <c r="C43" s="11" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -3176,10 +3176,10 @@
         <v>43</v>
       </c>
       <c r="B44" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="C44" s="11" t="s">
         <v>157</v>
-      </c>
-      <c r="C44" s="11" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -3187,10 +3187,10 @@
         <v>44</v>
       </c>
       <c r="B45" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="C45" s="11" t="s">
         <v>159</v>
-      </c>
-      <c r="C45" s="11" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
@@ -3198,10 +3198,10 @@
         <v>45</v>
       </c>
       <c r="B46" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="C46" s="11" t="s">
         <v>161</v>
-      </c>
-      <c r="C46" s="11" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="46.8" x14ac:dyDescent="0.3">
@@ -3209,10 +3209,10 @@
         <v>46</v>
       </c>
       <c r="B47" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="C47" s="11" t="s">
         <v>163</v>
-      </c>
-      <c r="C47" s="11" t="s">
-        <v>164</v>
       </c>
     </row>
   </sheetData>
@@ -3237,10 +3237,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -3248,10 +3248,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -3259,10 +3259,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -3270,10 +3270,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -3281,10 +3281,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="C5" s="8" t="s">
         <v>169</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -3292,10 +3292,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="C6" s="8" t="s">
         <v>171</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -3303,10 +3303,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="C7" s="8" t="s">
         <v>173</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -3314,10 +3314,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="C8" s="8" t="s">
         <v>175</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -3325,10 +3325,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -3336,10 +3336,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="C10" s="8" t="s">
         <v>178</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -3347,10 +3347,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="C11" s="8" t="s">
         <v>180</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -3358,10 +3358,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="C12" s="8" t="s">
         <v>182</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -3369,10 +3369,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="C13" s="8" t="s">
         <v>184</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -3380,10 +3380,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="C14" s="8" t="s">
         <v>186</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -3391,10 +3391,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="C15" s="8" t="s">
         <v>188</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -3402,10 +3402,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="C16" s="8" t="s">
         <v>190</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -3413,10 +3413,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="C17" s="8" t="s">
         <v>192</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -3424,10 +3424,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="C18" s="8" t="s">
         <v>194</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -3435,10 +3435,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="C19" s="8" t="s">
         <v>196</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -3446,10 +3446,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="C20" s="8" t="s">
         <v>198</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -3457,10 +3457,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="C21" s="8" t="s">
         <v>200</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -3468,10 +3468,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="C22" s="8" t="s">
         <v>202</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -3479,10 +3479,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="C23" s="8" t="s">
         <v>204</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -3490,10 +3490,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="C24" s="8" t="s">
         <v>206</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -3501,10 +3501,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="C25" s="8" t="s">
         <v>208</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -3512,10 +3512,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="C26" s="8" t="s">
         <v>210</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -3523,10 +3523,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="C27" s="8" t="s">
         <v>212</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -3534,10 +3534,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="C28" s="8" t="s">
         <v>214</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -3545,10 +3545,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="C29" s="8" t="s">
         <v>216</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -3556,10 +3556,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="C30" s="8" t="s">
         <v>218</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -3567,10 +3567,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="C31" s="8" t="s">
         <v>220</v>
-      </c>
-      <c r="C31" s="8" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -3578,10 +3578,10 @@
         <v>31</v>
       </c>
       <c r="B32" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="C32" s="8" t="s">
         <v>222</v>
-      </c>
-      <c r="C32" s="8" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -3589,10 +3589,10 @@
         <v>32</v>
       </c>
       <c r="B33" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="C33" s="8" t="s">
         <v>224</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -3600,10 +3600,10 @@
         <v>33</v>
       </c>
       <c r="B34" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="C34" s="8" t="s">
         <v>226</v>
-      </c>
-      <c r="C34" s="8" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -3611,10 +3611,10 @@
         <v>34</v>
       </c>
       <c r="B35" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="C35" s="8" t="s">
         <v>228</v>
-      </c>
-      <c r="C35" s="8" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -3622,10 +3622,10 @@
         <v>35</v>
       </c>
       <c r="B36" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="C36" s="8" t="s">
         <v>230</v>
-      </c>
-      <c r="C36" s="8" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -3633,10 +3633,10 @@
         <v>36</v>
       </c>
       <c r="B37" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="C37" s="8" t="s">
         <v>232</v>
-      </c>
-      <c r="C37" s="8" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -3644,10 +3644,10 @@
         <v>37</v>
       </c>
       <c r="B38" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="C38" s="8" t="s">
         <v>234</v>
-      </c>
-      <c r="C38" s="8" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -3655,10 +3655,10 @@
         <v>38</v>
       </c>
       <c r="B39" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="C39" s="8" t="s">
         <v>236</v>
-      </c>
-      <c r="C39" s="8" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -3666,10 +3666,10 @@
         <v>39</v>
       </c>
       <c r="B40" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="C40" s="8" t="s">
         <v>238</v>
-      </c>
-      <c r="C40" s="8" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -3677,10 +3677,10 @@
         <v>40</v>
       </c>
       <c r="B41" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="C41" s="8" t="s">
         <v>240</v>
-      </c>
-      <c r="C41" s="8" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -3688,10 +3688,10 @@
         <v>41</v>
       </c>
       <c r="B42" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="C42" s="8" t="s">
         <v>242</v>
-      </c>
-      <c r="C42" s="8" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -3699,10 +3699,10 @@
         <v>42</v>
       </c>
       <c r="B43" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="C43" s="8" t="s">
         <v>244</v>
-      </c>
-      <c r="C43" s="8" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -3710,10 +3710,10 @@
         <v>43</v>
       </c>
       <c r="B44" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="C44" s="8" t="s">
         <v>246</v>
-      </c>
-      <c r="C44" s="8" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -3721,10 +3721,10 @@
         <v>44</v>
       </c>
       <c r="B45" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="C45" s="8" t="s">
         <v>248</v>
-      </c>
-      <c r="C45" s="8" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -3732,10 +3732,10 @@
         <v>45</v>
       </c>
       <c r="B46" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="C46" s="8" t="s">
         <v>250</v>
-      </c>
-      <c r="C46" s="8" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -3743,10 +3743,10 @@
         <v>46</v>
       </c>
       <c r="B47" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="C47" s="8" t="s">
         <v>252</v>
-      </c>
-      <c r="C47" s="8" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -3754,10 +3754,10 @@
         <v>47</v>
       </c>
       <c r="B48" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="C48" s="8" t="s">
         <v>254</v>
-      </c>
-      <c r="C48" s="8" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
@@ -3765,10 +3765,10 @@
         <v>48</v>
       </c>
       <c r="B49" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="C49" s="8" t="s">
         <v>256</v>
-      </c>
-      <c r="C49" s="8" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
@@ -3776,10 +3776,10 @@
         <v>49</v>
       </c>
       <c r="B50" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="C50" s="8" t="s">
         <v>258</v>
-      </c>
-      <c r="C50" s="8" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
@@ -3811,10 +3811,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -3822,10 +3822,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>260</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -3833,10 +3833,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>262</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -3844,10 +3844,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="C4" s="8" t="s">
         <v>264</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -3855,10 +3855,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="C5" s="8" t="s">
         <v>266</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -3866,10 +3866,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="C6" s="8" t="s">
         <v>268</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -3877,10 +3877,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="C7" s="8" t="s">
         <v>270</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -3888,10 +3888,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="C8" s="8" t="s">
         <v>272</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -3899,10 +3899,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="C9" s="8" t="s">
         <v>274</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -3910,10 +3910,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="C10" s="8" t="s">
         <v>276</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -3921,10 +3921,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="C11" s="8" t="s">
         <v>278</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -3932,10 +3932,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="C12" s="8" t="s">
         <v>280</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -3943,10 +3943,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="C13" s="8" t="s">
         <v>282</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -3954,10 +3954,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="C14" s="8" t="s">
         <v>284</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -3965,10 +3965,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="C15" s="8" t="s">
         <v>286</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -3976,10 +3976,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="C16" s="8" t="s">
         <v>288</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -3987,10 +3987,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="C17" s="8" t="s">
         <v>290</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -3998,10 +3998,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="C18" s="8" t="s">
         <v>292</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -4009,10 +4009,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="C19" s="8" t="s">
         <v>294</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -4020,10 +4020,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="C20" s="8" t="s">
         <v>296</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -4031,10 +4031,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="C21" s="8" t="s">
         <v>298</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -4042,10 +4042,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="C22" s="8" t="s">
         <v>300</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -4053,10 +4053,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="C23" s="8" t="s">
         <v>302</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -4064,10 +4064,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="C24" s="8" t="s">
         <v>304</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -4075,10 +4075,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="C25" s="8" t="s">
         <v>306</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -4086,10 +4086,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="C26" s="8" t="s">
         <v>308</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -4097,10 +4097,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="C27" s="8" t="s">
         <v>310</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -4108,10 +4108,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="C28" s="8" t="s">
         <v>312</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -4119,10 +4119,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="C29" s="8" t="s">
         <v>314</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -4130,10 +4130,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="C30" s="8" t="s">
         <v>316</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -4141,10 +4141,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="C31" s="8" t="s">
         <v>318</v>
-      </c>
-      <c r="C31" s="8" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -4152,10 +4152,10 @@
         <v>31</v>
       </c>
       <c r="B32" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="C32" s="8" t="s">
         <v>320</v>
-      </c>
-      <c r="C32" s="8" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -4163,10 +4163,10 @@
         <v>32</v>
       </c>
       <c r="B33" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="C33" s="8" t="s">
         <v>322</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>323</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -4174,10 +4174,10 @@
         <v>33</v>
       </c>
       <c r="B34" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="C34" s="8" t="s">
         <v>324</v>
-      </c>
-      <c r="C34" s="8" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -4185,10 +4185,10 @@
         <v>34</v>
       </c>
       <c r="B35" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="C35" s="8" t="s">
         <v>326</v>
-      </c>
-      <c r="C35" s="8" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -4196,10 +4196,10 @@
         <v>35</v>
       </c>
       <c r="B36" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="C36" s="8" t="s">
         <v>328</v>
-      </c>
-      <c r="C36" s="8" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -4207,10 +4207,10 @@
         <v>36</v>
       </c>
       <c r="B37" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="C37" s="8" t="s">
         <v>330</v>
-      </c>
-      <c r="C37" s="8" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -4218,10 +4218,10 @@
         <v>37</v>
       </c>
       <c r="B38" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="C38" s="8" t="s">
         <v>332</v>
-      </c>
-      <c r="C38" s="8" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -4229,10 +4229,10 @@
         <v>38</v>
       </c>
       <c r="B39" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="C39" s="8" t="s">
         <v>334</v>
-      </c>
-      <c r="C39" s="8" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -4240,10 +4240,10 @@
         <v>39</v>
       </c>
       <c r="B40" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="C40" s="8" t="s">
         <v>336</v>
-      </c>
-      <c r="C40" s="8" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -4251,10 +4251,10 @@
         <v>40</v>
       </c>
       <c r="B41" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="C41" s="8" t="s">
         <v>338</v>
-      </c>
-      <c r="C41" s="8" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -4262,10 +4262,10 @@
         <v>41</v>
       </c>
       <c r="B42" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="C42" s="8" t="s">
         <v>340</v>
-      </c>
-      <c r="C42" s="8" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -4273,10 +4273,10 @@
         <v>42</v>
       </c>
       <c r="B43" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="C43" s="8" t="s">
         <v>342</v>
-      </c>
-      <c r="C43" s="8" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -4284,10 +4284,10 @@
         <v>43</v>
       </c>
       <c r="B44" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="C44" s="8" t="s">
         <v>344</v>
-      </c>
-      <c r="C44" s="8" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -4295,10 +4295,10 @@
         <v>44</v>
       </c>
       <c r="B45" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="C45" s="8" t="s">
         <v>346</v>
-      </c>
-      <c r="C45" s="8" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -4306,10 +4306,10 @@
         <v>45</v>
       </c>
       <c r="B46" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="C46" s="8" t="s">
         <v>348</v>
-      </c>
-      <c r="C46" s="8" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -4317,10 +4317,10 @@
         <v>46</v>
       </c>
       <c r="B47" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="C47" s="8" t="s">
         <v>350</v>
-      </c>
-      <c r="C47" s="8" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -4328,10 +4328,10 @@
         <v>47</v>
       </c>
       <c r="B48" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="C48" s="8" t="s">
         <v>352</v>
-      </c>
-      <c r="C48" s="8" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -4339,10 +4339,10 @@
         <v>48</v>
       </c>
       <c r="B49" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="C49" s="8" t="s">
         <v>354</v>
-      </c>
-      <c r="C49" s="8" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -4350,10 +4350,10 @@
         <v>49</v>
       </c>
       <c r="B50" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="C50" s="8" t="s">
         <v>356</v>
-      </c>
-      <c r="C50" s="8" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -4361,10 +4361,10 @@
         <v>50</v>
       </c>
       <c r="B51" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="C51" s="8" t="s">
         <v>358</v>
-      </c>
-      <c r="C51" s="8" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -4372,10 +4372,10 @@
         <v>51</v>
       </c>
       <c r="B52" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="C52" s="8" t="s">
         <v>360</v>
-      </c>
-      <c r="C52" s="8" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -4383,10 +4383,10 @@
         <v>52</v>
       </c>
       <c r="B53" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="C53" s="8" t="s">
         <v>173</v>
-      </c>
-      <c r="C53" s="8" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -4394,10 +4394,10 @@
         <v>53</v>
       </c>
       <c r="B54" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="C54" s="8" t="s">
         <v>362</v>
-      </c>
-      <c r="C54" s="8" t="s">
-        <v>363</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -4405,10 +4405,10 @@
         <v>54</v>
       </c>
       <c r="B55" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="C55" s="8" t="s">
         <v>364</v>
-      </c>
-      <c r="C55" s="8" t="s">
-        <v>365</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -4416,10 +4416,10 @@
         <v>55</v>
       </c>
       <c r="B56" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="C56" s="8" t="s">
         <v>366</v>
-      </c>
-      <c r="C56" s="8" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -4427,10 +4427,10 @@
         <v>56</v>
       </c>
       <c r="B57" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="C57" s="8" t="s">
         <v>368</v>
-      </c>
-      <c r="C57" s="8" t="s">
-        <v>369</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -4438,10 +4438,10 @@
         <v>57</v>
       </c>
       <c r="B58" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="C58" s="8" t="s">
         <v>370</v>
-      </c>
-      <c r="C58" s="8" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -4449,10 +4449,10 @@
         <v>58</v>
       </c>
       <c r="B59" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="C59" s="8" t="s">
         <v>372</v>
-      </c>
-      <c r="C59" s="8" t="s">
-        <v>373</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -4460,10 +4460,10 @@
         <v>59</v>
       </c>
       <c r="B60" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="C60" s="8" t="s">
         <v>374</v>
-      </c>
-      <c r="C60" s="8" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
@@ -4471,10 +4471,10 @@
         <v>60</v>
       </c>
       <c r="B61" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="C61" s="8" t="s">
         <v>376</v>
-      </c>
-      <c r="C61" s="8" t="s">
-        <v>377</v>
       </c>
     </row>
   </sheetData>
@@ -4499,10 +4499,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -4510,10 +4510,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>378</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -4521,10 +4521,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>380</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>381</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -4532,10 +4532,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="C4" s="8" t="s">
         <v>382</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>383</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -4543,10 +4543,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="C5" s="8" t="s">
         <v>384</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>385</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -4554,10 +4554,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="C6" s="8" t="s">
         <v>386</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>387</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -4565,10 +4565,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="C7" s="8" t="s">
         <v>388</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>389</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -4576,10 +4576,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="C8" s="8" t="s">
         <v>390</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>391</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -4587,10 +4587,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="C9" s="8" t="s">
         <v>392</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>393</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -4598,10 +4598,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="C10" s="8" t="s">
         <v>394</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>395</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -4609,10 +4609,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="C11" s="8" t="s">
         <v>396</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>397</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -4620,10 +4620,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="C12" s="8" t="s">
         <v>398</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>399</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -4631,10 +4631,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="C13" s="8" t="s">
         <v>400</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>401</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -4642,10 +4642,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="C14" s="8" t="s">
         <v>402</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>403</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -4653,10 +4653,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="C15" s="8" t="s">
         <v>404</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>405</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -4664,10 +4664,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="C16" s="8" t="s">
         <v>406</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>407</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -4675,10 +4675,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="C17" s="8" t="s">
         <v>408</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>409</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -4686,10 +4686,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="C18" s="8" t="s">
         <v>410</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>411</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -4697,10 +4697,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="C19" s="8" t="s">
         <v>412</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>413</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -4708,10 +4708,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="C20" s="8" t="s">
         <v>414</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>415</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -4719,10 +4719,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="C21" s="8" t="s">
         <v>416</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>417</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -4730,10 +4730,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="C22" s="8" t="s">
         <v>418</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>419</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -4741,10 +4741,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="C23" s="8" t="s">
         <v>420</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>421</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -4752,10 +4752,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="C24" s="8" t="s">
         <v>422</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>423</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -4763,10 +4763,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="C25" s="8" t="s">
         <v>424</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>425</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -4774,10 +4774,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="C26" s="8" t="s">
         <v>426</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>427</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -4785,10 +4785,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="C27" s="8" t="s">
         <v>428</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>429</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -4796,10 +4796,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="C28" s="8" t="s">
         <v>430</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>431</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -4807,10 +4807,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="C29" s="8" t="s">
         <v>432</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>433</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -4818,10 +4818,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="C30" s="8" t="s">
         <v>434</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>435</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -4829,10 +4829,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="C31" s="8" t="s">
         <v>436</v>
-      </c>
-      <c r="C31" s="8" t="s">
-        <v>437</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -4840,10 +4840,10 @@
         <v>31</v>
       </c>
       <c r="B32" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="C32" s="8" t="s">
         <v>438</v>
-      </c>
-      <c r="C32" s="8" t="s">
-        <v>439</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -4851,10 +4851,10 @@
         <v>32</v>
       </c>
       <c r="B33" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="C33" s="8" t="s">
         <v>440</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>441</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -4862,10 +4862,10 @@
         <v>33</v>
       </c>
       <c r="B34" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="C34" s="8" t="s">
         <v>442</v>
-      </c>
-      <c r="C34" s="8" t="s">
-        <v>443</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -4873,10 +4873,10 @@
         <v>34</v>
       </c>
       <c r="B35" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="C35" s="8" t="s">
         <v>444</v>
-      </c>
-      <c r="C35" s="8" t="s">
-        <v>445</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -4884,10 +4884,10 @@
         <v>35</v>
       </c>
       <c r="B36" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="C36" s="8" t="s">
         <v>446</v>
-      </c>
-      <c r="C36" s="8" t="s">
-        <v>447</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -4895,10 +4895,10 @@
         <v>36</v>
       </c>
       <c r="B37" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="C37" s="8" t="s">
         <v>448</v>
-      </c>
-      <c r="C37" s="8" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -4906,10 +4906,10 @@
         <v>37</v>
       </c>
       <c r="B38" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="C38" s="8" t="s">
         <v>450</v>
-      </c>
-      <c r="C38" s="8" t="s">
-        <v>451</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -4917,10 +4917,10 @@
         <v>38</v>
       </c>
       <c r="B39" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="C39" s="8" t="s">
         <v>452</v>
-      </c>
-      <c r="C39" s="8" t="s">
-        <v>453</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -4928,10 +4928,10 @@
         <v>39</v>
       </c>
       <c r="B40" s="7" t="s">
+        <v>453</v>
+      </c>
+      <c r="C40" s="8" t="s">
         <v>454</v>
-      </c>
-      <c r="C40" s="8" t="s">
-        <v>455</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -4939,10 +4939,10 @@
         <v>40</v>
       </c>
       <c r="B41" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="C41" s="8" t="s">
         <v>456</v>
-      </c>
-      <c r="C41" s="8" t="s">
-        <v>457</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -4950,10 +4950,10 @@
         <v>41</v>
       </c>
       <c r="B42" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="C42" s="8" t="s">
         <v>458</v>
-      </c>
-      <c r="C42" s="8" t="s">
-        <v>459</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -4961,10 +4961,10 @@
         <v>42</v>
       </c>
       <c r="B43" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="C43" s="8" t="s">
         <v>460</v>
-      </c>
-      <c r="C43" s="8" t="s">
-        <v>461</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -4972,10 +4972,10 @@
         <v>43</v>
       </c>
       <c r="B44" s="7" t="s">
+        <v>461</v>
+      </c>
+      <c r="C44" s="8" t="s">
         <v>462</v>
-      </c>
-      <c r="C44" s="8" t="s">
-        <v>463</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -4983,10 +4983,10 @@
         <v>44</v>
       </c>
       <c r="B45" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="C45" s="8" t="s">
         <v>464</v>
-      </c>
-      <c r="C45" s="8" t="s">
-        <v>465</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -4994,10 +4994,10 @@
         <v>45</v>
       </c>
       <c r="B46" s="7" t="s">
+        <v>465</v>
+      </c>
+      <c r="C46" s="8" t="s">
         <v>466</v>
-      </c>
-      <c r="C46" s="8" t="s">
-        <v>467</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -5005,10 +5005,10 @@
         <v>46</v>
       </c>
       <c r="B47" s="7" t="s">
+        <v>467</v>
+      </c>
+      <c r="C47" s="8" t="s">
         <v>468</v>
-      </c>
-      <c r="C47" s="8" t="s">
-        <v>469</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -5016,10 +5016,10 @@
         <v>47</v>
       </c>
       <c r="B48" s="7" t="s">
+        <v>469</v>
+      </c>
+      <c r="C48" s="8" t="s">
         <v>470</v>
-      </c>
-      <c r="C48" s="8" t="s">
-        <v>471</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -5027,10 +5027,10 @@
         <v>48</v>
       </c>
       <c r="B49" s="7" t="s">
+        <v>471</v>
+      </c>
+      <c r="C49" s="8" t="s">
         <v>472</v>
-      </c>
-      <c r="C49" s="8" t="s">
-        <v>473</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -5038,10 +5038,10 @@
         <v>49</v>
       </c>
       <c r="B50" s="7" t="s">
+        <v>473</v>
+      </c>
+      <c r="C50" s="8" t="s">
         <v>474</v>
-      </c>
-      <c r="C50" s="8" t="s">
-        <v>475</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -5049,10 +5049,10 @@
         <v>50</v>
       </c>
       <c r="B51" s="7" t="s">
+        <v>475</v>
+      </c>
+      <c r="C51" s="8" t="s">
         <v>476</v>
-      </c>
-      <c r="C51" s="8" t="s">
-        <v>477</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -5060,10 +5060,10 @@
         <v>51</v>
       </c>
       <c r="B52" s="7" t="s">
+        <v>477</v>
+      </c>
+      <c r="C52" s="8" t="s">
         <v>478</v>
-      </c>
-      <c r="C52" s="8" t="s">
-        <v>479</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -5071,10 +5071,10 @@
         <v>52</v>
       </c>
       <c r="B53" s="7" t="s">
+        <v>479</v>
+      </c>
+      <c r="C53" s="8" t="s">
         <v>480</v>
-      </c>
-      <c r="C53" s="8" t="s">
-        <v>481</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
@@ -5082,10 +5082,10 @@
         <v>53</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -5093,10 +5093,10 @@
         <v>54</v>
       </c>
       <c r="B55" s="7" t="s">
+        <v>482</v>
+      </c>
+      <c r="C55" s="8" t="s">
         <v>483</v>
-      </c>
-      <c r="C55" s="8" t="s">
-        <v>484</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -5104,10 +5104,10 @@
         <v>55</v>
       </c>
       <c r="B56" s="7" t="s">
+        <v>484</v>
+      </c>
+      <c r="C56" s="8" t="s">
         <v>485</v>
-      </c>
-      <c r="C56" s="8" t="s">
-        <v>486</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -5115,10 +5115,10 @@
         <v>56</v>
       </c>
       <c r="B57" s="7" t="s">
+        <v>486</v>
+      </c>
+      <c r="C57" s="8" t="s">
         <v>487</v>
-      </c>
-      <c r="C57" s="8" t="s">
-        <v>488</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -5126,10 +5126,10 @@
         <v>57</v>
       </c>
       <c r="B58" s="7" t="s">
+        <v>488</v>
+      </c>
+      <c r="C58" s="8" t="s">
         <v>489</v>
-      </c>
-      <c r="C58" s="8" t="s">
-        <v>490</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -5137,10 +5137,10 @@
         <v>58</v>
       </c>
       <c r="B59" s="7" t="s">
+        <v>490</v>
+      </c>
+      <c r="C59" s="8" t="s">
         <v>491</v>
-      </c>
-      <c r="C59" s="8" t="s">
-        <v>492</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -5148,10 +5148,10 @@
         <v>59</v>
       </c>
       <c r="B60" s="7" t="s">
+        <v>492</v>
+      </c>
+      <c r="C60" s="8" t="s">
         <v>493</v>
-      </c>
-      <c r="C60" s="8" t="s">
-        <v>494</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -5159,10 +5159,10 @@
         <v>60</v>
       </c>
       <c r="B61" s="7" t="s">
+        <v>494</v>
+      </c>
+      <c r="C61" s="8" t="s">
         <v>495</v>
-      </c>
-      <c r="C61" s="8" t="s">
-        <v>496</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -5170,10 +5170,10 @@
         <v>61</v>
       </c>
       <c r="B62" s="7" t="s">
+        <v>496</v>
+      </c>
+      <c r="C62" s="8" t="s">
         <v>497</v>
-      </c>
-      <c r="C62" s="8" t="s">
-        <v>498</v>
       </c>
     </row>
   </sheetData>
@@ -5185,7 +5185,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+    <sheetView topLeftCell="A34" workbookViewId="0">
       <selection activeCell="G50" sqref="G50"/>
     </sheetView>
   </sheetViews>
@@ -5198,10 +5198,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -5209,10 +5209,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
+        <v>498</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>499</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>500</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -5220,10 +5220,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
+        <v>500</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>501</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>502</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
@@ -5231,10 +5231,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
+        <v>502</v>
+      </c>
+      <c r="C4" s="8" t="s">
         <v>503</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>504</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -5242,10 +5242,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
+        <v>504</v>
+      </c>
+      <c r="C5" s="8" t="s">
         <v>505</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>506</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -5253,10 +5253,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="7" t="s">
+        <v>506</v>
+      </c>
+      <c r="C6" s="8" t="s">
         <v>507</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>508</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -5264,10 +5264,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="7" t="s">
+        <v>508</v>
+      </c>
+      <c r="C7" s="8" t="s">
         <v>509</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>510</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -5275,10 +5275,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="7" t="s">
+        <v>510</v>
+      </c>
+      <c r="C8" s="8" t="s">
         <v>511</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>512</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -5286,10 +5286,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="7" t="s">
+        <v>512</v>
+      </c>
+      <c r="C9" s="8" t="s">
         <v>513</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>514</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
@@ -5297,10 +5297,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="7" t="s">
+        <v>514</v>
+      </c>
+      <c r="C10" s="8" t="s">
         <v>515</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>516</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -5308,10 +5308,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="7" t="s">
+        <v>516</v>
+      </c>
+      <c r="C11" s="8" t="s">
         <v>517</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>518</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
@@ -5319,10 +5319,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="7" t="s">
+        <v>518</v>
+      </c>
+      <c r="C12" s="8" t="s">
         <v>519</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>520</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -5330,10 +5330,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="7" t="s">
+        <v>520</v>
+      </c>
+      <c r="C13" s="8" t="s">
         <v>521</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>522</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -5341,10 +5341,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="7" t="s">
+        <v>522</v>
+      </c>
+      <c r="C14" s="8" t="s">
         <v>523</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>524</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -5352,10 +5352,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="7" t="s">
+        <v>524</v>
+      </c>
+      <c r="C15" s="8" t="s">
         <v>525</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>526</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -5363,10 +5363,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="7" t="s">
+        <v>526</v>
+      </c>
+      <c r="C16" s="8" t="s">
         <v>527</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>528</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -5374,10 +5374,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="7" t="s">
+        <v>528</v>
+      </c>
+      <c r="C17" s="8" t="s">
         <v>529</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>530</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -5385,10 +5385,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="7" t="s">
+        <v>530</v>
+      </c>
+      <c r="C18" s="8" t="s">
         <v>531</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>532</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -5396,10 +5396,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="7" t="s">
+        <v>532</v>
+      </c>
+      <c r="C19" s="8" t="s">
         <v>533</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>534</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -5407,10 +5407,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="7" t="s">
+        <v>534</v>
+      </c>
+      <c r="C20" s="8" t="s">
         <v>535</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>536</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -5418,10 +5418,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="7" t="s">
+        <v>536</v>
+      </c>
+      <c r="C21" s="8" t="s">
         <v>537</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>538</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -5429,10 +5429,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="7" t="s">
+        <v>538</v>
+      </c>
+      <c r="C22" s="8" t="s">
         <v>539</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>540</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -5440,10 +5440,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="7" t="s">
+        <v>540</v>
+      </c>
+      <c r="C23" s="8" t="s">
         <v>541</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>542</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -5451,10 +5451,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="7" t="s">
+        <v>542</v>
+      </c>
+      <c r="C24" s="8" t="s">
         <v>543</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>544</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -5462,10 +5462,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="C25" s="8" t="s">
         <v>545</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>546</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -5473,10 +5473,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="7" t="s">
+        <v>546</v>
+      </c>
+      <c r="C26" s="8" t="s">
         <v>547</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>548</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -5484,10 +5484,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="7" t="s">
+        <v>548</v>
+      </c>
+      <c r="C27" s="8" t="s">
         <v>549</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>550</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -5495,10 +5495,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="7" t="s">
+        <v>550</v>
+      </c>
+      <c r="C28" s="8" t="s">
         <v>551</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>552</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -5506,10 +5506,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="7" t="s">
+        <v>552</v>
+      </c>
+      <c r="C29" s="8" t="s">
         <v>553</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>554</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -5517,10 +5517,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="7" t="s">
+        <v>554</v>
+      </c>
+      <c r="C30" s="8" t="s">
         <v>555</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>556</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -5528,10 +5528,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="7" t="s">
+        <v>556</v>
+      </c>
+      <c r="C31" s="8" t="s">
         <v>557</v>
-      </c>
-      <c r="C31" s="8" t="s">
-        <v>558</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -5539,10 +5539,10 @@
         <v>31</v>
       </c>
       <c r="B32" s="7" t="s">
+        <v>558</v>
+      </c>
+      <c r="C32" s="8" t="s">
         <v>559</v>
-      </c>
-      <c r="C32" s="8" t="s">
-        <v>560</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -5550,10 +5550,10 @@
         <v>32</v>
       </c>
       <c r="B33" s="7" t="s">
+        <v>560</v>
+      </c>
+      <c r="C33" s="8" t="s">
         <v>561</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>562</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -5561,10 +5561,10 @@
         <v>33</v>
       </c>
       <c r="B34" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="C34" s="8" t="s">
         <v>563</v>
-      </c>
-      <c r="C34" s="8" t="s">
-        <v>564</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -5572,10 +5572,10 @@
         <v>34</v>
       </c>
       <c r="B35" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="C35" s="8" t="s">
         <v>565</v>
-      </c>
-      <c r="C35" s="8" t="s">
-        <v>566</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -5583,10 +5583,10 @@
         <v>35</v>
       </c>
       <c r="B36" s="7" t="s">
+        <v>566</v>
+      </c>
+      <c r="C36" s="8" t="s">
         <v>567</v>
-      </c>
-      <c r="C36" s="8" t="s">
-        <v>568</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -5594,10 +5594,10 @@
         <v>36</v>
       </c>
       <c r="B37" s="7" t="s">
+        <v>568</v>
+      </c>
+      <c r="C37" s="8" t="s">
         <v>569</v>
-      </c>
-      <c r="C37" s="8" t="s">
-        <v>570</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -5605,10 +5605,10 @@
         <v>37</v>
       </c>
       <c r="B38" s="7" t="s">
+        <v>570</v>
+      </c>
+      <c r="C38" s="8" t="s">
         <v>571</v>
-      </c>
-      <c r="C38" s="8" t="s">
-        <v>572</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -5616,10 +5616,10 @@
         <v>38</v>
       </c>
       <c r="B39" s="7" t="s">
+        <v>572</v>
+      </c>
+      <c r="C39" s="8" t="s">
         <v>573</v>
-      </c>
-      <c r="C39" s="8" t="s">
-        <v>574</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -5627,10 +5627,10 @@
         <v>39</v>
       </c>
       <c r="B40" s="7" t="s">
+        <v>574</v>
+      </c>
+      <c r="C40" s="8" t="s">
         <v>575</v>
-      </c>
-      <c r="C40" s="8" t="s">
-        <v>576</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -5638,10 +5638,10 @@
         <v>40</v>
       </c>
       <c r="B41" s="7" t="s">
+        <v>576</v>
+      </c>
+      <c r="C41" s="8" t="s">
         <v>577</v>
-      </c>
-      <c r="C41" s="8" t="s">
-        <v>578</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -5649,10 +5649,10 @@
         <v>41</v>
       </c>
       <c r="B42" s="7" t="s">
+        <v>578</v>
+      </c>
+      <c r="C42" s="8" t="s">
         <v>579</v>
-      </c>
-      <c r="C42" s="8" t="s">
-        <v>580</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -5660,10 +5660,10 @@
         <v>42</v>
       </c>
       <c r="B43" s="7" t="s">
+        <v>580</v>
+      </c>
+      <c r="C43" s="8" t="s">
         <v>581</v>
-      </c>
-      <c r="C43" s="8" t="s">
-        <v>582</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -5671,10 +5671,10 @@
         <v>43</v>
       </c>
       <c r="B44" s="7" t="s">
+        <v>582</v>
+      </c>
+      <c r="C44" s="8" t="s">
         <v>583</v>
-      </c>
-      <c r="C44" s="8" t="s">
-        <v>584</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -5682,10 +5682,10 @@
         <v>44</v>
       </c>
       <c r="B45" s="7" t="s">
+        <v>584</v>
+      </c>
+      <c r="C45" s="8" t="s">
         <v>585</v>
-      </c>
-      <c r="C45" s="8" t="s">
-        <v>586</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -5693,10 +5693,10 @@
         <v>45</v>
       </c>
       <c r="B46" s="7" t="s">
+        <v>586</v>
+      </c>
+      <c r="C46" s="8" t="s">
         <v>587</v>
-      </c>
-      <c r="C46" s="8" t="s">
-        <v>588</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -5704,10 +5704,10 @@
         <v>46</v>
       </c>
       <c r="B47" s="7" t="s">
+        <v>588</v>
+      </c>
+      <c r="C47" s="8" t="s">
         <v>589</v>
-      </c>
-      <c r="C47" s="8" t="s">
-        <v>590</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -5715,10 +5715,10 @@
         <v>47</v>
       </c>
       <c r="B48" s="7" t="s">
+        <v>590</v>
+      </c>
+      <c r="C48" s="8" t="s">
         <v>591</v>
-      </c>
-      <c r="C48" s="8" t="s">
-        <v>592</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -5726,10 +5726,10 @@
         <v>48</v>
       </c>
       <c r="B49" s="7" t="s">
+        <v>592</v>
+      </c>
+      <c r="C49" s="8" t="s">
         <v>593</v>
-      </c>
-      <c r="C49" s="8" t="s">
-        <v>594</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -5737,10 +5737,10 @@
         <v>49</v>
       </c>
       <c r="B50" s="7" t="s">
+        <v>594</v>
+      </c>
+      <c r="C50" s="8" t="s">
         <v>595</v>
-      </c>
-      <c r="C50" s="8" t="s">
-        <v>596</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -5748,10 +5748,10 @@
         <v>50</v>
       </c>
       <c r="B51" s="7" t="s">
+        <v>596</v>
+      </c>
+      <c r="C51" s="8" t="s">
         <v>597</v>
-      </c>
-      <c r="C51" s="8" t="s">
-        <v>598</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -5759,10 +5759,10 @@
         <v>51</v>
       </c>
       <c r="B52" s="7" t="s">
+        <v>598</v>
+      </c>
+      <c r="C52" s="8" t="s">
         <v>599</v>
-      </c>
-      <c r="C52" s="8" t="s">
-        <v>600</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -5770,10 +5770,10 @@
         <v>52</v>
       </c>
       <c r="B53" s="7" t="s">
+        <v>600</v>
+      </c>
+      <c r="C53" s="8" t="s">
         <v>601</v>
-      </c>
-      <c r="C53" s="8" t="s">
-        <v>602</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -5781,10 +5781,10 @@
         <v>53</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -5792,10 +5792,10 @@
         <v>54</v>
       </c>
       <c r="B55" s="7" t="s">
+        <v>603</v>
+      </c>
+      <c r="C55" s="8" t="s">
         <v>604</v>
-      </c>
-      <c r="C55" s="8" t="s">
-        <v>605</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -5803,10 +5803,10 @@
         <v>55</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">

--- a/1.xlsx
+++ b/1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Data1" sheetId="5" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Data4" sheetId="4" r:id="rId4"/>
     <sheet name="Data5" sheetId="6" r:id="rId5"/>
     <sheet name="Data6" sheetId="7" r:id="rId6"/>
+    <sheet name="Data7" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="607">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="722" uniqueCount="698">
   <si>
     <t>わたし</t>
   </si>
@@ -1850,6 +1851,279 @@
   </si>
   <si>
     <t>အင်္ဂလန်</t>
+  </si>
+  <si>
+    <t>きります</t>
+  </si>
+  <si>
+    <t>ဖြတ်သည်၊ ညှပ်သည်၊ လှီးသည်</t>
+  </si>
+  <si>
+    <t>おくります</t>
+  </si>
+  <si>
+    <t>ပို့သည်</t>
+  </si>
+  <si>
+    <t>あげます</t>
+  </si>
+  <si>
+    <t>ပေးသည်</t>
+  </si>
+  <si>
+    <t>もらいます</t>
+  </si>
+  <si>
+    <t>လက်ခံရယူသည်</t>
+  </si>
+  <si>
+    <t>かします</t>
+  </si>
+  <si>
+    <t>ချေးငှားသည် (ချေးပေးသည်၊ ငှားပေးသည်)</t>
+  </si>
+  <si>
+    <t>かります</t>
+  </si>
+  <si>
+    <t>ချေးငှားသည် (ချေးယူသည်၊ ငှားယူသည်)</t>
+  </si>
+  <si>
+    <t>おしえます</t>
+  </si>
+  <si>
+    <t>သင်သည် (သင်ပေးသည်)</t>
+  </si>
+  <si>
+    <t>ならいます</t>
+  </si>
+  <si>
+    <t>သင်သည် (သင်ယူသည်)</t>
+  </si>
+  <si>
+    <t>かけます「でんわを～」</t>
+  </si>
+  <si>
+    <t>ဆက်သည်</t>
+  </si>
+  <si>
+    <t>て</t>
+  </si>
+  <si>
+    <t>လက်</t>
+  </si>
+  <si>
+    <t>はし</t>
+  </si>
+  <si>
+    <t>တူ (စားပွဲတင်တူ)</t>
+  </si>
+  <si>
+    <t>スプーン</t>
+  </si>
+  <si>
+    <t>ဇွန်း</t>
+  </si>
+  <si>
+    <t>ナイフ</t>
+  </si>
+  <si>
+    <t>ဓါး</t>
+  </si>
+  <si>
+    <t>フオーク</t>
+  </si>
+  <si>
+    <t>ခက်ရင်း</t>
+  </si>
+  <si>
+    <t>はさみ</t>
+  </si>
+  <si>
+    <t>ကတ်ကြေး</t>
+  </si>
+  <si>
+    <t>パソコン</t>
+  </si>
+  <si>
+    <t>ケータイ</t>
+  </si>
+  <si>
+    <t>မိုဘိုင်းဖုန်း</t>
+  </si>
+  <si>
+    <t>メール</t>
+  </si>
+  <si>
+    <t>အီးမေးလ်</t>
+  </si>
+  <si>
+    <t>ねんがじょう</t>
+  </si>
+  <si>
+    <t>နယူးရီးယား ပို့စကဒ်</t>
+  </si>
+  <si>
+    <t>パンチ</t>
+  </si>
+  <si>
+    <t>စက္ကူ အပေါက်ဖောက်စက်</t>
+  </si>
+  <si>
+    <t>ホッチキス</t>
+  </si>
+  <si>
+    <t>စတပ်ပလာ၊ စက္ကူချုပ်စက်</t>
+  </si>
+  <si>
+    <t>セロテープ</t>
+  </si>
+  <si>
+    <t>ဆိုလိုတိပ်၊ ကပ်တိပ်</t>
+  </si>
+  <si>
+    <t>けしゴム</t>
+  </si>
+  <si>
+    <t>ခဲဖျက်</t>
+  </si>
+  <si>
+    <t>かみ</t>
+  </si>
+  <si>
+    <t>စက္ကူ၊ စာရွက်</t>
+  </si>
+  <si>
+    <t>はな</t>
+  </si>
+  <si>
+    <t>ပန်း</t>
+  </si>
+  <si>
+    <t>シャツ</t>
+  </si>
+  <si>
+    <t>ရှပ် အင်္ကျီ</t>
+  </si>
+  <si>
+    <t>プレゼント</t>
+  </si>
+  <si>
+    <t>လက်ဆောင်</t>
+  </si>
+  <si>
+    <t>にもつ</t>
+  </si>
+  <si>
+    <t>အထုပ်၊ အထုပ်အပိုး</t>
+  </si>
+  <si>
+    <t>おかね</t>
+  </si>
+  <si>
+    <t>ပိုက်ဆံ၊ ငွေးကြေး</t>
+  </si>
+  <si>
+    <t>きっぷ</t>
+  </si>
+  <si>
+    <t>လက်မှတ်</t>
+  </si>
+  <si>
+    <t>クリスマス</t>
+  </si>
+  <si>
+    <t>ခရစ္စမတ်</t>
+  </si>
+  <si>
+    <t>ちち</t>
+  </si>
+  <si>
+    <t>အဖေ (မိမိ၏~)</t>
+  </si>
+  <si>
+    <t>はは</t>
+  </si>
+  <si>
+    <t>အမေ (မိမိ၏~)</t>
+  </si>
+  <si>
+    <t>おとうさん</t>
+  </si>
+  <si>
+    <t>အဖေ (တစ်ပါးသူ၏~)</t>
+  </si>
+  <si>
+    <t>おかあさん</t>
+  </si>
+  <si>
+    <t>အမေ (တစ်ပါးသူ၏~)</t>
+  </si>
+  <si>
+    <t>もう</t>
+  </si>
+  <si>
+    <t>နှင့်ပြီးပြီ</t>
+  </si>
+  <si>
+    <t>まだ</t>
+  </si>
+  <si>
+    <t>(မ) သေးဘူး</t>
+  </si>
+  <si>
+    <t>これから</t>
+  </si>
+  <si>
+    <t>အခုချိန်ကစပြီး</t>
+  </si>
+  <si>
+    <t>すてきですね</t>
+  </si>
+  <si>
+    <t>လှတယ်နော်၊ လှလိုက်တာနော်</t>
+  </si>
+  <si>
+    <t>いらっしゃい</t>
+  </si>
+  <si>
+    <t>ကြွပါ</t>
+  </si>
+  <si>
+    <t>どうぞ　おあがり　ください</t>
+  </si>
+  <si>
+    <t>ဝင်ပါဝင်ပါ</t>
+  </si>
+  <si>
+    <t>しつれいします</t>
+  </si>
+  <si>
+    <t>ခွင့်ပြုပါ</t>
+  </si>
+  <si>
+    <t>いかがですか</t>
+  </si>
+  <si>
+    <t>ဘယ်လို(သဘောရ)လဲ၊ သုံးဆောင်မလား</t>
+  </si>
+  <si>
+    <t>いただきます</t>
+  </si>
+  <si>
+    <t>စားပါတော့မယ်</t>
+  </si>
+  <si>
+    <t>ごちそうさま「でした」</t>
+  </si>
+  <si>
+    <t>ကျွေးမွေးပြုစုမှု အတွက် ကျေးဇူးတင်ပါတယ်</t>
+  </si>
+  <si>
+    <t>スペイン</t>
+  </si>
+  <si>
+    <t>စပိန်</t>
   </si>
 </sst>
 </file>
@@ -2256,7 +2530,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
@@ -5185,8 +5459,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C62"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="G50" sqref="G50"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5842,4 +6116,537 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C47"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="18.44140625" customWidth="1"/>
+    <col min="3" max="3" width="17.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>607</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>609</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>611</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>613</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="4">
+        <v>5</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>615</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A7" s="4">
+        <v>6</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>617</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="4">
+        <v>7</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>619</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="4">
+        <v>8</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>621</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A10" s="4">
+        <v>9</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>623</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="4">
+        <v>10</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>625</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="4">
+        <v>11</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>627</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="4">
+        <v>12</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>629</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="4">
+        <v>13</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>631</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="4">
+        <v>14</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>633</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="4">
+        <v>15</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>635</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="4">
+        <v>16</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>637</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="4">
+        <v>17</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>638</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A19" s="4">
+        <v>18</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>640</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A20" s="4">
+        <v>19</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>642</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A21" s="4">
+        <v>20</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>644</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A22" s="4">
+        <v>21</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>646</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A23" s="4">
+        <v>22</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>648</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A24" s="4">
+        <v>23</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>650</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A25" s="4">
+        <v>24</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>652</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A26" s="4">
+        <v>25</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>654</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A27" s="4">
+        <v>26</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>656</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A28" s="4">
+        <v>27</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>658</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A29" s="4">
+        <v>28</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>660</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A30" s="4">
+        <v>29</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>662</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A31" s="4">
+        <v>30</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>664</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A32" s="4">
+        <v>31</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>666</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A33" s="4">
+        <v>32</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>668</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A34" s="4">
+        <v>33</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>670</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A35" s="4">
+        <v>34</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>672</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A36" s="4">
+        <v>35</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>674</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A37" s="4">
+        <v>36</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>676</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A38" s="4">
+        <v>37</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>678</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A39" s="4">
+        <v>38</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>680</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A40" s="4">
+        <v>39</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>682</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A41" s="4">
+        <v>40</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>684</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A42" s="4">
+        <v>41</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>686</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A43" s="4">
+        <v>42</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>688</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A44" s="4">
+        <v>43</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>690</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A45" s="4">
+        <v>44</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>692</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A46" s="4">
+        <v>45</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>694</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A47" s="4">
+        <v>46</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>696</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>697</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/1.xlsx
+++ b/1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Data1" sheetId="5" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="Data5" sheetId="6" r:id="rId5"/>
     <sheet name="Data6" sheetId="7" r:id="rId6"/>
     <sheet name="Data7" sheetId="8" r:id="rId7"/>
+    <sheet name="Verb" sheetId="9" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="722" uniqueCount="698">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="782" uniqueCount="698">
   <si>
     <t>わたし</t>
   </si>
@@ -1589,9 +1590,6 @@
     <t>あいます　「ともだちに～」</t>
   </si>
   <si>
-    <t>တွေးသည်</t>
-  </si>
-  <si>
     <t>ごはん</t>
   </si>
   <si>
@@ -2124,6 +2122,9 @@
   </si>
   <si>
     <t>စပိန်</t>
+  </si>
+  <si>
+    <t>တွေ့သည်</t>
   </si>
 </sst>
 </file>
@@ -2207,7 +2208,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2247,6 +2248,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2865,7 +2869,7 @@
         <v>55</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -4760,7 +4764,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C62"/>
   <sheetViews>
-    <sheetView topLeftCell="A56" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
@@ -5460,7 +5464,7 @@
   <dimension ref="A1:C62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5596,7 +5600,7 @@
         <v>518</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>519</v>
+        <v>697</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -5604,10 +5608,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="7" t="s">
+        <v>519</v>
+      </c>
+      <c r="C13" s="8" t="s">
         <v>520</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>521</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -5615,10 +5619,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="7" t="s">
+        <v>521</v>
+      </c>
+      <c r="C14" s="8" t="s">
         <v>522</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>523</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -5626,10 +5630,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="7" t="s">
+        <v>523</v>
+      </c>
+      <c r="C15" s="8" t="s">
         <v>524</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>525</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -5637,10 +5641,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="7" t="s">
+        <v>525</v>
+      </c>
+      <c r="C16" s="8" t="s">
         <v>526</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>527</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -5648,10 +5652,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="7" t="s">
+        <v>527</v>
+      </c>
+      <c r="C17" s="8" t="s">
         <v>528</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>529</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -5659,10 +5663,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="7" t="s">
+        <v>529</v>
+      </c>
+      <c r="C18" s="8" t="s">
         <v>530</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>531</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -5670,10 +5674,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="7" t="s">
+        <v>531</v>
+      </c>
+      <c r="C19" s="8" t="s">
         <v>532</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>533</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -5681,10 +5685,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="7" t="s">
+        <v>533</v>
+      </c>
+      <c r="C20" s="8" t="s">
         <v>534</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>535</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -5692,10 +5696,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="7" t="s">
+        <v>535</v>
+      </c>
+      <c r="C21" s="8" t="s">
         <v>536</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>537</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -5703,10 +5707,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="7" t="s">
+        <v>537</v>
+      </c>
+      <c r="C22" s="8" t="s">
         <v>538</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>539</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -5714,10 +5718,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="7" t="s">
+        <v>539</v>
+      </c>
+      <c r="C23" s="8" t="s">
         <v>540</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>541</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -5725,10 +5729,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="7" t="s">
+        <v>541</v>
+      </c>
+      <c r="C24" s="8" t="s">
         <v>542</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>543</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -5736,10 +5740,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="C25" s="8" t="s">
         <v>544</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>545</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -5747,10 +5751,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="7" t="s">
+        <v>545</v>
+      </c>
+      <c r="C26" s="8" t="s">
         <v>546</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>547</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -5758,10 +5762,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="7" t="s">
+        <v>547</v>
+      </c>
+      <c r="C27" s="8" t="s">
         <v>548</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>549</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -5769,10 +5773,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="7" t="s">
+        <v>549</v>
+      </c>
+      <c r="C28" s="8" t="s">
         <v>550</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>551</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -5780,10 +5784,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="7" t="s">
+        <v>551</v>
+      </c>
+      <c r="C29" s="8" t="s">
         <v>552</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>553</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -5791,10 +5795,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="7" t="s">
+        <v>553</v>
+      </c>
+      <c r="C30" s="8" t="s">
         <v>554</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>555</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -5802,10 +5806,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="7" t="s">
+        <v>555</v>
+      </c>
+      <c r="C31" s="8" t="s">
         <v>556</v>
-      </c>
-      <c r="C31" s="8" t="s">
-        <v>557</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -5813,10 +5817,10 @@
         <v>31</v>
       </c>
       <c r="B32" s="7" t="s">
+        <v>557</v>
+      </c>
+      <c r="C32" s="8" t="s">
         <v>558</v>
-      </c>
-      <c r="C32" s="8" t="s">
-        <v>559</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -5824,10 +5828,10 @@
         <v>32</v>
       </c>
       <c r="B33" s="7" t="s">
+        <v>559</v>
+      </c>
+      <c r="C33" s="8" t="s">
         <v>560</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>561</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -5835,10 +5839,10 @@
         <v>33</v>
       </c>
       <c r="B34" s="7" t="s">
+        <v>561</v>
+      </c>
+      <c r="C34" s="8" t="s">
         <v>562</v>
-      </c>
-      <c r="C34" s="8" t="s">
-        <v>563</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -5846,10 +5850,10 @@
         <v>34</v>
       </c>
       <c r="B35" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="C35" s="8" t="s">
         <v>564</v>
-      </c>
-      <c r="C35" s="8" t="s">
-        <v>565</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -5857,10 +5861,10 @@
         <v>35</v>
       </c>
       <c r="B36" s="7" t="s">
+        <v>565</v>
+      </c>
+      <c r="C36" s="8" t="s">
         <v>566</v>
-      </c>
-      <c r="C36" s="8" t="s">
-        <v>567</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -5868,10 +5872,10 @@
         <v>36</v>
       </c>
       <c r="B37" s="7" t="s">
+        <v>567</v>
+      </c>
+      <c r="C37" s="8" t="s">
         <v>568</v>
-      </c>
-      <c r="C37" s="8" t="s">
-        <v>569</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -5879,10 +5883,10 @@
         <v>37</v>
       </c>
       <c r="B38" s="7" t="s">
+        <v>569</v>
+      </c>
+      <c r="C38" s="8" t="s">
         <v>570</v>
-      </c>
-      <c r="C38" s="8" t="s">
-        <v>571</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -5890,10 +5894,10 @@
         <v>38</v>
       </c>
       <c r="B39" s="7" t="s">
+        <v>571</v>
+      </c>
+      <c r="C39" s="8" t="s">
         <v>572</v>
-      </c>
-      <c r="C39" s="8" t="s">
-        <v>573</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -5901,10 +5905,10 @@
         <v>39</v>
       </c>
       <c r="B40" s="7" t="s">
+        <v>573</v>
+      </c>
+      <c r="C40" s="8" t="s">
         <v>574</v>
-      </c>
-      <c r="C40" s="8" t="s">
-        <v>575</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -5912,10 +5916,10 @@
         <v>40</v>
       </c>
       <c r="B41" s="7" t="s">
+        <v>575</v>
+      </c>
+      <c r="C41" s="8" t="s">
         <v>576</v>
-      </c>
-      <c r="C41" s="8" t="s">
-        <v>577</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -5923,10 +5927,10 @@
         <v>41</v>
       </c>
       <c r="B42" s="7" t="s">
+        <v>577</v>
+      </c>
+      <c r="C42" s="8" t="s">
         <v>578</v>
-      </c>
-      <c r="C42" s="8" t="s">
-        <v>579</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -5934,10 +5938,10 @@
         <v>42</v>
       </c>
       <c r="B43" s="7" t="s">
+        <v>579</v>
+      </c>
+      <c r="C43" s="8" t="s">
         <v>580</v>
-      </c>
-      <c r="C43" s="8" t="s">
-        <v>581</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -5945,10 +5949,10 @@
         <v>43</v>
       </c>
       <c r="B44" s="7" t="s">
+        <v>581</v>
+      </c>
+      <c r="C44" s="8" t="s">
         <v>582</v>
-      </c>
-      <c r="C44" s="8" t="s">
-        <v>583</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -5956,10 +5960,10 @@
         <v>44</v>
       </c>
       <c r="B45" s="7" t="s">
+        <v>583</v>
+      </c>
+      <c r="C45" s="8" t="s">
         <v>584</v>
-      </c>
-      <c r="C45" s="8" t="s">
-        <v>585</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -5967,10 +5971,10 @@
         <v>45</v>
       </c>
       <c r="B46" s="7" t="s">
+        <v>585</v>
+      </c>
+      <c r="C46" s="8" t="s">
         <v>586</v>
-      </c>
-      <c r="C46" s="8" t="s">
-        <v>587</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -5978,10 +5982,10 @@
         <v>46</v>
       </c>
       <c r="B47" s="7" t="s">
+        <v>587</v>
+      </c>
+      <c r="C47" s="8" t="s">
         <v>588</v>
-      </c>
-      <c r="C47" s="8" t="s">
-        <v>589</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -5989,10 +5993,10 @@
         <v>47</v>
       </c>
       <c r="B48" s="7" t="s">
+        <v>589</v>
+      </c>
+      <c r="C48" s="8" t="s">
         <v>590</v>
-      </c>
-      <c r="C48" s="8" t="s">
-        <v>591</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -6000,10 +6004,10 @@
         <v>48</v>
       </c>
       <c r="B49" s="7" t="s">
+        <v>591</v>
+      </c>
+      <c r="C49" s="8" t="s">
         <v>592</v>
-      </c>
-      <c r="C49" s="8" t="s">
-        <v>593</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -6011,10 +6015,10 @@
         <v>49</v>
       </c>
       <c r="B50" s="7" t="s">
+        <v>593</v>
+      </c>
+      <c r="C50" s="8" t="s">
         <v>594</v>
-      </c>
-      <c r="C50" s="8" t="s">
-        <v>595</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -6022,10 +6026,10 @@
         <v>50</v>
       </c>
       <c r="B51" s="7" t="s">
+        <v>595</v>
+      </c>
+      <c r="C51" s="8" t="s">
         <v>596</v>
-      </c>
-      <c r="C51" s="8" t="s">
-        <v>597</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -6033,10 +6037,10 @@
         <v>51</v>
       </c>
       <c r="B52" s="7" t="s">
+        <v>597</v>
+      </c>
+      <c r="C52" s="8" t="s">
         <v>598</v>
-      </c>
-      <c r="C52" s="8" t="s">
-        <v>599</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -6044,10 +6048,10 @@
         <v>52</v>
       </c>
       <c r="B53" s="7" t="s">
+        <v>599</v>
+      </c>
+      <c r="C53" s="8" t="s">
         <v>600</v>
-      </c>
-      <c r="C53" s="8" t="s">
-        <v>601</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -6055,7 +6059,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C54" s="8" t="s">
         <v>370</v>
@@ -6066,10 +6070,10 @@
         <v>54</v>
       </c>
       <c r="B55" s="7" t="s">
+        <v>602</v>
+      </c>
+      <c r="C55" s="8" t="s">
         <v>603</v>
-      </c>
-      <c r="C55" s="8" t="s">
-        <v>604</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -6077,10 +6081,10 @@
         <v>55</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -6122,8 +6126,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6145,10 +6149,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
+        <v>606</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>607</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>608</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -6156,10 +6160,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
+        <v>608</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>609</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>610</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -6167,10 +6171,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
+        <v>610</v>
+      </c>
+      <c r="C4" s="8" t="s">
         <v>611</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>612</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -6178,10 +6182,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
+        <v>612</v>
+      </c>
+      <c r="C5" s="8" t="s">
         <v>613</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>614</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="30.6" x14ac:dyDescent="0.3">
@@ -6189,10 +6193,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="7" t="s">
+        <v>614</v>
+      </c>
+      <c r="C6" s="8" t="s">
         <v>615</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>616</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -6200,10 +6204,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="7" t="s">
+        <v>616</v>
+      </c>
+      <c r="C7" s="8" t="s">
         <v>617</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>618</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -6211,10 +6215,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="7" t="s">
+        <v>618</v>
+      </c>
+      <c r="C8" s="8" t="s">
         <v>619</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>620</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -6222,10 +6226,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="7" t="s">
+        <v>620</v>
+      </c>
+      <c r="C9" s="8" t="s">
         <v>621</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>622</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
@@ -6233,10 +6237,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="7" t="s">
+        <v>622</v>
+      </c>
+      <c r="C10" s="8" t="s">
         <v>623</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>624</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -6244,10 +6248,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="7" t="s">
+        <v>624</v>
+      </c>
+      <c r="C11" s="8" t="s">
         <v>625</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>626</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -6255,10 +6259,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="7" t="s">
+        <v>626</v>
+      </c>
+      <c r="C12" s="8" t="s">
         <v>627</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>628</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -6266,10 +6270,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="7" t="s">
+        <v>628</v>
+      </c>
+      <c r="C13" s="8" t="s">
         <v>629</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>630</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -6277,10 +6281,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="7" t="s">
+        <v>630</v>
+      </c>
+      <c r="C14" s="8" t="s">
         <v>631</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>632</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -6288,10 +6292,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="7" t="s">
+        <v>632</v>
+      </c>
+      <c r="C15" s="8" t="s">
         <v>633</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>634</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -6299,10 +6303,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="7" t="s">
+        <v>634</v>
+      </c>
+      <c r="C16" s="8" t="s">
         <v>635</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>636</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -6310,7 +6314,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="C17" s="8" t="s">
         <v>123</v>
@@ -6321,10 +6325,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="7" t="s">
+        <v>637</v>
+      </c>
+      <c r="C18" s="8" t="s">
         <v>638</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>639</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -6332,10 +6336,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="7" t="s">
+        <v>639</v>
+      </c>
+      <c r="C19" s="8" t="s">
         <v>640</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>641</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -6343,10 +6347,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="7" t="s">
+        <v>641</v>
+      </c>
+      <c r="C20" s="8" t="s">
         <v>642</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>643</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -6354,10 +6358,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="7" t="s">
+        <v>643</v>
+      </c>
+      <c r="C21" s="8" t="s">
         <v>644</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>645</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -6365,10 +6369,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="7" t="s">
+        <v>645</v>
+      </c>
+      <c r="C22" s="8" t="s">
         <v>646</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>647</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -6376,10 +6380,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="7" t="s">
+        <v>647</v>
+      </c>
+      <c r="C23" s="8" t="s">
         <v>648</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>649</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -6387,10 +6391,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="7" t="s">
+        <v>649</v>
+      </c>
+      <c r="C24" s="8" t="s">
         <v>650</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>651</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -6398,10 +6402,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="7" t="s">
+        <v>651</v>
+      </c>
+      <c r="C25" s="8" t="s">
         <v>652</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>653</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -6409,10 +6413,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="7" t="s">
+        <v>653</v>
+      </c>
+      <c r="C26" s="8" t="s">
         <v>654</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>655</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -6420,10 +6424,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="7" t="s">
+        <v>655</v>
+      </c>
+      <c r="C27" s="8" t="s">
         <v>656</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>657</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -6431,10 +6435,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="7" t="s">
+        <v>657</v>
+      </c>
+      <c r="C28" s="8" t="s">
         <v>658</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>659</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -6442,10 +6446,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="7" t="s">
+        <v>659</v>
+      </c>
+      <c r="C29" s="8" t="s">
         <v>660</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>661</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -6453,10 +6457,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="7" t="s">
+        <v>661</v>
+      </c>
+      <c r="C30" s="8" t="s">
         <v>662</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>663</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -6464,10 +6468,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="7" t="s">
+        <v>663</v>
+      </c>
+      <c r="C31" s="8" t="s">
         <v>664</v>
-      </c>
-      <c r="C31" s="8" t="s">
-        <v>665</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -6475,10 +6479,10 @@
         <v>31</v>
       </c>
       <c r="B32" s="7" t="s">
+        <v>665</v>
+      </c>
+      <c r="C32" s="8" t="s">
         <v>666</v>
-      </c>
-      <c r="C32" s="8" t="s">
-        <v>667</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -6486,10 +6490,10 @@
         <v>32</v>
       </c>
       <c r="B33" s="7" t="s">
+        <v>667</v>
+      </c>
+      <c r="C33" s="8" t="s">
         <v>668</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>669</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -6497,10 +6501,10 @@
         <v>33</v>
       </c>
       <c r="B34" s="7" t="s">
+        <v>669</v>
+      </c>
+      <c r="C34" s="8" t="s">
         <v>670</v>
-      </c>
-      <c r="C34" s="8" t="s">
-        <v>671</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -6508,10 +6512,10 @@
         <v>34</v>
       </c>
       <c r="B35" s="7" t="s">
+        <v>671</v>
+      </c>
+      <c r="C35" s="8" t="s">
         <v>672</v>
-      </c>
-      <c r="C35" s="8" t="s">
-        <v>673</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -6519,10 +6523,10 @@
         <v>35</v>
       </c>
       <c r="B36" s="7" t="s">
+        <v>673</v>
+      </c>
+      <c r="C36" s="8" t="s">
         <v>674</v>
-      </c>
-      <c r="C36" s="8" t="s">
-        <v>675</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -6530,10 +6534,10 @@
         <v>36</v>
       </c>
       <c r="B37" s="7" t="s">
+        <v>675</v>
+      </c>
+      <c r="C37" s="8" t="s">
         <v>676</v>
-      </c>
-      <c r="C37" s="8" t="s">
-        <v>677</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -6541,10 +6545,10 @@
         <v>37</v>
       </c>
       <c r="B38" s="7" t="s">
+        <v>677</v>
+      </c>
+      <c r="C38" s="8" t="s">
         <v>678</v>
-      </c>
-      <c r="C38" s="8" t="s">
-        <v>679</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -6552,10 +6556,10 @@
         <v>38</v>
       </c>
       <c r="B39" s="7" t="s">
+        <v>679</v>
+      </c>
+      <c r="C39" s="8" t="s">
         <v>680</v>
-      </c>
-      <c r="C39" s="8" t="s">
-        <v>681</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -6563,10 +6567,10 @@
         <v>39</v>
       </c>
       <c r="B40" s="7" t="s">
+        <v>681</v>
+      </c>
+      <c r="C40" s="8" t="s">
         <v>682</v>
-      </c>
-      <c r="C40" s="8" t="s">
-        <v>683</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -6574,10 +6578,10 @@
         <v>40</v>
       </c>
       <c r="B41" s="7" t="s">
+        <v>683</v>
+      </c>
+      <c r="C41" s="8" t="s">
         <v>684</v>
-      </c>
-      <c r="C41" s="8" t="s">
-        <v>685</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="46.8" x14ac:dyDescent="0.3">
@@ -6585,10 +6589,10 @@
         <v>41</v>
       </c>
       <c r="B42" s="7" t="s">
+        <v>685</v>
+      </c>
+      <c r="C42" s="8" t="s">
         <v>686</v>
-      </c>
-      <c r="C42" s="8" t="s">
-        <v>687</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
@@ -6596,10 +6600,10 @@
         <v>42</v>
       </c>
       <c r="B43" s="7" t="s">
+        <v>687</v>
+      </c>
+      <c r="C43" s="8" t="s">
         <v>688</v>
-      </c>
-      <c r="C43" s="8" t="s">
-        <v>689</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -6607,10 +6611,10 @@
         <v>43</v>
       </c>
       <c r="B44" s="7" t="s">
+        <v>689</v>
+      </c>
+      <c r="C44" s="8" t="s">
         <v>690</v>
-      </c>
-      <c r="C44" s="8" t="s">
-        <v>691</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -6618,10 +6622,10 @@
         <v>44</v>
       </c>
       <c r="B45" s="7" t="s">
+        <v>691</v>
+      </c>
+      <c r="C45" s="8" t="s">
         <v>692</v>
-      </c>
-      <c r="C45" s="8" t="s">
-        <v>693</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
@@ -6629,10 +6633,10 @@
         <v>45</v>
       </c>
       <c r="B46" s="7" t="s">
+        <v>693</v>
+      </c>
+      <c r="C46" s="8" t="s">
         <v>694</v>
-      </c>
-      <c r="C46" s="8" t="s">
-        <v>695</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -6640,10 +6644,358 @@
         <v>46</v>
       </c>
       <c r="B47" s="7" t="s">
+        <v>695</v>
+      </c>
+      <c r="C47" s="8" t="s">
         <v>696</v>
       </c>
-      <c r="C47" s="8" t="s">
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.5546875" style="14" customWidth="1"/>
+    <col min="2" max="2" width="32.88671875" style="14" customWidth="1"/>
+    <col min="3" max="3" width="31.33203125" style="14" customWidth="1"/>
+    <col min="4" max="16384" width="8.88671875" style="14"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B1" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="14">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="14">
+        <v>2</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="14">
+        <v>3</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="14">
+        <v>4</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="14">
+        <v>5</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="14">
+        <v>6</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="14">
+        <v>7</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="14">
+        <v>8</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="14">
+        <v>9</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="14">
+        <v>10</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>498</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="14">
+        <v>11</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>500</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="14">
+        <v>12</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>502</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>504</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="14">
+        <v>14</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>506</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="14">
+        <v>15</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>508</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="14">
+        <v>16</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>510</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="14">
+        <v>17</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>512</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A19" s="14">
+        <v>18</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>514</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A20" s="14">
+        <v>19</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>516</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A21" s="14">
+        <v>20</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>518</v>
+      </c>
+      <c r="C21" s="8" t="s">
         <v>697</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A22" s="14">
+        <v>21</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>606</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A23" s="14">
+        <v>22</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>608</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A24" s="14">
+        <v>23</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>610</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A25" s="14">
+        <v>24</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>612</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A26" s="14">
+        <v>25</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>614</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A27" s="14">
+        <v>26</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>616</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A28" s="14">
+        <v>27</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>618</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A29" s="14">
+        <v>28</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>620</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A30" s="14">
+        <v>29</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>622</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>623</v>
       </c>
     </row>
   </sheetData>

--- a/1.xlsx
+++ b/1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Data1" sheetId="5" r:id="rId1"/>
@@ -20,6 +20,8 @@
     <sheet name="Data6" sheetId="7" r:id="rId6"/>
     <sheet name="Data7" sheetId="8" r:id="rId7"/>
     <sheet name="Verb" sheetId="9" r:id="rId8"/>
+    <sheet name="Bonpoe" sheetId="10" r:id="rId9"/>
+    <sheet name="Q" sheetId="11" r:id="rId10"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="782" uniqueCount="698">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="726">
   <si>
     <t>わたし</t>
   </si>
@@ -2125,13 +2127,381 @@
   </si>
   <si>
     <t>တွေ့သည်</t>
+  </si>
+  <si>
+    <t>Lesson 1 Grammar</t>
+  </si>
+  <si>
+    <t>၁။ - ဖြစ်ပါသည်။</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">--- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="3"/>
+      </rPr>
+      <t>は</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Pyidaungsu"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> --- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="3"/>
+      </rPr>
+      <t>です</t>
+    </r>
+  </si>
+  <si>
+    <t>---wa --- desu</t>
+  </si>
+  <si>
+    <t>---သည်/က ---ဖြစ်ပါသည်။</t>
+  </si>
+  <si>
+    <t>わたし は ミラー です。</t>
+  </si>
+  <si>
+    <t>ကျွန်တော်သည် မီလာဖြစ်ပါတယ်</t>
+  </si>
+  <si>
+    <t>အင်္ဂလိပ်</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>၂။ - မဟုတ်ပါဘူး။</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">--- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="3"/>
+      </rPr>
+      <t>は</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> --- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="3"/>
+      </rPr>
+      <t>じゃ（では）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="3"/>
+      </rPr>
+      <t>ありません。</t>
+    </r>
+  </si>
+  <si>
+    <t>---wa ---jya(dewa) arimasen</t>
+  </si>
+  <si>
+    <r>
+      <t>---</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Myanmar Text"/>
+        <family val="2"/>
+      </rPr>
+      <t>သည်</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Myanmar Text"/>
+        <family val="2"/>
+      </rPr>
+      <t>က</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> --- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Myanmar Text"/>
+        <family val="2"/>
+      </rPr>
+      <t>မဟုတ်ပါဘူး။</t>
+    </r>
+  </si>
+  <si>
+    <t>わたし　は　がくせい　じゃありません。</t>
+  </si>
+  <si>
+    <t>ကျွန်တော်သည် ကျောင်းသား မဟုတ်ပါဘူး။</t>
+  </si>
+  <si>
+    <t>၃။ - ဖြစ်ပါသလား။</t>
+  </si>
+  <si>
+    <r>
+      <t>---</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="3"/>
+      </rPr>
+      <t>は</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Pyidaungsu"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> ---</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="3"/>
+      </rPr>
+      <t>ですか</t>
+    </r>
+  </si>
+  <si>
+    <t>---wa ---desuka</t>
+  </si>
+  <si>
+    <r>
+      <t>---</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Myanmar Text"/>
+        <family val="2"/>
+      </rPr>
+      <t>သည်</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Myanmar Text"/>
+        <family val="2"/>
+      </rPr>
+      <t>က</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> --- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Myanmar Text"/>
+        <family val="2"/>
+      </rPr>
+      <t>ဖြစ်ပါသလား။</t>
+    </r>
+  </si>
+  <si>
+    <t>မီလာစံက ကုမ္ပဏီဝန်ထမ်းဖြစ်ပါသလား။</t>
+  </si>
+  <si>
+    <t>ミラーさんはかいしゃいんですか？</t>
+  </si>
+  <si>
+    <t>၄။ - လည်းဘဲ - ဖြစ်ပါတယ်။</t>
+  </si>
+  <si>
+    <r>
+      <t>---</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="3"/>
+      </rPr>
+      <t>も</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Pyidaungsu"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> ---</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="3"/>
+      </rPr>
+      <t>です</t>
+    </r>
+  </si>
+  <si>
+    <t>--- mo --- desu</t>
+  </si>
+  <si>
+    <t>--- လည်းဘဲ --- ဖြစ်ပါတယ်။</t>
+  </si>
+  <si>
+    <r>
+      <t>サントスさん</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF666666"/>
+        <rFont val="Pyidaungsu"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="MS UI Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t>も</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Pyidaungsu"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF666666"/>
+        <rFont val="MS UI Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t>かいしゃいん</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="MS UI Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t>です</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF666666"/>
+        <rFont val="MS UI Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <t>စန်တိုစုစံ လည်းဘဲ ကုမ္ပဏီဝန်ထမ်း ဖြစ်ပါတယ်။</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2157,6 +2527,92 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF333333"/>
+      <name val="Pyidaungsu"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Pyidaungsu"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="MS Gothic"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="MS UI Gothic"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="MS UI Gothic"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Myanmar Text"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="MS Gothic"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="Myanmar Text"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="Yu Mincho"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF666666"/>
+      <name val="MS UI Gothic"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF666666"/>
+      <name val="Pyidaungsu"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="MS UI Gothic"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Pyidaungsu"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -2208,7 +2664,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2251,6 +2707,51 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2965,6 +3466,222 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A40"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="53.33203125" style="22" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="22" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" s="22" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" s="21" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" s="21" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" s="21" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" s="21" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" s="21" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" s="21" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" s="21" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" s="21" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" s="21" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" s="21" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" s="21" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14" s="21" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15" s="21" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16" s="21" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="21" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="21" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="21" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="21" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" s="21" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" s="21" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" s="21" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" s="21" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" s="21" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" s="21" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" s="21" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" s="21" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" s="21" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31" s="21" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32" s="21" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" s="21" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35" s="21" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36" s="21" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37" s="21" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A38" s="21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A39" s="21" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A40" s="21"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C47"/>
@@ -6659,7 +7376,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
@@ -7001,4 +7718,208 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35:XFD35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="48" style="18" customWidth="1"/>
+    <col min="2" max="16384" width="8.88671875" style="18"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="18" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="17" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="17"/>
+    </row>
+    <row r="4" spans="1:4" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="16" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="16" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="16" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="16" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="15" t="s">
+        <v>703</v>
+      </c>
+      <c r="B9" s="19"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="19"/>
+    </row>
+    <row r="10" spans="1:4" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="16" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="23" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="23"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="24" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="24" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A16" s="24" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="24"/>
+    </row>
+    <row r="18" spans="1:4" ht="36" x14ac:dyDescent="0.3">
+      <c r="A18" s="25" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A19" s="26" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A21" s="26" t="s">
+        <v>714</v>
+      </c>
+      <c r="B21"/>
+      <c r="C21"/>
+      <c r="D21"/>
+    </row>
+    <row r="22" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A22" s="26"/>
+      <c r="B22"/>
+      <c r="C22"/>
+      <c r="D22"/>
+    </row>
+    <row r="23" spans="1:4" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="A23" s="27" t="s">
+        <v>715</v>
+      </c>
+      <c r="B23"/>
+      <c r="C23"/>
+      <c r="D23"/>
+    </row>
+    <row r="24" spans="1:4" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="A24" s="27" t="s">
+        <v>716</v>
+      </c>
+      <c r="B24"/>
+      <c r="C24"/>
+      <c r="D24"/>
+    </row>
+    <row r="25" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A25" s="24" t="s">
+        <v>717</v>
+      </c>
+      <c r="B25"/>
+      <c r="C25"/>
+      <c r="D25"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="24"/>
+      <c r="B26"/>
+      <c r="C26"/>
+      <c r="D26"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="28" t="s">
+        <v>719</v>
+      </c>
+      <c r="B27" s="29"/>
+      <c r="C27" s="28"/>
+      <c r="D27" s="29"/>
+    </row>
+    <row r="28" spans="1:4" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="A28" s="16" t="s">
+        <v>718</v>
+      </c>
+      <c r="B28"/>
+      <c r="C28"/>
+      <c r="D28"/>
+    </row>
+    <row r="29" spans="1:4" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="A29" s="16"/>
+      <c r="B29"/>
+      <c r="C29"/>
+      <c r="D29"/>
+    </row>
+    <row r="30" spans="1:4" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="A30" s="16" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="A31" s="16"/>
+    </row>
+    <row r="32" spans="1:4" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="A32" s="16" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="A33" s="16" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="A34" s="16" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="A35" s="16"/>
+    </row>
+    <row r="36" spans="1:1" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="A36" s="28" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="A37" s="16" t="s">
+        <v>725</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/1.xlsx
+++ b/1.xlsx
@@ -2132,120 +2132,50 @@
     <t>Lesson 1 Grammar</t>
   </si>
   <si>
-    <t>၁။ - ဖြစ်ပါသည်။</t>
+    <t>ကျွန်တော်သည် မီလာဖြစ်ပါတယ်</t>
+  </si>
+  <si>
+    <t>အင်္ဂလိပ်</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>ကျွန်တော်သည် ကျောင်းသား မဟုတ်ပါဘူး။</t>
+  </si>
+  <si>
+    <t>မီလာစံက ကုမ္ပဏီဝန်ထမ်းဖြစ်ပါသလား။</t>
+  </si>
+  <si>
+    <t>စန်တိုစုစံ လည်းဘဲ ကုမ္ပဏီဝန်ထမ်း ဖြစ်ပါတယ်။</t>
+  </si>
+  <si>
+    <t>##### ၁။ - ဖြစ်ပါသည်။</t>
+  </si>
+  <si>
+    <t>##### ၂။ - မဟုတ်ပါဘူး။</t>
+  </si>
+  <si>
+    <t>##### ၃။ - ဖြစ်ပါသလား။</t>
+  </si>
+  <si>
+    <t>##### ၄။ - လည်းဘဲ - ဖြစ်ပါတယ်။</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    - ---wa --- desu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - ---သည်/က ---ဖြစ်ပါသည်။</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - ---wa ---jya(dewa) arimasen</t>
   </si>
   <si>
     <r>
-      <t xml:space="preserve">--- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="MS Gothic"/>
-        <family val="3"/>
-      </rPr>
-      <t>は</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Pyidaungsu"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> --- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="MS Gothic"/>
-        <family val="3"/>
-      </rPr>
-      <t>です</t>
-    </r>
-  </si>
-  <si>
-    <t>---wa --- desu</t>
-  </si>
-  <si>
-    <t>---သည်/က ---ဖြစ်ပါသည်။</t>
-  </si>
-  <si>
-    <t>わたし は ミラー です。</t>
-  </si>
-  <si>
-    <t>ကျွန်တော်သည် မီလာဖြစ်ပါတယ်</t>
-  </si>
-  <si>
-    <t>အင်္ဂလိပ်</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>Test</t>
-  </si>
-  <si>
-    <t>၂။ - မဟုတ်ပါဘူး။</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">--- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="MS Gothic"/>
-        <family val="3"/>
-      </rPr>
-      <t>は</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> --- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="MS Gothic"/>
-        <family val="3"/>
-      </rPr>
-      <t>じゃ（では）</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="MS Gothic"/>
-        <family val="3"/>
-      </rPr>
-      <t>ありません。</t>
-    </r>
-  </si>
-  <si>
-    <t>---wa ---jya(dewa) arimasen</t>
-  </si>
-  <si>
-    <r>
-      <t>---</t>
+      <t xml:space="preserve">  - ---</t>
     </r>
     <r>
       <rPr>
@@ -2294,52 +2224,11 @@
     </r>
   </si>
   <si>
-    <t>わたし　は　がくせい　じゃありません。</t>
-  </si>
-  <si>
-    <t>ကျွန်တော်သည် ကျောင်းသား မဟုတ်ပါဘူး။</t>
-  </si>
-  <si>
-    <t>၃။ - ဖြစ်ပါသလား။</t>
+    <t xml:space="preserve">  -  ---wa ---desuka</t>
   </si>
   <si>
     <r>
-      <t>---</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="MS Gothic"/>
-        <family val="3"/>
-      </rPr>
-      <t>は</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Pyidaungsu"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> ---</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="MS Gothic"/>
-        <family val="3"/>
-      </rPr>
-      <t>ですか</t>
-    </r>
-  </si>
-  <si>
-    <t>---wa ---desuka</t>
-  </si>
-  <si>
-    <r>
-      <t>---</t>
+      <t xml:space="preserve">  -  ---</t>
     </r>
     <r>
       <rPr>
@@ -2388,17 +2277,20 @@
     </r>
   </si>
   <si>
-    <t>မီလာစံက ကုမ္ပဏီဝန်ထမ်းဖြစ်ပါသလား။</t>
-  </si>
-  <si>
-    <t>ミラーさんはかいしゃいんですか？</t>
-  </si>
-  <si>
-    <t>၄။ - လည်းဘဲ - ဖြစ်ပါတယ်။</t>
+    <t xml:space="preserve">  - --- mo --- desu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - --- လည်းဘဲ --- ဖြစ်ပါတယ်။</t>
+  </si>
+  <si>
+    <t>わたし　**は**　ミラー　**です**。</t>
+  </si>
+  <si>
+    <t>わたし　**は**　がくせい　**じゃありません**。</t>
   </si>
   <si>
     <r>
-      <t>---</t>
+      <t xml:space="preserve">  - ---**</t>
     </r>
     <r>
       <rPr>
@@ -2407,7 +2299,7 @@
         <rFont val="MS Gothic"/>
         <family val="3"/>
       </rPr>
-      <t>も</t>
+      <t>は**</t>
     </r>
     <r>
       <rPr>
@@ -2416,7 +2308,7 @@
         <rFont val="Pyidaungsu"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> ---</t>
+      <t xml:space="preserve"> ---**</t>
     </r>
     <r>
       <rPr>
@@ -2425,76 +2317,119 @@
         <rFont val="MS Gothic"/>
         <family val="3"/>
       </rPr>
-      <t>です</t>
+      <t>ですか**</t>
     </r>
   </si>
   <si>
-    <t>--- mo --- desu</t>
-  </si>
-  <si>
-    <t>--- လည်းဘဲ --- ဖြစ်ပါတယ်။</t>
+    <t>ミラーさん　**は**　かいしゃいん　**ですか**？</t>
   </si>
   <si>
     <r>
-      <t>サントスさん</t>
+      <t xml:space="preserve">  - ---**</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="3"/>
+      </rPr>
+      <t>も**</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Pyidaungsu"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> ---**</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="3"/>
+      </rPr>
+      <t>です**</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>サントスさん　**</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Mincho"/>
+        <family val="1"/>
+      </rPr>
+      <t>も**　</t>
     </r>
     <r>
       <rPr>
         <sz val="12"/>
         <color rgb="FF666666"/>
-        <rFont val="Pyidaungsu"/>
-        <family val="2"/>
+        <rFont val="Yu Mincho"/>
+        <family val="1"/>
       </rPr>
-      <t xml:space="preserve"> </t>
+      <t>かいしゃいん　**</t>
     </r>
     <r>
       <rPr>
         <sz val="12"/>
         <color rgb="FFFF0000"/>
-        <rFont val="MS UI Gothic"/>
-        <family val="2"/>
+        <rFont val="Yu Mincho"/>
+        <family val="1"/>
       </rPr>
-      <t>も</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Pyidaungsu"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
+      <t>です**</t>
     </r>
     <r>
       <rPr>
         <sz val="12"/>
         <color rgb="FF666666"/>
-        <rFont val="MS UI Gothic"/>
-        <family val="2"/>
+        <rFont val="Yu Mincho"/>
+        <family val="1"/>
       </rPr>
-      <t>かいしゃいん</t>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    - --- **</t>
     </r>
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="MS UI Gothic"/>
-        <family val="2"/>
+        <color theme="1"/>
+        <rFont val="Yu Mincho"/>
+        <family val="1"/>
       </rPr>
-      <t>です</t>
+      <t>は</t>
     </r>
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FF666666"/>
-        <rFont val="MS UI Gothic"/>
+        <color theme="1"/>
+        <rFont val="Pyidaungsu"/>
         <family val="2"/>
       </rPr>
-      <t>。</t>
+      <t>** --- **</t>
     </r>
-  </si>
-  <si>
-    <t>စန်တိုစုစံ လည်းဘဲ ကုမ္ပဏီဝန်ထမ်း ဖြစ်ပါတယ်။</t>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="3"/>
+      </rPr>
+      <t>です**</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">  - --- **は** --- **じゃ（では） ありません**。</t>
   </si>
 </sst>
 </file>
@@ -2575,12 +2510,6 @@
     <font>
       <sz val="10.5"/>
       <color theme="1"/>
-      <name val="MS Gothic"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <sz val="10.5"/>
-      <color theme="1"/>
       <name val="Myanmar Text"/>
       <family val="2"/>
     </font>
@@ -2598,21 +2527,27 @@
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FF666666"/>
-      <name val="Pyidaungsu"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="MS UI Gothic"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Yu Mincho"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF666666"/>
+      <name val="Yu Mincho"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color rgb="FFFF0000"/>
-      <name val="Pyidaungsu"/>
-      <family val="2"/>
+      <name val="Yu Mincho"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -2664,7 +2599,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2708,9 +2643,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2738,16 +2670,22 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3476,206 +3414,206 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="53.33203125" style="22" customWidth="1"/>
+    <col min="1" max="1" width="53.33203125" style="21" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" s="22" t="s">
-        <v>707</v>
+      <c r="A1" s="21" t="s">
+        <v>702</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" s="22" t="s">
-        <v>706</v>
+      <c r="A2" s="21" t="s">
+        <v>701</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="20" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="20" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="20" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="20" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="20" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A8" s="21" t="s">
+      <c r="A8" s="20" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="20" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A10" s="21" t="s">
+      <c r="A10" s="20" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A11" s="21" t="s">
+      <c r="A11" s="20" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A12" s="21" t="s">
+      <c r="A12" s="20" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A13" s="21" t="s">
+      <c r="A13" s="20" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A14" s="21" t="s">
+      <c r="A14" s="20" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A15" s="21" t="s">
+      <c r="A15" s="20" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A16" s="21" t="s">
+      <c r="A16" s="20" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" s="21" t="s">
+      <c r="A17" s="20" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" s="21" t="s">
+      <c r="A18" s="20" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" s="21" t="s">
+      <c r="A19" s="20" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" s="21" t="s">
+      <c r="A20" s="20" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" s="21" t="s">
+      <c r="A21" s="20" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" s="21" t="s">
+      <c r="A22" s="20" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" s="21" t="s">
-        <v>705</v>
+      <c r="A23" s="20" t="s">
+        <v>700</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24" s="21" t="s">
+      <c r="A24" s="20" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25" s="21" t="s">
+      <c r="A25" s="20" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A26" s="21" t="s">
+      <c r="A26" s="20" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A27" s="21" t="s">
+      <c r="A27" s="20" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A28" s="21" t="s">
+      <c r="A28" s="20" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A29" s="21" t="s">
+      <c r="A29" s="20" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A30" s="21" t="s">
+      <c r="A30" s="20" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A31" s="21" t="s">
+      <c r="A31" s="20" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A32" s="21" t="s">
+      <c r="A32" s="20" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A33" s="21" t="s">
+      <c r="A33" s="20" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A34" s="21" t="s">
+      <c r="A34" s="20" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A35" s="21" t="s">
+      <c r="A35" s="20" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A36" s="21" t="s">
+      <c r="A36" s="20" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A37" s="21" t="s">
+      <c r="A37" s="20" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A38" s="21" t="s">
+      <c r="A38" s="20" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A39" s="21" t="s">
+      <c r="A39" s="20" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A40" s="21"/>
+      <c r="A40" s="20"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7724,198 +7662,198 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35:XFD35"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="48" style="18" customWidth="1"/>
-    <col min="2" max="16384" width="8.88671875" style="18"/>
+    <col min="1" max="1" width="48" style="17" customWidth="1"/>
+    <col min="2" max="16384" width="8.88671875" style="17"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="17" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="16" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="16"/>
+    </row>
+    <row r="4" spans="1:4" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="15" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="15" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="15" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="15" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="29" t="s">
+        <v>718</v>
+      </c>
+      <c r="B9" s="18"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="18"/>
+    </row>
+    <row r="10" spans="1:4" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="15" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="22" t="s">
         <v>707</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="17" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="17"/>
-    </row>
-    <row r="4" spans="1:4" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="16" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="16" t="s">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="16" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="16" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="15" t="s">
+    <row r="13" spans="1:4" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="22"/>
+    </row>
+    <row r="14" spans="1:4" ht="18" x14ac:dyDescent="0.3">
+      <c r="A14" s="24" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="23" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A16" s="23" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="23"/>
+    </row>
+    <row r="18" spans="1:4" ht="18" x14ac:dyDescent="0.3">
+      <c r="A18" s="24" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A19" s="25" t="s">
         <v>703</v>
       </c>
-      <c r="B9" s="19"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="19"/>
-    </row>
-    <row r="10" spans="1:4" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A10" s="16" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A12" s="23" t="s">
+    </row>
+    <row r="21" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A21" s="25" t="s">
         <v>708</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A13" s="23"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="24" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="24" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A16" s="24" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="24"/>
-    </row>
-    <row r="18" spans="1:4" ht="36" x14ac:dyDescent="0.3">
-      <c r="A18" s="25" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A19" s="26" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A21" s="26" t="s">
-        <v>714</v>
       </c>
       <c r="B21"/>
       <c r="C21"/>
       <c r="D21"/>
     </row>
     <row r="22" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A22" s="26"/>
+      <c r="A22" s="25"/>
       <c r="B22"/>
       <c r="C22"/>
       <c r="D22"/>
     </row>
     <row r="23" spans="1:4" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A23" s="27" t="s">
-        <v>715</v>
+      <c r="A23" s="26" t="s">
+        <v>720</v>
       </c>
       <c r="B23"/>
       <c r="C23"/>
       <c r="D23"/>
     </row>
     <row r="24" spans="1:4" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A24" s="27" t="s">
-        <v>716</v>
+      <c r="A24" s="26" t="s">
+        <v>714</v>
       </c>
       <c r="B24"/>
       <c r="C24"/>
       <c r="D24"/>
     </row>
     <row r="25" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A25" s="24" t="s">
-        <v>717</v>
+      <c r="A25" s="23" t="s">
+        <v>715</v>
       </c>
       <c r="B25"/>
       <c r="C25"/>
       <c r="D25"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="24"/>
+      <c r="A26" s="23"/>
       <c r="B26"/>
       <c r="C26"/>
       <c r="D26"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="28" t="s">
-        <v>719</v>
-      </c>
-      <c r="B27" s="29"/>
-      <c r="C27" s="28"/>
-      <c r="D27" s="29"/>
+    <row r="27" spans="1:4" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A27" s="30" t="s">
+        <v>721</v>
+      </c>
+      <c r="B27" s="28"/>
+      <c r="C27" s="27"/>
+      <c r="D27" s="28"/>
     </row>
     <row r="28" spans="1:4" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A28" s="16" t="s">
-        <v>718</v>
+      <c r="A28" s="15" t="s">
+        <v>704</v>
       </c>
       <c r="B28"/>
       <c r="C28"/>
       <c r="D28"/>
     </row>
     <row r="29" spans="1:4" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A29" s="16"/>
+      <c r="A29" s="15"/>
       <c r="B29"/>
       <c r="C29"/>
       <c r="D29"/>
     </row>
     <row r="30" spans="1:4" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A30" s="16" t="s">
-        <v>720</v>
+      <c r="A30" s="15" t="s">
+        <v>709</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A31" s="16"/>
+      <c r="A31" s="15"/>
     </row>
     <row r="32" spans="1:4" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A32" s="16" t="s">
-        <v>721</v>
+      <c r="A32" s="15" t="s">
+        <v>722</v>
       </c>
     </row>
     <row r="33" spans="1:1" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A33" s="16" t="s">
-        <v>722</v>
+      <c r="A33" s="15" t="s">
+        <v>716</v>
       </c>
     </row>
     <row r="34" spans="1:1" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A34" s="16" t="s">
+      <c r="A34" s="15" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="A35" s="15"/>
+    </row>
+    <row r="36" spans="1:1" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A36" s="30" t="s">
         <v>723</v>
       </c>
     </row>
-    <row r="35" spans="1:1" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A35" s="16"/>
-    </row>
-    <row r="36" spans="1:1" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A36" s="28" t="s">
-        <v>724</v>
-      </c>
-    </row>
     <row r="37" spans="1:1" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A37" s="16" t="s">
-        <v>725</v>
+      <c r="A37" s="15" t="s">
+        <v>705</v>
       </c>
     </row>
   </sheetData>

--- a/1.xlsx
+++ b/1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Data1" sheetId="5" r:id="rId1"/>
@@ -19,9 +19,10 @@
     <sheet name="Data5" sheetId="6" r:id="rId5"/>
     <sheet name="Data6" sheetId="7" r:id="rId6"/>
     <sheet name="Data7" sheetId="8" r:id="rId7"/>
-    <sheet name="Verb" sheetId="9" r:id="rId8"/>
-    <sheet name="Bonpoe" sheetId="10" r:id="rId9"/>
-    <sheet name="Q" sheetId="11" r:id="rId10"/>
+    <sheet name="Data8" sheetId="12" r:id="rId8"/>
+    <sheet name="Verb" sheetId="9" r:id="rId9"/>
+    <sheet name="Bonpoe" sheetId="10" r:id="rId10"/>
+    <sheet name="Q" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="726">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="969" uniqueCount="844">
   <si>
     <t>わたし</t>
   </si>
@@ -2430,6 +2431,360 @@
   </si>
   <si>
     <t xml:space="preserve">  - --- **は** --- **じゃ（では） ありません**。</t>
+  </si>
+  <si>
+    <t>ハンサム「な」</t>
+  </si>
+  <si>
+    <t>ချောမောသော</t>
+  </si>
+  <si>
+    <t>きれい「な」</t>
+  </si>
+  <si>
+    <t>လှပသော၊ သန့်ရှင်းသော</t>
+  </si>
+  <si>
+    <t>しずか「な」</t>
+  </si>
+  <si>
+    <t>တိတ်ဆိတ်သော</t>
+  </si>
+  <si>
+    <t>にぎやか「な」</t>
+  </si>
+  <si>
+    <t>စည်ကားသော၊ သိုက်မြိုက်သော</t>
+  </si>
+  <si>
+    <t>ゆうめい「な」</t>
+  </si>
+  <si>
+    <t>နာမည်ကြီးသော</t>
+  </si>
+  <si>
+    <t>しんせつ「な」</t>
+  </si>
+  <si>
+    <t>ကြင်နာတတ်သော</t>
+  </si>
+  <si>
+    <t>げんき「な」</t>
+  </si>
+  <si>
+    <t>ကျန်းမာသော၊ တက်ကြွသော</t>
+  </si>
+  <si>
+    <t>ひま「な」</t>
+  </si>
+  <si>
+    <t>အားလပ်သော</t>
+  </si>
+  <si>
+    <t>べんり「な」</t>
+  </si>
+  <si>
+    <t>အဆင်ပြေသော</t>
+  </si>
+  <si>
+    <t>すてき「な」</t>
+  </si>
+  <si>
+    <t>လှပသော၊ သပ်ရပ်ခန့်ငြားသော</t>
+  </si>
+  <si>
+    <t>おおきい</t>
+  </si>
+  <si>
+    <t>ကြီးမားသော</t>
+  </si>
+  <si>
+    <t>ちいさい</t>
+  </si>
+  <si>
+    <t>သေးငယ်သော</t>
+  </si>
+  <si>
+    <t>あたらしい</t>
+  </si>
+  <si>
+    <t>သစ်လွင်သော၊ လတ်ဆတ်သော</t>
+  </si>
+  <si>
+    <t>ふるい</t>
+  </si>
+  <si>
+    <t>ဟောင်းနွမ်းသော</t>
+  </si>
+  <si>
+    <t>いい（よい）</t>
+  </si>
+  <si>
+    <t>ကောင်းသော</t>
+  </si>
+  <si>
+    <t>わるい</t>
+  </si>
+  <si>
+    <t>ဆိုးသော</t>
+  </si>
+  <si>
+    <t>あつい</t>
+  </si>
+  <si>
+    <t>အိုက်သော၊ ပူသော</t>
+  </si>
+  <si>
+    <t>さむい</t>
+  </si>
+  <si>
+    <t>ချမ်းသော၊ အေးသော</t>
+  </si>
+  <si>
+    <t>つめたい</t>
+  </si>
+  <si>
+    <t>အေးသော</t>
+  </si>
+  <si>
+    <t>むずかしい</t>
+  </si>
+  <si>
+    <t>ခက်ခဲသော</t>
+  </si>
+  <si>
+    <t>やさしい</t>
+  </si>
+  <si>
+    <t>လွယ်ကူသော</t>
+  </si>
+  <si>
+    <t>たかい</t>
+  </si>
+  <si>
+    <t>စျေးကြီးသော၊ မြင့်သော</t>
+  </si>
+  <si>
+    <t>やすい</t>
+  </si>
+  <si>
+    <t>စျေးပေါသော၊ စျေးသက်သာသော</t>
+  </si>
+  <si>
+    <t>ひくい</t>
+  </si>
+  <si>
+    <t>နိမ့်သော၊ ပုသော</t>
+  </si>
+  <si>
+    <t>おもしろい</t>
+  </si>
+  <si>
+    <t>စိတ်ဝင်စားစရာကောင်းသော</t>
+  </si>
+  <si>
+    <t>おいしい</t>
+  </si>
+  <si>
+    <t>စားလို့ကောင်းသော၊ အရသာရှိသော</t>
+  </si>
+  <si>
+    <t>いさがしい</t>
+  </si>
+  <si>
+    <t>အလုပ်များသော၊ မအားလပ်သော</t>
+  </si>
+  <si>
+    <t>たのしい</t>
+  </si>
+  <si>
+    <t>ပျော်စရာကောင်းသော</t>
+  </si>
+  <si>
+    <t>しろい</t>
+  </si>
+  <si>
+    <t>အဖြူ၊ ဖြူသော</t>
+  </si>
+  <si>
+    <t>くろい</t>
+  </si>
+  <si>
+    <t>အမည်း၊ အနက်၊ မည်းသော၊ နက်သော</t>
+  </si>
+  <si>
+    <t>あかい</t>
+  </si>
+  <si>
+    <t>အနီ၊ နီသော</t>
+  </si>
+  <si>
+    <t>あおい</t>
+  </si>
+  <si>
+    <t>အပြာ၊ ပြာသော</t>
+  </si>
+  <si>
+    <t>さくら</t>
+  </si>
+  <si>
+    <t>ချယ်ရီ</t>
+  </si>
+  <si>
+    <t>やま</t>
+  </si>
+  <si>
+    <t>တောင်၊ တောင်ကုန်း</t>
+  </si>
+  <si>
+    <t>まち</t>
+  </si>
+  <si>
+    <t>မြို့</t>
+  </si>
+  <si>
+    <t>たべもの</t>
+  </si>
+  <si>
+    <t>စားစရာ၊ အစားအစာ</t>
+  </si>
+  <si>
+    <t>ところ</t>
+  </si>
+  <si>
+    <t>နေရာ</t>
+  </si>
+  <si>
+    <t>りょう</t>
+  </si>
+  <si>
+    <t>အဆောင်</t>
+  </si>
+  <si>
+    <t>レストラン</t>
+  </si>
+  <si>
+    <t>အကြီးစား စားသောက်ဆိုင်</t>
+  </si>
+  <si>
+    <t>せいかつ</t>
+  </si>
+  <si>
+    <t>နေထိုင်မှုဘဝ</t>
+  </si>
+  <si>
+    <t>「お」しごと</t>
+  </si>
+  <si>
+    <t>အလုပ်</t>
+  </si>
+  <si>
+    <t>どう</t>
+  </si>
+  <si>
+    <t>ဘယ်လို</t>
+  </si>
+  <si>
+    <t>どんな～</t>
+  </si>
+  <si>
+    <t>ဘယ်လို မျိုး</t>
+  </si>
+  <si>
+    <t>とても</t>
+  </si>
+  <si>
+    <t>အလွန်၊ အရမ်း</t>
+  </si>
+  <si>
+    <t>あまり</t>
+  </si>
+  <si>
+    <t>သိပ်</t>
+  </si>
+  <si>
+    <t>そして</t>
+  </si>
+  <si>
+    <t>နောက်ပြီး၊ ထို့နောက်</t>
+  </si>
+  <si>
+    <t>～が、～</t>
+  </si>
+  <si>
+    <t>ပေမဲ့၊ သော်လည်း</t>
+  </si>
+  <si>
+    <t>おげんきですか</t>
+  </si>
+  <si>
+    <t>နေကောင်းပါသလား၊ နေကောင်းပါရဲ့လား</t>
+  </si>
+  <si>
+    <t>ဘယ်လိုပြောရမလဲ</t>
+  </si>
+  <si>
+    <t>もういっぱい　いかがですか</t>
+  </si>
+  <si>
+    <t>နောက်တစ်ပွဲ၊ နောက်တစ်ခွက် ဘယ်လိုလဲ</t>
+  </si>
+  <si>
+    <t>「いいえ」けっこうです</t>
+  </si>
+  <si>
+    <t>တော်ပါပြီ</t>
+  </si>
+  <si>
+    <t>もう　～　です「ね」</t>
+  </si>
+  <si>
+    <t>ကျ၊ ရောက်၊ တန်ပြီ ပဲ။</t>
+  </si>
+  <si>
+    <t>そろそろ　しつれいします</t>
+  </si>
+  <si>
+    <t>ပြန်လိုက်ပါဦးမယ်၊ ပြန်တော့မယ်</t>
+  </si>
+  <si>
+    <t>မဟုတ်တာ</t>
+  </si>
+  <si>
+    <t>また　いらっしゃって　ください</t>
+  </si>
+  <si>
+    <t>နောက်ထပ်လာလည်ပါဦး</t>
+  </si>
+  <si>
+    <t>シャンハイ</t>
+  </si>
+  <si>
+    <t>ရှန်ဟိုင်း</t>
+  </si>
+  <si>
+    <t>きんかくじ</t>
+  </si>
+  <si>
+    <t>ခင်းကခု ဘုရားကျောင်း</t>
+  </si>
+  <si>
+    <t>ならこうえん</t>
+  </si>
+  <si>
+    <t>နရပန်းခြံ</t>
+  </si>
+  <si>
+    <t>ふじさん</t>
+  </si>
+  <si>
+    <t>ဖူဂျီတောင်</t>
+  </si>
+  <si>
+    <t>しちにんの　さむらい</t>
+  </si>
+  <si>
+    <t>ဆာမူရိုင်းခုနှစ်ယောက်</t>
   </si>
 </sst>
 </file>
@@ -3406,6 +3761,210 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D37"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="48" style="17" customWidth="1"/>
+    <col min="2" max="16384" width="8.88671875" style="17"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="17" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="16" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="16"/>
+    </row>
+    <row r="4" spans="1:4" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="15" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="15" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="15" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="15" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="29" t="s">
+        <v>718</v>
+      </c>
+      <c r="B9" s="18"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="18"/>
+    </row>
+    <row r="10" spans="1:4" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="15" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="22" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="22"/>
+    </row>
+    <row r="14" spans="1:4" ht="18" x14ac:dyDescent="0.3">
+      <c r="A14" s="24" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="23" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A16" s="23" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="23"/>
+    </row>
+    <row r="18" spans="1:4" ht="18" x14ac:dyDescent="0.3">
+      <c r="A18" s="24" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A19" s="25" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A21" s="25" t="s">
+        <v>708</v>
+      </c>
+      <c r="B21"/>
+      <c r="C21"/>
+      <c r="D21"/>
+    </row>
+    <row r="22" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A22" s="25"/>
+      <c r="B22"/>
+      <c r="C22"/>
+      <c r="D22"/>
+    </row>
+    <row r="23" spans="1:4" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="A23" s="26" t="s">
+        <v>720</v>
+      </c>
+      <c r="B23"/>
+      <c r="C23"/>
+      <c r="D23"/>
+    </row>
+    <row r="24" spans="1:4" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="A24" s="26" t="s">
+        <v>714</v>
+      </c>
+      <c r="B24"/>
+      <c r="C24"/>
+      <c r="D24"/>
+    </row>
+    <row r="25" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A25" s="23" t="s">
+        <v>715</v>
+      </c>
+      <c r="B25"/>
+      <c r="C25"/>
+      <c r="D25"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="23"/>
+      <c r="B26"/>
+      <c r="C26"/>
+      <c r="D26"/>
+    </row>
+    <row r="27" spans="1:4" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A27" s="30" t="s">
+        <v>721</v>
+      </c>
+      <c r="B27" s="28"/>
+      <c r="C27" s="27"/>
+      <c r="D27" s="28"/>
+    </row>
+    <row r="28" spans="1:4" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="A28" s="15" t="s">
+        <v>704</v>
+      </c>
+      <c r="B28"/>
+      <c r="C28"/>
+      <c r="D28"/>
+    </row>
+    <row r="29" spans="1:4" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="A29" s="15"/>
+      <c r="B29"/>
+      <c r="C29"/>
+      <c r="D29"/>
+    </row>
+    <row r="30" spans="1:4" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="A30" s="15" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="A31" s="15"/>
+    </row>
+    <row r="32" spans="1:4" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="A32" s="15" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="A33" s="15" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="A34" s="15" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="A35" s="15"/>
+    </row>
+    <row r="36" spans="1:1" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A36" s="30" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="A37" s="15" t="s">
+        <v>705</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6782,7 +7341,7 @@
   <dimension ref="A1:C47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7311,6 +7870,691 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C61"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="36.6" customHeight="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="45.77734375" customWidth="1"/>
+    <col min="3" max="3" width="46.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>726</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>728</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>730</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>732</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="4">
+        <v>5</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>734</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="4">
+        <v>6</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>736</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="4">
+        <v>7</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>738</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="4">
+        <v>8</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>740</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="4">
+        <v>9</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>742</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="4">
+        <v>10</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>744</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="4">
+        <v>11</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>746</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="4">
+        <v>12</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>748</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="4">
+        <v>13</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>750</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="4">
+        <v>14</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>752</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="4">
+        <v>15</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>754</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="4">
+        <v>16</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>756</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="4">
+        <v>17</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>758</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="4">
+        <v>18</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>760</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="4">
+        <v>19</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>762</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="4">
+        <v>20</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>764</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="4">
+        <v>21</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>766</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="4">
+        <v>22</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>768</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="4">
+        <v>23</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>770</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="4">
+        <v>24</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>772</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="4">
+        <v>25</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>774</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="4">
+        <v>26</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>776</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="4">
+        <v>27</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>778</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="4">
+        <v>28</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>780</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="4">
+        <v>29</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>782</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="4">
+        <v>30</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>784</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="4">
+        <v>31</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>786</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="4">
+        <v>32</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>788</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="4">
+        <v>33</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>790</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="4">
+        <v>34</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>792</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="4">
+        <v>35</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>794</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="4">
+        <v>36</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>796</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="4">
+        <v>37</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>798</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="4">
+        <v>38</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>800</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="4">
+        <v>39</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>802</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="4">
+        <v>40</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>804</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="4">
+        <v>41</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>806</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="4">
+        <v>42</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>808</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="4">
+        <v>43</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>810</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="4">
+        <v>44</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>812</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="4">
+        <v>45</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>814</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="4">
+        <v>46</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>816</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="4">
+        <v>47</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>818</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="4">
+        <v>48</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>820</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="4">
+        <v>49</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>479</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="4">
+        <v>50</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>823</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="4">
+        <v>51</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>825</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="4">
+        <v>52</v>
+      </c>
+      <c r="B53" s="7" t="s">
+        <v>827</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="4">
+        <v>53</v>
+      </c>
+      <c r="B54" s="7" t="s">
+        <v>829</v>
+      </c>
+      <c r="C54" s="8" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="4">
+        <v>54</v>
+      </c>
+      <c r="B55" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C55" s="8" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="4">
+        <v>55</v>
+      </c>
+      <c r="B56" s="7" t="s">
+        <v>832</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="4">
+        <v>56</v>
+      </c>
+      <c r="B57" s="7" t="s">
+        <v>834</v>
+      </c>
+      <c r="C57" s="8" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="4">
+        <v>57</v>
+      </c>
+      <c r="B58" s="7" t="s">
+        <v>836</v>
+      </c>
+      <c r="C58" s="8" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="4">
+        <v>58</v>
+      </c>
+      <c r="B59" s="7" t="s">
+        <v>838</v>
+      </c>
+      <c r="C59" s="8" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="4">
+        <v>59</v>
+      </c>
+      <c r="B60" s="7" t="s">
+        <v>840</v>
+      </c>
+      <c r="C60" s="8" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="4">
+        <v>60</v>
+      </c>
+      <c r="B61" s="7" t="s">
+        <v>842</v>
+      </c>
+      <c r="C61" s="8" t="s">
+        <v>843</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C30"/>
   <sheetViews>
@@ -7656,208 +8900,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D37"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="48" style="17" customWidth="1"/>
-    <col min="2" max="16384" width="8.88671875" style="17"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="16" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="16"/>
-    </row>
-    <row r="4" spans="1:4" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="15" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="15" t="s">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="15" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="15" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="19.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="29" t="s">
-        <v>718</v>
-      </c>
-      <c r="B9" s="18"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="18"/>
-    </row>
-    <row r="10" spans="1:4" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A10" s="15" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A12" s="22" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A13" s="22"/>
-    </row>
-    <row r="14" spans="1:4" ht="18" x14ac:dyDescent="0.3">
-      <c r="A14" s="24" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="23" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A16" s="23" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="23"/>
-    </row>
-    <row r="18" spans="1:4" ht="18" x14ac:dyDescent="0.3">
-      <c r="A18" s="24" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A19" s="25" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A21" s="25" t="s">
-        <v>708</v>
-      </c>
-      <c r="B21"/>
-      <c r="C21"/>
-      <c r="D21"/>
-    </row>
-    <row r="22" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A22" s="25"/>
-      <c r="B22"/>
-      <c r="C22"/>
-      <c r="D22"/>
-    </row>
-    <row r="23" spans="1:4" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A23" s="26" t="s">
-        <v>720</v>
-      </c>
-      <c r="B23"/>
-      <c r="C23"/>
-      <c r="D23"/>
-    </row>
-    <row r="24" spans="1:4" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A24" s="26" t="s">
-        <v>714</v>
-      </c>
-      <c r="B24"/>
-      <c r="C24"/>
-      <c r="D24"/>
-    </row>
-    <row r="25" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A25" s="23" t="s">
-        <v>715</v>
-      </c>
-      <c r="B25"/>
-      <c r="C25"/>
-      <c r="D25"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="23"/>
-      <c r="B26"/>
-      <c r="C26"/>
-      <c r="D26"/>
-    </row>
-    <row r="27" spans="1:4" ht="19.8" x14ac:dyDescent="0.3">
-      <c r="A27" s="30" t="s">
-        <v>721</v>
-      </c>
-      <c r="B27" s="28"/>
-      <c r="C27" s="27"/>
-      <c r="D27" s="28"/>
-    </row>
-    <row r="28" spans="1:4" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A28" s="15" t="s">
-        <v>704</v>
-      </c>
-      <c r="B28"/>
-      <c r="C28"/>
-      <c r="D28"/>
-    </row>
-    <row r="29" spans="1:4" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A29" s="15"/>
-      <c r="B29"/>
-      <c r="C29"/>
-      <c r="D29"/>
-    </row>
-    <row r="30" spans="1:4" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A30" s="15" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A31" s="15"/>
-    </row>
-    <row r="32" spans="1:4" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A32" s="15" t="s">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A33" s="15" t="s">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A34" s="15" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A35" s="15"/>
-    </row>
-    <row r="36" spans="1:1" ht="19.8" x14ac:dyDescent="0.3">
-      <c r="A36" s="30" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A37" s="15" t="s">
-        <v>705</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/1.xlsx
+++ b/1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="Data1" sheetId="5" r:id="rId1"/>
@@ -21,8 +21,11 @@
     <sheet name="Data7" sheetId="8" r:id="rId7"/>
     <sheet name="Data8" sheetId="12" r:id="rId8"/>
     <sheet name="Verb" sheetId="9" r:id="rId9"/>
-    <sheet name="Bonpoe" sheetId="10" r:id="rId10"/>
-    <sheet name="Q" sheetId="11" r:id="rId11"/>
+    <sheet name="Bonpoe1" sheetId="10" r:id="rId10"/>
+    <sheet name="Bonpoe2" sheetId="14" r:id="rId11"/>
+    <sheet name="Bonpoe3" sheetId="15" r:id="rId12"/>
+    <sheet name="Sheet1" sheetId="13" r:id="rId13"/>
+    <sheet name="Q" sheetId="11" r:id="rId14"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -34,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="969" uniqueCount="844">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1013" uniqueCount="886">
   <si>
     <t>わたし</t>
   </si>
@@ -2128,9 +2131,6 @@
   </si>
   <si>
     <t>တွေ့သည်</t>
-  </si>
-  <si>
-    <t>Lesson 1 Grammar</t>
   </si>
   <si>
     <t>ကျွန်တော်သည် မီလာဖြစ်ပါတယ်</t>
@@ -2712,9 +2712,6 @@
     <t>～が、～</t>
   </si>
   <si>
-    <t>ပေမဲ့၊ သော်လည်း</t>
-  </si>
-  <si>
     <t>おげんきですか</t>
   </si>
   <si>
@@ -2739,9 +2736,6 @@
     <t>もう　～　です「ね」</t>
   </si>
   <si>
-    <t>ကျ၊ ရောက်၊ တန်ပြီ ပဲ။</t>
-  </si>
-  <si>
     <t>そろそろ　しつれいします</t>
   </si>
   <si>
@@ -2785,13 +2779,148 @@
   </si>
   <si>
     <t>ဆာမူရိုင်းခုနှစ်ယောက်</t>
+  </si>
+  <si>
+    <t>～ ကျ၊ ရောက်၊ တန်ပြီ ပဲ။</t>
+  </si>
+  <si>
+    <t>～ ပေမဲ့၊ ～ သော်လည်း</t>
+  </si>
+  <si>
+    <t>##### めいし (N) နာမ်</t>
+  </si>
+  <si>
+    <t>**めいし** တွင် (2) မျိုးရှိသည်။</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - I. လုပ်ဆောင်ချက် လှုပ်ရှားမှုမပါတဲ့ **めいし** (အမည်နာမ)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - II. လုပ်ဆောင်ချက် လှုပ်ရှားပါတဲ့ **めいし** (~ခြင်း)</t>
+  </si>
+  <si>
+    <t>##### I. လုပ်ဆောင်ချက် လှုပ်ရှားမှုမပါတဲ့ **めいし** က **です**နှင့်တွဲသည်။</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - **N** + **です** (N ဖြစ်ပါသည်)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - **N1** + **は** + **N2** + **です** (N က N ဖြစ်ပါသည်)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - Eg - わたし　**は**　がくせい　**です**。</t>
+  </si>
+  <si>
+    <t>##### II. လုပ်ဆောင်ချက် လှုပ်ရှားမှုပါတဲ့ **めいし** က **します**နှင့်တွဲသည်။</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - **N** + **します** (N ပြုလုပ်ပါသည်)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - Eg - かいもの　**します**</t>
+  </si>
+  <si>
+    <t>##### です ရဲ့ ကာလပြပုံစံ</t>
+  </si>
+  <si>
+    <t>##### します ရဲ့ ကာလပြပုံစံ</t>
+  </si>
+  <si>
+    <t>##### だい　めいし</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - (**これ**)　**は**　N1　**の**　N2　**です**。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - (**それ**)　**は**　N1　**の**　N2　**です**。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - (**あれ**)　**は**　N1　**の**　N2　**です**。</t>
+  </si>
+  <si>
+    <t>###### **めいし**　နှစ်ခုဆက်တဲ့အခါ　**の**　နဲ့ ဆက်သည်</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - **これ**　=　ဒါ (ကိုယ့်ရဲ့အနီး)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - **それ**　=　အဲဒါ (ကိုယ့်နဲ့ နည်းနည်း ဝေးတဲ့နေရာ)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - **あれ**　=　ဟိုကဟာ (နှစ်ယောက်စလုံးရဲ့ အဝေး)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - **です**　=　ဖြစ်သည်</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - **は**　=　 သည်၊ က၊ မှာ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - **ですか**　=　ဖြစ်ပါသလား</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - **じゃありません** 　=　မဟုတ်ပါဘူး၊ မဖြစ်ပါဘူး</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - **の**　=　ရဲ့၊ ၏ (ပိုင်ဆိုင်မှု၊ တည်ရှိမှု ဖော်ပြရင် သုံးသည်)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - **も**　=　လည်းပဲ (တူညီမှုတွေ ဖော်ပြရင်သုံးသည်)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - **ではありません**　=　မဟုတ်ပါဘူး၊ မဖြစ်ပါဘူး (ပစ္စုပ္ပန်ကာလပြ အငြင်းပုံစံ)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - **です**　=　ဖြစ်သည် ( ပစ္စုပ္ပန်ကာလပြ အဟုတ်ပုံစံ)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - **じゃありません**　=　မဟုတ်ပါဘူး၊ မဖြစ်ပါဘူး (ပစ္စုပ္ပန်ကာလပြ အငြင်းပုံစံ)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - **でした**　=　ဖြစ်ခဲ့သည် (အတိတ်ကာလပြ အဟုတ်ပုံစံ)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - **ではありませんでした**　=　မဖြစ်ခဲ့ဘူး၊ မဟုတ်ခဲ့ဘူး (အတိတ်ကာလပြ အငြင်းပုံစံ)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - **じゃありませんでした**　=　မဖြစ်ခဲ့ဘူး၊ မဟုတ်ခဲ့ဘူး (အတိတ်ကာလပြ အငြင်းပုံစံ)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - **でしょう**　=　ဖြစ်ပေလိမ့်မယ် (အနာဂတ်ကာလပြ ပုံစံ)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - **します**　=　ပြုလုပ်သည် (ပစ္စပ္ပုန်ကာလပြ အဟုတ်ပုံစံ)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - **しません**　=　မပြုလုပ်ဘူး (ပစ္စပ္ပုန်ကာလပြ အငြင်းပုံစံ)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - **しました**　=　ပြုလုပ်ခဲ့ပါသည် (အတိတ်ကာလပြ အဟုတ်ပုံစံ)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - **しませんでした**　=　မပြုလုပ်ခဲ့ပါဘူး (အတိတ်ကာလပြ အငြင်းပုံစံ)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - **しましょ**　=　ပြုလုပ်ကြရအောင် (အနာဂတ်ကာလပြ ပုံစံ)</t>
+  </si>
+  <si>
+    <t>###### (**くに、かいしゃ、だいがく**)　**は**　**どちら**　**ですか**　ဆိုရင် နေရာကိုမေးသည်</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - ဘယ်တိုင်းပြည်၊ ဘယ်နိုင်ငံ၊ ဘယ်ကုမ္ပဏီ၊ ဘယ်တက္ကသိုလ် လို့လဲ မေးခြင်းဖြစ်သည်</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - **どこの、どこの**　+　N　ဆိုရင် ဘယ်နိုင်ငံထုတ်၊ ဘယ်ကထုတ်</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - **いくら**　ဆိုရင် တန်ဖိုးကို မေးခြင်းဖြစ်သည်</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2817,13 +2946,6 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF333333"/>
-      <name val="Pyidaungsu"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -2954,7 +3076,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2998,19 +3120,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3019,32 +3135,53 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="5"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3761,200 +3898,212 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D37"/>
+  <dimension ref="A1:D45"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView topLeftCell="A40" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="48" style="17" customWidth="1"/>
-    <col min="2" max="16384" width="8.88671875" style="17"/>
+    <col min="1" max="1" width="62.33203125" style="15" customWidth="1"/>
+    <col min="2" max="16384" width="8.88671875" style="15"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="16" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="16"/>
-    </row>
-    <row r="4" spans="1:4" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="A1" s="15" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="15" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="15" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="22.8" x14ac:dyDescent="0.3">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="15" t="s">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="22.8" x14ac:dyDescent="0.3">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="15" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="22.8" x14ac:dyDescent="0.3">
+        <v>867</v>
+      </c>
+      <c r="B6" s="16"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="16"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="15" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="19.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="29" t="s">
-        <v>718</v>
-      </c>
-      <c r="B9" s="18"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="18"/>
-    </row>
-    <row r="10" spans="1:4" ht="22.8" x14ac:dyDescent="0.3">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="15" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="15" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A12" s="22" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A13" s="22"/>
-    </row>
-    <row r="14" spans="1:4" ht="18" x14ac:dyDescent="0.3">
-      <c r="A14" s="24" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="23" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A16" s="23" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="23"/>
-    </row>
-    <row r="18" spans="1:4" ht="18" x14ac:dyDescent="0.3">
-      <c r="A18" s="24" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A19" s="25" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A21" s="25" t="s">
-        <v>708</v>
-      </c>
+        <v>843</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="15" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="15" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="15" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="15" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="15" t="s">
+        <v>848</v>
+      </c>
+      <c r="B18"/>
+      <c r="C18"/>
+      <c r="D18"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="15" t="s">
+        <v>849</v>
+      </c>
+      <c r="B19"/>
+      <c r="C19"/>
+      <c r="D19"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="15" t="s">
+        <v>850</v>
+      </c>
+      <c r="B20"/>
+      <c r="C20"/>
+      <c r="D20"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B21"/>
       <c r="C21"/>
       <c r="D21"/>
     </row>
-    <row r="22" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A22" s="25"/>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="15" t="s">
+        <v>851</v>
+      </c>
       <c r="B22"/>
       <c r="C22"/>
       <c r="D22"/>
     </row>
-    <row r="23" spans="1:4" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A23" s="26" t="s">
-        <v>720</v>
-      </c>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B23"/>
       <c r="C23"/>
       <c r="D23"/>
     </row>
-    <row r="24" spans="1:4" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A24" s="26" t="s">
-        <v>714</v>
-      </c>
-      <c r="B24"/>
-      <c r="C24"/>
-      <c r="D24"/>
-    </row>
-    <row r="25" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A25" s="23" t="s">
-        <v>715</v>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="15" t="s">
+        <v>852</v>
+      </c>
+      <c r="B24" s="21"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="21"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="15" t="s">
+        <v>853</v>
       </c>
       <c r="B25"/>
       <c r="C25"/>
       <c r="D25"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="23"/>
       <c r="B26"/>
       <c r="C26"/>
       <c r="D26"/>
     </row>
-    <row r="27" spans="1:4" ht="19.8" x14ac:dyDescent="0.3">
-      <c r="A27" s="30" t="s">
-        <v>721</v>
-      </c>
-      <c r="B27" s="28"/>
-      <c r="C27" s="27"/>
-      <c r="D27" s="28"/>
-    </row>
-    <row r="28" spans="1:4" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A28" s="15" t="s">
-        <v>704</v>
-      </c>
-      <c r="B28"/>
-      <c r="C28"/>
-      <c r="D28"/>
-    </row>
-    <row r="29" spans="1:4" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A29" s="15"/>
-      <c r="B29"/>
-      <c r="C29"/>
-      <c r="D29"/>
-    </row>
-    <row r="30" spans="1:4" ht="22.8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="15" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="15" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="15" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A31" s="15"/>
-    </row>
-    <row r="32" spans="1:4" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A32" s="15" t="s">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" ht="22.8" x14ac:dyDescent="0.3">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="15" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" s="15" t="s">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" ht="22.8" x14ac:dyDescent="0.3">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" s="15" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A35" s="15"/>
-    </row>
-    <row r="36" spans="1:1" ht="19.8" x14ac:dyDescent="0.3">
-      <c r="A36" s="30" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" ht="22.8" x14ac:dyDescent="0.3">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35" s="15" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" s="15" t="s">
-        <v>705</v>
+        <v>876</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A39" s="15" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A41" s="15" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A42" s="15" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A43" s="15" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A44" s="15" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A45" s="15" t="s">
+        <v>881</v>
       </c>
     </row>
   </sheetData>
@@ -3964,6 +4113,380 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D29"/>
+  <sheetViews>
+    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="62.33203125" style="15" customWidth="1"/>
+    <col min="2" max="16384" width="8.88671875" style="15"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="15" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="15" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="15" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="15" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="15" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B8" s="16"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="16"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="15" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="15" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="15" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="15" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B21"/>
+      <c r="C21"/>
+      <c r="D21"/>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B22"/>
+      <c r="C22"/>
+      <c r="D22"/>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B23"/>
+      <c r="C23"/>
+      <c r="D23"/>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B24"/>
+      <c r="C24"/>
+      <c r="D24"/>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B25"/>
+      <c r="C25"/>
+      <c r="D25"/>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B26"/>
+      <c r="C26"/>
+      <c r="D26"/>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B27" s="21"/>
+      <c r="C27" s="20"/>
+      <c r="D27" s="21"/>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B28"/>
+      <c r="C28"/>
+      <c r="D28"/>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B29"/>
+      <c r="C29"/>
+      <c r="D29"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="86" style="23" customWidth="1"/>
+    <col min="2" max="16384" width="8.88671875" style="23"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="23" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="23" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="23" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="23" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="23" t="s">
+        <v>885</v>
+      </c>
+      <c r="B8" s="31"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="31"/>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B21" s="33"/>
+      <c r="C21" s="33"/>
+      <c r="D21" s="33"/>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B22" s="33"/>
+      <c r="C22" s="33"/>
+      <c r="D22" s="33"/>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B23" s="33"/>
+      <c r="C23" s="33"/>
+      <c r="D23" s="33"/>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B24" s="33"/>
+      <c r="C24" s="33"/>
+      <c r="D24" s="33"/>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B25" s="33"/>
+      <c r="C25" s="33"/>
+      <c r="D25" s="33"/>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B26" s="33"/>
+      <c r="C26" s="33"/>
+      <c r="D26" s="33"/>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B27" s="34"/>
+      <c r="C27" s="35"/>
+      <c r="D27" s="34"/>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B28" s="33"/>
+      <c r="C28" s="33"/>
+      <c r="D28" s="33"/>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B29" s="33"/>
+      <c r="C29" s="33"/>
+      <c r="D29" s="33"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="56.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="A1" s="22" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A2" s="22" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="22" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="22" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" s="23"/>
+    </row>
+    <row r="6" spans="1:1" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="24" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="22" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" s="23"/>
+    </row>
+    <row r="9" spans="1:1" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="25" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="25"/>
+    </row>
+    <row r="11" spans="1:1" ht="18" x14ac:dyDescent="0.3">
+      <c r="A11" s="26" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" s="27" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A13" s="27" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14" s="27"/>
+    </row>
+    <row r="15" spans="1:1" ht="18" x14ac:dyDescent="0.3">
+      <c r="A15" s="26" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A16" s="28" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="23"/>
+    </row>
+    <row r="18" spans="1:1" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A18" s="28" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A19" s="28"/>
+    </row>
+    <row r="20" spans="1:1" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="A20" s="29" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="A21" s="29" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A22" s="27" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" s="27"/>
+    </row>
+    <row r="24" spans="1:1" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A24" s="30" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="A25" s="22" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="A26" s="22"/>
+    </row>
+    <row r="27" spans="1:1" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="A27" s="22" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="A28" s="22"/>
+    </row>
+    <row r="29" spans="1:1" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="A29" s="22" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="A30" s="22" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="A31" s="22" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="A32" s="22"/>
+    </row>
+    <row r="33" spans="1:1" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A33" s="30" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="A34" s="22" t="s">
+        <v>704</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A40"/>
   <sheetViews>
@@ -3973,206 +4496,206 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="53.33203125" style="21" customWidth="1"/>
+    <col min="1" max="1" width="53.33203125" style="19" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
-        <v>702</v>
+      <c r="A1" s="19" t="s">
+        <v>701</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" s="21" t="s">
-        <v>701</v>
+      <c r="A2" s="19" t="s">
+        <v>700</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="18" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="18" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="18" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="18" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="18" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="18" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A9" s="20" t="s">
+      <c r="A9" s="18" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A10" s="20" t="s">
+      <c r="A10" s="18" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A11" s="20" t="s">
+      <c r="A11" s="18" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A12" s="20" t="s">
+      <c r="A12" s="18" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A13" s="20" t="s">
+      <c r="A13" s="18" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A14" s="20" t="s">
+      <c r="A14" s="18" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A15" s="20" t="s">
+      <c r="A15" s="18" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A16" s="20" t="s">
+      <c r="A16" s="18" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" s="20" t="s">
+      <c r="A17" s="18" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" s="20" t="s">
+      <c r="A18" s="18" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" s="20" t="s">
+      <c r="A19" s="18" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" s="20" t="s">
+      <c r="A20" s="18" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" s="20" t="s">
+      <c r="A21" s="18" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" s="20" t="s">
+      <c r="A22" s="18" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" s="20" t="s">
-        <v>700</v>
+      <c r="A23" s="18" t="s">
+        <v>699</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24" s="20" t="s">
+      <c r="A24" s="18" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25" s="20" t="s">
+      <c r="A25" s="18" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A26" s="20" t="s">
+      <c r="A26" s="18" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A27" s="20" t="s">
+      <c r="A27" s="18" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A28" s="20" t="s">
+      <c r="A28" s="18" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A29" s="20" t="s">
+      <c r="A29" s="18" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A30" s="20" t="s">
+      <c r="A30" s="18" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A31" s="20" t="s">
+      <c r="A31" s="18" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A32" s="20" t="s">
+      <c r="A32" s="18" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A33" s="20" t="s">
+      <c r="A33" s="18" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A34" s="20" t="s">
+      <c r="A34" s="18" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A35" s="20" t="s">
+      <c r="A35" s="18" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A36" s="20" t="s">
+      <c r="A36" s="18" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A37" s="20" t="s">
+      <c r="A37" s="18" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A38" s="20" t="s">
+      <c r="A38" s="18" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A39" s="20" t="s">
+      <c r="A39" s="18" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A40" s="20"/>
+      <c r="A40" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6635,7 +7158,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A60" s="4">
         <v>59</v>
       </c>
@@ -7873,7 +8396,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C49" sqref="C49"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="36.6" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
@@ -7894,10 +8419,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
+        <v>725</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>726</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>727</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -7905,10 +8430,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
+        <v>727</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>728</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>729</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -7916,10 +8441,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
+        <v>729</v>
+      </c>
+      <c r="C4" s="8" t="s">
         <v>730</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>731</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -7927,10 +8452,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
+        <v>731</v>
+      </c>
+      <c r="C5" s="8" t="s">
         <v>732</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>733</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -7938,10 +8463,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="7" t="s">
+        <v>733</v>
+      </c>
+      <c r="C6" s="8" t="s">
         <v>734</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>735</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -7949,10 +8474,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="7" t="s">
+        <v>735</v>
+      </c>
+      <c r="C7" s="8" t="s">
         <v>736</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>737</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -7960,10 +8485,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="7" t="s">
+        <v>737</v>
+      </c>
+      <c r="C8" s="8" t="s">
         <v>738</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>739</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -7971,10 +8496,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="7" t="s">
+        <v>739</v>
+      </c>
+      <c r="C9" s="8" t="s">
         <v>740</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>741</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -7982,10 +8507,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="7" t="s">
+        <v>741</v>
+      </c>
+      <c r="C10" s="8" t="s">
         <v>742</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>743</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -7993,10 +8518,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="7" t="s">
+        <v>743</v>
+      </c>
+      <c r="C11" s="8" t="s">
         <v>744</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>745</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -8004,10 +8529,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="7" t="s">
+        <v>745</v>
+      </c>
+      <c r="C12" s="8" t="s">
         <v>746</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>747</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -8015,10 +8540,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="7" t="s">
+        <v>747</v>
+      </c>
+      <c r="C13" s="8" t="s">
         <v>748</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>749</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -8026,10 +8551,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="7" t="s">
+        <v>749</v>
+      </c>
+      <c r="C14" s="8" t="s">
         <v>750</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>751</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -8037,10 +8562,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="7" t="s">
+        <v>751</v>
+      </c>
+      <c r="C15" s="8" t="s">
         <v>752</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>753</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -8048,10 +8573,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="7" t="s">
+        <v>753</v>
+      </c>
+      <c r="C16" s="8" t="s">
         <v>754</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>755</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -8059,10 +8584,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="7" t="s">
+        <v>755</v>
+      </c>
+      <c r="C17" s="8" t="s">
         <v>756</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>757</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -8070,10 +8595,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="7" t="s">
+        <v>757</v>
+      </c>
+      <c r="C18" s="8" t="s">
         <v>758</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>759</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -8081,10 +8606,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="7" t="s">
+        <v>759</v>
+      </c>
+      <c r="C19" s="8" t="s">
         <v>760</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>761</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -8092,10 +8617,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="7" t="s">
+        <v>761</v>
+      </c>
+      <c r="C20" s="8" t="s">
         <v>762</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>763</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -8103,10 +8628,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="7" t="s">
+        <v>763</v>
+      </c>
+      <c r="C21" s="8" t="s">
         <v>764</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>765</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -8114,10 +8639,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="7" t="s">
+        <v>765</v>
+      </c>
+      <c r="C22" s="8" t="s">
         <v>766</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>767</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -8125,10 +8650,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="7" t="s">
+        <v>767</v>
+      </c>
+      <c r="C23" s="8" t="s">
         <v>768</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>769</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -8136,10 +8661,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="7" t="s">
+        <v>769</v>
+      </c>
+      <c r="C24" s="8" t="s">
         <v>770</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>771</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -8147,10 +8672,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="7" t="s">
+        <v>771</v>
+      </c>
+      <c r="C25" s="8" t="s">
         <v>772</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>773</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -8158,10 +8683,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="7" t="s">
+        <v>773</v>
+      </c>
+      <c r="C26" s="8" t="s">
         <v>774</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>775</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -8169,10 +8694,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="7" t="s">
+        <v>775</v>
+      </c>
+      <c r="C27" s="8" t="s">
         <v>776</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>777</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -8180,10 +8705,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="7" t="s">
+        <v>777</v>
+      </c>
+      <c r="C28" s="8" t="s">
         <v>778</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>779</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -8191,10 +8716,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="7" t="s">
+        <v>779</v>
+      </c>
+      <c r="C29" s="8" t="s">
         <v>780</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>781</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -8202,10 +8727,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="7" t="s">
+        <v>781</v>
+      </c>
+      <c r="C30" s="8" t="s">
         <v>782</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>783</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -8213,10 +8738,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="7" t="s">
+        <v>783</v>
+      </c>
+      <c r="C31" s="8" t="s">
         <v>784</v>
-      </c>
-      <c r="C31" s="8" t="s">
-        <v>785</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -8224,10 +8749,10 @@
         <v>31</v>
       </c>
       <c r="B32" s="7" t="s">
+        <v>785</v>
+      </c>
+      <c r="C32" s="8" t="s">
         <v>786</v>
-      </c>
-      <c r="C32" s="8" t="s">
-        <v>787</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -8235,10 +8760,10 @@
         <v>32</v>
       </c>
       <c r="B33" s="7" t="s">
+        <v>787</v>
+      </c>
+      <c r="C33" s="8" t="s">
         <v>788</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>789</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -8246,10 +8771,10 @@
         <v>33</v>
       </c>
       <c r="B34" s="7" t="s">
+        <v>789</v>
+      </c>
+      <c r="C34" s="8" t="s">
         <v>790</v>
-      </c>
-      <c r="C34" s="8" t="s">
-        <v>791</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -8257,10 +8782,10 @@
         <v>34</v>
       </c>
       <c r="B35" s="7" t="s">
+        <v>791</v>
+      </c>
+      <c r="C35" s="8" t="s">
         <v>792</v>
-      </c>
-      <c r="C35" s="8" t="s">
-        <v>793</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -8268,10 +8793,10 @@
         <v>35</v>
       </c>
       <c r="B36" s="7" t="s">
+        <v>793</v>
+      </c>
+      <c r="C36" s="8" t="s">
         <v>794</v>
-      </c>
-      <c r="C36" s="8" t="s">
-        <v>795</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -8279,10 +8804,10 @@
         <v>36</v>
       </c>
       <c r="B37" s="7" t="s">
+        <v>795</v>
+      </c>
+      <c r="C37" s="8" t="s">
         <v>796</v>
-      </c>
-      <c r="C37" s="8" t="s">
-        <v>797</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -8290,10 +8815,10 @@
         <v>37</v>
       </c>
       <c r="B38" s="7" t="s">
+        <v>797</v>
+      </c>
+      <c r="C38" s="8" t="s">
         <v>798</v>
-      </c>
-      <c r="C38" s="8" t="s">
-        <v>799</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -8301,10 +8826,10 @@
         <v>38</v>
       </c>
       <c r="B39" s="7" t="s">
+        <v>799</v>
+      </c>
+      <c r="C39" s="8" t="s">
         <v>800</v>
-      </c>
-      <c r="C39" s="8" t="s">
-        <v>801</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -8312,10 +8837,10 @@
         <v>39</v>
       </c>
       <c r="B40" s="7" t="s">
+        <v>801</v>
+      </c>
+      <c r="C40" s="8" t="s">
         <v>802</v>
-      </c>
-      <c r="C40" s="8" t="s">
-        <v>803</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -8323,10 +8848,10 @@
         <v>40</v>
       </c>
       <c r="B41" s="7" t="s">
+        <v>803</v>
+      </c>
+      <c r="C41" s="8" t="s">
         <v>804</v>
-      </c>
-      <c r="C41" s="8" t="s">
-        <v>805</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -8334,10 +8859,10 @@
         <v>41</v>
       </c>
       <c r="B42" s="7" t="s">
+        <v>805</v>
+      </c>
+      <c r="C42" s="8" t="s">
         <v>806</v>
-      </c>
-      <c r="C42" s="8" t="s">
-        <v>807</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -8345,10 +8870,10 @@
         <v>42</v>
       </c>
       <c r="B43" s="7" t="s">
+        <v>807</v>
+      </c>
+      <c r="C43" s="8" t="s">
         <v>808</v>
-      </c>
-      <c r="C43" s="8" t="s">
-        <v>809</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -8356,10 +8881,10 @@
         <v>43</v>
       </c>
       <c r="B44" s="7" t="s">
+        <v>809</v>
+      </c>
+      <c r="C44" s="8" t="s">
         <v>810</v>
-      </c>
-      <c r="C44" s="8" t="s">
-        <v>811</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -8367,10 +8892,10 @@
         <v>44</v>
       </c>
       <c r="B45" s="7" t="s">
+        <v>811</v>
+      </c>
+      <c r="C45" s="8" t="s">
         <v>812</v>
-      </c>
-      <c r="C45" s="8" t="s">
-        <v>813</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -8378,10 +8903,10 @@
         <v>45</v>
       </c>
       <c r="B46" s="7" t="s">
+        <v>813</v>
+      </c>
+      <c r="C46" s="8" t="s">
         <v>814</v>
-      </c>
-      <c r="C46" s="8" t="s">
-        <v>815</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -8389,10 +8914,10 @@
         <v>46</v>
       </c>
       <c r="B47" s="7" t="s">
+        <v>815</v>
+      </c>
+      <c r="C47" s="8" t="s">
         <v>816</v>
-      </c>
-      <c r="C47" s="8" t="s">
-        <v>817</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -8400,10 +8925,10 @@
         <v>47</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>819</v>
+        <v>842</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -8411,10 +8936,10 @@
         <v>48</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -8425,7 +8950,7 @@
         <v>479</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -8433,10 +8958,10 @@
         <v>50</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -8444,10 +8969,10 @@
         <v>51</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -8455,10 +8980,10 @@
         <v>52</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>828</v>
+        <v>841</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -8466,10 +8991,10 @@
         <v>53</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -8480,7 +9005,7 @@
         <v>39</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -8488,10 +9013,10 @@
         <v>55</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -8499,10 +9024,10 @@
         <v>56</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -8510,10 +9035,10 @@
         <v>57</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -8521,10 +9046,10 @@
         <v>58</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -8532,10 +9057,10 @@
         <v>59</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -8543,10 +9068,10 @@
         <v>60</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
     </row>
   </sheetData>

--- a/1.xlsx
+++ b/1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="11"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" tabRatio="668" firstSheet="1" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="Data1" sheetId="5" r:id="rId1"/>
@@ -24,8 +24,9 @@
     <sheet name="Bonpoe1" sheetId="10" r:id="rId10"/>
     <sheet name="Bonpoe2" sheetId="14" r:id="rId11"/>
     <sheet name="Bonpoe3" sheetId="15" r:id="rId12"/>
-    <sheet name="Sheet1" sheetId="13" r:id="rId13"/>
-    <sheet name="Q" sheetId="11" r:id="rId14"/>
+    <sheet name="Bonpoe4" sheetId="16" r:id="rId13"/>
+    <sheet name="Sheet1" sheetId="13" r:id="rId14"/>
+    <sheet name="Q" sheetId="11" r:id="rId15"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1013" uniqueCount="886">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1038" uniqueCount="910">
   <si>
     <t>わたし</t>
   </si>
@@ -1102,9 +1103,6 @@
   </si>
   <si>
     <t>~နှင့်~</t>
-  </si>
-  <si>
-    <t>たいへん</t>
   </si>
   <si>
     <t>မလွယ်ဘူးနော်၊ ဒုက္ခပဲနော်</t>
@@ -2778,9 +2776,6 @@
     <t>しちにんの　さむらい</t>
   </si>
   <si>
-    <t>ဆာမူရိုင်းခုနှစ်ယောက်</t>
-  </si>
-  <si>
     <t>～ ကျ၊ ရောက်၊ တန်ပြီ ပဲ။</t>
   </si>
   <si>
@@ -2914,6 +2909,84 @@
   </si>
   <si>
     <t xml:space="preserve">  - **いくら**　ဆိုရင် တန်ဖိုးကို မေးခြင်းဖြစ်သည်</t>
+  </si>
+  <si>
+    <t>ဆာမူရိုင်း ခုနှစ်ယောက်</t>
+  </si>
+  <si>
+    <t>##### マスけい　ပြောင်းနည်း</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - **どうし**　မှာ ကံလို　(**たどうし**)　နဲ့ ကံမလို　(**じどうし**)　ဆိုပြီးရှိသည်</t>
+  </si>
+  <si>
+    <t>##### どうし　(ကြိယာ)</t>
+  </si>
+  <si>
+    <t>たいへん　ですね</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - **どうし**　မှာ I, II, III ဆိုပြီး သုံးမျိုး ခွဲခြားထားသည်</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - **どうし　I**　=　**u-line**　နဲ့ဆုံးရင် 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - **どうし　II**　=　**(i,e)**　နဲ့ဆုံးရင် 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - **どうし　III**　=　**くる**　=　လာသည်။　**する**　=　 ပြုလုပ်သည်။</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - **どうし　I**　 ＿**u-line** ကနေ **i-line** ပြောင်း　**ます**　ပေါင်း</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - **どうし　II**　**＿る**　ဖြုတ်　**ます**　ပေါင်း</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - **どうし　III**　**＿くる**　ဆိုရင်　**きます**、　**する**　ဆိုရင်　**します**</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -  **いま**　+　(**～じ　～ふん（ぷん）**)　**です。**　(အခုချိန်ဖြစ်သည်)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -  **N** 　(အချိန်)　**に**　+　 V 　(～　မှာ　V　သည်)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - **N**　**から**　**N**　**まで**　(**N**　မှ　**N**　အထိ)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - **から**　ကအချိန်၊ နေရာတွေရဲ့ အစမှတ်ဖော်ပြပြီး</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - **まで**　သည် အချိန်၊ နေရာတွေရဲ့ အဆုံးဖြစ်သည်</t>
+  </si>
+  <si>
+    <t>#### Time &amp; Place</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - **N1**　**と**　**N2**　(**N**　နှင့်　**N**)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - နာမ် တစ်ခုနှင့် တစ်ခုအကြား　**と**　နဲ့ချိတ်ဆက်သည်</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - **ます**　=　ဖြစ်ပါသည် (ပစ္စုပ္ပန်ရဲ့ အဟုတ်ပုံစံ)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - **ません**　=　မဖြစ်ပါဘူး (ပစ္စုပ္ပန်ရဲ့ အငြင်းပုံစံ)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - **ました**　=　ဖြစ်ခဲ့သည် (အတိတ်ရဲ့ အဟုတ်ပုံစံ)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - **ませんでした**　=　မဖြစ်ခဲ့ပါဘူး (အတိတ်ရဲ့ အငြင်းပုံစံ)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - **ましょう**　=　ကြရအောင်၊ စို့ (အနာဂတ်)</t>
+  </si>
+  <si>
+    <t>##### ます　ရဲ့ ကာလပြပုံစံများ</t>
   </si>
 </sst>
 </file>
@@ -3800,7 +3873,7 @@
         <v>55</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -3912,27 +3985,27 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="15" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="15" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="15" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="15" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="15" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="B6" s="16"/>
       <c r="C6" s="17"/>
@@ -3940,42 +4013,42 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="15" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="15" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="15" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="15" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="15" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="15" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="15" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="15" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="B18"/>
       <c r="C18"/>
@@ -3983,7 +4056,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="15" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="B19"/>
       <c r="C19"/>
@@ -3991,7 +4064,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="15" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="B20"/>
       <c r="C20"/>
@@ -4004,7 +4077,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="15" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="B22"/>
       <c r="C22"/>
@@ -4017,7 +4090,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="15" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="B24" s="21"/>
       <c r="C24" s="20"/>
@@ -4025,7 +4098,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="15" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="B25"/>
       <c r="C25"/>
@@ -4038,72 +4111,72 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="15" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="15" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="15" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="15" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" s="15" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" s="15" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" s="15" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" s="15" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" s="15" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" s="15" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42" s="15" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" s="15" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A44" s="15" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A45" s="15" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
     </row>
   </sheetData>
@@ -4128,27 +4201,27 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="15" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="15" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="15" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="15" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="15" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -4158,22 +4231,22 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="15" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="15" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="15" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="15" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.3">
@@ -4230,8 +4303,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4242,27 +4315,27 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="23" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="23" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="23" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="23" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="23" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="B8" s="31"/>
       <c r="C8" s="32"/>
@@ -4319,6 +4392,161 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A34"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="111.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="15" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" s="15"/>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" s="15" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" s="15"/>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" s="23" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" s="15" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" s="15" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" s="15" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" s="15" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" s="15" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" s="15" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15" s="15" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16" s="15"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="15" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="15"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="15" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>908</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A34"/>
   <sheetViews>
@@ -4333,22 +4561,22 @@
   <sheetData>
     <row r="1" spans="1:1" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A1" s="22" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="23.4" x14ac:dyDescent="0.3">
       <c r="A2" s="22" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A3" s="22" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A4" s="22" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
@@ -4356,12 +4584,12 @@
     </row>
     <row r="6" spans="1:1" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A6" s="24" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A7" s="22" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
@@ -4369,7 +4597,7 @@
     </row>
     <row r="9" spans="1:1" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A9" s="25" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="22.8" x14ac:dyDescent="0.3">
@@ -4377,17 +4605,17 @@
     </row>
     <row r="11" spans="1:1" ht="18" x14ac:dyDescent="0.3">
       <c r="A11" s="26" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" s="27" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A13" s="27" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.3">
@@ -4395,12 +4623,12 @@
     </row>
     <row r="15" spans="1:1" ht="18" x14ac:dyDescent="0.3">
       <c r="A15" s="26" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A16" s="28" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
@@ -4408,7 +4636,7 @@
     </row>
     <row r="18" spans="1:1" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A18" s="28" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -4416,17 +4644,17 @@
     </row>
     <row r="20" spans="1:1" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A20" s="29" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="21" spans="1:1" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A21" s="29" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A22" s="27" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
@@ -4434,12 +4662,12 @@
     </row>
     <row r="24" spans="1:1" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A24" s="30" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A25" s="22" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="26" spans="1:1" ht="22.8" x14ac:dyDescent="0.3">
@@ -4447,7 +4675,7 @@
     </row>
     <row r="27" spans="1:1" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A27" s="22" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="28" spans="1:1" ht="22.8" x14ac:dyDescent="0.3">
@@ -4455,17 +4683,17 @@
     </row>
     <row r="29" spans="1:1" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A29" s="22" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="30" spans="1:1" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A30" s="22" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="31" spans="1:1" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A31" s="22" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="32" spans="1:1" ht="22.8" x14ac:dyDescent="0.3">
@@ -4473,12 +4701,12 @@
     </row>
     <row r="33" spans="1:1" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A33" s="30" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="34" spans="1:1" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A34" s="22" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
   </sheetData>
@@ -4486,7 +4714,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A40"/>
   <sheetViews>
@@ -4501,12 +4729,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="19" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="19" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
@@ -4611,7 +4839,7 @@
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="18" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
@@ -5812,8 +6040,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+    <sheetView topLeftCell="A47" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6365,10 +6593,10 @@
         <v>49</v>
       </c>
       <c r="B50" s="7" t="s">
+        <v>888</v>
+      </c>
+      <c r="C50" s="8" t="s">
         <v>355</v>
-      </c>
-      <c r="C50" s="8" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -6376,10 +6604,10 @@
         <v>50</v>
       </c>
       <c r="B51" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="C51" s="8" t="s">
         <v>357</v>
-      </c>
-      <c r="C51" s="8" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -6387,10 +6615,10 @@
         <v>51</v>
       </c>
       <c r="B52" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="C52" s="8" t="s">
         <v>359</v>
-      </c>
-      <c r="C52" s="8" t="s">
-        <v>360</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -6409,10 +6637,10 @@
         <v>53</v>
       </c>
       <c r="B54" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="C54" s="8" t="s">
         <v>361</v>
-      </c>
-      <c r="C54" s="8" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -6420,10 +6648,10 @@
         <v>54</v>
       </c>
       <c r="B55" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="C55" s="8" t="s">
         <v>363</v>
-      </c>
-      <c r="C55" s="8" t="s">
-        <v>364</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -6431,10 +6659,10 @@
         <v>55</v>
       </c>
       <c r="B56" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="C56" s="8" t="s">
         <v>365</v>
-      </c>
-      <c r="C56" s="8" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -6442,10 +6670,10 @@
         <v>56</v>
       </c>
       <c r="B57" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="C57" s="8" t="s">
         <v>367</v>
-      </c>
-      <c r="C57" s="8" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -6453,10 +6681,10 @@
         <v>57</v>
       </c>
       <c r="B58" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="C58" s="8" t="s">
         <v>369</v>
-      </c>
-      <c r="C58" s="8" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -6464,10 +6692,10 @@
         <v>58</v>
       </c>
       <c r="B59" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="C59" s="8" t="s">
         <v>371</v>
-      </c>
-      <c r="C59" s="8" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -6475,10 +6703,10 @@
         <v>59</v>
       </c>
       <c r="B60" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="C60" s="8" t="s">
         <v>373</v>
-      </c>
-      <c r="C60" s="8" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
@@ -6486,10 +6714,10 @@
         <v>60</v>
       </c>
       <c r="B61" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="C61" s="8" t="s">
         <v>375</v>
-      </c>
-      <c r="C61" s="8" t="s">
-        <v>376</v>
       </c>
     </row>
   </sheetData>
@@ -6525,10 +6753,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>377</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -6536,10 +6764,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>379</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>380</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -6547,10 +6775,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="C4" s="8" t="s">
         <v>381</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>382</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -6558,10 +6786,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="C5" s="8" t="s">
         <v>383</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>384</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -6569,10 +6797,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="C6" s="8" t="s">
         <v>385</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>386</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -6580,10 +6808,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="C7" s="8" t="s">
         <v>387</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>388</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -6591,10 +6819,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="C8" s="8" t="s">
         <v>389</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>390</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -6602,10 +6830,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="C9" s="8" t="s">
         <v>391</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -6613,10 +6841,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="C10" s="8" t="s">
         <v>393</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>394</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -6624,10 +6852,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="C11" s="8" t="s">
         <v>395</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>396</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -6635,10 +6863,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="C12" s="8" t="s">
         <v>397</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>398</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -6646,10 +6874,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="C13" s="8" t="s">
         <v>399</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>400</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -6657,10 +6885,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="C14" s="8" t="s">
         <v>401</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -6668,10 +6896,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="C15" s="8" t="s">
         <v>403</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>404</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -6679,10 +6907,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="C16" s="8" t="s">
         <v>405</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -6690,10 +6918,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="C17" s="8" t="s">
         <v>407</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>408</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -6701,10 +6929,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="C18" s="8" t="s">
         <v>409</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>410</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -6712,10 +6940,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="C19" s="8" t="s">
         <v>411</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -6723,10 +6951,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="C20" s="8" t="s">
         <v>413</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>414</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -6734,10 +6962,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="C21" s="8" t="s">
         <v>415</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>416</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -6745,10 +6973,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="C22" s="8" t="s">
         <v>417</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>418</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -6756,10 +6984,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="C23" s="8" t="s">
         <v>419</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>420</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -6767,10 +6995,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="C24" s="8" t="s">
         <v>421</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>422</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -6778,10 +7006,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="C25" s="8" t="s">
         <v>423</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>424</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -6789,10 +7017,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="C26" s="8" t="s">
         <v>425</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>426</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -6800,10 +7028,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="C27" s="8" t="s">
         <v>427</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>428</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -6811,10 +7039,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="C28" s="8" t="s">
         <v>429</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>430</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -6822,10 +7050,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="C29" s="8" t="s">
         <v>431</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>432</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -6833,10 +7061,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="C30" s="8" t="s">
         <v>433</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>434</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -6844,10 +7072,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="C31" s="8" t="s">
         <v>435</v>
-      </c>
-      <c r="C31" s="8" t="s">
-        <v>436</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -6855,10 +7083,10 @@
         <v>31</v>
       </c>
       <c r="B32" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="C32" s="8" t="s">
         <v>437</v>
-      </c>
-      <c r="C32" s="8" t="s">
-        <v>438</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -6866,10 +7094,10 @@
         <v>32</v>
       </c>
       <c r="B33" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="C33" s="8" t="s">
         <v>439</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>440</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -6877,10 +7105,10 @@
         <v>33</v>
       </c>
       <c r="B34" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="C34" s="8" t="s">
         <v>441</v>
-      </c>
-      <c r="C34" s="8" t="s">
-        <v>442</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -6888,10 +7116,10 @@
         <v>34</v>
       </c>
       <c r="B35" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="C35" s="8" t="s">
         <v>443</v>
-      </c>
-      <c r="C35" s="8" t="s">
-        <v>444</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -6899,10 +7127,10 @@
         <v>35</v>
       </c>
       <c r="B36" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="C36" s="8" t="s">
         <v>445</v>
-      </c>
-      <c r="C36" s="8" t="s">
-        <v>446</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -6910,10 +7138,10 @@
         <v>36</v>
       </c>
       <c r="B37" s="7" t="s">
+        <v>446</v>
+      </c>
+      <c r="C37" s="8" t="s">
         <v>447</v>
-      </c>
-      <c r="C37" s="8" t="s">
-        <v>448</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -6921,10 +7149,10 @@
         <v>37</v>
       </c>
       <c r="B38" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="C38" s="8" t="s">
         <v>449</v>
-      </c>
-      <c r="C38" s="8" t="s">
-        <v>450</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -6932,10 +7160,10 @@
         <v>38</v>
       </c>
       <c r="B39" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="C39" s="8" t="s">
         <v>451</v>
-      </c>
-      <c r="C39" s="8" t="s">
-        <v>452</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -6943,10 +7171,10 @@
         <v>39</v>
       </c>
       <c r="B40" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="C40" s="8" t="s">
         <v>453</v>
-      </c>
-      <c r="C40" s="8" t="s">
-        <v>454</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -6954,10 +7182,10 @@
         <v>40</v>
       </c>
       <c r="B41" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="C41" s="8" t="s">
         <v>455</v>
-      </c>
-      <c r="C41" s="8" t="s">
-        <v>456</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -6965,10 +7193,10 @@
         <v>41</v>
       </c>
       <c r="B42" s="7" t="s">
+        <v>456</v>
+      </c>
+      <c r="C42" s="8" t="s">
         <v>457</v>
-      </c>
-      <c r="C42" s="8" t="s">
-        <v>458</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -6976,10 +7204,10 @@
         <v>42</v>
       </c>
       <c r="B43" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="C43" s="8" t="s">
         <v>459</v>
-      </c>
-      <c r="C43" s="8" t="s">
-        <v>460</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -6987,10 +7215,10 @@
         <v>43</v>
       </c>
       <c r="B44" s="7" t="s">
+        <v>460</v>
+      </c>
+      <c r="C44" s="8" t="s">
         <v>461</v>
-      </c>
-      <c r="C44" s="8" t="s">
-        <v>462</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -6998,10 +7226,10 @@
         <v>44</v>
       </c>
       <c r="B45" s="7" t="s">
+        <v>462</v>
+      </c>
+      <c r="C45" s="8" t="s">
         <v>463</v>
-      </c>
-      <c r="C45" s="8" t="s">
-        <v>464</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -7009,10 +7237,10 @@
         <v>45</v>
       </c>
       <c r="B46" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="C46" s="8" t="s">
         <v>465</v>
-      </c>
-      <c r="C46" s="8" t="s">
-        <v>466</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -7020,10 +7248,10 @@
         <v>46</v>
       </c>
       <c r="B47" s="7" t="s">
+        <v>466</v>
+      </c>
+      <c r="C47" s="8" t="s">
         <v>467</v>
-      </c>
-      <c r="C47" s="8" t="s">
-        <v>468</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -7031,10 +7259,10 @@
         <v>47</v>
       </c>
       <c r="B48" s="7" t="s">
+        <v>468</v>
+      </c>
+      <c r="C48" s="8" t="s">
         <v>469</v>
-      </c>
-      <c r="C48" s="8" t="s">
-        <v>470</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -7042,10 +7270,10 @@
         <v>48</v>
       </c>
       <c r="B49" s="7" t="s">
+        <v>470</v>
+      </c>
+      <c r="C49" s="8" t="s">
         <v>471</v>
-      </c>
-      <c r="C49" s="8" t="s">
-        <v>472</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -7053,10 +7281,10 @@
         <v>49</v>
       </c>
       <c r="B50" s="7" t="s">
+        <v>472</v>
+      </c>
+      <c r="C50" s="8" t="s">
         <v>473</v>
-      </c>
-      <c r="C50" s="8" t="s">
-        <v>474</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -7064,10 +7292,10 @@
         <v>50</v>
       </c>
       <c r="B51" s="7" t="s">
+        <v>474</v>
+      </c>
+      <c r="C51" s="8" t="s">
         <v>475</v>
-      </c>
-      <c r="C51" s="8" t="s">
-        <v>476</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -7075,10 +7303,10 @@
         <v>51</v>
       </c>
       <c r="B52" s="7" t="s">
+        <v>476</v>
+      </c>
+      <c r="C52" s="8" t="s">
         <v>477</v>
-      </c>
-      <c r="C52" s="8" t="s">
-        <v>478</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -7086,10 +7314,10 @@
         <v>52</v>
       </c>
       <c r="B53" s="7" t="s">
+        <v>478</v>
+      </c>
+      <c r="C53" s="8" t="s">
         <v>479</v>
-      </c>
-      <c r="C53" s="8" t="s">
-        <v>480</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
@@ -7097,7 +7325,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C54" s="8" t="s">
         <v>153</v>
@@ -7108,10 +7336,10 @@
         <v>54</v>
       </c>
       <c r="B55" s="7" t="s">
+        <v>481</v>
+      </c>
+      <c r="C55" s="8" t="s">
         <v>482</v>
-      </c>
-      <c r="C55" s="8" t="s">
-        <v>483</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -7119,10 +7347,10 @@
         <v>55</v>
       </c>
       <c r="B56" s="7" t="s">
+        <v>483</v>
+      </c>
+      <c r="C56" s="8" t="s">
         <v>484</v>
-      </c>
-      <c r="C56" s="8" t="s">
-        <v>485</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -7130,10 +7358,10 @@
         <v>56</v>
       </c>
       <c r="B57" s="7" t="s">
+        <v>485</v>
+      </c>
+      <c r="C57" s="8" t="s">
         <v>486</v>
-      </c>
-      <c r="C57" s="8" t="s">
-        <v>487</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -7141,10 +7369,10 @@
         <v>57</v>
       </c>
       <c r="B58" s="7" t="s">
+        <v>487</v>
+      </c>
+      <c r="C58" s="8" t="s">
         <v>488</v>
-      </c>
-      <c r="C58" s="8" t="s">
-        <v>489</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -7152,10 +7380,10 @@
         <v>58</v>
       </c>
       <c r="B59" s="7" t="s">
+        <v>489</v>
+      </c>
+      <c r="C59" s="8" t="s">
         <v>490</v>
-      </c>
-      <c r="C59" s="8" t="s">
-        <v>491</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -7163,10 +7391,10 @@
         <v>59</v>
       </c>
       <c r="B60" s="7" t="s">
+        <v>491</v>
+      </c>
+      <c r="C60" s="8" t="s">
         <v>492</v>
-      </c>
-      <c r="C60" s="8" t="s">
-        <v>493</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -7174,10 +7402,10 @@
         <v>60</v>
       </c>
       <c r="B61" s="7" t="s">
+        <v>493</v>
+      </c>
+      <c r="C61" s="8" t="s">
         <v>494</v>
-      </c>
-      <c r="C61" s="8" t="s">
-        <v>495</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -7185,10 +7413,10 @@
         <v>61</v>
       </c>
       <c r="B62" s="7" t="s">
+        <v>495</v>
+      </c>
+      <c r="C62" s="8" t="s">
         <v>496</v>
-      </c>
-      <c r="C62" s="8" t="s">
-        <v>497</v>
       </c>
     </row>
   </sheetData>
@@ -7224,10 +7452,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
+        <v>497</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>498</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>499</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -7235,10 +7463,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>500</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>501</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
@@ -7246,10 +7474,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
+        <v>501</v>
+      </c>
+      <c r="C4" s="8" t="s">
         <v>502</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>503</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -7257,10 +7485,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
+        <v>503</v>
+      </c>
+      <c r="C5" s="8" t="s">
         <v>504</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>505</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -7268,10 +7496,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="7" t="s">
+        <v>505</v>
+      </c>
+      <c r="C6" s="8" t="s">
         <v>506</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>507</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -7279,10 +7507,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="7" t="s">
+        <v>507</v>
+      </c>
+      <c r="C7" s="8" t="s">
         <v>508</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>509</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -7290,10 +7518,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="7" t="s">
+        <v>509</v>
+      </c>
+      <c r="C8" s="8" t="s">
         <v>510</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>511</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -7301,10 +7529,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="7" t="s">
+        <v>511</v>
+      </c>
+      <c r="C9" s="8" t="s">
         <v>512</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>513</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
@@ -7312,10 +7540,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="7" t="s">
+        <v>513</v>
+      </c>
+      <c r="C10" s="8" t="s">
         <v>514</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>515</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -7323,10 +7551,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="7" t="s">
+        <v>515</v>
+      </c>
+      <c r="C11" s="8" t="s">
         <v>516</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>517</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
@@ -7334,10 +7562,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -7345,10 +7573,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="7" t="s">
+        <v>518</v>
+      </c>
+      <c r="C13" s="8" t="s">
         <v>519</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>520</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -7356,10 +7584,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="7" t="s">
+        <v>520</v>
+      </c>
+      <c r="C14" s="8" t="s">
         <v>521</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>522</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -7367,10 +7595,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="7" t="s">
+        <v>522</v>
+      </c>
+      <c r="C15" s="8" t="s">
         <v>523</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>524</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -7378,10 +7606,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="7" t="s">
+        <v>524</v>
+      </c>
+      <c r="C16" s="8" t="s">
         <v>525</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>526</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -7389,10 +7617,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="7" t="s">
+        <v>526</v>
+      </c>
+      <c r="C17" s="8" t="s">
         <v>527</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>528</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -7400,10 +7628,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="7" t="s">
+        <v>528</v>
+      </c>
+      <c r="C18" s="8" t="s">
         <v>529</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>530</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -7411,10 +7639,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="7" t="s">
+        <v>530</v>
+      </c>
+      <c r="C19" s="8" t="s">
         <v>531</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>532</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -7422,10 +7650,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="7" t="s">
+        <v>532</v>
+      </c>
+      <c r="C20" s="8" t="s">
         <v>533</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>534</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -7433,10 +7661,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="7" t="s">
+        <v>534</v>
+      </c>
+      <c r="C21" s="8" t="s">
         <v>535</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>536</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -7444,10 +7672,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="7" t="s">
+        <v>536</v>
+      </c>
+      <c r="C22" s="8" t="s">
         <v>537</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>538</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -7455,10 +7683,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="7" t="s">
+        <v>538</v>
+      </c>
+      <c r="C23" s="8" t="s">
         <v>539</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>540</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -7466,10 +7694,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="7" t="s">
+        <v>540</v>
+      </c>
+      <c r="C24" s="8" t="s">
         <v>541</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>542</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -7477,10 +7705,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="7" t="s">
+        <v>542</v>
+      </c>
+      <c r="C25" s="8" t="s">
         <v>543</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>544</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -7488,10 +7716,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="C26" s="8" t="s">
         <v>545</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>546</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -7499,10 +7727,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="7" t="s">
+        <v>546</v>
+      </c>
+      <c r="C27" s="8" t="s">
         <v>547</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>548</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -7510,10 +7738,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="7" t="s">
+        <v>548</v>
+      </c>
+      <c r="C28" s="8" t="s">
         <v>549</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>550</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -7521,10 +7749,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="7" t="s">
+        <v>550</v>
+      </c>
+      <c r="C29" s="8" t="s">
         <v>551</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>552</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -7532,10 +7760,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="7" t="s">
+        <v>552</v>
+      </c>
+      <c r="C30" s="8" t="s">
         <v>553</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>554</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -7543,10 +7771,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="7" t="s">
+        <v>554</v>
+      </c>
+      <c r="C31" s="8" t="s">
         <v>555</v>
-      </c>
-      <c r="C31" s="8" t="s">
-        <v>556</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -7554,10 +7782,10 @@
         <v>31</v>
       </c>
       <c r="B32" s="7" t="s">
+        <v>556</v>
+      </c>
+      <c r="C32" s="8" t="s">
         <v>557</v>
-      </c>
-      <c r="C32" s="8" t="s">
-        <v>558</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -7565,10 +7793,10 @@
         <v>32</v>
       </c>
       <c r="B33" s="7" t="s">
+        <v>558</v>
+      </c>
+      <c r="C33" s="8" t="s">
         <v>559</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>560</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -7576,10 +7804,10 @@
         <v>33</v>
       </c>
       <c r="B34" s="7" t="s">
+        <v>560</v>
+      </c>
+      <c r="C34" s="8" t="s">
         <v>561</v>
-      </c>
-      <c r="C34" s="8" t="s">
-        <v>562</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -7587,10 +7815,10 @@
         <v>34</v>
       </c>
       <c r="B35" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="C35" s="8" t="s">
         <v>563</v>
-      </c>
-      <c r="C35" s="8" t="s">
-        <v>564</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -7598,10 +7826,10 @@
         <v>35</v>
       </c>
       <c r="B36" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="C36" s="8" t="s">
         <v>565</v>
-      </c>
-      <c r="C36" s="8" t="s">
-        <v>566</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -7609,10 +7837,10 @@
         <v>36</v>
       </c>
       <c r="B37" s="7" t="s">
+        <v>566</v>
+      </c>
+      <c r="C37" s="8" t="s">
         <v>567</v>
-      </c>
-      <c r="C37" s="8" t="s">
-        <v>568</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -7620,10 +7848,10 @@
         <v>37</v>
       </c>
       <c r="B38" s="7" t="s">
+        <v>568</v>
+      </c>
+      <c r="C38" s="8" t="s">
         <v>569</v>
-      </c>
-      <c r="C38" s="8" t="s">
-        <v>570</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -7631,10 +7859,10 @@
         <v>38</v>
       </c>
       <c r="B39" s="7" t="s">
+        <v>570</v>
+      </c>
+      <c r="C39" s="8" t="s">
         <v>571</v>
-      </c>
-      <c r="C39" s="8" t="s">
-        <v>572</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -7642,10 +7870,10 @@
         <v>39</v>
       </c>
       <c r="B40" s="7" t="s">
+        <v>572</v>
+      </c>
+      <c r="C40" s="8" t="s">
         <v>573</v>
-      </c>
-      <c r="C40" s="8" t="s">
-        <v>574</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -7653,10 +7881,10 @@
         <v>40</v>
       </c>
       <c r="B41" s="7" t="s">
+        <v>574</v>
+      </c>
+      <c r="C41" s="8" t="s">
         <v>575</v>
-      </c>
-      <c r="C41" s="8" t="s">
-        <v>576</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -7664,10 +7892,10 @@
         <v>41</v>
       </c>
       <c r="B42" s="7" t="s">
+        <v>576</v>
+      </c>
+      <c r="C42" s="8" t="s">
         <v>577</v>
-      </c>
-      <c r="C42" s="8" t="s">
-        <v>578</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -7675,10 +7903,10 @@
         <v>42</v>
       </c>
       <c r="B43" s="7" t="s">
+        <v>578</v>
+      </c>
+      <c r="C43" s="8" t="s">
         <v>579</v>
-      </c>
-      <c r="C43" s="8" t="s">
-        <v>580</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -7686,10 +7914,10 @@
         <v>43</v>
       </c>
       <c r="B44" s="7" t="s">
+        <v>580</v>
+      </c>
+      <c r="C44" s="8" t="s">
         <v>581</v>
-      </c>
-      <c r="C44" s="8" t="s">
-        <v>582</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -7697,10 +7925,10 @@
         <v>44</v>
       </c>
       <c r="B45" s="7" t="s">
+        <v>582</v>
+      </c>
+      <c r="C45" s="8" t="s">
         <v>583</v>
-      </c>
-      <c r="C45" s="8" t="s">
-        <v>584</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -7708,10 +7936,10 @@
         <v>45</v>
       </c>
       <c r="B46" s="7" t="s">
+        <v>584</v>
+      </c>
+      <c r="C46" s="8" t="s">
         <v>585</v>
-      </c>
-      <c r="C46" s="8" t="s">
-        <v>586</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -7719,10 +7947,10 @@
         <v>46</v>
       </c>
       <c r="B47" s="7" t="s">
+        <v>586</v>
+      </c>
+      <c r="C47" s="8" t="s">
         <v>587</v>
-      </c>
-      <c r="C47" s="8" t="s">
-        <v>588</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -7730,10 +7958,10 @@
         <v>47</v>
       </c>
       <c r="B48" s="7" t="s">
+        <v>588</v>
+      </c>
+      <c r="C48" s="8" t="s">
         <v>589</v>
-      </c>
-      <c r="C48" s="8" t="s">
-        <v>590</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -7741,10 +7969,10 @@
         <v>48</v>
       </c>
       <c r="B49" s="7" t="s">
+        <v>590</v>
+      </c>
+      <c r="C49" s="8" t="s">
         <v>591</v>
-      </c>
-      <c r="C49" s="8" t="s">
-        <v>592</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -7752,10 +7980,10 @@
         <v>49</v>
       </c>
       <c r="B50" s="7" t="s">
+        <v>592</v>
+      </c>
+      <c r="C50" s="8" t="s">
         <v>593</v>
-      </c>
-      <c r="C50" s="8" t="s">
-        <v>594</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -7763,10 +7991,10 @@
         <v>50</v>
       </c>
       <c r="B51" s="7" t="s">
+        <v>594</v>
+      </c>
+      <c r="C51" s="8" t="s">
         <v>595</v>
-      </c>
-      <c r="C51" s="8" t="s">
-        <v>596</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -7774,10 +8002,10 @@
         <v>51</v>
       </c>
       <c r="B52" s="7" t="s">
+        <v>596</v>
+      </c>
+      <c r="C52" s="8" t="s">
         <v>597</v>
-      </c>
-      <c r="C52" s="8" t="s">
-        <v>598</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -7785,10 +8013,10 @@
         <v>52</v>
       </c>
       <c r="B53" s="7" t="s">
+        <v>598</v>
+      </c>
+      <c r="C53" s="8" t="s">
         <v>599</v>
-      </c>
-      <c r="C53" s="8" t="s">
-        <v>600</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -7796,10 +8024,10 @@
         <v>53</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -7807,10 +8035,10 @@
         <v>54</v>
       </c>
       <c r="B55" s="7" t="s">
+        <v>601</v>
+      </c>
+      <c r="C55" s="8" t="s">
         <v>602</v>
-      </c>
-      <c r="C55" s="8" t="s">
-        <v>603</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -7818,10 +8046,10 @@
         <v>55</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -7886,10 +8114,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
+        <v>605</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>606</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>607</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -7897,10 +8125,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
+        <v>607</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>608</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>609</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -7908,10 +8136,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
+        <v>609</v>
+      </c>
+      <c r="C4" s="8" t="s">
         <v>610</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>611</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -7919,10 +8147,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
+        <v>611</v>
+      </c>
+      <c r="C5" s="8" t="s">
         <v>612</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>613</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="30.6" x14ac:dyDescent="0.3">
@@ -7930,10 +8158,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="7" t="s">
+        <v>613</v>
+      </c>
+      <c r="C6" s="8" t="s">
         <v>614</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>615</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -7941,10 +8169,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="7" t="s">
+        <v>615</v>
+      </c>
+      <c r="C7" s="8" t="s">
         <v>616</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>617</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -7952,10 +8180,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="7" t="s">
+        <v>617</v>
+      </c>
+      <c r="C8" s="8" t="s">
         <v>618</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>619</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -7963,10 +8191,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="7" t="s">
+        <v>619</v>
+      </c>
+      <c r="C9" s="8" t="s">
         <v>620</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>621</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
@@ -7974,10 +8202,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="7" t="s">
+        <v>621</v>
+      </c>
+      <c r="C10" s="8" t="s">
         <v>622</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>623</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -7985,10 +8213,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="7" t="s">
+        <v>623</v>
+      </c>
+      <c r="C11" s="8" t="s">
         <v>624</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>625</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -7996,10 +8224,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="7" t="s">
+        <v>625</v>
+      </c>
+      <c r="C12" s="8" t="s">
         <v>626</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>627</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -8007,10 +8235,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="7" t="s">
+        <v>627</v>
+      </c>
+      <c r="C13" s="8" t="s">
         <v>628</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>629</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -8018,10 +8246,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="7" t="s">
+        <v>629</v>
+      </c>
+      <c r="C14" s="8" t="s">
         <v>630</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>631</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -8029,10 +8257,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="7" t="s">
+        <v>631</v>
+      </c>
+      <c r="C15" s="8" t="s">
         <v>632</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>633</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -8040,10 +8268,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="7" t="s">
+        <v>633</v>
+      </c>
+      <c r="C16" s="8" t="s">
         <v>634</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>635</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -8051,7 +8279,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="C17" s="8" t="s">
         <v>123</v>
@@ -8062,10 +8290,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="7" t="s">
+        <v>636</v>
+      </c>
+      <c r="C18" s="8" t="s">
         <v>637</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>638</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -8073,10 +8301,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="7" t="s">
+        <v>638</v>
+      </c>
+      <c r="C19" s="8" t="s">
         <v>639</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>640</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -8084,10 +8312,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="7" t="s">
+        <v>640</v>
+      </c>
+      <c r="C20" s="8" t="s">
         <v>641</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>642</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -8095,10 +8323,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="7" t="s">
+        <v>642</v>
+      </c>
+      <c r="C21" s="8" t="s">
         <v>643</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>644</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -8106,10 +8334,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="7" t="s">
+        <v>644</v>
+      </c>
+      <c r="C22" s="8" t="s">
         <v>645</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>646</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -8117,10 +8345,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="7" t="s">
+        <v>646</v>
+      </c>
+      <c r="C23" s="8" t="s">
         <v>647</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>648</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -8128,10 +8356,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="7" t="s">
+        <v>648</v>
+      </c>
+      <c r="C24" s="8" t="s">
         <v>649</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>650</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -8139,10 +8367,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="7" t="s">
+        <v>650</v>
+      </c>
+      <c r="C25" s="8" t="s">
         <v>651</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>652</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -8150,10 +8378,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="7" t="s">
+        <v>652</v>
+      </c>
+      <c r="C26" s="8" t="s">
         <v>653</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>654</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -8161,10 +8389,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="7" t="s">
+        <v>654</v>
+      </c>
+      <c r="C27" s="8" t="s">
         <v>655</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>656</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -8172,10 +8400,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="7" t="s">
+        <v>656</v>
+      </c>
+      <c r="C28" s="8" t="s">
         <v>657</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>658</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -8183,10 +8411,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="7" t="s">
+        <v>658</v>
+      </c>
+      <c r="C29" s="8" t="s">
         <v>659</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>660</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -8194,10 +8422,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="7" t="s">
+        <v>660</v>
+      </c>
+      <c r="C30" s="8" t="s">
         <v>661</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>662</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -8205,10 +8433,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="7" t="s">
+        <v>662</v>
+      </c>
+      <c r="C31" s="8" t="s">
         <v>663</v>
-      </c>
-      <c r="C31" s="8" t="s">
-        <v>664</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -8216,10 +8444,10 @@
         <v>31</v>
       </c>
       <c r="B32" s="7" t="s">
+        <v>664</v>
+      </c>
+      <c r="C32" s="8" t="s">
         <v>665</v>
-      </c>
-      <c r="C32" s="8" t="s">
-        <v>666</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -8227,10 +8455,10 @@
         <v>32</v>
       </c>
       <c r="B33" s="7" t="s">
+        <v>666</v>
+      </c>
+      <c r="C33" s="8" t="s">
         <v>667</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>668</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -8238,10 +8466,10 @@
         <v>33</v>
       </c>
       <c r="B34" s="7" t="s">
+        <v>668</v>
+      </c>
+      <c r="C34" s="8" t="s">
         <v>669</v>
-      </c>
-      <c r="C34" s="8" t="s">
-        <v>670</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -8249,10 +8477,10 @@
         <v>34</v>
       </c>
       <c r="B35" s="7" t="s">
+        <v>670</v>
+      </c>
+      <c r="C35" s="8" t="s">
         <v>671</v>
-      </c>
-      <c r="C35" s="8" t="s">
-        <v>672</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -8260,10 +8488,10 @@
         <v>35</v>
       </c>
       <c r="B36" s="7" t="s">
+        <v>672</v>
+      </c>
+      <c r="C36" s="8" t="s">
         <v>673</v>
-      </c>
-      <c r="C36" s="8" t="s">
-        <v>674</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -8271,10 +8499,10 @@
         <v>36</v>
       </c>
       <c r="B37" s="7" t="s">
+        <v>674</v>
+      </c>
+      <c r="C37" s="8" t="s">
         <v>675</v>
-      </c>
-      <c r="C37" s="8" t="s">
-        <v>676</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -8282,10 +8510,10 @@
         <v>37</v>
       </c>
       <c r="B38" s="7" t="s">
+        <v>676</v>
+      </c>
+      <c r="C38" s="8" t="s">
         <v>677</v>
-      </c>
-      <c r="C38" s="8" t="s">
-        <v>678</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -8293,10 +8521,10 @@
         <v>38</v>
       </c>
       <c r="B39" s="7" t="s">
+        <v>678</v>
+      </c>
+      <c r="C39" s="8" t="s">
         <v>679</v>
-      </c>
-      <c r="C39" s="8" t="s">
-        <v>680</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -8304,10 +8532,10 @@
         <v>39</v>
       </c>
       <c r="B40" s="7" t="s">
+        <v>680</v>
+      </c>
+      <c r="C40" s="8" t="s">
         <v>681</v>
-      </c>
-      <c r="C40" s="8" t="s">
-        <v>682</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -8315,10 +8543,10 @@
         <v>40</v>
       </c>
       <c r="B41" s="7" t="s">
+        <v>682</v>
+      </c>
+      <c r="C41" s="8" t="s">
         <v>683</v>
-      </c>
-      <c r="C41" s="8" t="s">
-        <v>684</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="46.8" x14ac:dyDescent="0.3">
@@ -8326,10 +8554,10 @@
         <v>41</v>
       </c>
       <c r="B42" s="7" t="s">
+        <v>684</v>
+      </c>
+      <c r="C42" s="8" t="s">
         <v>685</v>
-      </c>
-      <c r="C42" s="8" t="s">
-        <v>686</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
@@ -8337,10 +8565,10 @@
         <v>42</v>
       </c>
       <c r="B43" s="7" t="s">
+        <v>686</v>
+      </c>
+      <c r="C43" s="8" t="s">
         <v>687</v>
-      </c>
-      <c r="C43" s="8" t="s">
-        <v>688</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -8348,10 +8576,10 @@
         <v>43</v>
       </c>
       <c r="B44" s="7" t="s">
+        <v>688</v>
+      </c>
+      <c r="C44" s="8" t="s">
         <v>689</v>
-      </c>
-      <c r="C44" s="8" t="s">
-        <v>690</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -8359,10 +8587,10 @@
         <v>44</v>
       </c>
       <c r="B45" s="7" t="s">
+        <v>690</v>
+      </c>
+      <c r="C45" s="8" t="s">
         <v>691</v>
-      </c>
-      <c r="C45" s="8" t="s">
-        <v>692</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
@@ -8370,10 +8598,10 @@
         <v>45</v>
       </c>
       <c r="B46" s="7" t="s">
+        <v>692</v>
+      </c>
+      <c r="C46" s="8" t="s">
         <v>693</v>
-      </c>
-      <c r="C46" s="8" t="s">
-        <v>694</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -8381,10 +8609,10 @@
         <v>46</v>
       </c>
       <c r="B47" s="7" t="s">
+        <v>694</v>
+      </c>
+      <c r="C47" s="8" t="s">
         <v>695</v>
-      </c>
-      <c r="C47" s="8" t="s">
-        <v>696</v>
       </c>
     </row>
   </sheetData>
@@ -8396,682 +8624,684 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C61"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C49" sqref="C49"/>
+    <sheetView topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C62" sqref="C62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="36.6" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="45.77734375" customWidth="1"/>
-    <col min="3" max="3" width="46.44140625" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" style="33"/>
+    <col min="2" max="2" width="45.77734375" style="33" customWidth="1"/>
+    <col min="3" max="3" width="46.44140625" style="33" customWidth="1"/>
+    <col min="4" max="16384" width="8.88671875" style="33"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" t="s">
+      <c r="B1" s="33" t="s">
         <v>138</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="33" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="4">
+      <c r="A2" s="9">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="10" t="s">
+        <v>724</v>
+      </c>
+      <c r="C2" s="11" t="s">
         <v>725</v>
       </c>
-      <c r="C2" s="8" t="s">
+    </row>
+    <row r="3" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="9">
+        <v>2</v>
+      </c>
+      <c r="B3" s="10" t="s">
         <v>726</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="4">
-        <v>2</v>
-      </c>
-      <c r="B3" s="7" t="s">
+      <c r="C3" s="11" t="s">
         <v>727</v>
       </c>
-      <c r="C3" s="8" t="s">
+    </row>
+    <row r="4" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="9">
+        <v>3</v>
+      </c>
+      <c r="B4" s="10" t="s">
         <v>728</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="7" t="s">
+      <c r="C4" s="11" t="s">
         <v>729</v>
       </c>
-      <c r="C4" s="8" t="s">
+    </row>
+    <row r="5" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="9">
+        <v>4</v>
+      </c>
+      <c r="B5" s="10" t="s">
         <v>730</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="4">
-        <v>4</v>
-      </c>
-      <c r="B5" s="7" t="s">
+      <c r="C5" s="11" t="s">
         <v>731</v>
       </c>
-      <c r="C5" s="8" t="s">
+    </row>
+    <row r="6" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="9">
+        <v>5</v>
+      </c>
+      <c r="B6" s="10" t="s">
         <v>732</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="4">
-        <v>5</v>
-      </c>
-      <c r="B6" s="7" t="s">
+      <c r="C6" s="11" t="s">
         <v>733</v>
       </c>
-      <c r="C6" s="8" t="s">
+    </row>
+    <row r="7" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="9">
+        <v>6</v>
+      </c>
+      <c r="B7" s="10" t="s">
         <v>734</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="4">
-        <v>6</v>
-      </c>
-      <c r="B7" s="7" t="s">
+      <c r="C7" s="11" t="s">
         <v>735</v>
       </c>
-      <c r="C7" s="8" t="s">
+    </row>
+    <row r="8" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="9">
+        <v>7</v>
+      </c>
+      <c r="B8" s="10" t="s">
         <v>736</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="4">
-        <v>7</v>
-      </c>
-      <c r="B8" s="7" t="s">
+      <c r="C8" s="11" t="s">
         <v>737</v>
       </c>
-      <c r="C8" s="8" t="s">
+    </row>
+    <row r="9" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="10" t="s">
         <v>738</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="4">
-        <v>8</v>
-      </c>
-      <c r="B9" s="7" t="s">
+      <c r="C9" s="11" t="s">
         <v>739</v>
       </c>
-      <c r="C9" s="8" t="s">
+    </row>
+    <row r="10" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="9">
+        <v>9</v>
+      </c>
+      <c r="B10" s="10" t="s">
         <v>740</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="4">
-        <v>9</v>
-      </c>
-      <c r="B10" s="7" t="s">
+      <c r="C10" s="11" t="s">
         <v>741</v>
       </c>
-      <c r="C10" s="8" t="s">
+    </row>
+    <row r="11" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="9">
+        <v>10</v>
+      </c>
+      <c r="B11" s="10" t="s">
         <v>742</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="4">
-        <v>10</v>
-      </c>
-      <c r="B11" s="7" t="s">
+      <c r="C11" s="11" t="s">
         <v>743</v>
       </c>
-      <c r="C11" s="8" t="s">
+    </row>
+    <row r="12" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="9">
+        <v>11</v>
+      </c>
+      <c r="B12" s="10" t="s">
         <v>744</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="4">
-        <v>11</v>
-      </c>
-      <c r="B12" s="7" t="s">
+      <c r="C12" s="11" t="s">
         <v>745</v>
       </c>
-      <c r="C12" s="8" t="s">
+    </row>
+    <row r="13" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="9">
+        <v>12</v>
+      </c>
+      <c r="B13" s="10" t="s">
         <v>746</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="4">
-        <v>12</v>
-      </c>
-      <c r="B13" s="7" t="s">
+      <c r="C13" s="11" t="s">
         <v>747</v>
       </c>
-      <c r="C13" s="8" t="s">
+    </row>
+    <row r="14" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="9">
+        <v>13</v>
+      </c>
+      <c r="B14" s="10" t="s">
         <v>748</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="4">
-        <v>13</v>
-      </c>
-      <c r="B14" s="7" t="s">
+      <c r="C14" s="11" t="s">
         <v>749</v>
       </c>
-      <c r="C14" s="8" t="s">
+    </row>
+    <row r="15" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="9">
+        <v>14</v>
+      </c>
+      <c r="B15" s="10" t="s">
         <v>750</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="4">
-        <v>14</v>
-      </c>
-      <c r="B15" s="7" t="s">
+      <c r="C15" s="11" t="s">
         <v>751</v>
       </c>
-      <c r="C15" s="8" t="s">
+    </row>
+    <row r="16" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="9">
+        <v>15</v>
+      </c>
+      <c r="B16" s="10" t="s">
         <v>752</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="4">
-        <v>15</v>
-      </c>
-      <c r="B16" s="7" t="s">
+      <c r="C16" s="11" t="s">
         <v>753</v>
       </c>
-      <c r="C16" s="8" t="s">
+    </row>
+    <row r="17" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="9">
+        <v>16</v>
+      </c>
+      <c r="B17" s="10" t="s">
         <v>754</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="4">
-        <v>16</v>
-      </c>
-      <c r="B17" s="7" t="s">
+      <c r="C17" s="11" t="s">
         <v>755</v>
       </c>
-      <c r="C17" s="8" t="s">
+    </row>
+    <row r="18" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="9">
+        <v>17</v>
+      </c>
+      <c r="B18" s="10" t="s">
         <v>756</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="4">
-        <v>17</v>
-      </c>
-      <c r="B18" s="7" t="s">
+      <c r="C18" s="11" t="s">
         <v>757</v>
       </c>
-      <c r="C18" s="8" t="s">
+    </row>
+    <row r="19" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="9">
+        <v>18</v>
+      </c>
+      <c r="B19" s="10" t="s">
         <v>758</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="4">
-        <v>18</v>
-      </c>
-      <c r="B19" s="7" t="s">
+      <c r="C19" s="11" t="s">
         <v>759</v>
       </c>
-      <c r="C19" s="8" t="s">
+    </row>
+    <row r="20" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="9">
+        <v>19</v>
+      </c>
+      <c r="B20" s="10" t="s">
         <v>760</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="4">
-        <v>19</v>
-      </c>
-      <c r="B20" s="7" t="s">
+      <c r="C20" s="11" t="s">
         <v>761</v>
       </c>
-      <c r="C20" s="8" t="s">
+    </row>
+    <row r="21" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="9">
+        <v>20</v>
+      </c>
+      <c r="B21" s="10" t="s">
         <v>762</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="4">
-        <v>20</v>
-      </c>
-      <c r="B21" s="7" t="s">
+      <c r="C21" s="11" t="s">
         <v>763</v>
       </c>
-      <c r="C21" s="8" t="s">
+    </row>
+    <row r="22" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="9">
+        <v>21</v>
+      </c>
+      <c r="B22" s="10" t="s">
         <v>764</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="4">
-        <v>21</v>
-      </c>
-      <c r="B22" s="7" t="s">
+      <c r="C22" s="11" t="s">
         <v>765</v>
       </c>
-      <c r="C22" s="8" t="s">
+    </row>
+    <row r="23" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="9">
+        <v>22</v>
+      </c>
+      <c r="B23" s="10" t="s">
         <v>766</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="4">
-        <v>22</v>
-      </c>
-      <c r="B23" s="7" t="s">
+      <c r="C23" s="11" t="s">
         <v>767</v>
       </c>
-      <c r="C23" s="8" t="s">
+    </row>
+    <row r="24" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="9">
+        <v>23</v>
+      </c>
+      <c r="B24" s="10" t="s">
         <v>768</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="4">
-        <v>23</v>
-      </c>
-      <c r="B24" s="7" t="s">
+      <c r="C24" s="11" t="s">
         <v>769</v>
       </c>
-      <c r="C24" s="8" t="s">
+    </row>
+    <row r="25" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="9">
+        <v>24</v>
+      </c>
+      <c r="B25" s="10" t="s">
         <v>770</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="4">
-        <v>24</v>
-      </c>
-      <c r="B25" s="7" t="s">
+      <c r="C25" s="11" t="s">
         <v>771</v>
       </c>
-      <c r="C25" s="8" t="s">
+    </row>
+    <row r="26" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="9">
+        <v>25</v>
+      </c>
+      <c r="B26" s="10" t="s">
         <v>772</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="4">
-        <v>25</v>
-      </c>
-      <c r="B26" s="7" t="s">
+      <c r="C26" s="11" t="s">
         <v>773</v>
       </c>
-      <c r="C26" s="8" t="s">
+    </row>
+    <row r="27" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="9">
+        <v>26</v>
+      </c>
+      <c r="B27" s="10" t="s">
         <v>774</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="4">
-        <v>26</v>
-      </c>
-      <c r="B27" s="7" t="s">
+      <c r="C27" s="11" t="s">
         <v>775</v>
       </c>
-      <c r="C27" s="8" t="s">
+    </row>
+    <row r="28" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="9">
+        <v>27</v>
+      </c>
+      <c r="B28" s="10" t="s">
         <v>776</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="4">
-        <v>27</v>
-      </c>
-      <c r="B28" s="7" t="s">
+      <c r="C28" s="11" t="s">
         <v>777</v>
       </c>
-      <c r="C28" s="8" t="s">
+    </row>
+    <row r="29" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="9">
+        <v>28</v>
+      </c>
+      <c r="B29" s="10" t="s">
         <v>778</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="4">
-        <v>28</v>
-      </c>
-      <c r="B29" s="7" t="s">
+      <c r="C29" s="11" t="s">
         <v>779</v>
       </c>
-      <c r="C29" s="8" t="s">
+    </row>
+    <row r="30" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="9">
+        <v>29</v>
+      </c>
+      <c r="B30" s="10" t="s">
         <v>780</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="4">
-        <v>29</v>
-      </c>
-      <c r="B30" s="7" t="s">
+      <c r="C30" s="11" t="s">
         <v>781</v>
       </c>
-      <c r="C30" s="8" t="s">
+    </row>
+    <row r="31" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="9">
+        <v>30</v>
+      </c>
+      <c r="B31" s="10" t="s">
         <v>782</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="4">
-        <v>30</v>
-      </c>
-      <c r="B31" s="7" t="s">
+      <c r="C31" s="11" t="s">
         <v>783</v>
       </c>
-      <c r="C31" s="8" t="s">
+    </row>
+    <row r="32" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="9">
+        <v>31</v>
+      </c>
+      <c r="B32" s="10" t="s">
         <v>784</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="4">
-        <v>31</v>
-      </c>
-      <c r="B32" s="7" t="s">
+      <c r="C32" s="11" t="s">
         <v>785</v>
       </c>
-      <c r="C32" s="8" t="s">
+    </row>
+    <row r="33" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="9">
+        <v>32</v>
+      </c>
+      <c r="B33" s="10" t="s">
         <v>786</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="4">
-        <v>32</v>
-      </c>
-      <c r="B33" s="7" t="s">
+      <c r="C33" s="11" t="s">
         <v>787</v>
       </c>
-      <c r="C33" s="8" t="s">
+    </row>
+    <row r="34" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="9">
+        <v>33</v>
+      </c>
+      <c r="B34" s="10" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="4">
-        <v>33</v>
-      </c>
-      <c r="B34" s="7" t="s">
+      <c r="C34" s="11" t="s">
         <v>789</v>
       </c>
-      <c r="C34" s="8" t="s">
+    </row>
+    <row r="35" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="9">
+        <v>34</v>
+      </c>
+      <c r="B35" s="10" t="s">
         <v>790</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="4">
-        <v>34</v>
-      </c>
-      <c r="B35" s="7" t="s">
+      <c r="C35" s="11" t="s">
         <v>791</v>
       </c>
-      <c r="C35" s="8" t="s">
+    </row>
+    <row r="36" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="9">
+        <v>35</v>
+      </c>
+      <c r="B36" s="10" t="s">
         <v>792</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="4">
-        <v>35</v>
-      </c>
-      <c r="B36" s="7" t="s">
+      <c r="C36" s="11" t="s">
         <v>793</v>
       </c>
-      <c r="C36" s="8" t="s">
+    </row>
+    <row r="37" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="9">
+        <v>36</v>
+      </c>
+      <c r="B37" s="10" t="s">
         <v>794</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="4">
-        <v>36</v>
-      </c>
-      <c r="B37" s="7" t="s">
+      <c r="C37" s="11" t="s">
         <v>795</v>
       </c>
-      <c r="C37" s="8" t="s">
+    </row>
+    <row r="38" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="9">
+        <v>37</v>
+      </c>
+      <c r="B38" s="10" t="s">
         <v>796</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="4">
-        <v>37</v>
-      </c>
-      <c r="B38" s="7" t="s">
+      <c r="C38" s="11" t="s">
         <v>797</v>
       </c>
-      <c r="C38" s="8" t="s">
+    </row>
+    <row r="39" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="9">
+        <v>38</v>
+      </c>
+      <c r="B39" s="10" t="s">
         <v>798</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="4">
-        <v>38</v>
-      </c>
-      <c r="B39" s="7" t="s">
+      <c r="C39" s="11" t="s">
         <v>799</v>
       </c>
-      <c r="C39" s="8" t="s">
+    </row>
+    <row r="40" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="9">
+        <v>39</v>
+      </c>
+      <c r="B40" s="10" t="s">
         <v>800</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="4">
+      <c r="C40" s="11" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="9">
+        <v>40</v>
+      </c>
+      <c r="B41" s="10" t="s">
+        <v>802</v>
+      </c>
+      <c r="C41" s="11" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="9">
+        <v>41</v>
+      </c>
+      <c r="B42" s="10" t="s">
+        <v>804</v>
+      </c>
+      <c r="C42" s="11" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="9">
+        <v>42</v>
+      </c>
+      <c r="B43" s="10" t="s">
+        <v>806</v>
+      </c>
+      <c r="C43" s="11" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="9">
+        <v>43</v>
+      </c>
+      <c r="B44" s="10" t="s">
+        <v>808</v>
+      </c>
+      <c r="C44" s="11" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="9">
+        <v>44</v>
+      </c>
+      <c r="B45" s="10" t="s">
+        <v>810</v>
+      </c>
+      <c r="C45" s="11" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="9">
+        <v>45</v>
+      </c>
+      <c r="B46" s="10" t="s">
+        <v>812</v>
+      </c>
+      <c r="C46" s="11" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="9">
+        <v>46</v>
+      </c>
+      <c r="B47" s="10" t="s">
+        <v>814</v>
+      </c>
+      <c r="C47" s="11" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="9">
+        <v>47</v>
+      </c>
+      <c r="B48" s="10" t="s">
+        <v>816</v>
+      </c>
+      <c r="C48" s="11" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="9">
+        <v>48</v>
+      </c>
+      <c r="B49" s="10" t="s">
+        <v>817</v>
+      </c>
+      <c r="C49" s="11" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="9">
+        <v>49</v>
+      </c>
+      <c r="B50" s="10" t="s">
+        <v>478</v>
+      </c>
+      <c r="C50" s="11" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="9">
+        <v>50</v>
+      </c>
+      <c r="B51" s="10" t="s">
+        <v>820</v>
+      </c>
+      <c r="C51" s="11" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="9">
+        <v>51</v>
+      </c>
+      <c r="B52" s="10" t="s">
+        <v>822</v>
+      </c>
+      <c r="C52" s="11" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="9">
+        <v>52</v>
+      </c>
+      <c r="B53" s="10" t="s">
+        <v>824</v>
+      </c>
+      <c r="C53" s="11" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="9">
+        <v>53</v>
+      </c>
+      <c r="B54" s="10" t="s">
+        <v>825</v>
+      </c>
+      <c r="C54" s="11" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="9">
+        <v>54</v>
+      </c>
+      <c r="B55" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="B40" s="7" t="s">
-        <v>801</v>
-      </c>
-      <c r="C40" s="8" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="4">
-        <v>40</v>
-      </c>
-      <c r="B41" s="7" t="s">
-        <v>803</v>
-      </c>
-      <c r="C41" s="8" t="s">
-        <v>804</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="4">
-        <v>41</v>
-      </c>
-      <c r="B42" s="7" t="s">
-        <v>805</v>
-      </c>
-      <c r="C42" s="8" t="s">
-        <v>806</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="4">
-        <v>42</v>
-      </c>
-      <c r="B43" s="7" t="s">
-        <v>807</v>
-      </c>
-      <c r="C43" s="8" t="s">
-        <v>808</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="4">
-        <v>43</v>
-      </c>
-      <c r="B44" s="7" t="s">
-        <v>809</v>
-      </c>
-      <c r="C44" s="8" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="4">
-        <v>44</v>
-      </c>
-      <c r="B45" s="7" t="s">
-        <v>811</v>
-      </c>
-      <c r="C45" s="8" t="s">
-        <v>812</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="4">
-        <v>45</v>
-      </c>
-      <c r="B46" s="7" t="s">
-        <v>813</v>
-      </c>
-      <c r="C46" s="8" t="s">
-        <v>814</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="4">
-        <v>46</v>
-      </c>
-      <c r="B47" s="7" t="s">
-        <v>815</v>
-      </c>
-      <c r="C47" s="8" t="s">
-        <v>816</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="4">
-        <v>47</v>
-      </c>
-      <c r="B48" s="7" t="s">
-        <v>817</v>
-      </c>
-      <c r="C48" s="8" t="s">
-        <v>842</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="4">
-        <v>48</v>
-      </c>
-      <c r="B49" s="7" t="s">
-        <v>818</v>
-      </c>
-      <c r="C49" s="8" t="s">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="4">
-        <v>49</v>
-      </c>
-      <c r="B50" s="7" t="s">
-        <v>479</v>
-      </c>
-      <c r="C50" s="8" t="s">
-        <v>820</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="4">
-        <v>50</v>
-      </c>
-      <c r="B51" s="7" t="s">
-        <v>821</v>
-      </c>
-      <c r="C51" s="8" t="s">
-        <v>822</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="4">
-        <v>51</v>
-      </c>
-      <c r="B52" s="7" t="s">
-        <v>823</v>
-      </c>
-      <c r="C52" s="8" t="s">
-        <v>824</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="4">
-        <v>52</v>
-      </c>
-      <c r="B53" s="7" t="s">
-        <v>825</v>
-      </c>
-      <c r="C53" s="8" t="s">
-        <v>841</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="4">
-        <v>53</v>
-      </c>
-      <c r="B54" s="7" t="s">
-        <v>826</v>
-      </c>
-      <c r="C54" s="8" t="s">
+      <c r="C55" s="11" t="s">
         <v>827</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="4">
-        <v>54</v>
-      </c>
-      <c r="B55" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C55" s="8" t="s">
+    <row r="56" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="9">
+        <v>55</v>
+      </c>
+      <c r="B56" s="10" t="s">
         <v>828</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="4">
-        <v>55</v>
-      </c>
-      <c r="B56" s="7" t="s">
+      <c r="C56" s="11" t="s">
         <v>829</v>
       </c>
-      <c r="C56" s="8" t="s">
+    </row>
+    <row r="57" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="9">
+        <v>56</v>
+      </c>
+      <c r="B57" s="10" t="s">
         <v>830</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="4">
-        <v>56</v>
-      </c>
-      <c r="B57" s="7" t="s">
+      <c r="C57" s="11" t="s">
         <v>831</v>
       </c>
-      <c r="C57" s="8" t="s">
+    </row>
+    <row r="58" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="9">
+        <v>57</v>
+      </c>
+      <c r="B58" s="10" t="s">
         <v>832</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="4">
-        <v>57</v>
-      </c>
-      <c r="B58" s="7" t="s">
+      <c r="C58" s="11" t="s">
         <v>833</v>
       </c>
-      <c r="C58" s="8" t="s">
+    </row>
+    <row r="59" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="9">
+        <v>58</v>
+      </c>
+      <c r="B59" s="10" t="s">
         <v>834</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="4">
-        <v>58</v>
-      </c>
-      <c r="B59" s="7" t="s">
+      <c r="C59" s="11" t="s">
         <v>835</v>
       </c>
-      <c r="C59" s="8" t="s">
+    </row>
+    <row r="60" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="9">
+        <v>59</v>
+      </c>
+      <c r="B60" s="10" t="s">
         <v>836</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="4">
-        <v>59</v>
-      </c>
-      <c r="B60" s="7" t="s">
+      <c r="C60" s="11" t="s">
         <v>837</v>
       </c>
-      <c r="C60" s="8" t="s">
+    </row>
+    <row r="61" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="9">
+        <v>60</v>
+      </c>
+      <c r="B61" s="10" t="s">
         <v>838</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="4">
-        <v>60</v>
-      </c>
-      <c r="B61" s="7" t="s">
-        <v>839</v>
-      </c>
-      <c r="C61" s="8" t="s">
-        <v>840</v>
+      <c r="C61" s="11" t="s">
+        <v>884</v>
       </c>
     </row>
   </sheetData>
@@ -9174,10 +9404,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="C8" s="8" t="s">
         <v>377</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -9185,10 +9415,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="C9" s="8" t="s">
         <v>379</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>380</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -9196,10 +9426,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="C10" s="8" t="s">
         <v>381</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>382</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -9207,10 +9437,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="7" t="s">
+        <v>497</v>
+      </c>
+      <c r="C11" s="8" t="s">
         <v>498</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>499</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -9218,10 +9448,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="C12" s="8" t="s">
         <v>500</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>501</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -9229,10 +9459,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="7" t="s">
+        <v>501</v>
+      </c>
+      <c r="C13" s="8" t="s">
         <v>502</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>503</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -9240,10 +9470,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="7" t="s">
+        <v>503</v>
+      </c>
+      <c r="C14" s="8" t="s">
         <v>504</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>505</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -9251,10 +9481,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="7" t="s">
+        <v>505</v>
+      </c>
+      <c r="C15" s="8" t="s">
         <v>506</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>507</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -9262,10 +9492,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="7" t="s">
+        <v>507</v>
+      </c>
+      <c r="C16" s="8" t="s">
         <v>508</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>509</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -9273,10 +9503,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="7" t="s">
+        <v>509</v>
+      </c>
+      <c r="C17" s="8" t="s">
         <v>510</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>511</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -9284,10 +9514,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="7" t="s">
+        <v>511</v>
+      </c>
+      <c r="C18" s="8" t="s">
         <v>512</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>513</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
@@ -9295,10 +9525,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="7" t="s">
+        <v>513</v>
+      </c>
+      <c r="C19" s="8" t="s">
         <v>514</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>515</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -9306,10 +9536,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="7" t="s">
+        <v>515</v>
+      </c>
+      <c r="C20" s="8" t="s">
         <v>516</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>517</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
@@ -9317,10 +9547,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -9328,10 +9558,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="7" t="s">
+        <v>605</v>
+      </c>
+      <c r="C22" s="8" t="s">
         <v>606</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>607</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -9339,10 +9569,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="7" t="s">
+        <v>607</v>
+      </c>
+      <c r="C23" s="8" t="s">
         <v>608</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>609</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -9350,10 +9580,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="7" t="s">
+        <v>609</v>
+      </c>
+      <c r="C24" s="8" t="s">
         <v>610</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>611</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -9361,10 +9591,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="7" t="s">
+        <v>611</v>
+      </c>
+      <c r="C25" s="8" t="s">
         <v>612</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>613</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -9372,10 +9602,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="7" t="s">
+        <v>613</v>
+      </c>
+      <c r="C26" s="8" t="s">
         <v>614</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>615</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -9383,10 +9613,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="7" t="s">
+        <v>615</v>
+      </c>
+      <c r="C27" s="8" t="s">
         <v>616</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>617</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -9394,10 +9624,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="7" t="s">
+        <v>617</v>
+      </c>
+      <c r="C28" s="8" t="s">
         <v>618</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>619</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -9405,10 +9635,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="7" t="s">
+        <v>619</v>
+      </c>
+      <c r="C29" s="8" t="s">
         <v>620</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>621</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -9416,10 +9646,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="7" t="s">
+        <v>621</v>
+      </c>
+      <c r="C30" s="8" t="s">
         <v>622</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>623</v>
       </c>
     </row>
   </sheetData>

--- a/1.xlsx
+++ b/1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" tabRatio="668" firstSheet="1" activeTab="12"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" tabRatio="668" firstSheet="4" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="Data1" sheetId="5" r:id="rId1"/>
@@ -25,8 +25,11 @@
     <sheet name="Bonpoe2" sheetId="14" r:id="rId11"/>
     <sheet name="Bonpoe3" sheetId="15" r:id="rId12"/>
     <sheet name="Bonpoe4" sheetId="16" r:id="rId13"/>
-    <sheet name="Sheet1" sheetId="13" r:id="rId14"/>
-    <sheet name="Q" sheetId="11" r:id="rId15"/>
+    <sheet name="Bonpoe5" sheetId="17" r:id="rId14"/>
+    <sheet name="Bonpoe6" sheetId="19" r:id="rId15"/>
+    <sheet name="Bonpoe7" sheetId="18" r:id="rId16"/>
+    <sheet name="Sheet1" sheetId="13" r:id="rId17"/>
+    <sheet name="Q" sheetId="11" r:id="rId18"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -38,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1038" uniqueCount="910">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1066" uniqueCount="935">
   <si>
     <t>わたし</t>
   </si>
@@ -2988,12 +2991,87 @@
   <si>
     <t>##### ます　ရဲ့ ကာလပြပုံစံများ</t>
   </si>
+  <si>
+    <t xml:space="preserve">  - **N(place)**　**へ　いきます／きます/ かえります。**</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - ~ နေရာသို့ သွားသည်၊ လာသည်၊ ပြန်လာသည်</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - ရွေ့လျားမှုကို ဖော်ပြသော　**どうし**　ကို အသုံးပြုသောအခါ ရွေ့လျားမှုရဲ့ ရှေးရှုရာကို　**へ**　ဖြင့် ဖော်ပြသည်</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1. **へ**　=　 (ဆီသို့၊ သို့) ဦးတည်ရာပြ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  3. **と**　=　 (နှင့်) အတူတကွ လုပ်ဆောင်မှုကို ဖော်ပြသည့်အခါ သုံးသည်</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  4. **に**　=　 (မှာ) နာရီ၊ နေ့ရက်၊ လ၊ ခုနှစ်တွေရဲ့ နောက်မှာထားပြီး သုံးသည်</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  2. **で**　=　 (ဖြင့်)</t>
+  </si>
+  <si>
+    <t>1. **N　を　V**　(**N**　ကို　**V**　သည်။)</t>
+  </si>
+  <si>
+    <t>2. **N　(place)　で　Ｖ**</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - **を**　ကို အသုံးခံပြပုဒ်အနေနဲ့ သုံးသည်။ သူ့ရဲ့နောက်မှာ **Action** အပြုအမူ　**V**　လိုက်သည်</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - **で**　(မှာ) နေရာပြပုဒ် အနေနဲ့ သုံးသည်။ သူ့ရဲ့အနောက်မှာ **Action** အပြုအမူ လုပ်ဆောင်မှုသုံးသည်</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - ဖိတ်ခေါ်တဲ့အခါမှာ သုံးပါတယ်။ တစ်ဖက်သူရဲ့ဆန္ဒကို အလေးထားသော စိတ်သဘောကို ပေါ်လွင်စေသည်</t>
+  </si>
+  <si>
+    <t>3. **Ｖ　ませんか**　(**Ｖ** ကြရအောင်လား၊ မ **Ｖ** ဘူးလား)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - လှိုက်လှိုက်လှဲလှဲ အဆိုပြု၍ ကမ်းလှမ်းဖိတ်ခေါ်သော အသုံးအနှုန်း ဖြစ်သည်</t>
+  </si>
+  <si>
+    <t>4. **Ｖ　ましょう**　(**Ｖ** ကြစို့၊ ရအောင်)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - **に、で**　(မှာ) နှစ်ခုစလုံးက နေရာပြပုဒ်အတူတူဖြစ်နေသောအခါ ဘယ်လိုခွဲခြားမလဲဆို　**に**　ကတည်ရှိမှုကို ဖော်ပြပြီး　**で**　ကနောက်မှာ လုပ်ဆောင်မှုပါဝင်ပါတယ်</t>
+  </si>
+  <si>
+    <t>1. **Ｎ　で　Ｖ**　(**Ｎ** ဖြင့် ပြုလုပ်သည်)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - はし　**で**　たべます</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - 三ラーさん　**に**　えんぴっ　**を**　**あげます**</t>
+  </si>
+  <si>
+    <t>3. **Ｎ(person)　に　N　を 　もらいます** (ထံမှ/မှ ကိုလက်ခံရရှိသည်)/ သူများဆီက ရရှိသည်</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - 三ラーさん　**に**　ボールペン　**を**　**もらいます**</t>
+  </si>
+  <si>
+    <t>4. **もう　Ｖ　ましたか** (**Ｖ** ပြီးပြီလား)/ (**もう** ကပြီးနှင့် ပြီးသား)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - **もう**　たべましたか</t>
+  </si>
+  <si>
+    <t>2. **Ｎ(person)　に　N　を　あげます** (**N** ထံသို့၊ **N** အား ပေးသည်)/ ကိုယ်ကပေးသည်</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - တစ်ခုခုကို မလုပ်ရသေးရင်　**いいえ、まだです**　ကို သုံးလို့ရသည်</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3099,6 +3177,12 @@
       <name val="Yu Mincho"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -3149,7 +3233,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3256,6 +3340,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3539,7 +3624,7 @@
   <dimension ref="A1:C38"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3974,7 +4059,7 @@
   <dimension ref="A1:D45"/>
   <sheetViews>
     <sheetView topLeftCell="A40" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="A46" sqref="A46"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4190,7 +4275,7 @@
   <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4304,7 +4389,7 @@
   <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4395,8 +4480,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4548,10 +4633,206 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A10"/>
+  <sheetViews>
+    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="77.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>912</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A15"/>
+  <sheetViews>
+    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="79.109375" style="36" customWidth="1"/>
+    <col min="2" max="16384" width="8.88671875" style="36"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="36" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="36" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="36" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="36" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="36" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="36" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="36" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="36" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="36" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" s="36" t="s">
+        <v>925</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="265" zoomScaleNormal="265" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="76.21875" style="36" customWidth="1"/>
+    <col min="2" max="16384" width="8.88671875" style="36"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="36" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="36" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="36" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="36" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="36" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="36" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="36" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="36" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="36" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" s="36" t="s">
+        <v>934</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A34"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4714,12 +4995,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -4935,7 +5216,7 @@
   <dimension ref="A1:C47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5468,7 +5749,7 @@
   <dimension ref="A1:D51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6041,7 +6322,7 @@
   <dimension ref="A1:C61"/>
   <sheetViews>
     <sheetView topLeftCell="A47" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B51" sqref="B51"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6730,7 +7011,7 @@
   <dimension ref="A1:C62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7429,7 +7710,7 @@
   <dimension ref="A1:C62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8092,7 +8373,7 @@
   <dimension ref="A1:C47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8625,7 +8906,7 @@
   <dimension ref="A1:C61"/>
   <sheetViews>
     <sheetView topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C62" sqref="C62"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="36.6" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -9314,7 +9595,7 @@
   <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/1.xlsx
+++ b/1.xlsx
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1066" uniqueCount="935">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1070" uniqueCount="939">
   <si>
     <t>わたし</t>
   </si>
@@ -3040,31 +3040,43 @@
     <t xml:space="preserve">  - **に、で**　(မှာ) နှစ်ခုစလုံးက နေရာပြပုဒ်အတူတူဖြစ်နေသောအခါ ဘယ်လိုခွဲခြားမလဲဆို　**に**　ကတည်ရှိမှုကို ဖော်ပြပြီး　**で**　ကနောက်မှာ လုပ်ဆောင်မှုပါဝင်ပါတယ်</t>
   </si>
   <si>
-    <t>1. **Ｎ　で　Ｖ**　(**Ｎ** ဖြင့် ပြုလုပ်သည်)</t>
-  </si>
-  <si>
     <t xml:space="preserve">  - はし　**で**　たべます</t>
   </si>
   <si>
     <t xml:space="preserve">  - 三ラーさん　**に**　えんぴっ　**を**　**あげます**</t>
   </si>
   <si>
-    <t>3. **Ｎ(person)　に　N　を 　もらいます** (ထံမှ/မှ ကိုလက်ခံရရှိသည်)/ သူများဆီက ရရှိသည်</t>
-  </si>
-  <si>
     <t xml:space="preserve">  - 三ラーさん　**に**　ボールペン　**を**　**もらいます**</t>
   </si>
   <si>
-    <t>4. **もう　Ｖ　ましたか** (**Ｖ** ပြီးပြီလား)/ (**もう** ကပြီးနှင့် ပြီးသား)</t>
-  </si>
-  <si>
     <t xml:space="preserve">  - **もう**　たべましたか</t>
   </si>
   <si>
-    <t>2. **Ｎ(person)　に　N　を　あげます** (**N** ထံသို့၊ **N** အား ပေးသည်)/ ကိုယ်ကပေးသည်</t>
-  </si>
-  <si>
     <t xml:space="preserve">  - တစ်ခုခုကို မလုပ်ရသေးရင်　**いいえ、まだです**　ကို သုံးလို့ရသည်</t>
+  </si>
+  <si>
+    <t>1. **Ｎ　で　Ｖ**　</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - **Ｎ** ဖြင့် ပြုလုပ်သည်</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. **Ｎ(person)　に　N　を　あげます** </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - **N** ထံသို့၊ **N** အား ပေးသည်/ (ကိုယ်ကပေးသည်)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3. **Ｎ(person)　に　N　を 　もらいます** </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - ထံမှ/မှ ကိုလက်ခံရရှိသည်/ (သူများဆီက ရရှိသည်)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4. **もう　Ｖ　ましたか** </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - **Ｖ** ပြီးပြီလား/ (**もう** ကပြီးနှင့် ပြီးသား)</t>
   </si>
 </sst>
 </file>
@@ -4760,10 +4772,10 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A14"/>
+  <dimension ref="A1:A18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="265" zoomScaleNormal="265" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" zoomScale="265" zoomScaleNormal="265" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -4779,47 +4791,67 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="36" t="s">
-        <v>926</v>
+        <v>931</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="36" t="s">
-        <v>927</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="36" t="s">
-        <v>933</v>
+        <v>932</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="36" t="s">
+        <v>926</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="36" t="s">
-        <v>928</v>
+        <v>933</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="36" t="s">
+        <v>934</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="36" t="s">
-        <v>929</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="36" t="s">
-        <v>930</v>
+        <v>927</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="36" t="s">
+        <v>935</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="36" t="s">
-        <v>931</v>
+        <v>936</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="36" t="s">
-        <v>932</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" s="36" t="s">
-        <v>934</v>
+        <v>928</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" s="36" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="36" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="36" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="36" t="s">
+        <v>930</v>
       </c>
     </row>
   </sheetData>
@@ -7667,7 +7699,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A60" s="4">
         <v>59</v>
       </c>

--- a/1.xlsx
+++ b/1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" tabRatio="668" firstSheet="4" activeTab="15"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" tabRatio="668" firstSheet="14" activeTab="23"/>
   </bookViews>
   <sheets>
     <sheet name="Data1" sheetId="5" r:id="rId1"/>
@@ -28,8 +28,16 @@
     <sheet name="Bonpoe5" sheetId="17" r:id="rId14"/>
     <sheet name="Bonpoe6" sheetId="19" r:id="rId15"/>
     <sheet name="Bonpoe7" sheetId="18" r:id="rId16"/>
-    <sheet name="Sheet1" sheetId="13" r:id="rId17"/>
-    <sheet name="Q" sheetId="11" r:id="rId18"/>
+    <sheet name="hiragana" sheetId="20" r:id="rId17"/>
+    <sheet name="dakuon" sheetId="22" r:id="rId18"/>
+    <sheet name="handakuon" sheetId="23" r:id="rId19"/>
+    <sheet name="youon" sheetId="24" r:id="rId20"/>
+    <sheet name="katakana" sheetId="21" r:id="rId21"/>
+    <sheet name="kdakuon" sheetId="25" r:id="rId22"/>
+    <sheet name="khandakuon" sheetId="26" r:id="rId23"/>
+    <sheet name="kyouon" sheetId="27" r:id="rId24"/>
+    <sheet name="Sheet1" sheetId="13" r:id="rId25"/>
+    <sheet name="Q" sheetId="11" r:id="rId26"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -41,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1070" uniqueCount="939">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1327" uniqueCount="1148">
   <si>
     <t>わたし</t>
   </si>
@@ -3077,6 +3085,633 @@
   </si>
   <si>
     <t xml:space="preserve">  - **Ｖ** ပြီးပြီလား/ (**もう** ကပြီးနှင့် ပြီးသား)</t>
+  </si>
+  <si>
+    <t>い</t>
+  </si>
+  <si>
+    <t>う</t>
+  </si>
+  <si>
+    <t>え</t>
+  </si>
+  <si>
+    <t>お</t>
+  </si>
+  <si>
+    <t>か</t>
+  </si>
+  <si>
+    <t>き</t>
+  </si>
+  <si>
+    <t>く</t>
+  </si>
+  <si>
+    <t>け</t>
+  </si>
+  <si>
+    <t>こ</t>
+  </si>
+  <si>
+    <t>さ</t>
+  </si>
+  <si>
+    <t>し</t>
+  </si>
+  <si>
+    <t>す</t>
+  </si>
+  <si>
+    <t>せ</t>
+  </si>
+  <si>
+    <t>そ</t>
+  </si>
+  <si>
+    <t>た</t>
+  </si>
+  <si>
+    <t>ち</t>
+  </si>
+  <si>
+    <t>つ</t>
+  </si>
+  <si>
+    <t>と</t>
+  </si>
+  <si>
+    <t>な</t>
+  </si>
+  <si>
+    <t>に</t>
+  </si>
+  <si>
+    <t>ぬ</t>
+  </si>
+  <si>
+    <t>ね</t>
+  </si>
+  <si>
+    <t>の</t>
+  </si>
+  <si>
+    <t>は</t>
+  </si>
+  <si>
+    <t>ひ</t>
+  </si>
+  <si>
+    <t>ふ</t>
+  </si>
+  <si>
+    <t>へ</t>
+  </si>
+  <si>
+    <t>ほ</t>
+  </si>
+  <si>
+    <t>ま</t>
+  </si>
+  <si>
+    <t>や</t>
+  </si>
+  <si>
+    <t>ゆ</t>
+  </si>
+  <si>
+    <t>み</t>
+  </si>
+  <si>
+    <t>む</t>
+  </si>
+  <si>
+    <t>め</t>
+  </si>
+  <si>
+    <t>も</t>
+  </si>
+  <si>
+    <t>よ</t>
+  </si>
+  <si>
+    <t>ん</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>u</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>o</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>ア</t>
+  </si>
+  <si>
+    <t>イ</t>
+  </si>
+  <si>
+    <t>ウ</t>
+  </si>
+  <si>
+    <t>エ</t>
+  </si>
+  <si>
+    <t>オ</t>
+  </si>
+  <si>
+    <t>カ</t>
+  </si>
+  <si>
+    <t>キ</t>
+  </si>
+  <si>
+    <t>ク</t>
+  </si>
+  <si>
+    <t>ケ</t>
+  </si>
+  <si>
+    <t>コ</t>
+  </si>
+  <si>
+    <t>サ</t>
+  </si>
+  <si>
+    <t>シ</t>
+  </si>
+  <si>
+    <t>ス</t>
+  </si>
+  <si>
+    <t>セ</t>
+  </si>
+  <si>
+    <t>ソ</t>
+  </si>
+  <si>
+    <t>タ</t>
+  </si>
+  <si>
+    <t>チ</t>
+  </si>
+  <si>
+    <t>ツ</t>
+  </si>
+  <si>
+    <t>テ</t>
+  </si>
+  <si>
+    <t>ト</t>
+  </si>
+  <si>
+    <t>ナ</t>
+  </si>
+  <si>
+    <t>ニ</t>
+  </si>
+  <si>
+    <t>ヌ</t>
+  </si>
+  <si>
+    <t>ネ</t>
+  </si>
+  <si>
+    <t>ノ</t>
+  </si>
+  <si>
+    <t>ハ</t>
+  </si>
+  <si>
+    <t>ヒ</t>
+  </si>
+  <si>
+    <t>フ</t>
+  </si>
+  <si>
+    <t>ヘ</t>
+  </si>
+  <si>
+    <t>ホ</t>
+  </si>
+  <si>
+    <t>マ</t>
+  </si>
+  <si>
+    <t>ミ</t>
+  </si>
+  <si>
+    <t>ム</t>
+  </si>
+  <si>
+    <t>メ</t>
+  </si>
+  <si>
+    <t>モ</t>
+  </si>
+  <si>
+    <t>ヤ</t>
+  </si>
+  <si>
+    <t>　</t>
+  </si>
+  <si>
+    <t>ユ</t>
+  </si>
+  <si>
+    <t>ヨ</t>
+  </si>
+  <si>
+    <t>ラ</t>
+  </si>
+  <si>
+    <t>リ</t>
+  </si>
+  <si>
+    <t>ル</t>
+  </si>
+  <si>
+    <t>レ</t>
+  </si>
+  <si>
+    <t>ロ</t>
+  </si>
+  <si>
+    <t>ワ</t>
+  </si>
+  <si>
+    <t>ヲ</t>
+  </si>
+  <si>
+    <t>ン</t>
+  </si>
+  <si>
+    <t>ら</t>
+  </si>
+  <si>
+    <t>り</t>
+  </si>
+  <si>
+    <t>る</t>
+  </si>
+  <si>
+    <t>れ</t>
+  </si>
+  <si>
+    <t>ろ</t>
+  </si>
+  <si>
+    <t>が</t>
+  </si>
+  <si>
+    <t>ぎ</t>
+  </si>
+  <si>
+    <t>ぐ</t>
+  </si>
+  <si>
+    <t>げ</t>
+  </si>
+  <si>
+    <t>ご</t>
+  </si>
+  <si>
+    <t>ざ</t>
+  </si>
+  <si>
+    <t>じ</t>
+  </si>
+  <si>
+    <t>ず</t>
+  </si>
+  <si>
+    <t>ぜ</t>
+  </si>
+  <si>
+    <t>ぞ</t>
+  </si>
+  <si>
+    <t>だ</t>
+  </si>
+  <si>
+    <t>ぢ</t>
+  </si>
+  <si>
+    <t>づ</t>
+  </si>
+  <si>
+    <t>で</t>
+  </si>
+  <si>
+    <t>ど</t>
+  </si>
+  <si>
+    <t>ば</t>
+  </si>
+  <si>
+    <t>び</t>
+  </si>
+  <si>
+    <t>ぶ</t>
+  </si>
+  <si>
+    <t>べ</t>
+  </si>
+  <si>
+    <t>ぼ</t>
+  </si>
+  <si>
+    <t>ぱ</t>
+  </si>
+  <si>
+    <t>ぴ</t>
+  </si>
+  <si>
+    <t>ぷ</t>
+  </si>
+  <si>
+    <t>ぺ</t>
+  </si>
+  <si>
+    <t>ぽ</t>
+  </si>
+  <si>
+    <t>きゃ</t>
+  </si>
+  <si>
+    <t>きゅ</t>
+  </si>
+  <si>
+    <t>きょ</t>
+  </si>
+  <si>
+    <t>しゃ</t>
+  </si>
+  <si>
+    <t>しゅ</t>
+  </si>
+  <si>
+    <t>しょ</t>
+  </si>
+  <si>
+    <t>ちゃ</t>
+  </si>
+  <si>
+    <t>ちゅ</t>
+  </si>
+  <si>
+    <t>ちょ</t>
+  </si>
+  <si>
+    <t>にゃ</t>
+  </si>
+  <si>
+    <t>にゅ</t>
+  </si>
+  <si>
+    <t>にょ</t>
+  </si>
+  <si>
+    <t>ひゃ</t>
+  </si>
+  <si>
+    <t>ひゅ</t>
+  </si>
+  <si>
+    <t>ひょ</t>
+  </si>
+  <si>
+    <t>みゃ</t>
+  </si>
+  <si>
+    <t>みょ</t>
+  </si>
+  <si>
+    <t>みゅ</t>
+  </si>
+  <si>
+    <t>りゃ</t>
+  </si>
+  <si>
+    <t>りゅ</t>
+  </si>
+  <si>
+    <t>りょ</t>
+  </si>
+  <si>
+    <t>ぎゃ</t>
+  </si>
+  <si>
+    <t>ぎゅ</t>
+  </si>
+  <si>
+    <t>ぎょ</t>
+  </si>
+  <si>
+    <t>じゅ</t>
+  </si>
+  <si>
+    <t>じょ</t>
+  </si>
+  <si>
+    <t>びゃ</t>
+  </si>
+  <si>
+    <t>びゅ</t>
+  </si>
+  <si>
+    <t>びょ</t>
+  </si>
+  <si>
+    <t>ぴゃ</t>
+  </si>
+  <si>
+    <t>ぴょ</t>
+  </si>
+  <si>
+    <t>ガ</t>
+  </si>
+  <si>
+    <t>ギ</t>
+  </si>
+  <si>
+    <t>グ</t>
+  </si>
+  <si>
+    <t>ゲ</t>
+  </si>
+  <si>
+    <t>ゴ</t>
+  </si>
+  <si>
+    <t>ザ</t>
+  </si>
+  <si>
+    <t>ジ</t>
+  </si>
+  <si>
+    <t>ズ</t>
+  </si>
+  <si>
+    <t>ゼ</t>
+  </si>
+  <si>
+    <t>ゾ</t>
+  </si>
+  <si>
+    <t>ダ</t>
+  </si>
+  <si>
+    <t>ヂ</t>
+  </si>
+  <si>
+    <t>ヅ</t>
+  </si>
+  <si>
+    <t>デ</t>
+  </si>
+  <si>
+    <t>ド</t>
+  </si>
+  <si>
+    <t>バ</t>
+  </si>
+  <si>
+    <t>ビ</t>
+  </si>
+  <si>
+    <t>ブ</t>
+  </si>
+  <si>
+    <t>ベ</t>
+  </si>
+  <si>
+    <t>ボ</t>
+  </si>
+  <si>
+    <t>パ</t>
+  </si>
+  <si>
+    <t>ピ</t>
+  </si>
+  <si>
+    <t>プ</t>
+  </si>
+  <si>
+    <t>ペ</t>
+  </si>
+  <si>
+    <t>ポ</t>
+  </si>
+  <si>
+    <t>キャ</t>
+  </si>
+  <si>
+    <t>キュ</t>
+  </si>
+  <si>
+    <t>キョ</t>
+  </si>
+  <si>
+    <t>シャ</t>
+  </si>
+  <si>
+    <t>シュ</t>
+  </si>
+  <si>
+    <t>ショ</t>
+  </si>
+  <si>
+    <t>チャ</t>
+  </si>
+  <si>
+    <t>チュ</t>
+  </si>
+  <si>
+    <t>チョ</t>
+  </si>
+  <si>
+    <t>ニャ</t>
+  </si>
+  <si>
+    <t>ニュ</t>
+  </si>
+  <si>
+    <t>ニョ</t>
+  </si>
+  <si>
+    <t>ヒャ</t>
+  </si>
+  <si>
+    <t>ヒュ</t>
+  </si>
+  <si>
+    <t>ヒョ</t>
+  </si>
+  <si>
+    <t>ミャ</t>
+  </si>
+  <si>
+    <t>ミュ</t>
+  </si>
+  <si>
+    <t>ミョ</t>
+  </si>
+  <si>
+    <t>リャ</t>
+  </si>
+  <si>
+    <t>リュ</t>
+  </si>
+  <si>
+    <t>リョ</t>
+  </si>
+  <si>
+    <t>ギャ</t>
+  </si>
+  <si>
+    <t>ギュ</t>
+  </si>
+  <si>
+    <t>ギョ</t>
+  </si>
+  <si>
+    <t>ジャ</t>
+  </si>
+  <si>
+    <t>ジュ</t>
+  </si>
+  <si>
+    <t>ジョ</t>
+  </si>
+  <si>
+    <t>ビャ</t>
+  </si>
+  <si>
+    <t>ビュ</t>
+  </si>
+  <si>
+    <t>ビョ</t>
+  </si>
+  <si>
+    <t>ピャ</t>
+  </si>
+  <si>
+    <t>ピュ</t>
+  </si>
+  <si>
+    <t>ピョ</t>
   </si>
 </sst>
 </file>
@@ -3245,7 +3880,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3353,6 +3988,15 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4774,7 +5418,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="265" zoomScaleNormal="265" workbookViewId="0">
+    <sheetView zoomScale="265" zoomScaleNormal="265" workbookViewId="0">
       <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
@@ -4861,165 +5505,306 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A34"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="56.6640625" customWidth="1"/>
+    <col min="1" max="16384" width="8.88671875" style="38"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A1" s="22" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="A2" s="22" t="s">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="22" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="22" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" s="23"/>
-    </row>
-    <row r="6" spans="1:1" ht="19.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="24" t="s">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="22" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A8" s="23"/>
-    </row>
-    <row r="9" spans="1:1" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="25" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A10" s="25"/>
-    </row>
-    <row r="11" spans="1:1" ht="18" x14ac:dyDescent="0.3">
-      <c r="A11" s="26" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A12" s="27" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A13" s="27" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A14" s="27"/>
-    </row>
-    <row r="15" spans="1:1" ht="18" x14ac:dyDescent="0.3">
-      <c r="A15" s="26" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A16" s="28" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" s="23"/>
-    </row>
-    <row r="18" spans="1:1" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A18" s="28" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A19" s="28"/>
-    </row>
-    <row r="20" spans="1:1" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A20" s="29" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A21" s="29" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A22" s="27" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" s="27"/>
-    </row>
-    <row r="24" spans="1:1" ht="19.8" x14ac:dyDescent="0.3">
-      <c r="A24" s="30" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A25" s="22" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A26" s="22"/>
-    </row>
-    <row r="27" spans="1:1" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A27" s="22" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A28" s="22"/>
-    </row>
-    <row r="29" spans="1:1" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A29" s="22" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A30" s="22" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A31" s="22" t="s">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A32" s="22"/>
-    </row>
-    <row r="33" spans="1:1" ht="19.8" x14ac:dyDescent="0.3">
-      <c r="A33" s="30" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A34" s="22" t="s">
-        <v>703</v>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="39" t="s">
+        <v>976</v>
+      </c>
+      <c r="B1" s="39" t="s">
+        <v>977</v>
+      </c>
+      <c r="C1" s="39" t="s">
+        <v>978</v>
+      </c>
+      <c r="D1" s="39" t="s">
+        <v>979</v>
+      </c>
+      <c r="E1" s="39" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="38" t="s">
+        <v>158</v>
+      </c>
+      <c r="B2" s="38" t="s">
+        <v>939</v>
+      </c>
+      <c r="C2" s="38" t="s">
+        <v>940</v>
+      </c>
+      <c r="D2" s="38" t="s">
+        <v>941</v>
+      </c>
+      <c r="E2" s="38" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="38" t="s">
+        <v>943</v>
+      </c>
+      <c r="B3" s="38" t="s">
+        <v>944</v>
+      </c>
+      <c r="C3" s="38" t="s">
+        <v>945</v>
+      </c>
+      <c r="D3" s="38" t="s">
+        <v>946</v>
+      </c>
+      <c r="E3" s="38" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="38" t="s">
+        <v>948</v>
+      </c>
+      <c r="B4" s="38" t="s">
+        <v>949</v>
+      </c>
+      <c r="C4" s="38" t="s">
+        <v>950</v>
+      </c>
+      <c r="D4" s="38" t="s">
+        <v>951</v>
+      </c>
+      <c r="E4" s="38" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="38" t="s">
+        <v>953</v>
+      </c>
+      <c r="B5" s="38" t="s">
+        <v>954</v>
+      </c>
+      <c r="C5" s="38" t="s">
+        <v>955</v>
+      </c>
+      <c r="D5" s="38" t="s">
+        <v>623</v>
+      </c>
+      <c r="E5" s="38" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="38" t="s">
+        <v>957</v>
+      </c>
+      <c r="B6" s="38" t="s">
+        <v>958</v>
+      </c>
+      <c r="C6" s="38" t="s">
+        <v>959</v>
+      </c>
+      <c r="D6" s="38" t="s">
+        <v>960</v>
+      </c>
+      <c r="E6" s="38" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="38" t="s">
+        <v>962</v>
+      </c>
+      <c r="B7" s="38" t="s">
+        <v>963</v>
+      </c>
+      <c r="C7" s="38" t="s">
+        <v>964</v>
+      </c>
+      <c r="D7" s="38" t="s">
+        <v>965</v>
+      </c>
+      <c r="E7" s="38" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="38" t="s">
+        <v>967</v>
+      </c>
+      <c r="B8" s="38" t="s">
+        <v>970</v>
+      </c>
+      <c r="C8" s="38" t="s">
+        <v>971</v>
+      </c>
+      <c r="D8" s="38" t="s">
+        <v>972</v>
+      </c>
+      <c r="E8" s="38" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="38" t="s">
+        <v>968</v>
+      </c>
+      <c r="B9" s="38" t="s">
+        <v>981</v>
+      </c>
+      <c r="C9" s="38" t="s">
+        <v>969</v>
+      </c>
+      <c r="D9" s="38" t="s">
+        <v>981</v>
+      </c>
+      <c r="E9" s="38" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="38" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B10" s="38" t="s">
+        <v>1030</v>
+      </c>
+      <c r="C10" s="38" t="s">
+        <v>1031</v>
+      </c>
+      <c r="D10" s="38" t="s">
+        <v>1032</v>
+      </c>
+      <c r="E10" s="38" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="38" t="s">
+        <v>981</v>
+      </c>
+      <c r="B11" s="38" t="s">
+        <v>981</v>
+      </c>
+      <c r="C11" s="38" t="s">
+        <v>975</v>
+      </c>
+      <c r="D11" s="38" t="s">
+        <v>981</v>
+      </c>
+      <c r="E11" s="38" t="s">
+        <v>981</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView zoomScale="310" zoomScaleNormal="310" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="16384" width="8.88671875" style="37"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="37" t="s">
+        <v>976</v>
+      </c>
+      <c r="B1" s="37" t="s">
+        <v>977</v>
+      </c>
+      <c r="C1" s="37" t="s">
+        <v>978</v>
+      </c>
+      <c r="D1" s="37" t="s">
+        <v>979</v>
+      </c>
+      <c r="E1" s="37" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="37" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B2" s="37" t="s">
+        <v>1035</v>
+      </c>
+      <c r="C2" s="37" t="s">
+        <v>1036</v>
+      </c>
+      <c r="D2" s="37" t="s">
+        <v>1037</v>
+      </c>
+      <c r="E2" s="37" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="37" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B3" s="37" t="s">
+        <v>1040</v>
+      </c>
+      <c r="C3" s="37" t="s">
+        <v>1041</v>
+      </c>
+      <c r="D3" s="37" t="s">
+        <v>1042</v>
+      </c>
+      <c r="E3" s="37" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="37" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B4" s="37" t="s">
+        <v>1045</v>
+      </c>
+      <c r="C4" s="37" t="s">
+        <v>1046</v>
+      </c>
+      <c r="D4" s="37" t="s">
+        <v>1047</v>
+      </c>
+      <c r="E4" s="37" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="37" t="s">
+        <v>1049</v>
+      </c>
+      <c r="B5" s="37" t="s">
+        <v>1050</v>
+      </c>
+      <c r="C5" s="37" t="s">
+        <v>1051</v>
+      </c>
+      <c r="D5" s="37" t="s">
+        <v>1052</v>
+      </c>
+      <c r="E5" s="37" t="s">
+        <v>1053</v>
       </c>
     </row>
   </sheetData>
@@ -5027,216 +5812,52 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A40"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView zoomScale="265" zoomScaleNormal="265" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="53.33203125" style="19" customWidth="1"/>
+    <col min="1" max="16384" width="8.88671875" style="37"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" s="19" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" s="18" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" s="18" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" s="18" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" s="18" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7" s="18" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A8" s="18" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A9" s="18" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A10" s="18" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A11" s="18" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A12" s="18" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A13" s="18" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A14" s="18" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A15" s="18" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A16" s="18" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" s="18" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" s="18" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" s="18" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" s="18" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" s="18" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" s="18" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" s="18" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24" s="18" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25" s="18" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A26" s="18" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A27" s="18" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A28" s="18" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A29" s="18" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A30" s="18" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A31" s="18" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A32" s="18" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A33" s="18" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A34" s="18" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A35" s="18" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A36" s="18" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A37" s="18" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A38" s="18" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A39" s="18" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A40" s="18"/>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="37" t="s">
+        <v>976</v>
+      </c>
+      <c r="B1" s="37" t="s">
+        <v>977</v>
+      </c>
+      <c r="C1" s="37" t="s">
+        <v>978</v>
+      </c>
+      <c r="D1" s="37" t="s">
+        <v>979</v>
+      </c>
+      <c r="E1" s="37" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="37" t="s">
+        <v>1054</v>
+      </c>
+      <c r="B2" s="37" t="s">
+        <v>1055</v>
+      </c>
+      <c r="C2" s="37" t="s">
+        <v>1056</v>
+      </c>
+      <c r="D2" s="37" t="s">
+        <v>1057</v>
+      </c>
+      <c r="E2" s="37" t="s">
+        <v>1058</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5770,6 +6391,1067 @@
       <c r="C47" s="11" t="s">
         <v>163</v>
       </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C12"/>
+  <sheetViews>
+    <sheetView zoomScale="295" zoomScaleNormal="295" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="16384" width="8.88671875" style="37"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="37" t="s">
+        <v>977</v>
+      </c>
+      <c r="B1" s="37" t="s">
+        <v>978</v>
+      </c>
+      <c r="C1" s="37" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="37" t="s">
+        <v>1059</v>
+      </c>
+      <c r="B2" s="37" t="s">
+        <v>1060</v>
+      </c>
+      <c r="C2" s="37" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="37" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B3" s="37" t="s">
+        <v>1063</v>
+      </c>
+      <c r="C3" s="37" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="37" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B4" s="37" t="s">
+        <v>1066</v>
+      </c>
+      <c r="C4" s="37" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="37" t="s">
+        <v>1068</v>
+      </c>
+      <c r="B5" s="37" t="s">
+        <v>1069</v>
+      </c>
+      <c r="C5" s="37" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="37" t="s">
+        <v>1071</v>
+      </c>
+      <c r="B6" s="37" t="s">
+        <v>1072</v>
+      </c>
+      <c r="C6" s="37" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="37" t="s">
+        <v>1074</v>
+      </c>
+      <c r="B7" s="37" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C7" s="37" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="37" t="s">
+        <v>1077</v>
+      </c>
+      <c r="B8" s="37" t="s">
+        <v>1078</v>
+      </c>
+      <c r="C8" s="37" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="37" t="s">
+        <v>1080</v>
+      </c>
+      <c r="B9" s="37" t="s">
+        <v>1081</v>
+      </c>
+      <c r="C9" s="37" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="37" t="s">
+        <v>241</v>
+      </c>
+      <c r="B10" s="37" t="s">
+        <v>1083</v>
+      </c>
+      <c r="C10" s="37" t="s">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="37" t="s">
+        <v>1085</v>
+      </c>
+      <c r="B11" s="37" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C11" s="37" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="37" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B12" s="37" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C12" s="37" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E12"/>
+  <sheetViews>
+    <sheetView zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="16384" width="8.88671875" style="38"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="38" t="s">
+        <v>976</v>
+      </c>
+      <c r="B1" s="38" t="s">
+        <v>977</v>
+      </c>
+      <c r="C1" s="38" t="s">
+        <v>978</v>
+      </c>
+      <c r="D1" s="38" t="s">
+        <v>979</v>
+      </c>
+      <c r="E1" s="38" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="38" t="s">
+        <v>982</v>
+      </c>
+      <c r="B2" s="38" t="s">
+        <v>983</v>
+      </c>
+      <c r="C2" s="38" t="s">
+        <v>984</v>
+      </c>
+      <c r="D2" s="38" t="s">
+        <v>985</v>
+      </c>
+      <c r="E2" s="38" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="38" t="s">
+        <v>987</v>
+      </c>
+      <c r="B3" s="38" t="s">
+        <v>988</v>
+      </c>
+      <c r="C3" s="38" t="s">
+        <v>989</v>
+      </c>
+      <c r="D3" s="38" t="s">
+        <v>990</v>
+      </c>
+      <c r="E3" s="38" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="38" t="s">
+        <v>992</v>
+      </c>
+      <c r="B4" s="38" t="s">
+        <v>993</v>
+      </c>
+      <c r="C4" s="38" t="s">
+        <v>994</v>
+      </c>
+      <c r="D4" s="38" t="s">
+        <v>995</v>
+      </c>
+      <c r="E4" s="38" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="38" t="s">
+        <v>997</v>
+      </c>
+      <c r="B5" s="38" t="s">
+        <v>998</v>
+      </c>
+      <c r="C5" s="38" t="s">
+        <v>999</v>
+      </c>
+      <c r="D5" s="38" t="s">
+        <v>1000</v>
+      </c>
+      <c r="E5" s="38" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="38" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B6" s="38" t="s">
+        <v>1003</v>
+      </c>
+      <c r="C6" s="38" t="s">
+        <v>1004</v>
+      </c>
+      <c r="D6" s="38" t="s">
+        <v>1005</v>
+      </c>
+      <c r="E6" s="38" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="38" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B7" s="38" t="s">
+        <v>1008</v>
+      </c>
+      <c r="C7" s="38" t="s">
+        <v>1009</v>
+      </c>
+      <c r="D7" s="38" t="s">
+        <v>1010</v>
+      </c>
+      <c r="E7" s="38" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="38" t="s">
+        <v>1012</v>
+      </c>
+      <c r="B8" s="38" t="s">
+        <v>1013</v>
+      </c>
+      <c r="C8" s="38" t="s">
+        <v>1014</v>
+      </c>
+      <c r="D8" s="38" t="s">
+        <v>1015</v>
+      </c>
+      <c r="E8" s="38" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="38" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B9" s="38" t="s">
+        <v>1018</v>
+      </c>
+      <c r="C9" s="38" t="s">
+        <v>1019</v>
+      </c>
+      <c r="D9" s="38" t="s">
+        <v>1018</v>
+      </c>
+      <c r="E9" s="38" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="38" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B10" s="38" t="s">
+        <v>1022</v>
+      </c>
+      <c r="C10" s="38" t="s">
+        <v>1023</v>
+      </c>
+      <c r="D10" s="38" t="s">
+        <v>1024</v>
+      </c>
+      <c r="E10" s="38" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="38" t="s">
+        <v>1026</v>
+      </c>
+      <c r="B11" s="38" t="s">
+        <v>1018</v>
+      </c>
+      <c r="C11" s="38" t="s">
+        <v>1018</v>
+      </c>
+      <c r="D11" s="38" t="s">
+        <v>1018</v>
+      </c>
+      <c r="E11" s="38" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="38" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B12" s="38" t="s">
+        <v>1018</v>
+      </c>
+      <c r="C12" s="38" t="s">
+        <v>1028</v>
+      </c>
+      <c r="D12" s="38" t="s">
+        <v>1018</v>
+      </c>
+      <c r="E12" s="38" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="16384" width="8.88671875" style="37"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="37" t="s">
+        <v>976</v>
+      </c>
+      <c r="B1" s="37" t="s">
+        <v>977</v>
+      </c>
+      <c r="C1" s="37" t="s">
+        <v>978</v>
+      </c>
+      <c r="D1" s="37" t="s">
+        <v>979</v>
+      </c>
+      <c r="E1" s="37" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="37" t="s">
+        <v>1090</v>
+      </c>
+      <c r="B2" s="37" t="s">
+        <v>1091</v>
+      </c>
+      <c r="C2" s="37" t="s">
+        <v>1092</v>
+      </c>
+      <c r="D2" s="37" t="s">
+        <v>1093</v>
+      </c>
+      <c r="E2" s="37" t="s">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="37" t="s">
+        <v>1095</v>
+      </c>
+      <c r="B3" s="37" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C3" s="37" t="s">
+        <v>1097</v>
+      </c>
+      <c r="D3" s="37" t="s">
+        <v>1098</v>
+      </c>
+      <c r="E3" s="37" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="37" t="s">
+        <v>1100</v>
+      </c>
+      <c r="B4" s="37" t="s">
+        <v>1101</v>
+      </c>
+      <c r="C4" s="37" t="s">
+        <v>1102</v>
+      </c>
+      <c r="D4" s="37" t="s">
+        <v>1103</v>
+      </c>
+      <c r="E4" s="37" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="37" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B5" s="37" t="s">
+        <v>1106</v>
+      </c>
+      <c r="C5" s="37" t="s">
+        <v>1107</v>
+      </c>
+      <c r="D5" s="37" t="s">
+        <v>1108</v>
+      </c>
+      <c r="E5" s="37" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView zoomScale="340" zoomScaleNormal="340" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="16384" width="8.88671875" style="37"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="37" t="s">
+        <v>976</v>
+      </c>
+      <c r="B1" s="37" t="s">
+        <v>977</v>
+      </c>
+      <c r="C1" s="37" t="s">
+        <v>978</v>
+      </c>
+      <c r="D1" s="37" t="s">
+        <v>979</v>
+      </c>
+      <c r="E1" s="37" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="37" t="s">
+        <v>1110</v>
+      </c>
+      <c r="B2" s="37" t="s">
+        <v>1111</v>
+      </c>
+      <c r="C2" s="37" t="s">
+        <v>1112</v>
+      </c>
+      <c r="D2" s="37" t="s">
+        <v>1113</v>
+      </c>
+      <c r="E2" s="37" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="16384" width="8.88671875" style="37"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="37" t="s">
+        <v>977</v>
+      </c>
+      <c r="B1" s="37" t="s">
+        <v>978</v>
+      </c>
+      <c r="C1" s="37" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="37" t="s">
+        <v>1115</v>
+      </c>
+      <c r="B2" s="37" t="s">
+        <v>1116</v>
+      </c>
+      <c r="C2" s="37" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="37" t="s">
+        <v>1118</v>
+      </c>
+      <c r="B3" s="37" t="s">
+        <v>1119</v>
+      </c>
+      <c r="C3" s="37" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="37" t="s">
+        <v>1121</v>
+      </c>
+      <c r="B4" s="37" t="s">
+        <v>1122</v>
+      </c>
+      <c r="C4" s="37" t="s">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="37" t="s">
+        <v>1124</v>
+      </c>
+      <c r="B5" s="37" t="s">
+        <v>1125</v>
+      </c>
+      <c r="C5" s="37" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="37" t="s">
+        <v>1127</v>
+      </c>
+      <c r="B6" s="37" t="s">
+        <v>1128</v>
+      </c>
+      <c r="C6" s="37" t="s">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="37" t="s">
+        <v>1130</v>
+      </c>
+      <c r="B7" s="37" t="s">
+        <v>1131</v>
+      </c>
+      <c r="C7" s="37" t="s">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="37" t="s">
+        <v>1133</v>
+      </c>
+      <c r="B8" s="37" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C8" s="37" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="37" t="s">
+        <v>1136</v>
+      </c>
+      <c r="B9" s="37" t="s">
+        <v>1137</v>
+      </c>
+      <c r="C9" s="37" t="s">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="37" t="s">
+        <v>1139</v>
+      </c>
+      <c r="B10" s="37" t="s">
+        <v>1140</v>
+      </c>
+      <c r="C10" s="37" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="37" t="s">
+        <v>1142</v>
+      </c>
+      <c r="B11" s="37" t="s">
+        <v>1143</v>
+      </c>
+      <c r="C11" s="37" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="37" t="s">
+        <v>1145</v>
+      </c>
+      <c r="B12" s="37" t="s">
+        <v>1146</v>
+      </c>
+      <c r="C12" s="37" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="56.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="A1" s="22" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A2" s="22" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="22" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="22" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" s="23"/>
+    </row>
+    <row r="6" spans="1:1" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="24" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="22" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" s="23"/>
+    </row>
+    <row r="9" spans="1:1" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="25" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="25"/>
+    </row>
+    <row r="11" spans="1:1" ht="18" x14ac:dyDescent="0.3">
+      <c r="A11" s="26" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" s="27" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A13" s="27" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14" s="27"/>
+    </row>
+    <row r="15" spans="1:1" ht="18" x14ac:dyDescent="0.3">
+      <c r="A15" s="26" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A16" s="28" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="23"/>
+    </row>
+    <row r="18" spans="1:1" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A18" s="28" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A19" s="28"/>
+    </row>
+    <row r="20" spans="1:1" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="A20" s="29" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="A21" s="29" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A22" s="27" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" s="27"/>
+    </row>
+    <row r="24" spans="1:1" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A24" s="30" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="A25" s="22" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="A26" s="22"/>
+    </row>
+    <row r="27" spans="1:1" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="A27" s="22" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="A28" s="22"/>
+    </row>
+    <row r="29" spans="1:1" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="A29" s="22" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="A30" s="22" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="A31" s="22" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="A32" s="22"/>
+    </row>
+    <row r="33" spans="1:1" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A33" s="30" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="A34" s="22" t="s">
+        <v>703</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A40"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="53.33203125" style="19" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="19" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" s="19" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" s="18" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" s="18" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" s="18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" s="18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" s="18" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" s="18" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" s="18" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" s="18" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" s="18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" s="18" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" s="18" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14" s="18" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15" s="18" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="18" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="18" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="18" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="18" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" s="18" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" s="18" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" s="18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" s="18" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" s="18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" s="18" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" s="18" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" s="18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" s="18" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31" s="18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32" s="18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" s="18" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" s="18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35" s="18" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36" s="18" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37" s="18" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A38" s="18" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A39" s="18" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A40" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/1.xlsx
+++ b/1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" tabRatio="668" firstSheet="14" activeTab="23"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" tabRatio="668" firstSheet="3" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Data1" sheetId="5" r:id="rId1"/>
@@ -20,24 +20,25 @@
     <sheet name="Data6" sheetId="7" r:id="rId6"/>
     <sheet name="Data7" sheetId="8" r:id="rId7"/>
     <sheet name="Data8" sheetId="12" r:id="rId8"/>
-    <sheet name="Verb" sheetId="9" r:id="rId9"/>
-    <sheet name="Bonpoe1" sheetId="10" r:id="rId10"/>
-    <sheet name="Bonpoe2" sheetId="14" r:id="rId11"/>
-    <sheet name="Bonpoe3" sheetId="15" r:id="rId12"/>
-    <sheet name="Bonpoe4" sheetId="16" r:id="rId13"/>
-    <sheet name="Bonpoe5" sheetId="17" r:id="rId14"/>
-    <sheet name="Bonpoe6" sheetId="19" r:id="rId15"/>
-    <sheet name="Bonpoe7" sheetId="18" r:id="rId16"/>
-    <sheet name="hiragana" sheetId="20" r:id="rId17"/>
-    <sheet name="dakuon" sheetId="22" r:id="rId18"/>
-    <sheet name="handakuon" sheetId="23" r:id="rId19"/>
-    <sheet name="youon" sheetId="24" r:id="rId20"/>
-    <sheet name="katakana" sheetId="21" r:id="rId21"/>
-    <sheet name="kdakuon" sheetId="25" r:id="rId22"/>
-    <sheet name="khandakuon" sheetId="26" r:id="rId23"/>
-    <sheet name="kyouon" sheetId="27" r:id="rId24"/>
-    <sheet name="Sheet1" sheetId="13" r:id="rId25"/>
-    <sheet name="Q" sheetId="11" r:id="rId26"/>
+    <sheet name="Data9" sheetId="28" r:id="rId9"/>
+    <sheet name="Verb" sheetId="9" r:id="rId10"/>
+    <sheet name="Bonpoe1" sheetId="10" r:id="rId11"/>
+    <sheet name="Bonpoe2" sheetId="14" r:id="rId12"/>
+    <sheet name="Bonpoe3" sheetId="15" r:id="rId13"/>
+    <sheet name="Bonpoe4" sheetId="16" r:id="rId14"/>
+    <sheet name="Bonpoe5" sheetId="17" r:id="rId15"/>
+    <sheet name="Bonpoe6" sheetId="19" r:id="rId16"/>
+    <sheet name="Bonpoe7" sheetId="18" r:id="rId17"/>
+    <sheet name="hiragana" sheetId="20" r:id="rId18"/>
+    <sheet name="dakuon" sheetId="22" r:id="rId19"/>
+    <sheet name="handakuon" sheetId="23" r:id="rId20"/>
+    <sheet name="youon" sheetId="24" r:id="rId21"/>
+    <sheet name="katakana" sheetId="21" r:id="rId22"/>
+    <sheet name="kdakuon" sheetId="25" r:id="rId23"/>
+    <sheet name="khandakuon" sheetId="26" r:id="rId24"/>
+    <sheet name="kyouon" sheetId="27" r:id="rId25"/>
+    <sheet name="Sheet1" sheetId="13" r:id="rId26"/>
+    <sheet name="Q" sheetId="11" r:id="rId27"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -49,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1327" uniqueCount="1148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1433" uniqueCount="1249">
   <si>
     <t>わたし</t>
   </si>
@@ -3712,6 +3713,309 @@
   </si>
   <si>
     <t>ピョ</t>
+  </si>
+  <si>
+    <t>わかります</t>
+  </si>
+  <si>
+    <t>နားလည်သည်၊ သဘောပေါက်သည်</t>
+  </si>
+  <si>
+    <t>あります</t>
+  </si>
+  <si>
+    <t>ရှိသည် (ပိုင်ဆိုင်ခြင်းကိုပြသည့် သဘောဆောင်သည်)</t>
+  </si>
+  <si>
+    <t>すき「な」</t>
+  </si>
+  <si>
+    <t>ကြိုက်သော၊ နှစ်သက်သော</t>
+  </si>
+  <si>
+    <t>きらい「な」</t>
+  </si>
+  <si>
+    <t>မုန်းသော</t>
+  </si>
+  <si>
+    <t>じょうず「な」</t>
+  </si>
+  <si>
+    <t>တော်သော</t>
+  </si>
+  <si>
+    <t>へた「な」</t>
+  </si>
+  <si>
+    <t>ညံ့သော</t>
+  </si>
+  <si>
+    <t>のみもの</t>
+  </si>
+  <si>
+    <t>သောက်စရာ</t>
+  </si>
+  <si>
+    <t>りょうり</t>
+  </si>
+  <si>
+    <t>အချက်အပြုတ်၊ ဟင်းလျာ၊ အစားအစာ</t>
+  </si>
+  <si>
+    <t>スポーツ</t>
+  </si>
+  <si>
+    <t>အားကစား</t>
+  </si>
+  <si>
+    <t>やきゅう</t>
+  </si>
+  <si>
+    <t>ဘေ့စ်ဘော</t>
+  </si>
+  <si>
+    <t>ダンス</t>
+  </si>
+  <si>
+    <t>အက</t>
+  </si>
+  <si>
+    <t>りょこう</t>
+  </si>
+  <si>
+    <t>ခရီး</t>
+  </si>
+  <si>
+    <t>おんがく</t>
+  </si>
+  <si>
+    <t>ဂီတသံစဥ်၊ တေးဂီတ</t>
+  </si>
+  <si>
+    <t>うた</t>
+  </si>
+  <si>
+    <t>တေးသီချင်း</t>
+  </si>
+  <si>
+    <t>クラシック</t>
+  </si>
+  <si>
+    <t>ဂန္တဝင်တေးဂီတ</t>
+  </si>
+  <si>
+    <t>ジャズ</t>
+  </si>
+  <si>
+    <t>ဂျက်ဂီတ</t>
+  </si>
+  <si>
+    <t>コンサート</t>
+  </si>
+  <si>
+    <t>ဂီတပွဲ</t>
+  </si>
+  <si>
+    <t>カラオケ</t>
+  </si>
+  <si>
+    <t>ကာရာအိုကေ</t>
+  </si>
+  <si>
+    <t>かぶき</t>
+  </si>
+  <si>
+    <t>ခါဘုခိ (ဂျပန်ရိုးရာ ပြဇာတ်များထဲမှ တစ်ခု)</t>
+  </si>
+  <si>
+    <t>ပန်းချီ၊ ရုပ်ပုံကားချပ်</t>
+  </si>
+  <si>
+    <t>စာလုံး၊ လက်ရေးလက်သား၊ အက္ခရာ</t>
+  </si>
+  <si>
+    <t>かんじ</t>
+  </si>
+  <si>
+    <t>ခန်းဂျီး</t>
+  </si>
+  <si>
+    <t>ひらがな</t>
+  </si>
+  <si>
+    <t>ဟီရဂန</t>
+  </si>
+  <si>
+    <t>かたかな</t>
+  </si>
+  <si>
+    <t>ခတခန</t>
+  </si>
+  <si>
+    <t>ローマじ</t>
+  </si>
+  <si>
+    <t>ရိုးမဂျီး</t>
+  </si>
+  <si>
+    <t>こまかい　おかね</t>
+  </si>
+  <si>
+    <t>ငွေအကြွေ၊ အနုတ်</t>
+  </si>
+  <si>
+    <t>チケット</t>
+  </si>
+  <si>
+    <t>လက်မှတ်၊ တစ်ကတ်</t>
+  </si>
+  <si>
+    <t>じかん</t>
+  </si>
+  <si>
+    <t>အချိန်၊ ကြာချိန်</t>
+  </si>
+  <si>
+    <t>ようじ</t>
+  </si>
+  <si>
+    <t>(အလုပ်) ကိစ္စ</t>
+  </si>
+  <si>
+    <t>やくそく</t>
+  </si>
+  <si>
+    <t>ကတိ၊ ချိန်းဆိုထားသည့် ကိစ္စ</t>
+  </si>
+  <si>
+    <t>アルバイト</t>
+  </si>
+  <si>
+    <t>အချိန်ပိုင်း အလုပ်</t>
+  </si>
+  <si>
+    <t>ごしゅじん</t>
+  </si>
+  <si>
+    <t>ယောက်ကျ်ား၊ ခင်ပွန်း၊ အမျိုးသား (တစ်ပါးသူ၏)</t>
+  </si>
+  <si>
+    <t>おっと/　しゅじん</t>
+  </si>
+  <si>
+    <t>လင်ယောက်ကျ်ား၊ ခင်ပွန်း၊ အမျိုးသား (မိမိ၏)</t>
+  </si>
+  <si>
+    <t>おくさん</t>
+  </si>
+  <si>
+    <t>မိန်းမ၊ ဇနီး၊ မယား၊ အမျိုးသမီး (တစ်ပါးသူ၏)</t>
+  </si>
+  <si>
+    <t>つま/　かない</t>
+  </si>
+  <si>
+    <t>မိန်းမ၊ ဇနီး၊ မယား၊ အမျိုးသမီး (မိမိ၏)</t>
+  </si>
+  <si>
+    <t>こども</t>
+  </si>
+  <si>
+    <t>ကလေး၊ သားသမီး</t>
+  </si>
+  <si>
+    <t>よく</t>
+  </si>
+  <si>
+    <t>ကောင်းကောင်း၊ ကောင်းစွာ၊ မကြာခဏ၊ များများ</t>
+  </si>
+  <si>
+    <t>だいたい</t>
+  </si>
+  <si>
+    <t>များသောအားဖြင့်၊ အကြမ်းဖျင်းအားဖြင့်</t>
+  </si>
+  <si>
+    <t>たくさん</t>
+  </si>
+  <si>
+    <t>များများ၊ အများကြီး</t>
+  </si>
+  <si>
+    <t>すこし</t>
+  </si>
+  <si>
+    <t>နည်းနည်း၊ အနည်းငယ်</t>
+  </si>
+  <si>
+    <t>ぜんぜん</t>
+  </si>
+  <si>
+    <t>လုံးဝ (အငြင်းနှင့် တွဲ၍သုံးသည်)</t>
+  </si>
+  <si>
+    <t>はやく</t>
+  </si>
+  <si>
+    <t>စောစော၊ မြန်မြန်</t>
+  </si>
+  <si>
+    <t>~ကြောင့်၊ ~သောကြောင့်</t>
+  </si>
+  <si>
+    <t>どうして</t>
+  </si>
+  <si>
+    <t>ဘာကြောင့်</t>
+  </si>
+  <si>
+    <t>かして　ください</t>
+  </si>
+  <si>
+    <t>ငှားပေးပါ၊ ခဏပေးပါ</t>
+  </si>
+  <si>
+    <t>いいですよ</t>
+  </si>
+  <si>
+    <t>ကောင်းပါတယ်၊ အေးအေး</t>
+  </si>
+  <si>
+    <t>ざんねんです「が」</t>
+  </si>
+  <si>
+    <t>စိတ်မကောင်းပါဘူး၊ စိတ်တော့မကောင်းပါဘူး</t>
+  </si>
+  <si>
+    <t>ああ</t>
+  </si>
+  <si>
+    <t>သြော်</t>
+  </si>
+  <si>
+    <t>いっしょに　いかがですか</t>
+  </si>
+  <si>
+    <t>အတူတူဆို ဘယ်လိုလဲ၊ အတူလိုက်မလား</t>
+  </si>
+  <si>
+    <t>「～は」ちょっと</t>
+  </si>
+  <si>
+    <t>~ ဆိုရင်တော့၊ ~ကတော့</t>
+  </si>
+  <si>
+    <t>だめですか</t>
+  </si>
+  <si>
+    <t>မရဘူးလား၊ မဖြစ်ဘူးလား</t>
+  </si>
+  <si>
+    <t>また　こんと　おねがいします</t>
+  </si>
+  <si>
+    <t>နောက်တစ်ကြိမ်ထပ်ဆုံကြတာပေါ့၊</t>
   </si>
 </sst>
 </file>
@@ -4712,6 +5016,354 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C30"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.5546875" style="14" customWidth="1"/>
+    <col min="2" max="2" width="32.88671875" style="14" customWidth="1"/>
+    <col min="3" max="3" width="31.33203125" style="14" customWidth="1"/>
+    <col min="4" max="16384" width="8.88671875" style="14"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B1" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="14">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="14">
+        <v>2</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="14">
+        <v>3</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="14">
+        <v>4</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="14">
+        <v>5</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="14">
+        <v>6</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="14">
+        <v>7</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="14">
+        <v>8</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="14">
+        <v>9</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="14">
+        <v>10</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>497</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="14">
+        <v>11</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="14">
+        <v>12</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>501</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>503</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="14">
+        <v>14</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>505</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="14">
+        <v>15</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>507</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="14">
+        <v>16</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>509</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="14">
+        <v>17</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>511</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A19" s="14">
+        <v>18</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>513</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A20" s="14">
+        <v>19</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>515</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A21" s="14">
+        <v>20</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>517</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A22" s="14">
+        <v>21</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>605</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A23" s="14">
+        <v>22</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>607</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A24" s="14">
+        <v>23</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>609</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A25" s="14">
+        <v>24</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>611</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A26" s="14">
+        <v>25</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>613</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A27" s="14">
+        <v>26</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>615</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A28" s="14">
+        <v>27</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>617</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A29" s="14">
+        <v>28</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>619</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A30" s="14">
+        <v>29</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>621</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>622</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D45"/>
   <sheetViews>
     <sheetView topLeftCell="A40" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
@@ -4926,7 +5578,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D29"/>
   <sheetViews>
@@ -5040,7 +5692,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D29"/>
   <sheetViews>
@@ -5132,7 +5784,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A34"/>
   <sheetViews>
@@ -5287,7 +5939,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A10"/>
   <sheetViews>
@@ -5345,7 +5997,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A15"/>
   <sheetViews>
@@ -5414,7 +6066,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A18"/>
   <sheetViews>
@@ -5503,7 +6155,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E11"/>
   <sheetViews>
@@ -5709,7 +6361,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
@@ -5805,58 +6457,6 @@
       </c>
       <c r="E5" s="37" t="s">
         <v>1053</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
-  <sheetViews>
-    <sheetView zoomScale="265" zoomScaleNormal="265" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="16384" width="8.88671875" style="37"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="37" t="s">
-        <v>976</v>
-      </c>
-      <c r="B1" s="37" t="s">
-        <v>977</v>
-      </c>
-      <c r="C1" s="37" t="s">
-        <v>978</v>
-      </c>
-      <c r="D1" s="37" t="s">
-        <v>979</v>
-      </c>
-      <c r="E1" s="37" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="37" t="s">
-        <v>1054</v>
-      </c>
-      <c r="B2" s="37" t="s">
-        <v>1055</v>
-      </c>
-      <c r="C2" s="37" t="s">
-        <v>1056</v>
-      </c>
-      <c r="D2" s="37" t="s">
-        <v>1057</v>
-      </c>
-      <c r="E2" s="37" t="s">
-        <v>1058</v>
       </c>
     </row>
   </sheetData>
@@ -6399,6 +6999,58 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView zoomScale="265" zoomScaleNormal="265" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="16384" width="8.88671875" style="37"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="37" t="s">
+        <v>976</v>
+      </c>
+      <c r="B1" s="37" t="s">
+        <v>977</v>
+      </c>
+      <c r="C1" s="37" t="s">
+        <v>978</v>
+      </c>
+      <c r="D1" s="37" t="s">
+        <v>979</v>
+      </c>
+      <c r="E1" s="37" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="37" t="s">
+        <v>1054</v>
+      </c>
+      <c r="B2" s="37" t="s">
+        <v>1055</v>
+      </c>
+      <c r="C2" s="37" t="s">
+        <v>1056</v>
+      </c>
+      <c r="D2" s="37" t="s">
+        <v>1057</v>
+      </c>
+      <c r="E2" s="37" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView zoomScale="295" zoomScaleNormal="295" workbookViewId="0">
@@ -6547,7 +7199,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E12"/>
   <sheetViews>
@@ -6769,7 +7421,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
@@ -6872,7 +7524,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
@@ -6924,11 +7576,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
@@ -7074,7 +7726,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A34"/>
   <sheetViews>
@@ -7242,7 +7894,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A40"/>
   <sheetViews>
@@ -9381,7 +10033,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A60" s="4">
         <v>59</v>
       </c>
@@ -10619,23 +11271,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C61"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C4" sqref="B4:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="36.6" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="33"/>
-    <col min="2" max="2" width="45.77734375" style="33" customWidth="1"/>
-    <col min="3" max="3" width="46.44140625" style="33" customWidth="1"/>
-    <col min="4" max="16384" width="8.88671875" style="33"/>
+    <col min="1" max="1" width="8.88671875" style="23"/>
+    <col min="2" max="2" width="45.77734375" style="23" customWidth="1"/>
+    <col min="3" max="3" width="46.44140625" style="23" customWidth="1"/>
+    <col min="4" max="16384" width="8.88671875" style="23"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="23" t="s">
         <v>138</v>
       </c>
-      <c r="C1" s="33" t="s">
+      <c r="C1" s="23" t="s">
         <v>164</v>
       </c>
     </row>
@@ -11306,345 +11958,597 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C30"/>
+  <dimension ref="A1:C53"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.5546875" style="14" customWidth="1"/>
-    <col min="2" max="2" width="32.88671875" style="14" customWidth="1"/>
-    <col min="3" max="3" width="31.33203125" style="14" customWidth="1"/>
-    <col min="4" max="16384" width="8.88671875" style="14"/>
+    <col min="1" max="1" width="7.21875" customWidth="1"/>
+    <col min="2" max="2" width="36.44140625" customWidth="1"/>
+    <col min="3" max="3" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="23" t="s">
         <v>138</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="23" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="14">
+      <c r="A2" s="4">
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>259</v>
+        <v>1148</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>260</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="14">
+      <c r="A3" s="4">
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>261</v>
+        <v>1150</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>262</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="14">
+      <c r="A4" s="4">
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>263</v>
+        <v>1152</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>264</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="14">
+      <c r="A5" s="4">
         <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>265</v>
+        <v>1154</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>266</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="14">
+      <c r="A6" s="4">
         <v>5</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>267</v>
+        <v>1156</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>268</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="14">
+      <c r="A7" s="4">
         <v>6</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>269</v>
+        <v>1158</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>270</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="14">
+      <c r="A8" s="4">
         <v>7</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>376</v>
+        <v>1160</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>377</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="14">
+      <c r="A9" s="4">
         <v>8</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>378</v>
+        <v>1162</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>379</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="14">
+      <c r="A10" s="4">
         <v>9</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>380</v>
+        <v>1164</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>381</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="14">
+      <c r="A11" s="4">
         <v>10</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>497</v>
+        <v>1166</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>498</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="14">
+      <c r="A12" s="4">
         <v>11</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>499</v>
+        <v>1168</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>500</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="14">
+      <c r="A13" s="4">
         <v>12</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>501</v>
+        <v>1170</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>502</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="14">
+      <c r="A14" s="4">
         <v>13</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>503</v>
+        <v>1172</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>504</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="14">
+      <c r="A15" s="4">
         <v>14</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>505</v>
+        <v>1174</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>506</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="14">
+      <c r="A16" s="4">
         <v>15</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>507</v>
+        <v>1176</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>508</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="14">
+      <c r="A17" s="4">
         <v>16</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>509</v>
+        <v>1178</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>510</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A18" s="14">
+      <c r="A18" s="4">
         <v>17</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>511</v>
+        <v>1180</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A19" s="14">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A19" s="4">
         <v>18</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>513</v>
+        <v>1182</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>514</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A20" s="14">
+      <c r="A20" s="4">
         <v>19</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>515</v>
+        <v>1184</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A21" s="14">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A21" s="4">
         <v>20</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>517</v>
+        <v>941</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>696</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A22" s="14">
+      <c r="A22" s="4">
         <v>21</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>605</v>
+        <v>1040</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>606</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A23" s="14">
+      <c r="A23" s="4">
         <v>22</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>607</v>
+        <v>1188</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>608</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A24" s="14">
+      <c r="A24" s="4">
         <v>23</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>609</v>
+        <v>1190</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>610</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A25" s="14">
+      <c r="A25" s="4">
         <v>24</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>611</v>
+        <v>1192</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>612</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A26" s="14">
+      <c r="A26" s="4">
         <v>25</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>613</v>
+        <v>1194</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>614</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A27" s="14">
+      <c r="A27" s="4">
         <v>26</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>615</v>
+        <v>1196</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>616</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A28" s="14">
+      <c r="A28" s="4">
         <v>27</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>617</v>
+        <v>1198</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>618</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A29" s="14">
+      <c r="A29" s="4">
         <v>28</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>619</v>
+        <v>1200</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>620</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A30" s="14">
+      <c r="A30" s="4">
         <v>29</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>621</v>
+        <v>1202</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>622</v>
+        <v>1203</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A31" s="4">
+        <v>30</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>1204</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>1205</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A32" s="4">
+        <v>31</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>1206</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A33" s="4">
+        <v>32</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>1208</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>1209</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A34" s="4">
+        <v>33</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>1210</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A35" s="4">
+        <v>34</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>1212</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>1213</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A36" s="4">
+        <v>35</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>1214</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A37" s="4">
+        <v>36</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>1216</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>1217</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A38" s="4">
+        <v>37</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>1218</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>1219</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A39" s="4">
+        <v>38</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>1220</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A40" s="4">
+        <v>39</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>1222</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>1223</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A41" s="4">
+        <v>40</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>1224</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A42" s="4">
+        <v>41</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>1226</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A43" s="4">
+        <v>42</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>1228</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A44" s="4">
+        <v>43</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A45" s="4">
+        <v>44</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>1231</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>1232</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A46" s="4">
+        <v>45</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>1233</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A47" s="4">
+        <v>46</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>1235</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>1236</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A48" s="4">
+        <v>47</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>1237</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>1238</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A49" s="4">
+        <v>48</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>1239</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A50" s="4">
+        <v>49</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>1241</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A51" s="4">
+        <v>50</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>1243</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A52" s="4">
+        <v>51</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>1245</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>1246</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A53" s="4">
+        <v>52</v>
+      </c>
+      <c r="B53" s="7" t="s">
+        <v>1247</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>1248</v>
       </c>
     </row>
   </sheetData>

--- a/1.xlsx
+++ b/1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" tabRatio="668" firstSheet="3" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" tabRatio="668" firstSheet="3" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Data1" sheetId="5" r:id="rId1"/>
@@ -21,24 +21,25 @@
     <sheet name="Data7" sheetId="8" r:id="rId7"/>
     <sheet name="Data8" sheetId="12" r:id="rId8"/>
     <sheet name="Data9" sheetId="28" r:id="rId9"/>
-    <sheet name="Verb" sheetId="9" r:id="rId10"/>
-    <sheet name="Bonpoe1" sheetId="10" r:id="rId11"/>
-    <sheet name="Bonpoe2" sheetId="14" r:id="rId12"/>
-    <sheet name="Bonpoe3" sheetId="15" r:id="rId13"/>
-    <sheet name="Bonpoe4" sheetId="16" r:id="rId14"/>
-    <sheet name="Bonpoe5" sheetId="17" r:id="rId15"/>
-    <sheet name="Bonpoe6" sheetId="19" r:id="rId16"/>
-    <sheet name="Bonpoe7" sheetId="18" r:id="rId17"/>
-    <sheet name="hiragana" sheetId="20" r:id="rId18"/>
-    <sheet name="dakuon" sheetId="22" r:id="rId19"/>
-    <sheet name="handakuon" sheetId="23" r:id="rId20"/>
-    <sheet name="youon" sheetId="24" r:id="rId21"/>
-    <sheet name="katakana" sheetId="21" r:id="rId22"/>
-    <sheet name="kdakuon" sheetId="25" r:id="rId23"/>
-    <sheet name="khandakuon" sheetId="26" r:id="rId24"/>
-    <sheet name="kyouon" sheetId="27" r:id="rId25"/>
-    <sheet name="Sheet1" sheetId="13" r:id="rId26"/>
-    <sheet name="Q" sheetId="11" r:id="rId27"/>
+    <sheet name="Data10" sheetId="29" r:id="rId10"/>
+    <sheet name="Verb" sheetId="9" r:id="rId11"/>
+    <sheet name="Bonpoe1" sheetId="10" r:id="rId12"/>
+    <sheet name="Bonpoe2" sheetId="14" r:id="rId13"/>
+    <sheet name="Bonpoe3" sheetId="15" r:id="rId14"/>
+    <sheet name="Bonpoe4" sheetId="16" r:id="rId15"/>
+    <sheet name="Bonpoe5" sheetId="17" r:id="rId16"/>
+    <sheet name="Bonpoe6" sheetId="19" r:id="rId17"/>
+    <sheet name="Bonpoe7" sheetId="18" r:id="rId18"/>
+    <sheet name="hiragana" sheetId="20" r:id="rId19"/>
+    <sheet name="dakuon" sheetId="22" r:id="rId20"/>
+    <sheet name="handakuon" sheetId="23" r:id="rId21"/>
+    <sheet name="youon" sheetId="24" r:id="rId22"/>
+    <sheet name="katakana" sheetId="21" r:id="rId23"/>
+    <sheet name="kdakuon" sheetId="25" r:id="rId24"/>
+    <sheet name="khandakuon" sheetId="26" r:id="rId25"/>
+    <sheet name="kyouon" sheetId="27" r:id="rId26"/>
+    <sheet name="Sheet1" sheetId="13" r:id="rId27"/>
+    <sheet name="Q" sheetId="11" r:id="rId28"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -50,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1433" uniqueCount="1249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1533" uniqueCount="1345">
   <si>
     <t>わたし</t>
   </si>
@@ -4016,6 +4017,294 @@
   </si>
   <si>
     <t>နောက်တစ်ကြိမ်ထပ်ဆုံကြတာပေါ့၊</t>
+  </si>
+  <si>
+    <t>ရှိသည် (သက်မဲ့)</t>
+  </si>
+  <si>
+    <t>います</t>
+  </si>
+  <si>
+    <t>ရှိသည် (သက်ရှိ)</t>
+  </si>
+  <si>
+    <t>いろいろ「な」</t>
+  </si>
+  <si>
+    <t>အမျိုးမျိုးသော</t>
+  </si>
+  <si>
+    <t>おとこの　ひと</t>
+  </si>
+  <si>
+    <t>အမျိုးသား၊ ယောကျ်ားကြီး</t>
+  </si>
+  <si>
+    <t>おんなの　ひと</t>
+  </si>
+  <si>
+    <t>အမျိုးသမီး၊ မိန်းမကြီး</t>
+  </si>
+  <si>
+    <t>おとこの　こ</t>
+  </si>
+  <si>
+    <t>ယောက်ကျ်ားလေး</t>
+  </si>
+  <si>
+    <t>おんなの　こ</t>
+  </si>
+  <si>
+    <t>မိန်းကလေး</t>
+  </si>
+  <si>
+    <t>いぬ</t>
+  </si>
+  <si>
+    <t>ခွေး</t>
+  </si>
+  <si>
+    <t>ねこ</t>
+  </si>
+  <si>
+    <t>ကြောင်</t>
+  </si>
+  <si>
+    <t>パンダ</t>
+  </si>
+  <si>
+    <t>ပန်ဒါဝက်ဝံ</t>
+  </si>
+  <si>
+    <t>ぞう</t>
+  </si>
+  <si>
+    <t>ဆင်</t>
+  </si>
+  <si>
+    <t>သစ်ပင်၊ သစ်သား</t>
+  </si>
+  <si>
+    <t>もの</t>
+  </si>
+  <si>
+    <t>ပစ္စည်း၊ အရာဝတ္ထု</t>
+  </si>
+  <si>
+    <t>でんち</t>
+  </si>
+  <si>
+    <t>ဓာတ်ခဲ၊ ဘက်ထရီ</t>
+  </si>
+  <si>
+    <t>はこ</t>
+  </si>
+  <si>
+    <t>သေတ္တာ၊ ဘူး</t>
+  </si>
+  <si>
+    <t>スイッチ</t>
+  </si>
+  <si>
+    <t>ခလုတ်</t>
+  </si>
+  <si>
+    <t>れいぞうこ</t>
+  </si>
+  <si>
+    <t>ရေခဲသေတ္တာ</t>
+  </si>
+  <si>
+    <t>テーブル</t>
+  </si>
+  <si>
+    <t>စားပွဲခုံ၊ ထမင်းစား စားပွဲ</t>
+  </si>
+  <si>
+    <t>べッド</t>
+  </si>
+  <si>
+    <t>အိပ်ရာ၊ ကုတင်</t>
+  </si>
+  <si>
+    <t>たな</t>
+  </si>
+  <si>
+    <t>စင်</t>
+  </si>
+  <si>
+    <t>ドア</t>
+  </si>
+  <si>
+    <t>တံခါးမ</t>
+  </si>
+  <si>
+    <t>まど</t>
+  </si>
+  <si>
+    <t>ပြတင်းပေါက်</t>
+  </si>
+  <si>
+    <t>ポスト</t>
+  </si>
+  <si>
+    <t>စာတိုက်ပုံး</t>
+  </si>
+  <si>
+    <t>ビル</t>
+  </si>
+  <si>
+    <t>အဆောက်အဦး</t>
+  </si>
+  <si>
+    <t>ATM</t>
+  </si>
+  <si>
+    <t>အေတီအမ်</t>
+  </si>
+  <si>
+    <t>コンビニ</t>
+  </si>
+  <si>
+    <t>၂၄ နာရီစတိုး</t>
+  </si>
+  <si>
+    <t>こうえん</t>
+  </si>
+  <si>
+    <t>ပန်းခြံ</t>
+  </si>
+  <si>
+    <t>きっさてん</t>
+  </si>
+  <si>
+    <t>လက်ဖက်ရည်ဆိုင်</t>
+  </si>
+  <si>
+    <t>～や</t>
+  </si>
+  <si>
+    <t>～ဆိုင်</t>
+  </si>
+  <si>
+    <t>のりば</t>
+  </si>
+  <si>
+    <t>မှတ်တိုင်၊ ဂိတ်</t>
+  </si>
+  <si>
+    <t>けん</t>
+  </si>
+  <si>
+    <t>ခရိုင်</t>
+  </si>
+  <si>
+    <t>うえ</t>
+  </si>
+  <si>
+    <t>အပေါ်</t>
+  </si>
+  <si>
+    <t>した</t>
+  </si>
+  <si>
+    <t>အောက်</t>
+  </si>
+  <si>
+    <t>まえ</t>
+  </si>
+  <si>
+    <t>ရှေ့</t>
+  </si>
+  <si>
+    <t>うしろ</t>
+  </si>
+  <si>
+    <t>နောက်</t>
+  </si>
+  <si>
+    <t>みぎ</t>
+  </si>
+  <si>
+    <t>လက်ယာ၊ ညာ (ဘက်)</t>
+  </si>
+  <si>
+    <t>ひだり</t>
+  </si>
+  <si>
+    <t>လက်ဝဲ၊ ဘယ် (ဘက်)</t>
+  </si>
+  <si>
+    <t>なか</t>
+  </si>
+  <si>
+    <t>အလယ်</t>
+  </si>
+  <si>
+    <t>そと</t>
+  </si>
+  <si>
+    <t>အပြင်</t>
+  </si>
+  <si>
+    <t>となり</t>
+  </si>
+  <si>
+    <t>ဘေးနား၊ ကပ်လျက်</t>
+  </si>
+  <si>
+    <t>ちかく</t>
+  </si>
+  <si>
+    <t>အနီးအနား</t>
+  </si>
+  <si>
+    <t>あいだ</t>
+  </si>
+  <si>
+    <t>အကြား</t>
+  </si>
+  <si>
+    <t>～や、～「たど」</t>
+  </si>
+  <si>
+    <t>~ တို့၊ ~ တို့ [စသည်]</t>
+  </si>
+  <si>
+    <t>「どうも」すみません</t>
+  </si>
+  <si>
+    <t>အားနားစရာကြီး၊ [ကျေးဇူးတင်ပါတယ်]</t>
+  </si>
+  <si>
+    <t>ナンプラー</t>
+  </si>
+  <si>
+    <t>ငါးငံပြာရည်</t>
+  </si>
+  <si>
+    <t>コーナー</t>
+  </si>
+  <si>
+    <t>ကော်နာ</t>
+  </si>
+  <si>
+    <t>いちばん　した</t>
+  </si>
+  <si>
+    <t>အောက်ဆုံး</t>
+  </si>
+  <si>
+    <t>とうきょう　ディズニーランド</t>
+  </si>
+  <si>
+    <t>တိုကျိုဒစ်စနီလန်း</t>
+  </si>
+  <si>
+    <t>アジアストア</t>
+  </si>
+  <si>
+    <t>စူပါမားကတ် အမည်</t>
   </si>
 </sst>
 </file>
@@ -4184,7 +4473,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4300,6 +4589,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5016,6 +5308,573 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C50"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C50"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="7.88671875" customWidth="1"/>
+    <col min="2" max="2" width="38" customWidth="1"/>
+    <col min="3" max="3" width="43.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B1" s="23" t="s">
+        <v>138</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="40">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>1150</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="40">
+        <v>2</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>1250</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="40">
+        <v>3</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>1252</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>1253</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="40">
+        <v>4</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>1254</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="40">
+        <v>5</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>1256</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="40">
+        <v>6</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>1258</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>1259</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="40">
+        <v>7</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>1260</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>1261</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="40">
+        <v>8</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>1262</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="40">
+        <v>9</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>1264</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="40">
+        <v>10</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>1266</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>1267</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="40">
+        <v>11</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>1268</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>1269</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="40">
+        <v>12</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>944</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="40">
+        <v>13</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>1271</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>1272</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="40">
+        <v>14</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>1273</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="40">
+        <v>15</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>1275</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="40">
+        <v>16</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>1277</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>1278</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="40">
+        <v>17</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>1279</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A19" s="40">
+        <v>18</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>1281</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>1282</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A20" s="40">
+        <v>19</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>1283</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A21" s="40">
+        <v>20</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>1285</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>1286</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A22" s="40">
+        <v>21</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>1287</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>1288</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A23" s="40">
+        <v>22</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>1289</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>1290</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A24" s="40">
+        <v>23</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>1291</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>1292</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A25" s="40">
+        <v>24</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>1293</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A26" s="40">
+        <v>25</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>1295</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>1296</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A27" s="40">
+        <v>26</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>1297</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>1298</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A28" s="40">
+        <v>27</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>1299</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A29" s="40">
+        <v>28</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>1301</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>1302</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A30" s="40">
+        <v>29</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>1303</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>1304</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A31" s="40">
+        <v>30</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>1305</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>1306</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A32" s="40">
+        <v>31</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>1307</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>1308</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A33" s="40">
+        <v>32</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>1309</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>1310</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A34" s="40">
+        <v>33</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>1311</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>1312</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A35" s="40">
+        <v>34</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>1313</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>1314</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A36" s="40">
+        <v>35</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>1315</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>1316</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A37" s="40">
+        <v>36</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>1317</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>1318</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A38" s="40">
+        <v>37</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>1319</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A39" s="40">
+        <v>38</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>1321</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A40" s="40">
+        <v>39</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>1323</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>1324</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A41" s="40">
+        <v>40</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>1325</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A42" s="40">
+        <v>41</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>1327</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>1328</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A43" s="40">
+        <v>42</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>1329</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>1330</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A44" s="40">
+        <v>43</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>1331</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A45" s="40">
+        <v>44</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>1333</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A46" s="40">
+        <v>45</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>1335</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A47" s="40">
+        <v>46</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>1337</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>1338</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A48" s="40">
+        <v>47</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>1339</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>1340</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A49" s="40">
+        <v>48</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>1341</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>1342</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A50" s="40">
+        <v>49</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>1343</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>1344</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
@@ -5362,7 +6221,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D45"/>
   <sheetViews>
@@ -5578,7 +6437,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D29"/>
   <sheetViews>
@@ -5692,7 +6551,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D29"/>
   <sheetViews>
@@ -5784,7 +6643,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A34"/>
   <sheetViews>
@@ -5939,7 +6798,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A10"/>
   <sheetViews>
@@ -5997,7 +6856,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A15"/>
   <sheetViews>
@@ -6066,7 +6925,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A18"/>
   <sheetViews>
@@ -6155,7 +7014,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E11"/>
   <sheetViews>
@@ -6358,109 +7217,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
-  <sheetViews>
-    <sheetView zoomScale="310" zoomScaleNormal="310" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="16384" width="8.88671875" style="37"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="37" t="s">
-        <v>976</v>
-      </c>
-      <c r="B1" s="37" t="s">
-        <v>977</v>
-      </c>
-      <c r="C1" s="37" t="s">
-        <v>978</v>
-      </c>
-      <c r="D1" s="37" t="s">
-        <v>979</v>
-      </c>
-      <c r="E1" s="37" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="37" t="s">
-        <v>1034</v>
-      </c>
-      <c r="B2" s="37" t="s">
-        <v>1035</v>
-      </c>
-      <c r="C2" s="37" t="s">
-        <v>1036</v>
-      </c>
-      <c r="D2" s="37" t="s">
-        <v>1037</v>
-      </c>
-      <c r="E2" s="37" t="s">
-        <v>1038</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="37" t="s">
-        <v>1039</v>
-      </c>
-      <c r="B3" s="37" t="s">
-        <v>1040</v>
-      </c>
-      <c r="C3" s="37" t="s">
-        <v>1041</v>
-      </c>
-      <c r="D3" s="37" t="s">
-        <v>1042</v>
-      </c>
-      <c r="E3" s="37" t="s">
-        <v>1043</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="37" t="s">
-        <v>1044</v>
-      </c>
-      <c r="B4" s="37" t="s">
-        <v>1045</v>
-      </c>
-      <c r="C4" s="37" t="s">
-        <v>1046</v>
-      </c>
-      <c r="D4" s="37" t="s">
-        <v>1047</v>
-      </c>
-      <c r="E4" s="37" t="s">
-        <v>1048</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="37" t="s">
-        <v>1049</v>
-      </c>
-      <c r="B5" s="37" t="s">
-        <v>1050</v>
-      </c>
-      <c r="C5" s="37" t="s">
-        <v>1051</v>
-      </c>
-      <c r="D5" s="37" t="s">
-        <v>1052</v>
-      </c>
-      <c r="E5" s="37" t="s">
-        <v>1053</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -6999,6 +7755,109 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView zoomScale="310" zoomScaleNormal="310" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="16384" width="8.88671875" style="37"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="37" t="s">
+        <v>976</v>
+      </c>
+      <c r="B1" s="37" t="s">
+        <v>977</v>
+      </c>
+      <c r="C1" s="37" t="s">
+        <v>978</v>
+      </c>
+      <c r="D1" s="37" t="s">
+        <v>979</v>
+      </c>
+      <c r="E1" s="37" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="37" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B2" s="37" t="s">
+        <v>1035</v>
+      </c>
+      <c r="C2" s="37" t="s">
+        <v>1036</v>
+      </c>
+      <c r="D2" s="37" t="s">
+        <v>1037</v>
+      </c>
+      <c r="E2" s="37" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="37" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B3" s="37" t="s">
+        <v>1040</v>
+      </c>
+      <c r="C3" s="37" t="s">
+        <v>1041</v>
+      </c>
+      <c r="D3" s="37" t="s">
+        <v>1042</v>
+      </c>
+      <c r="E3" s="37" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="37" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B4" s="37" t="s">
+        <v>1045</v>
+      </c>
+      <c r="C4" s="37" t="s">
+        <v>1046</v>
+      </c>
+      <c r="D4" s="37" t="s">
+        <v>1047</v>
+      </c>
+      <c r="E4" s="37" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="37" t="s">
+        <v>1049</v>
+      </c>
+      <c r="B5" s="37" t="s">
+        <v>1050</v>
+      </c>
+      <c r="C5" s="37" t="s">
+        <v>1051</v>
+      </c>
+      <c r="D5" s="37" t="s">
+        <v>1052</v>
+      </c>
+      <c r="E5" s="37" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView zoomScale="265" zoomScaleNormal="265" workbookViewId="0">
@@ -7049,7 +7908,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C12"/>
   <sheetViews>
@@ -7199,7 +8058,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E12"/>
   <sheetViews>
@@ -7421,7 +8280,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
@@ -7524,7 +8383,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
@@ -7576,7 +8435,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C12"/>
   <sheetViews>
@@ -7726,7 +8585,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A34"/>
   <sheetViews>
@@ -7894,7 +8753,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A40"/>
   <sheetViews>
@@ -10033,7 +10892,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A60" s="4">
         <v>59</v>
       </c>
@@ -10076,7 +10935,7 @@
   <dimension ref="A1:C62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10739,7 +11598,7 @@
   <dimension ref="A1:C47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11272,7 +12131,7 @@
   <dimension ref="A1:C61"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C4" sqref="B4:C4"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="36.6" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -11960,8 +12819,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C53"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/1.xlsx
+++ b/1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" tabRatio="668" firstSheet="3" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" tabRatio="668" firstSheet="3" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Data1" sheetId="5" r:id="rId1"/>
@@ -1173,9 +1173,6 @@
   </si>
   <si>
     <t>စာကြည့်တိုက်အမည်</t>
-  </si>
-  <si>
-    <t>やまとびしゅつかん</t>
   </si>
   <si>
     <t>အနုပညာပြတိုက်အမည်</t>
@@ -4305,6 +4302,9 @@
   </si>
   <si>
     <t>စူပါမားကတ် အမည်</t>
+  </si>
+  <si>
+    <t>やまとびじゅつかん</t>
   </si>
 </sst>
 </file>
@@ -5210,7 +5210,7 @@
         <v>55</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -5310,8 +5310,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C50"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5334,10 +5334,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -5345,10 +5345,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
+        <v>1249</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>1250</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>1251</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -5356,10 +5356,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
+        <v>1251</v>
+      </c>
+      <c r="C4" s="8" t="s">
         <v>1252</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>1253</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -5367,10 +5367,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
+        <v>1253</v>
+      </c>
+      <c r="C5" s="8" t="s">
         <v>1254</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>1255</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -5378,10 +5378,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="7" t="s">
+        <v>1255</v>
+      </c>
+      <c r="C6" s="8" t="s">
         <v>1256</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>1257</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -5389,10 +5389,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="7" t="s">
+        <v>1257</v>
+      </c>
+      <c r="C7" s="8" t="s">
         <v>1258</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>1259</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -5400,10 +5400,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="7" t="s">
+        <v>1259</v>
+      </c>
+      <c r="C8" s="8" t="s">
         <v>1260</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>1261</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -5411,10 +5411,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="7" t="s">
+        <v>1261</v>
+      </c>
+      <c r="C9" s="8" t="s">
         <v>1262</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>1263</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -5422,10 +5422,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="7" t="s">
+        <v>1263</v>
+      </c>
+      <c r="C10" s="8" t="s">
         <v>1264</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>1265</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -5433,10 +5433,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="7" t="s">
+        <v>1265</v>
+      </c>
+      <c r="C11" s="8" t="s">
         <v>1266</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>1267</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -5444,10 +5444,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="7" t="s">
+        <v>1267</v>
+      </c>
+      <c r="C12" s="8" t="s">
         <v>1268</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>1269</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -5455,10 +5455,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -5466,10 +5466,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="7" t="s">
+        <v>1270</v>
+      </c>
+      <c r="C14" s="8" t="s">
         <v>1271</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>1272</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -5477,10 +5477,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="7" t="s">
+        <v>1272</v>
+      </c>
+      <c r="C15" s="8" t="s">
         <v>1273</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>1274</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -5488,10 +5488,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="7" t="s">
+        <v>1274</v>
+      </c>
+      <c r="C16" s="8" t="s">
         <v>1275</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>1276</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -5499,10 +5499,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="7" t="s">
+        <v>1276</v>
+      </c>
+      <c r="C17" s="8" t="s">
         <v>1277</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>1278</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -5510,10 +5510,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="7" t="s">
+        <v>1278</v>
+      </c>
+      <c r="C18" s="8" t="s">
         <v>1279</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>1280</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -5521,10 +5521,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="7" t="s">
+        <v>1280</v>
+      </c>
+      <c r="C19" s="8" t="s">
         <v>1281</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>1282</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -5532,10 +5532,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="7" t="s">
+        <v>1282</v>
+      </c>
+      <c r="C20" s="8" t="s">
         <v>1283</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>1284</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -5543,10 +5543,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="7" t="s">
+        <v>1284</v>
+      </c>
+      <c r="C21" s="8" t="s">
         <v>1285</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>1286</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -5554,10 +5554,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="7" t="s">
+        <v>1286</v>
+      </c>
+      <c r="C22" s="8" t="s">
         <v>1287</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>1288</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -5565,10 +5565,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="7" t="s">
+        <v>1288</v>
+      </c>
+      <c r="C23" s="8" t="s">
         <v>1289</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>1290</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -5576,10 +5576,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="7" t="s">
+        <v>1290</v>
+      </c>
+      <c r="C24" s="8" t="s">
         <v>1291</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>1292</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -5587,10 +5587,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="7" t="s">
+        <v>1292</v>
+      </c>
+      <c r="C25" s="8" t="s">
         <v>1293</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>1294</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -5598,10 +5598,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="7" t="s">
+        <v>1294</v>
+      </c>
+      <c r="C26" s="8" t="s">
         <v>1295</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>1296</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -5609,10 +5609,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="7" t="s">
+        <v>1296</v>
+      </c>
+      <c r="C27" s="8" t="s">
         <v>1297</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>1298</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -5620,10 +5620,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="7" t="s">
+        <v>1298</v>
+      </c>
+      <c r="C28" s="8" t="s">
         <v>1299</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>1300</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -5631,10 +5631,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="7" t="s">
+        <v>1300</v>
+      </c>
+      <c r="C29" s="8" t="s">
         <v>1301</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>1302</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -5642,10 +5642,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="7" t="s">
+        <v>1302</v>
+      </c>
+      <c r="C30" s="8" t="s">
         <v>1303</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>1304</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -5653,10 +5653,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="7" t="s">
+        <v>1304</v>
+      </c>
+      <c r="C31" s="8" t="s">
         <v>1305</v>
-      </c>
-      <c r="C31" s="8" t="s">
-        <v>1306</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -5664,10 +5664,10 @@
         <v>31</v>
       </c>
       <c r="B32" s="7" t="s">
+        <v>1306</v>
+      </c>
+      <c r="C32" s="8" t="s">
         <v>1307</v>
-      </c>
-      <c r="C32" s="8" t="s">
-        <v>1308</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -5675,10 +5675,10 @@
         <v>32</v>
       </c>
       <c r="B33" s="7" t="s">
+        <v>1308</v>
+      </c>
+      <c r="C33" s="8" t="s">
         <v>1309</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>1310</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -5686,10 +5686,10 @@
         <v>33</v>
       </c>
       <c r="B34" s="7" t="s">
+        <v>1310</v>
+      </c>
+      <c r="C34" s="8" t="s">
         <v>1311</v>
-      </c>
-      <c r="C34" s="8" t="s">
-        <v>1312</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -5697,10 +5697,10 @@
         <v>34</v>
       </c>
       <c r="B35" s="7" t="s">
+        <v>1312</v>
+      </c>
+      <c r="C35" s="8" t="s">
         <v>1313</v>
-      </c>
-      <c r="C35" s="8" t="s">
-        <v>1314</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -5708,10 +5708,10 @@
         <v>35</v>
       </c>
       <c r="B36" s="7" t="s">
+        <v>1314</v>
+      </c>
+      <c r="C36" s="8" t="s">
         <v>1315</v>
-      </c>
-      <c r="C36" s="8" t="s">
-        <v>1316</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -5719,10 +5719,10 @@
         <v>36</v>
       </c>
       <c r="B37" s="7" t="s">
+        <v>1316</v>
+      </c>
+      <c r="C37" s="8" t="s">
         <v>1317</v>
-      </c>
-      <c r="C37" s="8" t="s">
-        <v>1318</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -5730,10 +5730,10 @@
         <v>37</v>
       </c>
       <c r="B38" s="7" t="s">
+        <v>1318</v>
+      </c>
+      <c r="C38" s="8" t="s">
         <v>1319</v>
-      </c>
-      <c r="C38" s="8" t="s">
-        <v>1320</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -5741,10 +5741,10 @@
         <v>38</v>
       </c>
       <c r="B39" s="7" t="s">
+        <v>1320</v>
+      </c>
+      <c r="C39" s="8" t="s">
         <v>1321</v>
-      </c>
-      <c r="C39" s="8" t="s">
-        <v>1322</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -5752,10 +5752,10 @@
         <v>39</v>
       </c>
       <c r="B40" s="7" t="s">
+        <v>1322</v>
+      </c>
+      <c r="C40" s="8" t="s">
         <v>1323</v>
-      </c>
-      <c r="C40" s="8" t="s">
-        <v>1324</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -5763,10 +5763,10 @@
         <v>40</v>
       </c>
       <c r="B41" s="7" t="s">
+        <v>1324</v>
+      </c>
+      <c r="C41" s="8" t="s">
         <v>1325</v>
-      </c>
-      <c r="C41" s="8" t="s">
-        <v>1326</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -5774,10 +5774,10 @@
         <v>41</v>
       </c>
       <c r="B42" s="7" t="s">
+        <v>1326</v>
+      </c>
+      <c r="C42" s="8" t="s">
         <v>1327</v>
-      </c>
-      <c r="C42" s="8" t="s">
-        <v>1328</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -5785,10 +5785,10 @@
         <v>42</v>
       </c>
       <c r="B43" s="7" t="s">
+        <v>1328</v>
+      </c>
+      <c r="C43" s="8" t="s">
         <v>1329</v>
-      </c>
-      <c r="C43" s="8" t="s">
-        <v>1330</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -5796,10 +5796,10 @@
         <v>43</v>
       </c>
       <c r="B44" s="7" t="s">
+        <v>1330</v>
+      </c>
+      <c r="C44" s="8" t="s">
         <v>1331</v>
-      </c>
-      <c r="C44" s="8" t="s">
-        <v>1332</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -5807,10 +5807,10 @@
         <v>44</v>
       </c>
       <c r="B45" s="7" t="s">
+        <v>1332</v>
+      </c>
+      <c r="C45" s="8" t="s">
         <v>1333</v>
-      </c>
-      <c r="C45" s="8" t="s">
-        <v>1334</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -5818,10 +5818,10 @@
         <v>45</v>
       </c>
       <c r="B46" s="7" t="s">
+        <v>1334</v>
+      </c>
+      <c r="C46" s="8" t="s">
         <v>1335</v>
-      </c>
-      <c r="C46" s="8" t="s">
-        <v>1336</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -5829,10 +5829,10 @@
         <v>46</v>
       </c>
       <c r="B47" s="7" t="s">
+        <v>1336</v>
+      </c>
+      <c r="C47" s="8" t="s">
         <v>1337</v>
-      </c>
-      <c r="C47" s="8" t="s">
-        <v>1338</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -5840,10 +5840,10 @@
         <v>47</v>
       </c>
       <c r="B48" s="7" t="s">
+        <v>1338</v>
+      </c>
+      <c r="C48" s="8" t="s">
         <v>1339</v>
-      </c>
-      <c r="C48" s="8" t="s">
-        <v>1340</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -5851,10 +5851,10 @@
         <v>48</v>
       </c>
       <c r="B49" s="7" t="s">
+        <v>1340</v>
+      </c>
+      <c r="C49" s="8" t="s">
         <v>1341</v>
-      </c>
-      <c r="C49" s="8" t="s">
-        <v>1342</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -5862,10 +5862,10 @@
         <v>49</v>
       </c>
       <c r="B50" s="7" t="s">
+        <v>1342</v>
+      </c>
+      <c r="C50" s="8" t="s">
         <v>1343</v>
-      </c>
-      <c r="C50" s="8" t="s">
-        <v>1344</v>
       </c>
     </row>
   </sheetData>
@@ -5968,10 +5968,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="C8" s="8" t="s">
         <v>376</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -5979,10 +5979,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="C9" s="8" t="s">
         <v>378</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -5990,10 +5990,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="C10" s="8" t="s">
         <v>380</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>381</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -6001,10 +6001,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="7" t="s">
+        <v>496</v>
+      </c>
+      <c r="C11" s="8" t="s">
         <v>497</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>498</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -6012,10 +6012,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="7" t="s">
+        <v>498</v>
+      </c>
+      <c r="C12" s="8" t="s">
         <v>499</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>500</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -6023,10 +6023,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="7" t="s">
+        <v>500</v>
+      </c>
+      <c r="C13" s="8" t="s">
         <v>501</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>502</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -6034,10 +6034,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="7" t="s">
+        <v>502</v>
+      </c>
+      <c r="C14" s="8" t="s">
         <v>503</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>504</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -6045,10 +6045,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="7" t="s">
+        <v>504</v>
+      </c>
+      <c r="C15" s="8" t="s">
         <v>505</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>506</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -6056,10 +6056,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="7" t="s">
+        <v>506</v>
+      </c>
+      <c r="C16" s="8" t="s">
         <v>507</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>508</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -6067,10 +6067,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="7" t="s">
+        <v>508</v>
+      </c>
+      <c r="C17" s="8" t="s">
         <v>509</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>510</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -6078,10 +6078,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="7" t="s">
+        <v>510</v>
+      </c>
+      <c r="C18" s="8" t="s">
         <v>511</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>512</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
@@ -6089,10 +6089,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="7" t="s">
+        <v>512</v>
+      </c>
+      <c r="C19" s="8" t="s">
         <v>513</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>514</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -6100,10 +6100,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="7" t="s">
+        <v>514</v>
+      </c>
+      <c r="C20" s="8" t="s">
         <v>515</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>516</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
@@ -6111,10 +6111,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -6122,10 +6122,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="7" t="s">
+        <v>604</v>
+      </c>
+      <c r="C22" s="8" t="s">
         <v>605</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>606</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -6133,10 +6133,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="7" t="s">
+        <v>606</v>
+      </c>
+      <c r="C23" s="8" t="s">
         <v>607</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>608</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -6144,10 +6144,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="7" t="s">
+        <v>608</v>
+      </c>
+      <c r="C24" s="8" t="s">
         <v>609</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>610</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -6155,10 +6155,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="7" t="s">
+        <v>610</v>
+      </c>
+      <c r="C25" s="8" t="s">
         <v>611</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>612</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -6166,10 +6166,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="7" t="s">
+        <v>612</v>
+      </c>
+      <c r="C26" s="8" t="s">
         <v>613</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>614</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -6177,10 +6177,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="7" t="s">
+        <v>614</v>
+      </c>
+      <c r="C27" s="8" t="s">
         <v>615</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>616</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -6188,10 +6188,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="7" t="s">
+        <v>616</v>
+      </c>
+      <c r="C28" s="8" t="s">
         <v>617</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>618</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -6199,10 +6199,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="7" t="s">
+        <v>618</v>
+      </c>
+      <c r="C29" s="8" t="s">
         <v>619</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>620</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -6210,10 +6210,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="7" t="s">
+        <v>620</v>
+      </c>
+      <c r="C30" s="8" t="s">
         <v>621</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>622</v>
       </c>
     </row>
   </sheetData>
@@ -6237,27 +6237,27 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="15" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="15" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="15" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="15" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="15" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="B6" s="16"/>
       <c r="C6" s="17"/>
@@ -6265,42 +6265,42 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="15" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="15" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="15" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="15" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="15" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="15" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="15" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="15" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B18"/>
       <c r="C18"/>
@@ -6308,7 +6308,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="15" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="B19"/>
       <c r="C19"/>
@@ -6316,7 +6316,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="15" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="B20"/>
       <c r="C20"/>
@@ -6329,7 +6329,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="15" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B22"/>
       <c r="C22"/>
@@ -6342,7 +6342,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="15" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="B24" s="21"/>
       <c r="C24" s="20"/>
@@ -6350,7 +6350,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="15" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B25"/>
       <c r="C25"/>
@@ -6363,72 +6363,72 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="15" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="15" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="15" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="15" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" s="15" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" s="15" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" s="15" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" s="15" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" s="15" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" s="15" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42" s="15" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" s="15" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A44" s="15" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A45" s="15" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
   </sheetData>
@@ -6453,27 +6453,27 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="15" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="15" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="15" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="15" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="15" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -6483,22 +6483,22 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="15" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="15" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="15" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="15" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.3">
@@ -6567,27 +6567,27 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="23" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="23" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="23" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="23" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="23" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="B8" s="31"/>
       <c r="C8" s="32"/>
@@ -6658,7 +6658,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="15" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
@@ -6666,7 +6666,7 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="15" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
@@ -6674,47 +6674,47 @@
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="23" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" s="15" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" s="15" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" s="15" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" s="15" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" s="15" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" s="15" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" s="15" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.3">
@@ -6722,7 +6722,7 @@
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="15" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
@@ -6730,67 +6730,67 @@
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="15" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
     </row>
   </sheetData>
@@ -6813,42 +6813,42 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
   </sheetData>
@@ -6872,52 +6872,52 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="36" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="36" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="36" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="36" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="36" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="36" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="36" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="36" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="36" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="36" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
   </sheetData>
@@ -6941,72 +6941,72 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="36" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="36" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="36" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="36" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="36" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="36" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="36" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="36" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="36" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="36" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="36" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="36" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="36" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="36" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
     </row>
   </sheetData>
@@ -7029,19 +7029,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="39" t="s">
+        <v>975</v>
+      </c>
+      <c r="B1" s="39" t="s">
         <v>976</v>
       </c>
-      <c r="B1" s="39" t="s">
+      <c r="C1" s="39" t="s">
         <v>977</v>
       </c>
-      <c r="C1" s="39" t="s">
+      <c r="D1" s="39" t="s">
         <v>978</v>
       </c>
-      <c r="D1" s="39" t="s">
+      <c r="E1" s="39" t="s">
         <v>979</v>
-      </c>
-      <c r="E1" s="39" t="s">
-        <v>980</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -7049,169 +7049,169 @@
         <v>158</v>
       </c>
       <c r="B2" s="38" t="s">
+        <v>938</v>
+      </c>
+      <c r="C2" s="38" t="s">
         <v>939</v>
       </c>
-      <c r="C2" s="38" t="s">
+      <c r="D2" s="38" t="s">
         <v>940</v>
       </c>
-      <c r="D2" s="38" t="s">
+      <c r="E2" s="38" t="s">
         <v>941</v>
-      </c>
-      <c r="E2" s="38" t="s">
-        <v>942</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="38" t="s">
+        <v>942</v>
+      </c>
+      <c r="B3" s="38" t="s">
         <v>943</v>
       </c>
-      <c r="B3" s="38" t="s">
+      <c r="C3" s="38" t="s">
         <v>944</v>
       </c>
-      <c r="C3" s="38" t="s">
+      <c r="D3" s="38" t="s">
         <v>945</v>
       </c>
-      <c r="D3" s="38" t="s">
+      <c r="E3" s="38" t="s">
         <v>946</v>
-      </c>
-      <c r="E3" s="38" t="s">
-        <v>947</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="38" t="s">
+        <v>947</v>
+      </c>
+      <c r="B4" s="38" t="s">
         <v>948</v>
       </c>
-      <c r="B4" s="38" t="s">
+      <c r="C4" s="38" t="s">
         <v>949</v>
       </c>
-      <c r="C4" s="38" t="s">
+      <c r="D4" s="38" t="s">
         <v>950</v>
       </c>
-      <c r="D4" s="38" t="s">
+      <c r="E4" s="38" t="s">
         <v>951</v>
-      </c>
-      <c r="E4" s="38" t="s">
-        <v>952</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="38" t="s">
+        <v>952</v>
+      </c>
+      <c r="B5" s="38" t="s">
         <v>953</v>
       </c>
-      <c r="B5" s="38" t="s">
+      <c r="C5" s="38" t="s">
         <v>954</v>
       </c>
-      <c r="C5" s="38" t="s">
+      <c r="D5" s="38" t="s">
+        <v>622</v>
+      </c>
+      <c r="E5" s="38" t="s">
         <v>955</v>
-      </c>
-      <c r="D5" s="38" t="s">
-        <v>623</v>
-      </c>
-      <c r="E5" s="38" t="s">
-        <v>956</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="38" t="s">
+        <v>956</v>
+      </c>
+      <c r="B6" s="38" t="s">
         <v>957</v>
       </c>
-      <c r="B6" s="38" t="s">
+      <c r="C6" s="38" t="s">
         <v>958</v>
       </c>
-      <c r="C6" s="38" t="s">
+      <c r="D6" s="38" t="s">
         <v>959</v>
       </c>
-      <c r="D6" s="38" t="s">
+      <c r="E6" s="38" t="s">
         <v>960</v>
-      </c>
-      <c r="E6" s="38" t="s">
-        <v>961</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="38" t="s">
+        <v>961</v>
+      </c>
+      <c r="B7" s="38" t="s">
         <v>962</v>
       </c>
-      <c r="B7" s="38" t="s">
+      <c r="C7" s="38" t="s">
         <v>963</v>
       </c>
-      <c r="C7" s="38" t="s">
+      <c r="D7" s="38" t="s">
         <v>964</v>
       </c>
-      <c r="D7" s="38" t="s">
+      <c r="E7" s="38" t="s">
         <v>965</v>
-      </c>
-      <c r="E7" s="38" t="s">
-        <v>966</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="38" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="B8" s="38" t="s">
+        <v>969</v>
+      </c>
+      <c r="C8" s="38" t="s">
         <v>970</v>
       </c>
-      <c r="C8" s="38" t="s">
+      <c r="D8" s="38" t="s">
         <v>971</v>
       </c>
-      <c r="D8" s="38" t="s">
+      <c r="E8" s="38" t="s">
         <v>972</v>
-      </c>
-      <c r="E8" s="38" t="s">
-        <v>973</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="38" t="s">
+        <v>967</v>
+      </c>
+      <c r="B9" s="38" t="s">
+        <v>980</v>
+      </c>
+      <c r="C9" s="38" t="s">
         <v>968</v>
       </c>
-      <c r="B9" s="38" t="s">
-        <v>981</v>
-      </c>
-      <c r="C9" s="38" t="s">
-        <v>969</v>
-      </c>
       <c r="D9" s="38" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="E9" s="38" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="38" t="s">
+        <v>1028</v>
+      </c>
+      <c r="B10" s="38" t="s">
         <v>1029</v>
       </c>
-      <c r="B10" s="38" t="s">
+      <c r="C10" s="38" t="s">
         <v>1030</v>
       </c>
-      <c r="C10" s="38" t="s">
+      <c r="D10" s="38" t="s">
         <v>1031</v>
       </c>
-      <c r="D10" s="38" t="s">
+      <c r="E10" s="38" t="s">
         <v>1032</v>
-      </c>
-      <c r="E10" s="38" t="s">
-        <v>1033</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="38" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="B11" s="38" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="C11" s="38" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="D11" s="38" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="E11" s="38" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
     </row>
   </sheetData>
@@ -7768,87 +7768,87 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="37" t="s">
+        <v>975</v>
+      </c>
+      <c r="B1" s="37" t="s">
         <v>976</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="C1" s="37" t="s">
         <v>977</v>
       </c>
-      <c r="C1" s="37" t="s">
+      <c r="D1" s="37" t="s">
         <v>978</v>
       </c>
-      <c r="D1" s="37" t="s">
+      <c r="E1" s="37" t="s">
         <v>979</v>
-      </c>
-      <c r="E1" s="37" t="s">
-        <v>980</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="37" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B2" s="37" t="s">
         <v>1034</v>
       </c>
-      <c r="B2" s="37" t="s">
+      <c r="C2" s="37" t="s">
         <v>1035</v>
       </c>
-      <c r="C2" s="37" t="s">
+      <c r="D2" s="37" t="s">
         <v>1036</v>
       </c>
-      <c r="D2" s="37" t="s">
+      <c r="E2" s="37" t="s">
         <v>1037</v>
-      </c>
-      <c r="E2" s="37" t="s">
-        <v>1038</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="37" t="s">
+        <v>1038</v>
+      </c>
+      <c r="B3" s="37" t="s">
         <v>1039</v>
       </c>
-      <c r="B3" s="37" t="s">
+      <c r="C3" s="37" t="s">
         <v>1040</v>
       </c>
-      <c r="C3" s="37" t="s">
+      <c r="D3" s="37" t="s">
         <v>1041</v>
       </c>
-      <c r="D3" s="37" t="s">
+      <c r="E3" s="37" t="s">
         <v>1042</v>
-      </c>
-      <c r="E3" s="37" t="s">
-        <v>1043</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="37" t="s">
+        <v>1043</v>
+      </c>
+      <c r="B4" s="37" t="s">
         <v>1044</v>
       </c>
-      <c r="B4" s="37" t="s">
+      <c r="C4" s="37" t="s">
         <v>1045</v>
       </c>
-      <c r="C4" s="37" t="s">
+      <c r="D4" s="37" t="s">
         <v>1046</v>
       </c>
-      <c r="D4" s="37" t="s">
+      <c r="E4" s="37" t="s">
         <v>1047</v>
-      </c>
-      <c r="E4" s="37" t="s">
-        <v>1048</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="37" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B5" s="37" t="s">
         <v>1049</v>
       </c>
-      <c r="B5" s="37" t="s">
+      <c r="C5" s="37" t="s">
         <v>1050</v>
       </c>
-      <c r="C5" s="37" t="s">
+      <c r="D5" s="37" t="s">
         <v>1051</v>
       </c>
-      <c r="D5" s="37" t="s">
+      <c r="E5" s="37" t="s">
         <v>1052</v>
-      </c>
-      <c r="E5" s="37" t="s">
-        <v>1053</v>
       </c>
     </row>
   </sheetData>
@@ -7871,36 +7871,36 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="37" t="s">
+        <v>975</v>
+      </c>
+      <c r="B1" s="37" t="s">
         <v>976</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="C1" s="37" t="s">
         <v>977</v>
       </c>
-      <c r="C1" s="37" t="s">
+      <c r="D1" s="37" t="s">
         <v>978</v>
       </c>
-      <c r="D1" s="37" t="s">
+      <c r="E1" s="37" t="s">
         <v>979</v>
-      </c>
-      <c r="E1" s="37" t="s">
-        <v>980</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="37" t="s">
+        <v>1053</v>
+      </c>
+      <c r="B2" s="37" t="s">
         <v>1054</v>
       </c>
-      <c r="B2" s="37" t="s">
+      <c r="C2" s="37" t="s">
         <v>1055</v>
       </c>
-      <c r="C2" s="37" t="s">
+      <c r="D2" s="37" t="s">
         <v>1056</v>
       </c>
-      <c r="D2" s="37" t="s">
+      <c r="E2" s="37" t="s">
         <v>1057</v>
-      </c>
-      <c r="E2" s="37" t="s">
-        <v>1058</v>
       </c>
     </row>
   </sheetData>
@@ -7923,101 +7923,101 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="37" t="s">
+        <v>976</v>
+      </c>
+      <c r="B1" s="37" t="s">
         <v>977</v>
       </c>
-      <c r="B1" s="37" t="s">
-        <v>978</v>
-      </c>
       <c r="C1" s="37" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="37" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B2" s="37" t="s">
         <v>1059</v>
       </c>
-      <c r="B2" s="37" t="s">
+      <c r="C2" s="37" t="s">
         <v>1060</v>
-      </c>
-      <c r="C2" s="37" t="s">
-        <v>1061</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="37" t="s">
+        <v>1061</v>
+      </c>
+      <c r="B3" s="37" t="s">
         <v>1062</v>
       </c>
-      <c r="B3" s="37" t="s">
+      <c r="C3" s="37" t="s">
         <v>1063</v>
-      </c>
-      <c r="C3" s="37" t="s">
-        <v>1064</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="37" t="s">
+        <v>1064</v>
+      </c>
+      <c r="B4" s="37" t="s">
         <v>1065</v>
       </c>
-      <c r="B4" s="37" t="s">
+      <c r="C4" s="37" t="s">
         <v>1066</v>
-      </c>
-      <c r="C4" s="37" t="s">
-        <v>1067</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="37" t="s">
+        <v>1067</v>
+      </c>
+      <c r="B5" s="37" t="s">
         <v>1068</v>
       </c>
-      <c r="B5" s="37" t="s">
+      <c r="C5" s="37" t="s">
         <v>1069</v>
-      </c>
-      <c r="C5" s="37" t="s">
-        <v>1070</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="37" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B6" s="37" t="s">
         <v>1071</v>
       </c>
-      <c r="B6" s="37" t="s">
+      <c r="C6" s="37" t="s">
         <v>1072</v>
-      </c>
-      <c r="C6" s="37" t="s">
-        <v>1073</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="37" t="s">
+        <v>1073</v>
+      </c>
+      <c r="B7" s="37" t="s">
+        <v>1075</v>
+      </c>
+      <c r="C7" s="37" t="s">
         <v>1074</v>
-      </c>
-      <c r="B7" s="37" t="s">
-        <v>1076</v>
-      </c>
-      <c r="C7" s="37" t="s">
-        <v>1075</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="37" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B8" s="37" t="s">
         <v>1077</v>
       </c>
-      <c r="B8" s="37" t="s">
+      <c r="C8" s="37" t="s">
         <v>1078</v>
-      </c>
-      <c r="C8" s="37" t="s">
-        <v>1079</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="37" t="s">
+        <v>1079</v>
+      </c>
+      <c r="B9" s="37" t="s">
         <v>1080</v>
       </c>
-      <c r="B9" s="37" t="s">
+      <c r="C9" s="37" t="s">
         <v>1081</v>
-      </c>
-      <c r="C9" s="37" t="s">
-        <v>1082</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -8025,32 +8025,32 @@
         <v>241</v>
       </c>
       <c r="B10" s="37" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C10" s="37" t="s">
         <v>1083</v>
-      </c>
-      <c r="C10" s="37" t="s">
-        <v>1084</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="37" t="s">
+        <v>1084</v>
+      </c>
+      <c r="B11" s="37" t="s">
         <v>1085</v>
       </c>
-      <c r="B11" s="37" t="s">
+      <c r="C11" s="37" t="s">
         <v>1086</v>
-      </c>
-      <c r="C11" s="37" t="s">
-        <v>1087</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="37" t="s">
+        <v>1087</v>
+      </c>
+      <c r="B12" s="37" t="s">
         <v>1088</v>
       </c>
-      <c r="B12" s="37" t="s">
-        <v>1089</v>
-      </c>
       <c r="C12" s="37" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
     </row>
   </sheetData>
@@ -8073,206 +8073,206 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="38" t="s">
+        <v>975</v>
+      </c>
+      <c r="B1" s="38" t="s">
         <v>976</v>
       </c>
-      <c r="B1" s="38" t="s">
+      <c r="C1" s="38" t="s">
         <v>977</v>
       </c>
-      <c r="C1" s="38" t="s">
+      <c r="D1" s="38" t="s">
         <v>978</v>
       </c>
-      <c r="D1" s="38" t="s">
+      <c r="E1" s="38" t="s">
         <v>979</v>
-      </c>
-      <c r="E1" s="38" t="s">
-        <v>980</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="38" t="s">
+        <v>981</v>
+      </c>
+      <c r="B2" s="38" t="s">
         <v>982</v>
       </c>
-      <c r="B2" s="38" t="s">
+      <c r="C2" s="38" t="s">
         <v>983</v>
       </c>
-      <c r="C2" s="38" t="s">
+      <c r="D2" s="38" t="s">
         <v>984</v>
       </c>
-      <c r="D2" s="38" t="s">
+      <c r="E2" s="38" t="s">
         <v>985</v>
-      </c>
-      <c r="E2" s="38" t="s">
-        <v>986</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="38" t="s">
+        <v>986</v>
+      </c>
+      <c r="B3" s="38" t="s">
         <v>987</v>
       </c>
-      <c r="B3" s="38" t="s">
+      <c r="C3" s="38" t="s">
         <v>988</v>
       </c>
-      <c r="C3" s="38" t="s">
+      <c r="D3" s="38" t="s">
         <v>989</v>
       </c>
-      <c r="D3" s="38" t="s">
+      <c r="E3" s="38" t="s">
         <v>990</v>
-      </c>
-      <c r="E3" s="38" t="s">
-        <v>991</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="38" t="s">
+        <v>991</v>
+      </c>
+      <c r="B4" s="38" t="s">
         <v>992</v>
       </c>
-      <c r="B4" s="38" t="s">
+      <c r="C4" s="38" t="s">
         <v>993</v>
       </c>
-      <c r="C4" s="38" t="s">
+      <c r="D4" s="38" t="s">
         <v>994</v>
       </c>
-      <c r="D4" s="38" t="s">
+      <c r="E4" s="38" t="s">
         <v>995</v>
-      </c>
-      <c r="E4" s="38" t="s">
-        <v>996</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="38" t="s">
+        <v>996</v>
+      </c>
+      <c r="B5" s="38" t="s">
         <v>997</v>
       </c>
-      <c r="B5" s="38" t="s">
+      <c r="C5" s="38" t="s">
         <v>998</v>
       </c>
-      <c r="C5" s="38" t="s">
+      <c r="D5" s="38" t="s">
         <v>999</v>
       </c>
-      <c r="D5" s="38" t="s">
+      <c r="E5" s="38" t="s">
         <v>1000</v>
-      </c>
-      <c r="E5" s="38" t="s">
-        <v>1001</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="38" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B6" s="38" t="s">
         <v>1002</v>
       </c>
-      <c r="B6" s="38" t="s">
+      <c r="C6" s="38" t="s">
         <v>1003</v>
       </c>
-      <c r="C6" s="38" t="s">
+      <c r="D6" s="38" t="s">
         <v>1004</v>
       </c>
-      <c r="D6" s="38" t="s">
+      <c r="E6" s="38" t="s">
         <v>1005</v>
-      </c>
-      <c r="E6" s="38" t="s">
-        <v>1006</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="38" t="s">
+        <v>1006</v>
+      </c>
+      <c r="B7" s="38" t="s">
         <v>1007</v>
       </c>
-      <c r="B7" s="38" t="s">
+      <c r="C7" s="38" t="s">
         <v>1008</v>
       </c>
-      <c r="C7" s="38" t="s">
+      <c r="D7" s="38" t="s">
         <v>1009</v>
       </c>
-      <c r="D7" s="38" t="s">
+      <c r="E7" s="38" t="s">
         <v>1010</v>
-      </c>
-      <c r="E7" s="38" t="s">
-        <v>1011</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="38" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B8" s="38" t="s">
         <v>1012</v>
       </c>
-      <c r="B8" s="38" t="s">
+      <c r="C8" s="38" t="s">
         <v>1013</v>
       </c>
-      <c r="C8" s="38" t="s">
+      <c r="D8" s="38" t="s">
         <v>1014</v>
       </c>
-      <c r="D8" s="38" t="s">
+      <c r="E8" s="38" t="s">
         <v>1015</v>
-      </c>
-      <c r="E8" s="38" t="s">
-        <v>1016</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="38" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B9" s="38" t="s">
         <v>1017</v>
       </c>
-      <c r="B9" s="38" t="s">
+      <c r="C9" s="38" t="s">
         <v>1018</v>
       </c>
-      <c r="C9" s="38" t="s">
+      <c r="D9" s="38" t="s">
+        <v>1017</v>
+      </c>
+      <c r="E9" s="38" t="s">
         <v>1019</v>
-      </c>
-      <c r="D9" s="38" t="s">
-        <v>1018</v>
-      </c>
-      <c r="E9" s="38" t="s">
-        <v>1020</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="38" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B10" s="38" t="s">
         <v>1021</v>
       </c>
-      <c r="B10" s="38" t="s">
+      <c r="C10" s="38" t="s">
         <v>1022</v>
       </c>
-      <c r="C10" s="38" t="s">
+      <c r="D10" s="38" t="s">
         <v>1023</v>
       </c>
-      <c r="D10" s="38" t="s">
+      <c r="E10" s="38" t="s">
         <v>1024</v>
-      </c>
-      <c r="E10" s="38" t="s">
-        <v>1025</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="38" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B11" s="38" t="s">
+        <v>1017</v>
+      </c>
+      <c r="C11" s="38" t="s">
+        <v>1017</v>
+      </c>
+      <c r="D11" s="38" t="s">
+        <v>1017</v>
+      </c>
+      <c r="E11" s="38" t="s">
         <v>1026</v>
-      </c>
-      <c r="B11" s="38" t="s">
-        <v>1018</v>
-      </c>
-      <c r="C11" s="38" t="s">
-        <v>1018</v>
-      </c>
-      <c r="D11" s="38" t="s">
-        <v>1018</v>
-      </c>
-      <c r="E11" s="38" t="s">
-        <v>1027</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="38" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="B12" s="38" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="C12" s="38" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="D12" s="38" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="E12" s="38" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
     </row>
   </sheetData>
@@ -8295,87 +8295,87 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="37" t="s">
+        <v>975</v>
+      </c>
+      <c r="B1" s="37" t="s">
         <v>976</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="C1" s="37" t="s">
         <v>977</v>
       </c>
-      <c r="C1" s="37" t="s">
+      <c r="D1" s="37" t="s">
         <v>978</v>
       </c>
-      <c r="D1" s="37" t="s">
+      <c r="E1" s="37" t="s">
         <v>979</v>
-      </c>
-      <c r="E1" s="37" t="s">
-        <v>980</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="37" t="s">
+        <v>1089</v>
+      </c>
+      <c r="B2" s="37" t="s">
         <v>1090</v>
       </c>
-      <c r="B2" s="37" t="s">
+      <c r="C2" s="37" t="s">
         <v>1091</v>
       </c>
-      <c r="C2" s="37" t="s">
+      <c r="D2" s="37" t="s">
         <v>1092</v>
       </c>
-      <c r="D2" s="37" t="s">
+      <c r="E2" s="37" t="s">
         <v>1093</v>
-      </c>
-      <c r="E2" s="37" t="s">
-        <v>1094</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="37" t="s">
+        <v>1094</v>
+      </c>
+      <c r="B3" s="37" t="s">
         <v>1095</v>
       </c>
-      <c r="B3" s="37" t="s">
+      <c r="C3" s="37" t="s">
         <v>1096</v>
       </c>
-      <c r="C3" s="37" t="s">
+      <c r="D3" s="37" t="s">
         <v>1097</v>
       </c>
-      <c r="D3" s="37" t="s">
+      <c r="E3" s="37" t="s">
         <v>1098</v>
-      </c>
-      <c r="E3" s="37" t="s">
-        <v>1099</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="37" t="s">
+        <v>1099</v>
+      </c>
+      <c r="B4" s="37" t="s">
         <v>1100</v>
       </c>
-      <c r="B4" s="37" t="s">
+      <c r="C4" s="37" t="s">
         <v>1101</v>
       </c>
-      <c r="C4" s="37" t="s">
+      <c r="D4" s="37" t="s">
         <v>1102</v>
       </c>
-      <c r="D4" s="37" t="s">
+      <c r="E4" s="37" t="s">
         <v>1103</v>
-      </c>
-      <c r="E4" s="37" t="s">
-        <v>1104</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="37" t="s">
+        <v>1104</v>
+      </c>
+      <c r="B5" s="37" t="s">
         <v>1105</v>
       </c>
-      <c r="B5" s="37" t="s">
+      <c r="C5" s="37" t="s">
         <v>1106</v>
       </c>
-      <c r="C5" s="37" t="s">
+      <c r="D5" s="37" t="s">
         <v>1107</v>
       </c>
-      <c r="D5" s="37" t="s">
+      <c r="E5" s="37" t="s">
         <v>1108</v>
-      </c>
-      <c r="E5" s="37" t="s">
-        <v>1109</v>
       </c>
     </row>
   </sheetData>
@@ -8398,36 +8398,36 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="37" t="s">
+        <v>975</v>
+      </c>
+      <c r="B1" s="37" t="s">
         <v>976</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="C1" s="37" t="s">
         <v>977</v>
       </c>
-      <c r="C1" s="37" t="s">
+      <c r="D1" s="37" t="s">
         <v>978</v>
       </c>
-      <c r="D1" s="37" t="s">
+      <c r="E1" s="37" t="s">
         <v>979</v>
-      </c>
-      <c r="E1" s="37" t="s">
-        <v>980</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="37" t="s">
+        <v>1109</v>
+      </c>
+      <c r="B2" s="37" t="s">
         <v>1110</v>
       </c>
-      <c r="B2" s="37" t="s">
+      <c r="C2" s="37" t="s">
         <v>1111</v>
       </c>
-      <c r="C2" s="37" t="s">
+      <c r="D2" s="37" t="s">
         <v>1112</v>
       </c>
-      <c r="D2" s="37" t="s">
+      <c r="E2" s="37" t="s">
         <v>1113</v>
-      </c>
-      <c r="E2" s="37" t="s">
-        <v>1114</v>
       </c>
     </row>
   </sheetData>
@@ -8450,134 +8450,134 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="37" t="s">
+        <v>976</v>
+      </c>
+      <c r="B1" s="37" t="s">
         <v>977</v>
       </c>
-      <c r="B1" s="37" t="s">
-        <v>978</v>
-      </c>
       <c r="C1" s="37" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="37" t="s">
+        <v>1114</v>
+      </c>
+      <c r="B2" s="37" t="s">
         <v>1115</v>
       </c>
-      <c r="B2" s="37" t="s">
+      <c r="C2" s="37" t="s">
         <v>1116</v>
-      </c>
-      <c r="C2" s="37" t="s">
-        <v>1117</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="37" t="s">
+        <v>1117</v>
+      </c>
+      <c r="B3" s="37" t="s">
         <v>1118</v>
       </c>
-      <c r="B3" s="37" t="s">
+      <c r="C3" s="37" t="s">
         <v>1119</v>
-      </c>
-      <c r="C3" s="37" t="s">
-        <v>1120</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="37" t="s">
+        <v>1120</v>
+      </c>
+      <c r="B4" s="37" t="s">
         <v>1121</v>
       </c>
-      <c r="B4" s="37" t="s">
+      <c r="C4" s="37" t="s">
         <v>1122</v>
-      </c>
-      <c r="C4" s="37" t="s">
-        <v>1123</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="37" t="s">
+        <v>1123</v>
+      </c>
+      <c r="B5" s="37" t="s">
         <v>1124</v>
       </c>
-      <c r="B5" s="37" t="s">
+      <c r="C5" s="37" t="s">
         <v>1125</v>
-      </c>
-      <c r="C5" s="37" t="s">
-        <v>1126</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="37" t="s">
+        <v>1126</v>
+      </c>
+      <c r="B6" s="37" t="s">
         <v>1127</v>
       </c>
-      <c r="B6" s="37" t="s">
+      <c r="C6" s="37" t="s">
         <v>1128</v>
-      </c>
-      <c r="C6" s="37" t="s">
-        <v>1129</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="37" t="s">
+        <v>1129</v>
+      </c>
+      <c r="B7" s="37" t="s">
         <v>1130</v>
       </c>
-      <c r="B7" s="37" t="s">
+      <c r="C7" s="37" t="s">
         <v>1131</v>
-      </c>
-      <c r="C7" s="37" t="s">
-        <v>1132</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="37" t="s">
+        <v>1132</v>
+      </c>
+      <c r="B8" s="37" t="s">
         <v>1133</v>
       </c>
-      <c r="B8" s="37" t="s">
+      <c r="C8" s="37" t="s">
         <v>1134</v>
-      </c>
-      <c r="C8" s="37" t="s">
-        <v>1135</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="37" t="s">
+        <v>1135</v>
+      </c>
+      <c r="B9" s="37" t="s">
         <v>1136</v>
       </c>
-      <c r="B9" s="37" t="s">
+      <c r="C9" s="37" t="s">
         <v>1137</v>
-      </c>
-      <c r="C9" s="37" t="s">
-        <v>1138</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="37" t="s">
+        <v>1138</v>
+      </c>
+      <c r="B10" s="37" t="s">
         <v>1139</v>
       </c>
-      <c r="B10" s="37" t="s">
+      <c r="C10" s="37" t="s">
         <v>1140</v>
-      </c>
-      <c r="C10" s="37" t="s">
-        <v>1141</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="37" t="s">
+        <v>1141</v>
+      </c>
+      <c r="B11" s="37" t="s">
         <v>1142</v>
       </c>
-      <c r="B11" s="37" t="s">
+      <c r="C11" s="37" t="s">
         <v>1143</v>
-      </c>
-      <c r="C11" s="37" t="s">
-        <v>1144</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="37" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B12" s="37" t="s">
         <v>1145</v>
       </c>
-      <c r="B12" s="37" t="s">
+      <c r="C12" s="37" t="s">
         <v>1146</v>
-      </c>
-      <c r="C12" s="37" t="s">
-        <v>1147</v>
       </c>
     </row>
   </sheetData>
@@ -8600,22 +8600,22 @@
   <sheetData>
     <row r="1" spans="1:1" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A1" s="22" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="23.4" x14ac:dyDescent="0.3">
       <c r="A2" s="22" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A3" s="22" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A4" s="22" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
@@ -8623,12 +8623,12 @@
     </row>
     <row r="6" spans="1:1" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A6" s="24" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A7" s="22" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
@@ -8636,7 +8636,7 @@
     </row>
     <row r="9" spans="1:1" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A9" s="25" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="22.8" x14ac:dyDescent="0.3">
@@ -8644,17 +8644,17 @@
     </row>
     <row r="11" spans="1:1" ht="18" x14ac:dyDescent="0.3">
       <c r="A11" s="26" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" s="27" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A13" s="27" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.3">
@@ -8662,12 +8662,12 @@
     </row>
     <row r="15" spans="1:1" ht="18" x14ac:dyDescent="0.3">
       <c r="A15" s="26" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A16" s="28" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
@@ -8675,7 +8675,7 @@
     </row>
     <row r="18" spans="1:1" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A18" s="28" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -8683,17 +8683,17 @@
     </row>
     <row r="20" spans="1:1" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A20" s="29" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="21" spans="1:1" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A21" s="29" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A22" s="27" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
@@ -8701,12 +8701,12 @@
     </row>
     <row r="24" spans="1:1" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A24" s="30" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A25" s="22" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="26" spans="1:1" ht="22.8" x14ac:dyDescent="0.3">
@@ -8714,7 +8714,7 @@
     </row>
     <row r="27" spans="1:1" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A27" s="22" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="28" spans="1:1" ht="22.8" x14ac:dyDescent="0.3">
@@ -8722,17 +8722,17 @@
     </row>
     <row r="29" spans="1:1" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A29" s="22" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="30" spans="1:1" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A30" s="22" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="31" spans="1:1" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A31" s="22" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="32" spans="1:1" ht="22.8" x14ac:dyDescent="0.3">
@@ -8740,12 +8740,12 @@
     </row>
     <row r="33" spans="1:1" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A33" s="30" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="34" spans="1:1" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A34" s="22" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
   </sheetData>
@@ -8768,12 +8768,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="19" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="19" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
@@ -8878,7 +8878,7 @@
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="18" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
@@ -9546,8 +9546,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C61"/>
   <sheetViews>
-    <sheetView topLeftCell="A47" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" topLeftCell="A47" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B62" sqref="B62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10099,7 +10099,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="C50" s="8" t="s">
         <v>355</v>
@@ -10220,10 +10220,10 @@
         <v>60</v>
       </c>
       <c r="B61" s="7" t="s">
+        <v>1344</v>
+      </c>
+      <c r="C61" s="8" t="s">
         <v>374</v>
-      </c>
-      <c r="C61" s="8" t="s">
-        <v>375</v>
       </c>
     </row>
   </sheetData>
@@ -10259,10 +10259,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>376</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -10270,10 +10270,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>378</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -10281,10 +10281,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="C4" s="8" t="s">
         <v>380</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>381</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -10292,10 +10292,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="C5" s="8" t="s">
         <v>382</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>383</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -10303,10 +10303,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="C6" s="8" t="s">
         <v>384</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>385</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -10314,10 +10314,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="C7" s="8" t="s">
         <v>386</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>387</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -10325,10 +10325,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="C8" s="8" t="s">
         <v>388</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>389</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -10336,10 +10336,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="C9" s="8" t="s">
         <v>390</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>391</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -10347,10 +10347,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="C10" s="8" t="s">
         <v>392</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>393</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -10358,10 +10358,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="C11" s="8" t="s">
         <v>394</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>395</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -10369,10 +10369,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="C12" s="8" t="s">
         <v>396</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>397</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -10380,10 +10380,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="C13" s="8" t="s">
         <v>398</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>399</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -10391,10 +10391,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="C14" s="8" t="s">
         <v>400</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>401</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -10402,10 +10402,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="C15" s="8" t="s">
         <v>402</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>403</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -10413,10 +10413,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="C16" s="8" t="s">
         <v>404</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>405</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -10424,10 +10424,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="C17" s="8" t="s">
         <v>406</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>407</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -10435,10 +10435,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="C18" s="8" t="s">
         <v>408</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>409</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -10446,10 +10446,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="C19" s="8" t="s">
         <v>410</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>411</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -10457,10 +10457,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="C20" s="8" t="s">
         <v>412</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>413</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -10468,10 +10468,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="C21" s="8" t="s">
         <v>414</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>415</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -10479,10 +10479,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="C22" s="8" t="s">
         <v>416</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>417</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -10490,10 +10490,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="C23" s="8" t="s">
         <v>418</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>419</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -10501,10 +10501,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="C24" s="8" t="s">
         <v>420</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>421</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -10512,10 +10512,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="C25" s="8" t="s">
         <v>422</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>423</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -10523,10 +10523,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="C26" s="8" t="s">
         <v>424</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>425</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -10534,10 +10534,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="C27" s="8" t="s">
         <v>426</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>427</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -10545,10 +10545,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="C28" s="8" t="s">
         <v>428</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>429</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -10556,10 +10556,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="C29" s="8" t="s">
         <v>430</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>431</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -10567,10 +10567,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="C30" s="8" t="s">
         <v>432</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>433</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -10578,10 +10578,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="C31" s="8" t="s">
         <v>434</v>
-      </c>
-      <c r="C31" s="8" t="s">
-        <v>435</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -10589,10 +10589,10 @@
         <v>31</v>
       </c>
       <c r="B32" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="C32" s="8" t="s">
         <v>436</v>
-      </c>
-      <c r="C32" s="8" t="s">
-        <v>437</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -10600,10 +10600,10 @@
         <v>32</v>
       </c>
       <c r="B33" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="C33" s="8" t="s">
         <v>438</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>439</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -10611,10 +10611,10 @@
         <v>33</v>
       </c>
       <c r="B34" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="C34" s="8" t="s">
         <v>440</v>
-      </c>
-      <c r="C34" s="8" t="s">
-        <v>441</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -10622,10 +10622,10 @@
         <v>34</v>
       </c>
       <c r="B35" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="C35" s="8" t="s">
         <v>442</v>
-      </c>
-      <c r="C35" s="8" t="s">
-        <v>443</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -10633,10 +10633,10 @@
         <v>35</v>
       </c>
       <c r="B36" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="C36" s="8" t="s">
         <v>444</v>
-      </c>
-      <c r="C36" s="8" t="s">
-        <v>445</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -10644,10 +10644,10 @@
         <v>36</v>
       </c>
       <c r="B37" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="C37" s="8" t="s">
         <v>446</v>
-      </c>
-      <c r="C37" s="8" t="s">
-        <v>447</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -10655,10 +10655,10 @@
         <v>37</v>
       </c>
       <c r="B38" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="C38" s="8" t="s">
         <v>448</v>
-      </c>
-      <c r="C38" s="8" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -10666,10 +10666,10 @@
         <v>38</v>
       </c>
       <c r="B39" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="C39" s="8" t="s">
         <v>450</v>
-      </c>
-      <c r="C39" s="8" t="s">
-        <v>451</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -10677,10 +10677,10 @@
         <v>39</v>
       </c>
       <c r="B40" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="C40" s="8" t="s">
         <v>452</v>
-      </c>
-      <c r="C40" s="8" t="s">
-        <v>453</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -10688,10 +10688,10 @@
         <v>40</v>
       </c>
       <c r="B41" s="7" t="s">
+        <v>453</v>
+      </c>
+      <c r="C41" s="8" t="s">
         <v>454</v>
-      </c>
-      <c r="C41" s="8" t="s">
-        <v>455</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -10699,10 +10699,10 @@
         <v>41</v>
       </c>
       <c r="B42" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="C42" s="8" t="s">
         <v>456</v>
-      </c>
-      <c r="C42" s="8" t="s">
-        <v>457</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -10710,10 +10710,10 @@
         <v>42</v>
       </c>
       <c r="B43" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="C43" s="8" t="s">
         <v>458</v>
-      </c>
-      <c r="C43" s="8" t="s">
-        <v>459</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -10721,10 +10721,10 @@
         <v>43</v>
       </c>
       <c r="B44" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="C44" s="8" t="s">
         <v>460</v>
-      </c>
-      <c r="C44" s="8" t="s">
-        <v>461</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -10732,10 +10732,10 @@
         <v>44</v>
       </c>
       <c r="B45" s="7" t="s">
+        <v>461</v>
+      </c>
+      <c r="C45" s="8" t="s">
         <v>462</v>
-      </c>
-      <c r="C45" s="8" t="s">
-        <v>463</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -10743,10 +10743,10 @@
         <v>45</v>
       </c>
       <c r="B46" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="C46" s="8" t="s">
         <v>464</v>
-      </c>
-      <c r="C46" s="8" t="s">
-        <v>465</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -10754,10 +10754,10 @@
         <v>46</v>
       </c>
       <c r="B47" s="7" t="s">
+        <v>465</v>
+      </c>
+      <c r="C47" s="8" t="s">
         <v>466</v>
-      </c>
-      <c r="C47" s="8" t="s">
-        <v>467</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -10765,10 +10765,10 @@
         <v>47</v>
       </c>
       <c r="B48" s="7" t="s">
+        <v>467</v>
+      </c>
+      <c r="C48" s="8" t="s">
         <v>468</v>
-      </c>
-      <c r="C48" s="8" t="s">
-        <v>469</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -10776,10 +10776,10 @@
         <v>48</v>
       </c>
       <c r="B49" s="7" t="s">
+        <v>469</v>
+      </c>
+      <c r="C49" s="8" t="s">
         <v>470</v>
-      </c>
-      <c r="C49" s="8" t="s">
-        <v>471</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -10787,10 +10787,10 @@
         <v>49</v>
       </c>
       <c r="B50" s="7" t="s">
+        <v>471</v>
+      </c>
+      <c r="C50" s="8" t="s">
         <v>472</v>
-      </c>
-      <c r="C50" s="8" t="s">
-        <v>473</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -10798,10 +10798,10 @@
         <v>50</v>
       </c>
       <c r="B51" s="7" t="s">
+        <v>473</v>
+      </c>
+      <c r="C51" s="8" t="s">
         <v>474</v>
-      </c>
-      <c r="C51" s="8" t="s">
-        <v>475</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -10809,10 +10809,10 @@
         <v>51</v>
       </c>
       <c r="B52" s="7" t="s">
+        <v>475</v>
+      </c>
+      <c r="C52" s="8" t="s">
         <v>476</v>
-      </c>
-      <c r="C52" s="8" t="s">
-        <v>477</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -10820,10 +10820,10 @@
         <v>52</v>
       </c>
       <c r="B53" s="7" t="s">
+        <v>477</v>
+      </c>
+      <c r="C53" s="8" t="s">
         <v>478</v>
-      </c>
-      <c r="C53" s="8" t="s">
-        <v>479</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
@@ -10831,7 +10831,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C54" s="8" t="s">
         <v>153</v>
@@ -10842,10 +10842,10 @@
         <v>54</v>
       </c>
       <c r="B55" s="7" t="s">
+        <v>480</v>
+      </c>
+      <c r="C55" s="8" t="s">
         <v>481</v>
-      </c>
-      <c r="C55" s="8" t="s">
-        <v>482</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -10853,10 +10853,10 @@
         <v>55</v>
       </c>
       <c r="B56" s="7" t="s">
+        <v>482</v>
+      </c>
+      <c r="C56" s="8" t="s">
         <v>483</v>
-      </c>
-      <c r="C56" s="8" t="s">
-        <v>484</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -10864,10 +10864,10 @@
         <v>56</v>
       </c>
       <c r="B57" s="7" t="s">
+        <v>484</v>
+      </c>
+      <c r="C57" s="8" t="s">
         <v>485</v>
-      </c>
-      <c r="C57" s="8" t="s">
-        <v>486</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -10875,10 +10875,10 @@
         <v>57</v>
       </c>
       <c r="B58" s="7" t="s">
+        <v>486</v>
+      </c>
+      <c r="C58" s="8" t="s">
         <v>487</v>
-      </c>
-      <c r="C58" s="8" t="s">
-        <v>488</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -10886,10 +10886,10 @@
         <v>58</v>
       </c>
       <c r="B59" s="7" t="s">
+        <v>488</v>
+      </c>
+      <c r="C59" s="8" t="s">
         <v>489</v>
-      </c>
-      <c r="C59" s="8" t="s">
-        <v>490</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -10897,10 +10897,10 @@
         <v>59</v>
       </c>
       <c r="B60" s="7" t="s">
+        <v>490</v>
+      </c>
+      <c r="C60" s="8" t="s">
         <v>491</v>
-      </c>
-      <c r="C60" s="8" t="s">
-        <v>492</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -10908,10 +10908,10 @@
         <v>60</v>
       </c>
       <c r="B61" s="7" t="s">
+        <v>492</v>
+      </c>
+      <c r="C61" s="8" t="s">
         <v>493</v>
-      </c>
-      <c r="C61" s="8" t="s">
-        <v>494</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -10919,10 +10919,10 @@
         <v>61</v>
       </c>
       <c r="B62" s="7" t="s">
+        <v>494</v>
+      </c>
+      <c r="C62" s="8" t="s">
         <v>495</v>
-      </c>
-      <c r="C62" s="8" t="s">
-        <v>496</v>
       </c>
     </row>
   </sheetData>
@@ -10958,10 +10958,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
+        <v>496</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>497</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>498</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -10969,10 +10969,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
+        <v>498</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>499</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>500</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
@@ -10980,10 +10980,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
+        <v>500</v>
+      </c>
+      <c r="C4" s="8" t="s">
         <v>501</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>502</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -10991,10 +10991,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
+        <v>502</v>
+      </c>
+      <c r="C5" s="8" t="s">
         <v>503</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>504</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -11002,10 +11002,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="7" t="s">
+        <v>504</v>
+      </c>
+      <c r="C6" s="8" t="s">
         <v>505</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>506</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -11013,10 +11013,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="7" t="s">
+        <v>506</v>
+      </c>
+      <c r="C7" s="8" t="s">
         <v>507</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>508</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -11024,10 +11024,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="7" t="s">
+        <v>508</v>
+      </c>
+      <c r="C8" s="8" t="s">
         <v>509</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>510</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -11035,10 +11035,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="7" t="s">
+        <v>510</v>
+      </c>
+      <c r="C9" s="8" t="s">
         <v>511</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>512</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
@@ -11046,10 +11046,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="7" t="s">
+        <v>512</v>
+      </c>
+      <c r="C10" s="8" t="s">
         <v>513</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>514</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -11057,10 +11057,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="7" t="s">
+        <v>514</v>
+      </c>
+      <c r="C11" s="8" t="s">
         <v>515</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>516</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
@@ -11068,10 +11068,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -11079,10 +11079,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="7" t="s">
+        <v>517</v>
+      </c>
+      <c r="C13" s="8" t="s">
         <v>518</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>519</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -11090,10 +11090,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="7" t="s">
+        <v>519</v>
+      </c>
+      <c r="C14" s="8" t="s">
         <v>520</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>521</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -11101,10 +11101,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="7" t="s">
+        <v>521</v>
+      </c>
+      <c r="C15" s="8" t="s">
         <v>522</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>523</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -11112,10 +11112,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="7" t="s">
+        <v>523</v>
+      </c>
+      <c r="C16" s="8" t="s">
         <v>524</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>525</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -11123,10 +11123,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="7" t="s">
+        <v>525</v>
+      </c>
+      <c r="C17" s="8" t="s">
         <v>526</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>527</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -11134,10 +11134,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="7" t="s">
+        <v>527</v>
+      </c>
+      <c r="C18" s="8" t="s">
         <v>528</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>529</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -11145,10 +11145,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="7" t="s">
+        <v>529</v>
+      </c>
+      <c r="C19" s="8" t="s">
         <v>530</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>531</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -11156,10 +11156,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="7" t="s">
+        <v>531</v>
+      </c>
+      <c r="C20" s="8" t="s">
         <v>532</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>533</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -11167,10 +11167,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="7" t="s">
+        <v>533</v>
+      </c>
+      <c r="C21" s="8" t="s">
         <v>534</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>535</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -11178,10 +11178,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="7" t="s">
+        <v>535</v>
+      </c>
+      <c r="C22" s="8" t="s">
         <v>536</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>537</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -11189,10 +11189,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="7" t="s">
+        <v>537</v>
+      </c>
+      <c r="C23" s="8" t="s">
         <v>538</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>539</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -11200,10 +11200,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="7" t="s">
+        <v>539</v>
+      </c>
+      <c r="C24" s="8" t="s">
         <v>540</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>541</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -11211,10 +11211,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="7" t="s">
+        <v>541</v>
+      </c>
+      <c r="C25" s="8" t="s">
         <v>542</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>543</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -11222,10 +11222,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="C26" s="8" t="s">
         <v>544</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>545</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -11233,10 +11233,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="7" t="s">
+        <v>545</v>
+      </c>
+      <c r="C27" s="8" t="s">
         <v>546</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>547</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -11244,10 +11244,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="7" t="s">
+        <v>547</v>
+      </c>
+      <c r="C28" s="8" t="s">
         <v>548</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>549</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -11255,10 +11255,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="7" t="s">
+        <v>549</v>
+      </c>
+      <c r="C29" s="8" t="s">
         <v>550</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>551</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -11266,10 +11266,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="7" t="s">
+        <v>551</v>
+      </c>
+      <c r="C30" s="8" t="s">
         <v>552</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>553</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -11277,10 +11277,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="7" t="s">
+        <v>553</v>
+      </c>
+      <c r="C31" s="8" t="s">
         <v>554</v>
-      </c>
-      <c r="C31" s="8" t="s">
-        <v>555</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -11288,10 +11288,10 @@
         <v>31</v>
       </c>
       <c r="B32" s="7" t="s">
+        <v>555</v>
+      </c>
+      <c r="C32" s="8" t="s">
         <v>556</v>
-      </c>
-      <c r="C32" s="8" t="s">
-        <v>557</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -11299,10 +11299,10 @@
         <v>32</v>
       </c>
       <c r="B33" s="7" t="s">
+        <v>557</v>
+      </c>
+      <c r="C33" s="8" t="s">
         <v>558</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>559</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -11310,10 +11310,10 @@
         <v>33</v>
       </c>
       <c r="B34" s="7" t="s">
+        <v>559</v>
+      </c>
+      <c r="C34" s="8" t="s">
         <v>560</v>
-      </c>
-      <c r="C34" s="8" t="s">
-        <v>561</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -11321,10 +11321,10 @@
         <v>34</v>
       </c>
       <c r="B35" s="7" t="s">
+        <v>561</v>
+      </c>
+      <c r="C35" s="8" t="s">
         <v>562</v>
-      </c>
-      <c r="C35" s="8" t="s">
-        <v>563</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -11332,10 +11332,10 @@
         <v>35</v>
       </c>
       <c r="B36" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="C36" s="8" t="s">
         <v>564</v>
-      </c>
-      <c r="C36" s="8" t="s">
-        <v>565</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -11343,10 +11343,10 @@
         <v>36</v>
       </c>
       <c r="B37" s="7" t="s">
+        <v>565</v>
+      </c>
+      <c r="C37" s="8" t="s">
         <v>566</v>
-      </c>
-      <c r="C37" s="8" t="s">
-        <v>567</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -11354,10 +11354,10 @@
         <v>37</v>
       </c>
       <c r="B38" s="7" t="s">
+        <v>567</v>
+      </c>
+      <c r="C38" s="8" t="s">
         <v>568</v>
-      </c>
-      <c r="C38" s="8" t="s">
-        <v>569</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -11365,10 +11365,10 @@
         <v>38</v>
       </c>
       <c r="B39" s="7" t="s">
+        <v>569</v>
+      </c>
+      <c r="C39" s="8" t="s">
         <v>570</v>
-      </c>
-      <c r="C39" s="8" t="s">
-        <v>571</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -11376,10 +11376,10 @@
         <v>39</v>
       </c>
       <c r="B40" s="7" t="s">
+        <v>571</v>
+      </c>
+      <c r="C40" s="8" t="s">
         <v>572</v>
-      </c>
-      <c r="C40" s="8" t="s">
-        <v>573</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -11387,10 +11387,10 @@
         <v>40</v>
       </c>
       <c r="B41" s="7" t="s">
+        <v>573</v>
+      </c>
+      <c r="C41" s="8" t="s">
         <v>574</v>
-      </c>
-      <c r="C41" s="8" t="s">
-        <v>575</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -11398,10 +11398,10 @@
         <v>41</v>
       </c>
       <c r="B42" s="7" t="s">
+        <v>575</v>
+      </c>
+      <c r="C42" s="8" t="s">
         <v>576</v>
-      </c>
-      <c r="C42" s="8" t="s">
-        <v>577</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -11409,10 +11409,10 @@
         <v>42</v>
       </c>
       <c r="B43" s="7" t="s">
+        <v>577</v>
+      </c>
+      <c r="C43" s="8" t="s">
         <v>578</v>
-      </c>
-      <c r="C43" s="8" t="s">
-        <v>579</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -11420,10 +11420,10 @@
         <v>43</v>
       </c>
       <c r="B44" s="7" t="s">
+        <v>579</v>
+      </c>
+      <c r="C44" s="8" t="s">
         <v>580</v>
-      </c>
-      <c r="C44" s="8" t="s">
-        <v>581</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -11431,10 +11431,10 @@
         <v>44</v>
       </c>
       <c r="B45" s="7" t="s">
+        <v>581</v>
+      </c>
+      <c r="C45" s="8" t="s">
         <v>582</v>
-      </c>
-      <c r="C45" s="8" t="s">
-        <v>583</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -11442,10 +11442,10 @@
         <v>45</v>
       </c>
       <c r="B46" s="7" t="s">
+        <v>583</v>
+      </c>
+      <c r="C46" s="8" t="s">
         <v>584</v>
-      </c>
-      <c r="C46" s="8" t="s">
-        <v>585</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -11453,10 +11453,10 @@
         <v>46</v>
       </c>
       <c r="B47" s="7" t="s">
+        <v>585</v>
+      </c>
+      <c r="C47" s="8" t="s">
         <v>586</v>
-      </c>
-      <c r="C47" s="8" t="s">
-        <v>587</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -11464,10 +11464,10 @@
         <v>47</v>
       </c>
       <c r="B48" s="7" t="s">
+        <v>587</v>
+      </c>
+      <c r="C48" s="8" t="s">
         <v>588</v>
-      </c>
-      <c r="C48" s="8" t="s">
-        <v>589</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -11475,10 +11475,10 @@
         <v>48</v>
       </c>
       <c r="B49" s="7" t="s">
+        <v>589</v>
+      </c>
+      <c r="C49" s="8" t="s">
         <v>590</v>
-      </c>
-      <c r="C49" s="8" t="s">
-        <v>591</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -11486,10 +11486,10 @@
         <v>49</v>
       </c>
       <c r="B50" s="7" t="s">
+        <v>591</v>
+      </c>
+      <c r="C50" s="8" t="s">
         <v>592</v>
-      </c>
-      <c r="C50" s="8" t="s">
-        <v>593</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -11497,10 +11497,10 @@
         <v>50</v>
       </c>
       <c r="B51" s="7" t="s">
+        <v>593</v>
+      </c>
+      <c r="C51" s="8" t="s">
         <v>594</v>
-      </c>
-      <c r="C51" s="8" t="s">
-        <v>595</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -11508,10 +11508,10 @@
         <v>51</v>
       </c>
       <c r="B52" s="7" t="s">
+        <v>595</v>
+      </c>
+      <c r="C52" s="8" t="s">
         <v>596</v>
-      </c>
-      <c r="C52" s="8" t="s">
-        <v>597</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -11519,10 +11519,10 @@
         <v>52</v>
       </c>
       <c r="B53" s="7" t="s">
+        <v>597</v>
+      </c>
+      <c r="C53" s="8" t="s">
         <v>598</v>
-      </c>
-      <c r="C53" s="8" t="s">
-        <v>599</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -11530,7 +11530,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="C54" s="8" t="s">
         <v>369</v>
@@ -11541,10 +11541,10 @@
         <v>54</v>
       </c>
       <c r="B55" s="7" t="s">
+        <v>600</v>
+      </c>
+      <c r="C55" s="8" t="s">
         <v>601</v>
-      </c>
-      <c r="C55" s="8" t="s">
-        <v>602</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -11552,10 +11552,10 @@
         <v>55</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -11620,10 +11620,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
+        <v>604</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>605</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>606</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -11631,10 +11631,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
+        <v>606</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>607</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>608</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -11642,10 +11642,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
+        <v>608</v>
+      </c>
+      <c r="C4" s="8" t="s">
         <v>609</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>610</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -11653,10 +11653,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
+        <v>610</v>
+      </c>
+      <c r="C5" s="8" t="s">
         <v>611</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>612</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="30.6" x14ac:dyDescent="0.3">
@@ -11664,10 +11664,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="7" t="s">
+        <v>612</v>
+      </c>
+      <c r="C6" s="8" t="s">
         <v>613</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>614</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -11675,10 +11675,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="7" t="s">
+        <v>614</v>
+      </c>
+      <c r="C7" s="8" t="s">
         <v>615</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>616</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -11686,10 +11686,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="7" t="s">
+        <v>616</v>
+      </c>
+      <c r="C8" s="8" t="s">
         <v>617</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>618</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -11697,10 +11697,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="7" t="s">
+        <v>618</v>
+      </c>
+      <c r="C9" s="8" t="s">
         <v>619</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>620</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
@@ -11708,10 +11708,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="7" t="s">
+        <v>620</v>
+      </c>
+      <c r="C10" s="8" t="s">
         <v>621</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>622</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -11719,10 +11719,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="7" t="s">
+        <v>622</v>
+      </c>
+      <c r="C11" s="8" t="s">
         <v>623</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>624</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -11730,10 +11730,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="7" t="s">
+        <v>624</v>
+      </c>
+      <c r="C12" s="8" t="s">
         <v>625</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>626</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -11741,10 +11741,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="7" t="s">
+        <v>626</v>
+      </c>
+      <c r="C13" s="8" t="s">
         <v>627</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>628</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -11752,10 +11752,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="7" t="s">
+        <v>628</v>
+      </c>
+      <c r="C14" s="8" t="s">
         <v>629</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>630</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -11763,10 +11763,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="7" t="s">
+        <v>630</v>
+      </c>
+      <c r="C15" s="8" t="s">
         <v>631</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>632</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -11774,10 +11774,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="7" t="s">
+        <v>632</v>
+      </c>
+      <c r="C16" s="8" t="s">
         <v>633</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>634</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -11785,7 +11785,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="C17" s="8" t="s">
         <v>123</v>
@@ -11796,10 +11796,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="7" t="s">
+        <v>635</v>
+      </c>
+      <c r="C18" s="8" t="s">
         <v>636</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>637</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -11807,10 +11807,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="7" t="s">
+        <v>637</v>
+      </c>
+      <c r="C19" s="8" t="s">
         <v>638</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>639</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -11818,10 +11818,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="7" t="s">
+        <v>639</v>
+      </c>
+      <c r="C20" s="8" t="s">
         <v>640</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>641</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -11829,10 +11829,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="7" t="s">
+        <v>641</v>
+      </c>
+      <c r="C21" s="8" t="s">
         <v>642</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>643</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -11840,10 +11840,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="7" t="s">
+        <v>643</v>
+      </c>
+      <c r="C22" s="8" t="s">
         <v>644</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>645</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -11851,10 +11851,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="7" t="s">
+        <v>645</v>
+      </c>
+      <c r="C23" s="8" t="s">
         <v>646</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>647</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -11862,10 +11862,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="7" t="s">
+        <v>647</v>
+      </c>
+      <c r="C24" s="8" t="s">
         <v>648</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>649</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -11873,10 +11873,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="7" t="s">
+        <v>649</v>
+      </c>
+      <c r="C25" s="8" t="s">
         <v>650</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>651</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -11884,10 +11884,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="7" t="s">
+        <v>651</v>
+      </c>
+      <c r="C26" s="8" t="s">
         <v>652</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>653</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -11895,10 +11895,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="7" t="s">
+        <v>653</v>
+      </c>
+      <c r="C27" s="8" t="s">
         <v>654</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>655</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -11906,10 +11906,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="7" t="s">
+        <v>655</v>
+      </c>
+      <c r="C28" s="8" t="s">
         <v>656</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>657</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -11917,10 +11917,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="7" t="s">
+        <v>657</v>
+      </c>
+      <c r="C29" s="8" t="s">
         <v>658</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>659</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -11928,10 +11928,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="7" t="s">
+        <v>659</v>
+      </c>
+      <c r="C30" s="8" t="s">
         <v>660</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>661</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -11939,10 +11939,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="7" t="s">
+        <v>661</v>
+      </c>
+      <c r="C31" s="8" t="s">
         <v>662</v>
-      </c>
-      <c r="C31" s="8" t="s">
-        <v>663</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -11950,10 +11950,10 @@
         <v>31</v>
       </c>
       <c r="B32" s="7" t="s">
+        <v>663</v>
+      </c>
+      <c r="C32" s="8" t="s">
         <v>664</v>
-      </c>
-      <c r="C32" s="8" t="s">
-        <v>665</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -11961,10 +11961,10 @@
         <v>32</v>
       </c>
       <c r="B33" s="7" t="s">
+        <v>665</v>
+      </c>
+      <c r="C33" s="8" t="s">
         <v>666</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>667</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -11972,10 +11972,10 @@
         <v>33</v>
       </c>
       <c r="B34" s="7" t="s">
+        <v>667</v>
+      </c>
+      <c r="C34" s="8" t="s">
         <v>668</v>
-      </c>
-      <c r="C34" s="8" t="s">
-        <v>669</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -11983,10 +11983,10 @@
         <v>34</v>
       </c>
       <c r="B35" s="7" t="s">
+        <v>669</v>
+      </c>
+      <c r="C35" s="8" t="s">
         <v>670</v>
-      </c>
-      <c r="C35" s="8" t="s">
-        <v>671</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -11994,10 +11994,10 @@
         <v>35</v>
       </c>
       <c r="B36" s="7" t="s">
+        <v>671</v>
+      </c>
+      <c r="C36" s="8" t="s">
         <v>672</v>
-      </c>
-      <c r="C36" s="8" t="s">
-        <v>673</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -12005,10 +12005,10 @@
         <v>36</v>
       </c>
       <c r="B37" s="7" t="s">
+        <v>673</v>
+      </c>
+      <c r="C37" s="8" t="s">
         <v>674</v>
-      </c>
-      <c r="C37" s="8" t="s">
-        <v>675</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -12016,10 +12016,10 @@
         <v>37</v>
       </c>
       <c r="B38" s="7" t="s">
+        <v>675</v>
+      </c>
+      <c r="C38" s="8" t="s">
         <v>676</v>
-      </c>
-      <c r="C38" s="8" t="s">
-        <v>677</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -12027,10 +12027,10 @@
         <v>38</v>
       </c>
       <c r="B39" s="7" t="s">
+        <v>677</v>
+      </c>
+      <c r="C39" s="8" t="s">
         <v>678</v>
-      </c>
-      <c r="C39" s="8" t="s">
-        <v>679</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -12038,10 +12038,10 @@
         <v>39</v>
       </c>
       <c r="B40" s="7" t="s">
+        <v>679</v>
+      </c>
+      <c r="C40" s="8" t="s">
         <v>680</v>
-      </c>
-      <c r="C40" s="8" t="s">
-        <v>681</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -12049,10 +12049,10 @@
         <v>40</v>
       </c>
       <c r="B41" s="7" t="s">
+        <v>681</v>
+      </c>
+      <c r="C41" s="8" t="s">
         <v>682</v>
-      </c>
-      <c r="C41" s="8" t="s">
-        <v>683</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="46.8" x14ac:dyDescent="0.3">
@@ -12060,10 +12060,10 @@
         <v>41</v>
       </c>
       <c r="B42" s="7" t="s">
+        <v>683</v>
+      </c>
+      <c r="C42" s="8" t="s">
         <v>684</v>
-      </c>
-      <c r="C42" s="8" t="s">
-        <v>685</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
@@ -12071,10 +12071,10 @@
         <v>42</v>
       </c>
       <c r="B43" s="7" t="s">
+        <v>685</v>
+      </c>
+      <c r="C43" s="8" t="s">
         <v>686</v>
-      </c>
-      <c r="C43" s="8" t="s">
-        <v>687</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -12082,10 +12082,10 @@
         <v>43</v>
       </c>
       <c r="B44" s="7" t="s">
+        <v>687</v>
+      </c>
+      <c r="C44" s="8" t="s">
         <v>688</v>
-      </c>
-      <c r="C44" s="8" t="s">
-        <v>689</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -12093,10 +12093,10 @@
         <v>44</v>
       </c>
       <c r="B45" s="7" t="s">
+        <v>689</v>
+      </c>
+      <c r="C45" s="8" t="s">
         <v>690</v>
-      </c>
-      <c r="C45" s="8" t="s">
-        <v>691</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
@@ -12104,10 +12104,10 @@
         <v>45</v>
       </c>
       <c r="B46" s="7" t="s">
+        <v>691</v>
+      </c>
+      <c r="C46" s="8" t="s">
         <v>692</v>
-      </c>
-      <c r="C46" s="8" t="s">
-        <v>693</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -12115,10 +12115,10 @@
         <v>46</v>
       </c>
       <c r="B47" s="7" t="s">
+        <v>693</v>
+      </c>
+      <c r="C47" s="8" t="s">
         <v>694</v>
-      </c>
-      <c r="C47" s="8" t="s">
-        <v>695</v>
       </c>
     </row>
   </sheetData>
@@ -12155,10 +12155,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="10" t="s">
+        <v>723</v>
+      </c>
+      <c r="C2" s="11" t="s">
         <v>724</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>725</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -12166,10 +12166,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="10" t="s">
+        <v>725</v>
+      </c>
+      <c r="C3" s="11" t="s">
         <v>726</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>727</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -12177,10 +12177,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="10" t="s">
+        <v>727</v>
+      </c>
+      <c r="C4" s="11" t="s">
         <v>728</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>729</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -12188,10 +12188,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="10" t="s">
+        <v>729</v>
+      </c>
+      <c r="C5" s="11" t="s">
         <v>730</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>731</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -12199,10 +12199,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="10" t="s">
+        <v>731</v>
+      </c>
+      <c r="C6" s="11" t="s">
         <v>732</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>733</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -12210,10 +12210,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="10" t="s">
+        <v>733</v>
+      </c>
+      <c r="C7" s="11" t="s">
         <v>734</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>735</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -12221,10 +12221,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="10" t="s">
+        <v>735</v>
+      </c>
+      <c r="C8" s="11" t="s">
         <v>736</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>737</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -12232,10 +12232,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="10" t="s">
+        <v>737</v>
+      </c>
+      <c r="C9" s="11" t="s">
         <v>738</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>739</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -12243,10 +12243,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="10" t="s">
+        <v>739</v>
+      </c>
+      <c r="C10" s="11" t="s">
         <v>740</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>741</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -12254,10 +12254,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="10" t="s">
+        <v>741</v>
+      </c>
+      <c r="C11" s="11" t="s">
         <v>742</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>743</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -12265,10 +12265,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="10" t="s">
+        <v>743</v>
+      </c>
+      <c r="C12" s="11" t="s">
         <v>744</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>745</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -12276,10 +12276,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="10" t="s">
+        <v>745</v>
+      </c>
+      <c r="C13" s="11" t="s">
         <v>746</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>747</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -12287,10 +12287,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="10" t="s">
+        <v>747</v>
+      </c>
+      <c r="C14" s="11" t="s">
         <v>748</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>749</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -12298,10 +12298,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="10" t="s">
+        <v>749</v>
+      </c>
+      <c r="C15" s="11" t="s">
         <v>750</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>751</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -12309,10 +12309,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="10" t="s">
+        <v>751</v>
+      </c>
+      <c r="C16" s="11" t="s">
         <v>752</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>753</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -12320,10 +12320,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="10" t="s">
+        <v>753</v>
+      </c>
+      <c r="C17" s="11" t="s">
         <v>754</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>755</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -12331,10 +12331,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="10" t="s">
+        <v>755</v>
+      </c>
+      <c r="C18" s="11" t="s">
         <v>756</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>757</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -12342,10 +12342,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="10" t="s">
+        <v>757</v>
+      </c>
+      <c r="C19" s="11" t="s">
         <v>758</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>759</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -12353,10 +12353,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="10" t="s">
+        <v>759</v>
+      </c>
+      <c r="C20" s="11" t="s">
         <v>760</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>761</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -12364,10 +12364,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="10" t="s">
+        <v>761</v>
+      </c>
+      <c r="C21" s="11" t="s">
         <v>762</v>
-      </c>
-      <c r="C21" s="11" t="s">
-        <v>763</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -12375,10 +12375,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="10" t="s">
+        <v>763</v>
+      </c>
+      <c r="C22" s="11" t="s">
         <v>764</v>
-      </c>
-      <c r="C22" s="11" t="s">
-        <v>765</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -12386,10 +12386,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="10" t="s">
+        <v>765</v>
+      </c>
+      <c r="C23" s="11" t="s">
         <v>766</v>
-      </c>
-      <c r="C23" s="11" t="s">
-        <v>767</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -12397,10 +12397,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="10" t="s">
+        <v>767</v>
+      </c>
+      <c r="C24" s="11" t="s">
         <v>768</v>
-      </c>
-      <c r="C24" s="11" t="s">
-        <v>769</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -12408,10 +12408,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="10" t="s">
+        <v>769</v>
+      </c>
+      <c r="C25" s="11" t="s">
         <v>770</v>
-      </c>
-      <c r="C25" s="11" t="s">
-        <v>771</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -12419,10 +12419,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="10" t="s">
+        <v>771</v>
+      </c>
+      <c r="C26" s="11" t="s">
         <v>772</v>
-      </c>
-      <c r="C26" s="11" t="s">
-        <v>773</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -12430,10 +12430,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="10" t="s">
+        <v>773</v>
+      </c>
+      <c r="C27" s="11" t="s">
         <v>774</v>
-      </c>
-      <c r="C27" s="11" t="s">
-        <v>775</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -12441,10 +12441,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="10" t="s">
+        <v>775</v>
+      </c>
+      <c r="C28" s="11" t="s">
         <v>776</v>
-      </c>
-      <c r="C28" s="11" t="s">
-        <v>777</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -12452,10 +12452,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="10" t="s">
+        <v>777</v>
+      </c>
+      <c r="C29" s="11" t="s">
         <v>778</v>
-      </c>
-      <c r="C29" s="11" t="s">
-        <v>779</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -12463,10 +12463,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="10" t="s">
+        <v>779</v>
+      </c>
+      <c r="C30" s="11" t="s">
         <v>780</v>
-      </c>
-      <c r="C30" s="11" t="s">
-        <v>781</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -12474,10 +12474,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="10" t="s">
+        <v>781</v>
+      </c>
+      <c r="C31" s="11" t="s">
         <v>782</v>
-      </c>
-      <c r="C31" s="11" t="s">
-        <v>783</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -12485,10 +12485,10 @@
         <v>31</v>
       </c>
       <c r="B32" s="10" t="s">
+        <v>783</v>
+      </c>
+      <c r="C32" s="11" t="s">
         <v>784</v>
-      </c>
-      <c r="C32" s="11" t="s">
-        <v>785</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -12496,10 +12496,10 @@
         <v>32</v>
       </c>
       <c r="B33" s="10" t="s">
+        <v>785</v>
+      </c>
+      <c r="C33" s="11" t="s">
         <v>786</v>
-      </c>
-      <c r="C33" s="11" t="s">
-        <v>787</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -12507,10 +12507,10 @@
         <v>33</v>
       </c>
       <c r="B34" s="10" t="s">
+        <v>787</v>
+      </c>
+      <c r="C34" s="11" t="s">
         <v>788</v>
-      </c>
-      <c r="C34" s="11" t="s">
-        <v>789</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -12518,10 +12518,10 @@
         <v>34</v>
       </c>
       <c r="B35" s="10" t="s">
+        <v>789</v>
+      </c>
+      <c r="C35" s="11" t="s">
         <v>790</v>
-      </c>
-      <c r="C35" s="11" t="s">
-        <v>791</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -12529,10 +12529,10 @@
         <v>35</v>
       </c>
       <c r="B36" s="10" t="s">
+        <v>791</v>
+      </c>
+      <c r="C36" s="11" t="s">
         <v>792</v>
-      </c>
-      <c r="C36" s="11" t="s">
-        <v>793</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -12540,10 +12540,10 @@
         <v>36</v>
       </c>
       <c r="B37" s="10" t="s">
+        <v>793</v>
+      </c>
+      <c r="C37" s="11" t="s">
         <v>794</v>
-      </c>
-      <c r="C37" s="11" t="s">
-        <v>795</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -12551,10 +12551,10 @@
         <v>37</v>
       </c>
       <c r="B38" s="10" t="s">
+        <v>795</v>
+      </c>
+      <c r="C38" s="11" t="s">
         <v>796</v>
-      </c>
-      <c r="C38" s="11" t="s">
-        <v>797</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -12562,10 +12562,10 @@
         <v>38</v>
       </c>
       <c r="B39" s="10" t="s">
+        <v>797</v>
+      </c>
+      <c r="C39" s="11" t="s">
         <v>798</v>
-      </c>
-      <c r="C39" s="11" t="s">
-        <v>799</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -12573,10 +12573,10 @@
         <v>39</v>
       </c>
       <c r="B40" s="10" t="s">
+        <v>799</v>
+      </c>
+      <c r="C40" s="11" t="s">
         <v>800</v>
-      </c>
-      <c r="C40" s="11" t="s">
-        <v>801</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -12584,10 +12584,10 @@
         <v>40</v>
       </c>
       <c r="B41" s="10" t="s">
+        <v>801</v>
+      </c>
+      <c r="C41" s="11" t="s">
         <v>802</v>
-      </c>
-      <c r="C41" s="11" t="s">
-        <v>803</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -12595,10 +12595,10 @@
         <v>41</v>
       </c>
       <c r="B42" s="10" t="s">
+        <v>803</v>
+      </c>
+      <c r="C42" s="11" t="s">
         <v>804</v>
-      </c>
-      <c r="C42" s="11" t="s">
-        <v>805</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -12606,10 +12606,10 @@
         <v>42</v>
       </c>
       <c r="B43" s="10" t="s">
+        <v>805</v>
+      </c>
+      <c r="C43" s="11" t="s">
         <v>806</v>
-      </c>
-      <c r="C43" s="11" t="s">
-        <v>807</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -12617,10 +12617,10 @@
         <v>43</v>
       </c>
       <c r="B44" s="10" t="s">
+        <v>807</v>
+      </c>
+      <c r="C44" s="11" t="s">
         <v>808</v>
-      </c>
-      <c r="C44" s="11" t="s">
-        <v>809</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -12628,10 +12628,10 @@
         <v>44</v>
       </c>
       <c r="B45" s="10" t="s">
+        <v>809</v>
+      </c>
+      <c r="C45" s="11" t="s">
         <v>810</v>
-      </c>
-      <c r="C45" s="11" t="s">
-        <v>811</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -12639,10 +12639,10 @@
         <v>45</v>
       </c>
       <c r="B46" s="10" t="s">
+        <v>811</v>
+      </c>
+      <c r="C46" s="11" t="s">
         <v>812</v>
-      </c>
-      <c r="C46" s="11" t="s">
-        <v>813</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -12650,10 +12650,10 @@
         <v>46</v>
       </c>
       <c r="B47" s="10" t="s">
+        <v>813</v>
+      </c>
+      <c r="C47" s="11" t="s">
         <v>814</v>
-      </c>
-      <c r="C47" s="11" t="s">
-        <v>815</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -12661,10 +12661,10 @@
         <v>47</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -12672,10 +12672,10 @@
         <v>48</v>
       </c>
       <c r="B49" s="10" t="s">
+        <v>816</v>
+      </c>
+      <c r="C49" s="11" t="s">
         <v>817</v>
-      </c>
-      <c r="C49" s="11" t="s">
-        <v>818</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -12683,10 +12683,10 @@
         <v>49</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -12694,10 +12694,10 @@
         <v>50</v>
       </c>
       <c r="B51" s="10" t="s">
+        <v>819</v>
+      </c>
+      <c r="C51" s="11" t="s">
         <v>820</v>
-      </c>
-      <c r="C51" s="11" t="s">
-        <v>821</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -12705,10 +12705,10 @@
         <v>51</v>
       </c>
       <c r="B52" s="10" t="s">
+        <v>821</v>
+      </c>
+      <c r="C52" s="11" t="s">
         <v>822</v>
-      </c>
-      <c r="C52" s="11" t="s">
-        <v>823</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -12716,10 +12716,10 @@
         <v>52</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="C53" s="11" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -12727,10 +12727,10 @@
         <v>53</v>
       </c>
       <c r="B54" s="10" t="s">
+        <v>824</v>
+      </c>
+      <c r="C54" s="11" t="s">
         <v>825</v>
-      </c>
-      <c r="C54" s="11" t="s">
-        <v>826</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -12741,7 +12741,7 @@
         <v>39</v>
       </c>
       <c r="C55" s="11" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -12749,10 +12749,10 @@
         <v>55</v>
       </c>
       <c r="B56" s="10" t="s">
+        <v>827</v>
+      </c>
+      <c r="C56" s="11" t="s">
         <v>828</v>
-      </c>
-      <c r="C56" s="11" t="s">
-        <v>829</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -12760,10 +12760,10 @@
         <v>56</v>
       </c>
       <c r="B57" s="10" t="s">
+        <v>829</v>
+      </c>
+      <c r="C57" s="11" t="s">
         <v>830</v>
-      </c>
-      <c r="C57" s="11" t="s">
-        <v>831</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -12771,10 +12771,10 @@
         <v>57</v>
       </c>
       <c r="B58" s="10" t="s">
+        <v>831</v>
+      </c>
+      <c r="C58" s="11" t="s">
         <v>832</v>
-      </c>
-      <c r="C58" s="11" t="s">
-        <v>833</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -12782,10 +12782,10 @@
         <v>58</v>
       </c>
       <c r="B59" s="10" t="s">
+        <v>833</v>
+      </c>
+      <c r="C59" s="11" t="s">
         <v>834</v>
-      </c>
-      <c r="C59" s="11" t="s">
-        <v>835</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -12793,10 +12793,10 @@
         <v>59</v>
       </c>
       <c r="B60" s="10" t="s">
+        <v>835</v>
+      </c>
+      <c r="C60" s="11" t="s">
         <v>836</v>
-      </c>
-      <c r="C60" s="11" t="s">
-        <v>837</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -12804,10 +12804,10 @@
         <v>60</v>
       </c>
       <c r="B61" s="10" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="C61" s="11" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
     </row>
   </sheetData>
@@ -12843,10 +12843,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
+        <v>1147</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>1148</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>1149</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -12854,10 +12854,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
+        <v>1149</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>1150</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>1151</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -12865,10 +12865,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
+        <v>1151</v>
+      </c>
+      <c r="C4" s="8" t="s">
         <v>1152</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>1153</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -12876,10 +12876,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
+        <v>1153</v>
+      </c>
+      <c r="C5" s="8" t="s">
         <v>1154</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>1155</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -12887,10 +12887,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="7" t="s">
+        <v>1155</v>
+      </c>
+      <c r="C6" s="8" t="s">
         <v>1156</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>1157</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -12898,10 +12898,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="7" t="s">
+        <v>1157</v>
+      </c>
+      <c r="C7" s="8" t="s">
         <v>1158</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>1159</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -12909,10 +12909,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="7" t="s">
+        <v>1159</v>
+      </c>
+      <c r="C8" s="8" t="s">
         <v>1160</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>1161</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -12920,10 +12920,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="7" t="s">
+        <v>1161</v>
+      </c>
+      <c r="C9" s="8" t="s">
         <v>1162</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>1163</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -12931,10 +12931,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="7" t="s">
+        <v>1163</v>
+      </c>
+      <c r="C10" s="8" t="s">
         <v>1164</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>1165</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -12942,10 +12942,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="7" t="s">
+        <v>1165</v>
+      </c>
+      <c r="C11" s="8" t="s">
         <v>1166</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>1167</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -12953,10 +12953,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="7" t="s">
+        <v>1167</v>
+      </c>
+      <c r="C12" s="8" t="s">
         <v>1168</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>1169</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -12964,10 +12964,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="7" t="s">
+        <v>1169</v>
+      </c>
+      <c r="C13" s="8" t="s">
         <v>1170</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>1171</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -12975,10 +12975,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="7" t="s">
+        <v>1171</v>
+      </c>
+      <c r="C14" s="8" t="s">
         <v>1172</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>1173</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -12986,10 +12986,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="7" t="s">
+        <v>1173</v>
+      </c>
+      <c r="C15" s="8" t="s">
         <v>1174</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>1175</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -12997,10 +12997,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="7" t="s">
+        <v>1175</v>
+      </c>
+      <c r="C16" s="8" t="s">
         <v>1176</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>1177</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -13008,10 +13008,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="7" t="s">
+        <v>1177</v>
+      </c>
+      <c r="C17" s="8" t="s">
         <v>1178</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>1179</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -13019,10 +13019,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="7" t="s">
+        <v>1179</v>
+      </c>
+      <c r="C18" s="8" t="s">
         <v>1180</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>1181</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -13030,10 +13030,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="7" t="s">
+        <v>1181</v>
+      </c>
+      <c r="C19" s="8" t="s">
         <v>1182</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>1183</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -13041,10 +13041,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="7" t="s">
+        <v>1183</v>
+      </c>
+      <c r="C20" s="8" t="s">
         <v>1184</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>1185</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -13052,10 +13052,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -13063,10 +13063,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -13074,10 +13074,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="7" t="s">
+        <v>1187</v>
+      </c>
+      <c r="C23" s="8" t="s">
         <v>1188</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>1189</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -13085,10 +13085,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="7" t="s">
+        <v>1189</v>
+      </c>
+      <c r="C24" s="8" t="s">
         <v>1190</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>1191</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -13096,10 +13096,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="7" t="s">
+        <v>1191</v>
+      </c>
+      <c r="C25" s="8" t="s">
         <v>1192</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>1193</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -13107,10 +13107,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="7" t="s">
+        <v>1193</v>
+      </c>
+      <c r="C26" s="8" t="s">
         <v>1194</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>1195</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -13118,10 +13118,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="7" t="s">
+        <v>1195</v>
+      </c>
+      <c r="C27" s="8" t="s">
         <v>1196</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>1197</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -13129,10 +13129,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="7" t="s">
+        <v>1197</v>
+      </c>
+      <c r="C28" s="8" t="s">
         <v>1198</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>1199</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -13140,10 +13140,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="7" t="s">
+        <v>1199</v>
+      </c>
+      <c r="C29" s="8" t="s">
         <v>1200</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>1201</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -13151,10 +13151,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="7" t="s">
+        <v>1201</v>
+      </c>
+      <c r="C30" s="8" t="s">
         <v>1202</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>1203</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -13162,10 +13162,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="7" t="s">
+        <v>1203</v>
+      </c>
+      <c r="C31" s="8" t="s">
         <v>1204</v>
-      </c>
-      <c r="C31" s="8" t="s">
-        <v>1205</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -13173,10 +13173,10 @@
         <v>31</v>
       </c>
       <c r="B32" s="7" t="s">
+        <v>1205</v>
+      </c>
+      <c r="C32" s="8" t="s">
         <v>1206</v>
-      </c>
-      <c r="C32" s="8" t="s">
-        <v>1207</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -13184,10 +13184,10 @@
         <v>32</v>
       </c>
       <c r="B33" s="7" t="s">
+        <v>1207</v>
+      </c>
+      <c r="C33" s="8" t="s">
         <v>1208</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>1209</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -13195,10 +13195,10 @@
         <v>33</v>
       </c>
       <c r="B34" s="7" t="s">
+        <v>1209</v>
+      </c>
+      <c r="C34" s="8" t="s">
         <v>1210</v>
-      </c>
-      <c r="C34" s="8" t="s">
-        <v>1211</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -13206,10 +13206,10 @@
         <v>34</v>
       </c>
       <c r="B35" s="7" t="s">
+        <v>1211</v>
+      </c>
+      <c r="C35" s="8" t="s">
         <v>1212</v>
-      </c>
-      <c r="C35" s="8" t="s">
-        <v>1213</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -13217,10 +13217,10 @@
         <v>35</v>
       </c>
       <c r="B36" s="7" t="s">
+        <v>1213</v>
+      </c>
+      <c r="C36" s="8" t="s">
         <v>1214</v>
-      </c>
-      <c r="C36" s="8" t="s">
-        <v>1215</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -13228,10 +13228,10 @@
         <v>36</v>
       </c>
       <c r="B37" s="7" t="s">
+        <v>1215</v>
+      </c>
+      <c r="C37" s="8" t="s">
         <v>1216</v>
-      </c>
-      <c r="C37" s="8" t="s">
-        <v>1217</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -13239,10 +13239,10 @@
         <v>37</v>
       </c>
       <c r="B38" s="7" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C38" s="8" t="s">
         <v>1218</v>
-      </c>
-      <c r="C38" s="8" t="s">
-        <v>1219</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -13250,10 +13250,10 @@
         <v>38</v>
       </c>
       <c r="B39" s="7" t="s">
+        <v>1219</v>
+      </c>
+      <c r="C39" s="8" t="s">
         <v>1220</v>
-      </c>
-      <c r="C39" s="8" t="s">
-        <v>1221</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -13261,10 +13261,10 @@
         <v>39</v>
       </c>
       <c r="B40" s="7" t="s">
+        <v>1221</v>
+      </c>
+      <c r="C40" s="8" t="s">
         <v>1222</v>
-      </c>
-      <c r="C40" s="8" t="s">
-        <v>1223</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -13272,10 +13272,10 @@
         <v>40</v>
       </c>
       <c r="B41" s="7" t="s">
+        <v>1223</v>
+      </c>
+      <c r="C41" s="8" t="s">
         <v>1224</v>
-      </c>
-      <c r="C41" s="8" t="s">
-        <v>1225</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -13283,10 +13283,10 @@
         <v>41</v>
       </c>
       <c r="B42" s="7" t="s">
+        <v>1225</v>
+      </c>
+      <c r="C42" s="8" t="s">
         <v>1226</v>
-      </c>
-      <c r="C42" s="8" t="s">
-        <v>1227</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -13294,10 +13294,10 @@
         <v>42</v>
       </c>
       <c r="B43" s="7" t="s">
+        <v>1227</v>
+      </c>
+      <c r="C43" s="8" t="s">
         <v>1228</v>
-      </c>
-      <c r="C43" s="8" t="s">
-        <v>1229</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -13308,7 +13308,7 @@
         <v>349</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -13316,10 +13316,10 @@
         <v>44</v>
       </c>
       <c r="B45" s="7" t="s">
+        <v>1230</v>
+      </c>
+      <c r="C45" s="8" t="s">
         <v>1231</v>
-      </c>
-      <c r="C45" s="8" t="s">
-        <v>1232</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -13327,10 +13327,10 @@
         <v>45</v>
       </c>
       <c r="B46" s="7" t="s">
+        <v>1232</v>
+      </c>
+      <c r="C46" s="8" t="s">
         <v>1233</v>
-      </c>
-      <c r="C46" s="8" t="s">
-        <v>1234</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -13338,10 +13338,10 @@
         <v>46</v>
       </c>
       <c r="B47" s="7" t="s">
+        <v>1234</v>
+      </c>
+      <c r="C47" s="8" t="s">
         <v>1235</v>
-      </c>
-      <c r="C47" s="8" t="s">
-        <v>1236</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -13349,10 +13349,10 @@
         <v>47</v>
       </c>
       <c r="B48" s="7" t="s">
+        <v>1236</v>
+      </c>
+      <c r="C48" s="8" t="s">
         <v>1237</v>
-      </c>
-      <c r="C48" s="8" t="s">
-        <v>1238</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -13360,10 +13360,10 @@
         <v>48</v>
       </c>
       <c r="B49" s="7" t="s">
+        <v>1238</v>
+      </c>
+      <c r="C49" s="8" t="s">
         <v>1239</v>
-      </c>
-      <c r="C49" s="8" t="s">
-        <v>1240</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -13371,10 +13371,10 @@
         <v>49</v>
       </c>
       <c r="B50" s="7" t="s">
+        <v>1240</v>
+      </c>
+      <c r="C50" s="8" t="s">
         <v>1241</v>
-      </c>
-      <c r="C50" s="8" t="s">
-        <v>1242</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -13382,10 +13382,10 @@
         <v>50</v>
       </c>
       <c r="B51" s="7" t="s">
+        <v>1242</v>
+      </c>
+      <c r="C51" s="8" t="s">
         <v>1243</v>
-      </c>
-      <c r="C51" s="8" t="s">
-        <v>1244</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -13393,10 +13393,10 @@
         <v>51</v>
       </c>
       <c r="B52" s="7" t="s">
+        <v>1244</v>
+      </c>
+      <c r="C52" s="8" t="s">
         <v>1245</v>
-      </c>
-      <c r="C52" s="8" t="s">
-        <v>1246</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -13404,10 +13404,10 @@
         <v>52</v>
       </c>
       <c r="B53" s="7" t="s">
+        <v>1246</v>
+      </c>
+      <c r="C53" s="8" t="s">
         <v>1247</v>
-      </c>
-      <c r="C53" s="8" t="s">
-        <v>1248</v>
       </c>
     </row>
   </sheetData>

--- a/1.xlsx
+++ b/1.xlsx
@@ -890,9 +890,6 @@
     <t>စာကြည့်တိုက်</t>
   </si>
   <si>
-    <t>びしゅつかん</t>
-  </si>
-  <si>
     <t>အနုပညာပြတိုက်</t>
   </si>
   <si>
@@ -4305,6 +4302,9 @@
   </si>
   <si>
     <t>やまとびじゅつかん</t>
+  </si>
+  <si>
+    <t>びじゅつかん</t>
   </si>
 </sst>
 </file>
@@ -5210,7 +5210,7 @@
         <v>55</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -5334,10 +5334,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -5345,10 +5345,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
+        <v>1248</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>1249</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>1250</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -5356,10 +5356,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
+        <v>1250</v>
+      </c>
+      <c r="C4" s="8" t="s">
         <v>1251</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>1252</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -5367,10 +5367,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
+        <v>1252</v>
+      </c>
+      <c r="C5" s="8" t="s">
         <v>1253</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>1254</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -5378,10 +5378,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="7" t="s">
+        <v>1254</v>
+      </c>
+      <c r="C6" s="8" t="s">
         <v>1255</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>1256</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -5389,10 +5389,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="7" t="s">
+        <v>1256</v>
+      </c>
+      <c r="C7" s="8" t="s">
         <v>1257</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>1258</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -5400,10 +5400,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="7" t="s">
+        <v>1258</v>
+      </c>
+      <c r="C8" s="8" t="s">
         <v>1259</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>1260</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -5411,10 +5411,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="7" t="s">
+        <v>1260</v>
+      </c>
+      <c r="C9" s="8" t="s">
         <v>1261</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>1262</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -5422,10 +5422,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="7" t="s">
+        <v>1262</v>
+      </c>
+      <c r="C10" s="8" t="s">
         <v>1263</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>1264</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -5433,10 +5433,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="7" t="s">
+        <v>1264</v>
+      </c>
+      <c r="C11" s="8" t="s">
         <v>1265</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>1266</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -5444,10 +5444,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="7" t="s">
+        <v>1266</v>
+      </c>
+      <c r="C12" s="8" t="s">
         <v>1267</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>1268</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -5455,10 +5455,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -5466,10 +5466,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="7" t="s">
+        <v>1269</v>
+      </c>
+      <c r="C14" s="8" t="s">
         <v>1270</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>1271</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -5477,10 +5477,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="7" t="s">
+        <v>1271</v>
+      </c>
+      <c r="C15" s="8" t="s">
         <v>1272</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>1273</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -5488,10 +5488,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="7" t="s">
+        <v>1273</v>
+      </c>
+      <c r="C16" s="8" t="s">
         <v>1274</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>1275</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -5499,10 +5499,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="7" t="s">
+        <v>1275</v>
+      </c>
+      <c r="C17" s="8" t="s">
         <v>1276</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>1277</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -5510,10 +5510,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="7" t="s">
+        <v>1277</v>
+      </c>
+      <c r="C18" s="8" t="s">
         <v>1278</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>1279</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -5521,10 +5521,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="7" t="s">
+        <v>1279</v>
+      </c>
+      <c r="C19" s="8" t="s">
         <v>1280</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>1281</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -5532,10 +5532,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="7" t="s">
+        <v>1281</v>
+      </c>
+      <c r="C20" s="8" t="s">
         <v>1282</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>1283</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -5543,10 +5543,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="7" t="s">
+        <v>1283</v>
+      </c>
+      <c r="C21" s="8" t="s">
         <v>1284</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>1285</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -5554,10 +5554,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="7" t="s">
+        <v>1285</v>
+      </c>
+      <c r="C22" s="8" t="s">
         <v>1286</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>1287</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -5565,10 +5565,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="7" t="s">
+        <v>1287</v>
+      </c>
+      <c r="C23" s="8" t="s">
         <v>1288</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>1289</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -5576,10 +5576,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="7" t="s">
+        <v>1289</v>
+      </c>
+      <c r="C24" s="8" t="s">
         <v>1290</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>1291</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -5587,10 +5587,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="7" t="s">
+        <v>1291</v>
+      </c>
+      <c r="C25" s="8" t="s">
         <v>1292</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>1293</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -5598,10 +5598,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="7" t="s">
+        <v>1293</v>
+      </c>
+      <c r="C26" s="8" t="s">
         <v>1294</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>1295</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -5609,10 +5609,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="7" t="s">
+        <v>1295</v>
+      </c>
+      <c r="C27" s="8" t="s">
         <v>1296</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>1297</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -5620,10 +5620,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="7" t="s">
+        <v>1297</v>
+      </c>
+      <c r="C28" s="8" t="s">
         <v>1298</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>1299</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -5631,10 +5631,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="7" t="s">
+        <v>1299</v>
+      </c>
+      <c r="C29" s="8" t="s">
         <v>1300</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>1301</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -5642,10 +5642,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="7" t="s">
+        <v>1301</v>
+      </c>
+      <c r="C30" s="8" t="s">
         <v>1302</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>1303</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -5653,10 +5653,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="7" t="s">
+        <v>1303</v>
+      </c>
+      <c r="C31" s="8" t="s">
         <v>1304</v>
-      </c>
-      <c r="C31" s="8" t="s">
-        <v>1305</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -5664,10 +5664,10 @@
         <v>31</v>
       </c>
       <c r="B32" s="7" t="s">
+        <v>1305</v>
+      </c>
+      <c r="C32" s="8" t="s">
         <v>1306</v>
-      </c>
-      <c r="C32" s="8" t="s">
-        <v>1307</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -5675,10 +5675,10 @@
         <v>32</v>
       </c>
       <c r="B33" s="7" t="s">
+        <v>1307</v>
+      </c>
+      <c r="C33" s="8" t="s">
         <v>1308</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>1309</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -5686,10 +5686,10 @@
         <v>33</v>
       </c>
       <c r="B34" s="7" t="s">
+        <v>1309</v>
+      </c>
+      <c r="C34" s="8" t="s">
         <v>1310</v>
-      </c>
-      <c r="C34" s="8" t="s">
-        <v>1311</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -5697,10 +5697,10 @@
         <v>34</v>
       </c>
       <c r="B35" s="7" t="s">
+        <v>1311</v>
+      </c>
+      <c r="C35" s="8" t="s">
         <v>1312</v>
-      </c>
-      <c r="C35" s="8" t="s">
-        <v>1313</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -5708,10 +5708,10 @@
         <v>35</v>
       </c>
       <c r="B36" s="7" t="s">
+        <v>1313</v>
+      </c>
+      <c r="C36" s="8" t="s">
         <v>1314</v>
-      </c>
-      <c r="C36" s="8" t="s">
-        <v>1315</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -5719,10 +5719,10 @@
         <v>36</v>
       </c>
       <c r="B37" s="7" t="s">
+        <v>1315</v>
+      </c>
+      <c r="C37" s="8" t="s">
         <v>1316</v>
-      </c>
-      <c r="C37" s="8" t="s">
-        <v>1317</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -5730,10 +5730,10 @@
         <v>37</v>
       </c>
       <c r="B38" s="7" t="s">
+        <v>1317</v>
+      </c>
+      <c r="C38" s="8" t="s">
         <v>1318</v>
-      </c>
-      <c r="C38" s="8" t="s">
-        <v>1319</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -5741,10 +5741,10 @@
         <v>38</v>
       </c>
       <c r="B39" s="7" t="s">
+        <v>1319</v>
+      </c>
+      <c r="C39" s="8" t="s">
         <v>1320</v>
-      </c>
-      <c r="C39" s="8" t="s">
-        <v>1321</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -5752,10 +5752,10 @@
         <v>39</v>
       </c>
       <c r="B40" s="7" t="s">
+        <v>1321</v>
+      </c>
+      <c r="C40" s="8" t="s">
         <v>1322</v>
-      </c>
-      <c r="C40" s="8" t="s">
-        <v>1323</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -5763,10 +5763,10 @@
         <v>40</v>
       </c>
       <c r="B41" s="7" t="s">
+        <v>1323</v>
+      </c>
+      <c r="C41" s="8" t="s">
         <v>1324</v>
-      </c>
-      <c r="C41" s="8" t="s">
-        <v>1325</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -5774,10 +5774,10 @@
         <v>41</v>
       </c>
       <c r="B42" s="7" t="s">
+        <v>1325</v>
+      </c>
+      <c r="C42" s="8" t="s">
         <v>1326</v>
-      </c>
-      <c r="C42" s="8" t="s">
-        <v>1327</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -5785,10 +5785,10 @@
         <v>42</v>
       </c>
       <c r="B43" s="7" t="s">
+        <v>1327</v>
+      </c>
+      <c r="C43" s="8" t="s">
         <v>1328</v>
-      </c>
-      <c r="C43" s="8" t="s">
-        <v>1329</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -5796,10 +5796,10 @@
         <v>43</v>
       </c>
       <c r="B44" s="7" t="s">
+        <v>1329</v>
+      </c>
+      <c r="C44" s="8" t="s">
         <v>1330</v>
-      </c>
-      <c r="C44" s="8" t="s">
-        <v>1331</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -5807,10 +5807,10 @@
         <v>44</v>
       </c>
       <c r="B45" s="7" t="s">
+        <v>1331</v>
+      </c>
+      <c r="C45" s="8" t="s">
         <v>1332</v>
-      </c>
-      <c r="C45" s="8" t="s">
-        <v>1333</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -5818,10 +5818,10 @@
         <v>45</v>
       </c>
       <c r="B46" s="7" t="s">
+        <v>1333</v>
+      </c>
+      <c r="C46" s="8" t="s">
         <v>1334</v>
-      </c>
-      <c r="C46" s="8" t="s">
-        <v>1335</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -5829,10 +5829,10 @@
         <v>46</v>
       </c>
       <c r="B47" s="7" t="s">
+        <v>1335</v>
+      </c>
+      <c r="C47" s="8" t="s">
         <v>1336</v>
-      </c>
-      <c r="C47" s="8" t="s">
-        <v>1337</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -5840,10 +5840,10 @@
         <v>47</v>
       </c>
       <c r="B48" s="7" t="s">
+        <v>1337</v>
+      </c>
+      <c r="C48" s="8" t="s">
         <v>1338</v>
-      </c>
-      <c r="C48" s="8" t="s">
-        <v>1339</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -5851,10 +5851,10 @@
         <v>48</v>
       </c>
       <c r="B49" s="7" t="s">
+        <v>1339</v>
+      </c>
+      <c r="C49" s="8" t="s">
         <v>1340</v>
-      </c>
-      <c r="C49" s="8" t="s">
-        <v>1341</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -5862,10 +5862,10 @@
         <v>49</v>
       </c>
       <c r="B50" s="7" t="s">
+        <v>1341</v>
+      </c>
+      <c r="C50" s="8" t="s">
         <v>1342</v>
-      </c>
-      <c r="C50" s="8" t="s">
-        <v>1343</v>
       </c>
     </row>
   </sheetData>
@@ -5968,10 +5968,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="C8" s="8" t="s">
         <v>375</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -5979,10 +5979,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="C9" s="8" t="s">
         <v>377</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -5990,10 +5990,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="C10" s="8" t="s">
         <v>379</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>380</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -6001,10 +6001,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="7" t="s">
+        <v>495</v>
+      </c>
+      <c r="C11" s="8" t="s">
         <v>496</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>497</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -6012,10 +6012,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="7" t="s">
+        <v>497</v>
+      </c>
+      <c r="C12" s="8" t="s">
         <v>498</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>499</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -6023,10 +6023,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="C13" s="8" t="s">
         <v>500</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>501</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -6034,10 +6034,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="7" t="s">
+        <v>501</v>
+      </c>
+      <c r="C14" s="8" t="s">
         <v>502</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>503</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -6045,10 +6045,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="7" t="s">
+        <v>503</v>
+      </c>
+      <c r="C15" s="8" t="s">
         <v>504</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>505</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -6056,10 +6056,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="7" t="s">
+        <v>505</v>
+      </c>
+      <c r="C16" s="8" t="s">
         <v>506</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>507</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -6067,10 +6067,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="7" t="s">
+        <v>507</v>
+      </c>
+      <c r="C17" s="8" t="s">
         <v>508</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>509</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -6078,10 +6078,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="7" t="s">
+        <v>509</v>
+      </c>
+      <c r="C18" s="8" t="s">
         <v>510</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>511</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
@@ -6089,10 +6089,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="7" t="s">
+        <v>511</v>
+      </c>
+      <c r="C19" s="8" t="s">
         <v>512</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>513</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -6100,10 +6100,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="7" t="s">
+        <v>513</v>
+      </c>
+      <c r="C20" s="8" t="s">
         <v>514</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>515</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
@@ -6111,10 +6111,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -6122,10 +6122,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="7" t="s">
+        <v>603</v>
+      </c>
+      <c r="C22" s="8" t="s">
         <v>604</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>605</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -6133,10 +6133,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="7" t="s">
+        <v>605</v>
+      </c>
+      <c r="C23" s="8" t="s">
         <v>606</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>607</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -6144,10 +6144,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="7" t="s">
+        <v>607</v>
+      </c>
+      <c r="C24" s="8" t="s">
         <v>608</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>609</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -6155,10 +6155,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="7" t="s">
+        <v>609</v>
+      </c>
+      <c r="C25" s="8" t="s">
         <v>610</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>611</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -6166,10 +6166,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="7" t="s">
+        <v>611</v>
+      </c>
+      <c r="C26" s="8" t="s">
         <v>612</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>613</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -6177,10 +6177,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="7" t="s">
+        <v>613</v>
+      </c>
+      <c r="C27" s="8" t="s">
         <v>614</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>615</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -6188,10 +6188,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="7" t="s">
+        <v>615</v>
+      </c>
+      <c r="C28" s="8" t="s">
         <v>616</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>617</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -6199,10 +6199,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="7" t="s">
+        <v>617</v>
+      </c>
+      <c r="C29" s="8" t="s">
         <v>618</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>619</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -6210,10 +6210,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="7" t="s">
+        <v>619</v>
+      </c>
+      <c r="C30" s="8" t="s">
         <v>620</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>621</v>
       </c>
     </row>
   </sheetData>
@@ -6237,27 +6237,27 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="15" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="15" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="15" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="15" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="15" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="B6" s="16"/>
       <c r="C6" s="17"/>
@@ -6265,42 +6265,42 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="15" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="15" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="15" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="15" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="15" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="15" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="15" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="15" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="B18"/>
       <c r="C18"/>
@@ -6308,7 +6308,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="15" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B19"/>
       <c r="C19"/>
@@ -6316,7 +6316,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="15" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="B20"/>
       <c r="C20"/>
@@ -6329,7 +6329,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="15" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="B22"/>
       <c r="C22"/>
@@ -6342,7 +6342,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="15" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B24" s="21"/>
       <c r="C24" s="20"/>
@@ -6350,7 +6350,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="15" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="B25"/>
       <c r="C25"/>
@@ -6363,72 +6363,72 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="15" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="15" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="15" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="15" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" s="15" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" s="15" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" s="15" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" s="15" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" s="15" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" s="15" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42" s="15" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" s="15" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A44" s="15" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A45" s="15" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
   </sheetData>
@@ -6453,27 +6453,27 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="15" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="15" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="15" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="15" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="15" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -6483,22 +6483,22 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="15" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="15" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="15" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="15" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.3">
@@ -6567,27 +6567,27 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="23" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="23" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="23" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="23" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="23" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="B8" s="31"/>
       <c r="C8" s="32"/>
@@ -6658,7 +6658,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="15" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
@@ -6666,7 +6666,7 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="15" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
@@ -6674,47 +6674,47 @@
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="23" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" s="15" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" s="15" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" s="15" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" s="15" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" s="15" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" s="15" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" s="15" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.3">
@@ -6722,7 +6722,7 @@
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="15" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
@@ -6730,67 +6730,67 @@
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="15" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
     </row>
   </sheetData>
@@ -6813,42 +6813,42 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
     </row>
   </sheetData>
@@ -6872,52 +6872,52 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="36" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="36" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="36" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="36" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="36" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="36" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="36" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="36" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="36" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="36" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
   </sheetData>
@@ -6941,72 +6941,72 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="36" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="36" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="36" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="36" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="36" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="36" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="36" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="36" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="36" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="36" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="36" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="36" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="36" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="36" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
     </row>
   </sheetData>
@@ -7029,19 +7029,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="39" t="s">
+        <v>974</v>
+      </c>
+      <c r="B1" s="39" t="s">
         <v>975</v>
       </c>
-      <c r="B1" s="39" t="s">
+      <c r="C1" s="39" t="s">
         <v>976</v>
       </c>
-      <c r="C1" s="39" t="s">
+      <c r="D1" s="39" t="s">
         <v>977</v>
       </c>
-      <c r="D1" s="39" t="s">
+      <c r="E1" s="39" t="s">
         <v>978</v>
-      </c>
-      <c r="E1" s="39" t="s">
-        <v>979</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -7049,169 +7049,169 @@
         <v>158</v>
       </c>
       <c r="B2" s="38" t="s">
+        <v>937</v>
+      </c>
+      <c r="C2" s="38" t="s">
         <v>938</v>
       </c>
-      <c r="C2" s="38" t="s">
+      <c r="D2" s="38" t="s">
         <v>939</v>
       </c>
-      <c r="D2" s="38" t="s">
+      <c r="E2" s="38" t="s">
         <v>940</v>
-      </c>
-      <c r="E2" s="38" t="s">
-        <v>941</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="38" t="s">
+        <v>941</v>
+      </c>
+      <c r="B3" s="38" t="s">
         <v>942</v>
       </c>
-      <c r="B3" s="38" t="s">
+      <c r="C3" s="38" t="s">
         <v>943</v>
       </c>
-      <c r="C3" s="38" t="s">
+      <c r="D3" s="38" t="s">
         <v>944</v>
       </c>
-      <c r="D3" s="38" t="s">
+      <c r="E3" s="38" t="s">
         <v>945</v>
-      </c>
-      <c r="E3" s="38" t="s">
-        <v>946</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="38" t="s">
+        <v>946</v>
+      </c>
+      <c r="B4" s="38" t="s">
         <v>947</v>
       </c>
-      <c r="B4" s="38" t="s">
+      <c r="C4" s="38" t="s">
         <v>948</v>
       </c>
-      <c r="C4" s="38" t="s">
+      <c r="D4" s="38" t="s">
         <v>949</v>
       </c>
-      <c r="D4" s="38" t="s">
+      <c r="E4" s="38" t="s">
         <v>950</v>
-      </c>
-      <c r="E4" s="38" t="s">
-        <v>951</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="38" t="s">
+        <v>951</v>
+      </c>
+      <c r="B5" s="38" t="s">
         <v>952</v>
       </c>
-      <c r="B5" s="38" t="s">
+      <c r="C5" s="38" t="s">
         <v>953</v>
       </c>
-      <c r="C5" s="38" t="s">
+      <c r="D5" s="38" t="s">
+        <v>621</v>
+      </c>
+      <c r="E5" s="38" t="s">
         <v>954</v>
-      </c>
-      <c r="D5" s="38" t="s">
-        <v>622</v>
-      </c>
-      <c r="E5" s="38" t="s">
-        <v>955</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="38" t="s">
+        <v>955</v>
+      </c>
+      <c r="B6" s="38" t="s">
         <v>956</v>
       </c>
-      <c r="B6" s="38" t="s">
+      <c r="C6" s="38" t="s">
         <v>957</v>
       </c>
-      <c r="C6" s="38" t="s">
+      <c r="D6" s="38" t="s">
         <v>958</v>
       </c>
-      <c r="D6" s="38" t="s">
+      <c r="E6" s="38" t="s">
         <v>959</v>
-      </c>
-      <c r="E6" s="38" t="s">
-        <v>960</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="38" t="s">
+        <v>960</v>
+      </c>
+      <c r="B7" s="38" t="s">
         <v>961</v>
       </c>
-      <c r="B7" s="38" t="s">
+      <c r="C7" s="38" t="s">
         <v>962</v>
       </c>
-      <c r="C7" s="38" t="s">
+      <c r="D7" s="38" t="s">
         <v>963</v>
       </c>
-      <c r="D7" s="38" t="s">
+      <c r="E7" s="38" t="s">
         <v>964</v>
-      </c>
-      <c r="E7" s="38" t="s">
-        <v>965</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="38" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="B8" s="38" t="s">
+        <v>968</v>
+      </c>
+      <c r="C8" s="38" t="s">
         <v>969</v>
       </c>
-      <c r="C8" s="38" t="s">
+      <c r="D8" s="38" t="s">
         <v>970</v>
       </c>
-      <c r="D8" s="38" t="s">
+      <c r="E8" s="38" t="s">
         <v>971</v>
-      </c>
-      <c r="E8" s="38" t="s">
-        <v>972</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="38" t="s">
+        <v>966</v>
+      </c>
+      <c r="B9" s="38" t="s">
+        <v>979</v>
+      </c>
+      <c r="C9" s="38" t="s">
         <v>967</v>
       </c>
-      <c r="B9" s="38" t="s">
-        <v>980</v>
-      </c>
-      <c r="C9" s="38" t="s">
-        <v>968</v>
-      </c>
       <c r="D9" s="38" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="E9" s="38" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="38" t="s">
+        <v>1027</v>
+      </c>
+      <c r="B10" s="38" t="s">
         <v>1028</v>
       </c>
-      <c r="B10" s="38" t="s">
+      <c r="C10" s="38" t="s">
         <v>1029</v>
       </c>
-      <c r="C10" s="38" t="s">
+      <c r="D10" s="38" t="s">
         <v>1030</v>
       </c>
-      <c r="D10" s="38" t="s">
+      <c r="E10" s="38" t="s">
         <v>1031</v>
-      </c>
-      <c r="E10" s="38" t="s">
-        <v>1032</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="38" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="B11" s="38" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="C11" s="38" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="D11" s="38" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="E11" s="38" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
     </row>
   </sheetData>
@@ -7768,87 +7768,87 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="37" t="s">
+        <v>974</v>
+      </c>
+      <c r="B1" s="37" t="s">
         <v>975</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="C1" s="37" t="s">
         <v>976</v>
       </c>
-      <c r="C1" s="37" t="s">
+      <c r="D1" s="37" t="s">
         <v>977</v>
       </c>
-      <c r="D1" s="37" t="s">
+      <c r="E1" s="37" t="s">
         <v>978</v>
-      </c>
-      <c r="E1" s="37" t="s">
-        <v>979</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="37" t="s">
+        <v>1032</v>
+      </c>
+      <c r="B2" s="37" t="s">
         <v>1033</v>
       </c>
-      <c r="B2" s="37" t="s">
+      <c r="C2" s="37" t="s">
         <v>1034</v>
       </c>
-      <c r="C2" s="37" t="s">
+      <c r="D2" s="37" t="s">
         <v>1035</v>
       </c>
-      <c r="D2" s="37" t="s">
+      <c r="E2" s="37" t="s">
         <v>1036</v>
-      </c>
-      <c r="E2" s="37" t="s">
-        <v>1037</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="37" t="s">
+        <v>1037</v>
+      </c>
+      <c r="B3" s="37" t="s">
         <v>1038</v>
       </c>
-      <c r="B3" s="37" t="s">
+      <c r="C3" s="37" t="s">
         <v>1039</v>
       </c>
-      <c r="C3" s="37" t="s">
+      <c r="D3" s="37" t="s">
         <v>1040</v>
       </c>
-      <c r="D3" s="37" t="s">
+      <c r="E3" s="37" t="s">
         <v>1041</v>
-      </c>
-      <c r="E3" s="37" t="s">
-        <v>1042</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="37" t="s">
+        <v>1042</v>
+      </c>
+      <c r="B4" s="37" t="s">
         <v>1043</v>
       </c>
-      <c r="B4" s="37" t="s">
+      <c r="C4" s="37" t="s">
         <v>1044</v>
       </c>
-      <c r="C4" s="37" t="s">
+      <c r="D4" s="37" t="s">
         <v>1045</v>
       </c>
-      <c r="D4" s="37" t="s">
+      <c r="E4" s="37" t="s">
         <v>1046</v>
-      </c>
-      <c r="E4" s="37" t="s">
-        <v>1047</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="37" t="s">
+        <v>1047</v>
+      </c>
+      <c r="B5" s="37" t="s">
         <v>1048</v>
       </c>
-      <c r="B5" s="37" t="s">
+      <c r="C5" s="37" t="s">
         <v>1049</v>
       </c>
-      <c r="C5" s="37" t="s">
+      <c r="D5" s="37" t="s">
         <v>1050</v>
       </c>
-      <c r="D5" s="37" t="s">
+      <c r="E5" s="37" t="s">
         <v>1051</v>
-      </c>
-      <c r="E5" s="37" t="s">
-        <v>1052</v>
       </c>
     </row>
   </sheetData>
@@ -7871,36 +7871,36 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="37" t="s">
+        <v>974</v>
+      </c>
+      <c r="B1" s="37" t="s">
         <v>975</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="C1" s="37" t="s">
         <v>976</v>
       </c>
-      <c r="C1" s="37" t="s">
+      <c r="D1" s="37" t="s">
         <v>977</v>
       </c>
-      <c r="D1" s="37" t="s">
+      <c r="E1" s="37" t="s">
         <v>978</v>
-      </c>
-      <c r="E1" s="37" t="s">
-        <v>979</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="37" t="s">
+        <v>1052</v>
+      </c>
+      <c r="B2" s="37" t="s">
         <v>1053</v>
       </c>
-      <c r="B2" s="37" t="s">
+      <c r="C2" s="37" t="s">
         <v>1054</v>
       </c>
-      <c r="C2" s="37" t="s">
+      <c r="D2" s="37" t="s">
         <v>1055</v>
       </c>
-      <c r="D2" s="37" t="s">
+      <c r="E2" s="37" t="s">
         <v>1056</v>
-      </c>
-      <c r="E2" s="37" t="s">
-        <v>1057</v>
       </c>
     </row>
   </sheetData>
@@ -7923,101 +7923,101 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="37" t="s">
+        <v>975</v>
+      </c>
+      <c r="B1" s="37" t="s">
         <v>976</v>
       </c>
-      <c r="B1" s="37" t="s">
-        <v>977</v>
-      </c>
       <c r="C1" s="37" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="37" t="s">
+        <v>1057</v>
+      </c>
+      <c r="B2" s="37" t="s">
         <v>1058</v>
       </c>
-      <c r="B2" s="37" t="s">
+      <c r="C2" s="37" t="s">
         <v>1059</v>
-      </c>
-      <c r="C2" s="37" t="s">
-        <v>1060</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="37" t="s">
+        <v>1060</v>
+      </c>
+      <c r="B3" s="37" t="s">
         <v>1061</v>
       </c>
-      <c r="B3" s="37" t="s">
+      <c r="C3" s="37" t="s">
         <v>1062</v>
-      </c>
-      <c r="C3" s="37" t="s">
-        <v>1063</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="37" t="s">
+        <v>1063</v>
+      </c>
+      <c r="B4" s="37" t="s">
         <v>1064</v>
       </c>
-      <c r="B4" s="37" t="s">
+      <c r="C4" s="37" t="s">
         <v>1065</v>
-      </c>
-      <c r="C4" s="37" t="s">
-        <v>1066</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="37" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B5" s="37" t="s">
         <v>1067</v>
       </c>
-      <c r="B5" s="37" t="s">
+      <c r="C5" s="37" t="s">
         <v>1068</v>
-      </c>
-      <c r="C5" s="37" t="s">
-        <v>1069</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="37" t="s">
+        <v>1069</v>
+      </c>
+      <c r="B6" s="37" t="s">
         <v>1070</v>
       </c>
-      <c r="B6" s="37" t="s">
+      <c r="C6" s="37" t="s">
         <v>1071</v>
-      </c>
-      <c r="C6" s="37" t="s">
-        <v>1072</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="37" t="s">
+        <v>1072</v>
+      </c>
+      <c r="B7" s="37" t="s">
+        <v>1074</v>
+      </c>
+      <c r="C7" s="37" t="s">
         <v>1073</v>
-      </c>
-      <c r="B7" s="37" t="s">
-        <v>1075</v>
-      </c>
-      <c r="C7" s="37" t="s">
-        <v>1074</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="37" t="s">
+        <v>1075</v>
+      </c>
+      <c r="B8" s="37" t="s">
         <v>1076</v>
       </c>
-      <c r="B8" s="37" t="s">
+      <c r="C8" s="37" t="s">
         <v>1077</v>
-      </c>
-      <c r="C8" s="37" t="s">
-        <v>1078</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="37" t="s">
+        <v>1078</v>
+      </c>
+      <c r="B9" s="37" t="s">
         <v>1079</v>
       </c>
-      <c r="B9" s="37" t="s">
+      <c r="C9" s="37" t="s">
         <v>1080</v>
-      </c>
-      <c r="C9" s="37" t="s">
-        <v>1081</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -8025,32 +8025,32 @@
         <v>241</v>
       </c>
       <c r="B10" s="37" t="s">
+        <v>1081</v>
+      </c>
+      <c r="C10" s="37" t="s">
         <v>1082</v>
-      </c>
-      <c r="C10" s="37" t="s">
-        <v>1083</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="37" t="s">
+        <v>1083</v>
+      </c>
+      <c r="B11" s="37" t="s">
         <v>1084</v>
       </c>
-      <c r="B11" s="37" t="s">
+      <c r="C11" s="37" t="s">
         <v>1085</v>
-      </c>
-      <c r="C11" s="37" t="s">
-        <v>1086</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="37" t="s">
+        <v>1086</v>
+      </c>
+      <c r="B12" s="37" t="s">
         <v>1087</v>
       </c>
-      <c r="B12" s="37" t="s">
-        <v>1088</v>
-      </c>
       <c r="C12" s="37" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
     </row>
   </sheetData>
@@ -8073,206 +8073,206 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="38" t="s">
+        <v>974</v>
+      </c>
+      <c r="B1" s="38" t="s">
         <v>975</v>
       </c>
-      <c r="B1" s="38" t="s">
+      <c r="C1" s="38" t="s">
         <v>976</v>
       </c>
-      <c r="C1" s="38" t="s">
+      <c r="D1" s="38" t="s">
         <v>977</v>
       </c>
-      <c r="D1" s="38" t="s">
+      <c r="E1" s="38" t="s">
         <v>978</v>
-      </c>
-      <c r="E1" s="38" t="s">
-        <v>979</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="38" t="s">
+        <v>980</v>
+      </c>
+      <c r="B2" s="38" t="s">
         <v>981</v>
       </c>
-      <c r="B2" s="38" t="s">
+      <c r="C2" s="38" t="s">
         <v>982</v>
       </c>
-      <c r="C2" s="38" t="s">
+      <c r="D2" s="38" t="s">
         <v>983</v>
       </c>
-      <c r="D2" s="38" t="s">
+      <c r="E2" s="38" t="s">
         <v>984</v>
-      </c>
-      <c r="E2" s="38" t="s">
-        <v>985</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="38" t="s">
+        <v>985</v>
+      </c>
+      <c r="B3" s="38" t="s">
         <v>986</v>
       </c>
-      <c r="B3" s="38" t="s">
+      <c r="C3" s="38" t="s">
         <v>987</v>
       </c>
-      <c r="C3" s="38" t="s">
+      <c r="D3" s="38" t="s">
         <v>988</v>
       </c>
-      <c r="D3" s="38" t="s">
+      <c r="E3" s="38" t="s">
         <v>989</v>
-      </c>
-      <c r="E3" s="38" t="s">
-        <v>990</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="38" t="s">
+        <v>990</v>
+      </c>
+      <c r="B4" s="38" t="s">
         <v>991</v>
       </c>
-      <c r="B4" s="38" t="s">
+      <c r="C4" s="38" t="s">
         <v>992</v>
       </c>
-      <c r="C4" s="38" t="s">
+      <c r="D4" s="38" t="s">
         <v>993</v>
       </c>
-      <c r="D4" s="38" t="s">
+      <c r="E4" s="38" t="s">
         <v>994</v>
-      </c>
-      <c r="E4" s="38" t="s">
-        <v>995</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="38" t="s">
+        <v>995</v>
+      </c>
+      <c r="B5" s="38" t="s">
         <v>996</v>
       </c>
-      <c r="B5" s="38" t="s">
+      <c r="C5" s="38" t="s">
         <v>997</v>
       </c>
-      <c r="C5" s="38" t="s">
+      <c r="D5" s="38" t="s">
         <v>998</v>
       </c>
-      <c r="D5" s="38" t="s">
+      <c r="E5" s="38" t="s">
         <v>999</v>
-      </c>
-      <c r="E5" s="38" t="s">
-        <v>1000</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="38" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B6" s="38" t="s">
         <v>1001</v>
       </c>
-      <c r="B6" s="38" t="s">
+      <c r="C6" s="38" t="s">
         <v>1002</v>
       </c>
-      <c r="C6" s="38" t="s">
+      <c r="D6" s="38" t="s">
         <v>1003</v>
       </c>
-      <c r="D6" s="38" t="s">
+      <c r="E6" s="38" t="s">
         <v>1004</v>
-      </c>
-      <c r="E6" s="38" t="s">
-        <v>1005</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="38" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B7" s="38" t="s">
         <v>1006</v>
       </c>
-      <c r="B7" s="38" t="s">
+      <c r="C7" s="38" t="s">
         <v>1007</v>
       </c>
-      <c r="C7" s="38" t="s">
+      <c r="D7" s="38" t="s">
         <v>1008</v>
       </c>
-      <c r="D7" s="38" t="s">
+      <c r="E7" s="38" t="s">
         <v>1009</v>
-      </c>
-      <c r="E7" s="38" t="s">
-        <v>1010</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="38" t="s">
+        <v>1010</v>
+      </c>
+      <c r="B8" s="38" t="s">
         <v>1011</v>
       </c>
-      <c r="B8" s="38" t="s">
+      <c r="C8" s="38" t="s">
         <v>1012</v>
       </c>
-      <c r="C8" s="38" t="s">
+      <c r="D8" s="38" t="s">
         <v>1013</v>
       </c>
-      <c r="D8" s="38" t="s">
+      <c r="E8" s="38" t="s">
         <v>1014</v>
-      </c>
-      <c r="E8" s="38" t="s">
-        <v>1015</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="38" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B9" s="38" t="s">
         <v>1016</v>
       </c>
-      <c r="B9" s="38" t="s">
+      <c r="C9" s="38" t="s">
         <v>1017</v>
       </c>
-      <c r="C9" s="38" t="s">
+      <c r="D9" s="38" t="s">
+        <v>1016</v>
+      </c>
+      <c r="E9" s="38" t="s">
         <v>1018</v>
-      </c>
-      <c r="D9" s="38" t="s">
-        <v>1017</v>
-      </c>
-      <c r="E9" s="38" t="s">
-        <v>1019</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="38" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B10" s="38" t="s">
         <v>1020</v>
       </c>
-      <c r="B10" s="38" t="s">
+      <c r="C10" s="38" t="s">
         <v>1021</v>
       </c>
-      <c r="C10" s="38" t="s">
+      <c r="D10" s="38" t="s">
         <v>1022</v>
       </c>
-      <c r="D10" s="38" t="s">
+      <c r="E10" s="38" t="s">
         <v>1023</v>
-      </c>
-      <c r="E10" s="38" t="s">
-        <v>1024</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="38" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B11" s="38" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C11" s="38" t="s">
+        <v>1016</v>
+      </c>
+      <c r="D11" s="38" t="s">
+        <v>1016</v>
+      </c>
+      <c r="E11" s="38" t="s">
         <v>1025</v>
-      </c>
-      <c r="B11" s="38" t="s">
-        <v>1017</v>
-      </c>
-      <c r="C11" s="38" t="s">
-        <v>1017</v>
-      </c>
-      <c r="D11" s="38" t="s">
-        <v>1017</v>
-      </c>
-      <c r="E11" s="38" t="s">
-        <v>1026</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="38" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="B12" s="38" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="C12" s="38" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="D12" s="38" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="E12" s="38" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
     </row>
   </sheetData>
@@ -8295,87 +8295,87 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="37" t="s">
+        <v>974</v>
+      </c>
+      <c r="B1" s="37" t="s">
         <v>975</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="C1" s="37" t="s">
         <v>976</v>
       </c>
-      <c r="C1" s="37" t="s">
+      <c r="D1" s="37" t="s">
         <v>977</v>
       </c>
-      <c r="D1" s="37" t="s">
+      <c r="E1" s="37" t="s">
         <v>978</v>
-      </c>
-      <c r="E1" s="37" t="s">
-        <v>979</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="37" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B2" s="37" t="s">
         <v>1089</v>
       </c>
-      <c r="B2" s="37" t="s">
+      <c r="C2" s="37" t="s">
         <v>1090</v>
       </c>
-      <c r="C2" s="37" t="s">
+      <c r="D2" s="37" t="s">
         <v>1091</v>
       </c>
-      <c r="D2" s="37" t="s">
+      <c r="E2" s="37" t="s">
         <v>1092</v>
-      </c>
-      <c r="E2" s="37" t="s">
-        <v>1093</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="37" t="s">
+        <v>1093</v>
+      </c>
+      <c r="B3" s="37" t="s">
         <v>1094</v>
       </c>
-      <c r="B3" s="37" t="s">
+      <c r="C3" s="37" t="s">
         <v>1095</v>
       </c>
-      <c r="C3" s="37" t="s">
+      <c r="D3" s="37" t="s">
         <v>1096</v>
       </c>
-      <c r="D3" s="37" t="s">
+      <c r="E3" s="37" t="s">
         <v>1097</v>
-      </c>
-      <c r="E3" s="37" t="s">
-        <v>1098</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="37" t="s">
+        <v>1098</v>
+      </c>
+      <c r="B4" s="37" t="s">
         <v>1099</v>
       </c>
-      <c r="B4" s="37" t="s">
+      <c r="C4" s="37" t="s">
         <v>1100</v>
       </c>
-      <c r="C4" s="37" t="s">
+      <c r="D4" s="37" t="s">
         <v>1101</v>
       </c>
-      <c r="D4" s="37" t="s">
+      <c r="E4" s="37" t="s">
         <v>1102</v>
-      </c>
-      <c r="E4" s="37" t="s">
-        <v>1103</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="37" t="s">
+        <v>1103</v>
+      </c>
+      <c r="B5" s="37" t="s">
         <v>1104</v>
       </c>
-      <c r="B5" s="37" t="s">
+      <c r="C5" s="37" t="s">
         <v>1105</v>
       </c>
-      <c r="C5" s="37" t="s">
+      <c r="D5" s="37" t="s">
         <v>1106</v>
       </c>
-      <c r="D5" s="37" t="s">
+      <c r="E5" s="37" t="s">
         <v>1107</v>
-      </c>
-      <c r="E5" s="37" t="s">
-        <v>1108</v>
       </c>
     </row>
   </sheetData>
@@ -8398,36 +8398,36 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="37" t="s">
+        <v>974</v>
+      </c>
+      <c r="B1" s="37" t="s">
         <v>975</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="C1" s="37" t="s">
         <v>976</v>
       </c>
-      <c r="C1" s="37" t="s">
+      <c r="D1" s="37" t="s">
         <v>977</v>
       </c>
-      <c r="D1" s="37" t="s">
+      <c r="E1" s="37" t="s">
         <v>978</v>
-      </c>
-      <c r="E1" s="37" t="s">
-        <v>979</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="37" t="s">
+        <v>1108</v>
+      </c>
+      <c r="B2" s="37" t="s">
         <v>1109</v>
       </c>
-      <c r="B2" s="37" t="s">
+      <c r="C2" s="37" t="s">
         <v>1110</v>
       </c>
-      <c r="C2" s="37" t="s">
+      <c r="D2" s="37" t="s">
         <v>1111</v>
       </c>
-      <c r="D2" s="37" t="s">
+      <c r="E2" s="37" t="s">
         <v>1112</v>
-      </c>
-      <c r="E2" s="37" t="s">
-        <v>1113</v>
       </c>
     </row>
   </sheetData>
@@ -8450,134 +8450,134 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="37" t="s">
+        <v>975</v>
+      </c>
+      <c r="B1" s="37" t="s">
         <v>976</v>
       </c>
-      <c r="B1" s="37" t="s">
-        <v>977</v>
-      </c>
       <c r="C1" s="37" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="37" t="s">
+        <v>1113</v>
+      </c>
+      <c r="B2" s="37" t="s">
         <v>1114</v>
       </c>
-      <c r="B2" s="37" t="s">
+      <c r="C2" s="37" t="s">
         <v>1115</v>
-      </c>
-      <c r="C2" s="37" t="s">
-        <v>1116</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="37" t="s">
+        <v>1116</v>
+      </c>
+      <c r="B3" s="37" t="s">
         <v>1117</v>
       </c>
-      <c r="B3" s="37" t="s">
+      <c r="C3" s="37" t="s">
         <v>1118</v>
-      </c>
-      <c r="C3" s="37" t="s">
-        <v>1119</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="37" t="s">
+        <v>1119</v>
+      </c>
+      <c r="B4" s="37" t="s">
         <v>1120</v>
       </c>
-      <c r="B4" s="37" t="s">
+      <c r="C4" s="37" t="s">
         <v>1121</v>
-      </c>
-      <c r="C4" s="37" t="s">
-        <v>1122</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="37" t="s">
+        <v>1122</v>
+      </c>
+      <c r="B5" s="37" t="s">
         <v>1123</v>
       </c>
-      <c r="B5" s="37" t="s">
+      <c r="C5" s="37" t="s">
         <v>1124</v>
-      </c>
-      <c r="C5" s="37" t="s">
-        <v>1125</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="37" t="s">
+        <v>1125</v>
+      </c>
+      <c r="B6" s="37" t="s">
         <v>1126</v>
       </c>
-      <c r="B6" s="37" t="s">
+      <c r="C6" s="37" t="s">
         <v>1127</v>
-      </c>
-      <c r="C6" s="37" t="s">
-        <v>1128</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="37" t="s">
+        <v>1128</v>
+      </c>
+      <c r="B7" s="37" t="s">
         <v>1129</v>
       </c>
-      <c r="B7" s="37" t="s">
+      <c r="C7" s="37" t="s">
         <v>1130</v>
-      </c>
-      <c r="C7" s="37" t="s">
-        <v>1131</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="37" t="s">
+        <v>1131</v>
+      </c>
+      <c r="B8" s="37" t="s">
         <v>1132</v>
       </c>
-      <c r="B8" s="37" t="s">
+      <c r="C8" s="37" t="s">
         <v>1133</v>
-      </c>
-      <c r="C8" s="37" t="s">
-        <v>1134</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="37" t="s">
+        <v>1134</v>
+      </c>
+      <c r="B9" s="37" t="s">
         <v>1135</v>
       </c>
-      <c r="B9" s="37" t="s">
+      <c r="C9" s="37" t="s">
         <v>1136</v>
-      </c>
-      <c r="C9" s="37" t="s">
-        <v>1137</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="37" t="s">
+        <v>1137</v>
+      </c>
+      <c r="B10" s="37" t="s">
         <v>1138</v>
       </c>
-      <c r="B10" s="37" t="s">
+      <c r="C10" s="37" t="s">
         <v>1139</v>
-      </c>
-      <c r="C10" s="37" t="s">
-        <v>1140</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="37" t="s">
+        <v>1140</v>
+      </c>
+      <c r="B11" s="37" t="s">
         <v>1141</v>
       </c>
-      <c r="B11" s="37" t="s">
+      <c r="C11" s="37" t="s">
         <v>1142</v>
-      </c>
-      <c r="C11" s="37" t="s">
-        <v>1143</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="37" t="s">
+        <v>1143</v>
+      </c>
+      <c r="B12" s="37" t="s">
         <v>1144</v>
       </c>
-      <c r="B12" s="37" t="s">
+      <c r="C12" s="37" t="s">
         <v>1145</v>
-      </c>
-      <c r="C12" s="37" t="s">
-        <v>1146</v>
       </c>
     </row>
   </sheetData>
@@ -8600,22 +8600,22 @@
   <sheetData>
     <row r="1" spans="1:1" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A1" s="22" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="23.4" x14ac:dyDescent="0.3">
       <c r="A2" s="22" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A3" s="22" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A4" s="22" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
@@ -8623,12 +8623,12 @@
     </row>
     <row r="6" spans="1:1" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A6" s="24" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A7" s="22" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
@@ -8636,7 +8636,7 @@
     </row>
     <row r="9" spans="1:1" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A9" s="25" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="22.8" x14ac:dyDescent="0.3">
@@ -8644,17 +8644,17 @@
     </row>
     <row r="11" spans="1:1" ht="18" x14ac:dyDescent="0.3">
       <c r="A11" s="26" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" s="27" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A13" s="27" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.3">
@@ -8662,12 +8662,12 @@
     </row>
     <row r="15" spans="1:1" ht="18" x14ac:dyDescent="0.3">
       <c r="A15" s="26" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A16" s="28" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
@@ -8675,7 +8675,7 @@
     </row>
     <row r="18" spans="1:1" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A18" s="28" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -8683,17 +8683,17 @@
     </row>
     <row r="20" spans="1:1" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A20" s="29" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="21" spans="1:1" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A21" s="29" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A22" s="27" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
@@ -8701,12 +8701,12 @@
     </row>
     <row r="24" spans="1:1" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A24" s="30" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A25" s="22" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="26" spans="1:1" ht="22.8" x14ac:dyDescent="0.3">
@@ -8714,7 +8714,7 @@
     </row>
     <row r="27" spans="1:1" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A27" s="22" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="28" spans="1:1" ht="22.8" x14ac:dyDescent="0.3">
@@ -8722,17 +8722,17 @@
     </row>
     <row r="29" spans="1:1" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A29" s="22" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="30" spans="1:1" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A30" s="22" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="31" spans="1:1" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A31" s="22" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="32" spans="1:1" ht="22.8" x14ac:dyDescent="0.3">
@@ -8740,12 +8740,12 @@
     </row>
     <row r="33" spans="1:1" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A33" s="30" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="34" spans="1:1" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A34" s="22" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
   </sheetData>
@@ -8768,12 +8768,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="19" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="19" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
@@ -8878,7 +8878,7 @@
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="18" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
@@ -9546,8 +9546,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B62" sqref="B62"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9681,10 +9681,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="7" t="s">
+        <v>1344</v>
+      </c>
+      <c r="C12" s="8" t="s">
         <v>279</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -9692,10 +9692,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="C13" s="8" t="s">
         <v>281</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -9703,10 +9703,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="C14" s="8" t="s">
         <v>283</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -9714,10 +9714,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="C15" s="8" t="s">
         <v>285</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -9725,10 +9725,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="C16" s="8" t="s">
         <v>287</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -9736,10 +9736,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="C17" s="8" t="s">
         <v>289</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -9747,10 +9747,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="C18" s="8" t="s">
         <v>291</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -9758,10 +9758,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="C19" s="8" t="s">
         <v>293</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -9769,10 +9769,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="C20" s="8" t="s">
         <v>295</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -9780,10 +9780,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="C21" s="8" t="s">
         <v>297</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -9791,10 +9791,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="C22" s="8" t="s">
         <v>299</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -9802,10 +9802,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="C23" s="8" t="s">
         <v>301</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -9813,10 +9813,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="C24" s="8" t="s">
         <v>303</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -9824,10 +9824,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="C25" s="8" t="s">
         <v>305</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -9835,10 +9835,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="C26" s="8" t="s">
         <v>307</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -9846,10 +9846,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="C27" s="8" t="s">
         <v>309</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -9857,10 +9857,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="C28" s="8" t="s">
         <v>311</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -9868,10 +9868,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="C29" s="8" t="s">
         <v>313</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -9879,10 +9879,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="C30" s="8" t="s">
         <v>315</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -9890,10 +9890,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="C31" s="8" t="s">
         <v>317</v>
-      </c>
-      <c r="C31" s="8" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -9901,10 +9901,10 @@
         <v>31</v>
       </c>
       <c r="B32" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="C32" s="8" t="s">
         <v>319</v>
-      </c>
-      <c r="C32" s="8" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -9912,10 +9912,10 @@
         <v>32</v>
       </c>
       <c r="B33" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="C33" s="8" t="s">
         <v>321</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -9923,10 +9923,10 @@
         <v>33</v>
       </c>
       <c r="B34" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="C34" s="8" t="s">
         <v>323</v>
-      </c>
-      <c r="C34" s="8" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -9934,10 +9934,10 @@
         <v>34</v>
       </c>
       <c r="B35" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="C35" s="8" t="s">
         <v>325</v>
-      </c>
-      <c r="C35" s="8" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -9945,10 +9945,10 @@
         <v>35</v>
       </c>
       <c r="B36" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="C36" s="8" t="s">
         <v>327</v>
-      </c>
-      <c r="C36" s="8" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -9956,10 +9956,10 @@
         <v>36</v>
       </c>
       <c r="B37" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="C37" s="8" t="s">
         <v>329</v>
-      </c>
-      <c r="C37" s="8" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -9967,10 +9967,10 @@
         <v>37</v>
       </c>
       <c r="B38" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="C38" s="8" t="s">
         <v>331</v>
-      </c>
-      <c r="C38" s="8" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -9978,10 +9978,10 @@
         <v>38</v>
       </c>
       <c r="B39" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="C39" s="8" t="s">
         <v>333</v>
-      </c>
-      <c r="C39" s="8" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -9989,10 +9989,10 @@
         <v>39</v>
       </c>
       <c r="B40" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="C40" s="8" t="s">
         <v>335</v>
-      </c>
-      <c r="C40" s="8" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -10000,10 +10000,10 @@
         <v>40</v>
       </c>
       <c r="B41" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="C41" s="8" t="s">
         <v>337</v>
-      </c>
-      <c r="C41" s="8" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -10011,10 +10011,10 @@
         <v>41</v>
       </c>
       <c r="B42" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="C42" s="8" t="s">
         <v>339</v>
-      </c>
-      <c r="C42" s="8" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -10022,10 +10022,10 @@
         <v>42</v>
       </c>
       <c r="B43" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="C43" s="8" t="s">
         <v>341</v>
-      </c>
-      <c r="C43" s="8" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -10033,10 +10033,10 @@
         <v>43</v>
       </c>
       <c r="B44" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="C44" s="8" t="s">
         <v>343</v>
-      </c>
-      <c r="C44" s="8" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -10044,10 +10044,10 @@
         <v>44</v>
       </c>
       <c r="B45" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="C45" s="8" t="s">
         <v>345</v>
-      </c>
-      <c r="C45" s="8" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -10055,10 +10055,10 @@
         <v>45</v>
       </c>
       <c r="B46" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="C46" s="8" t="s">
         <v>347</v>
-      </c>
-      <c r="C46" s="8" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -10066,10 +10066,10 @@
         <v>46</v>
       </c>
       <c r="B47" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="C47" s="8" t="s">
         <v>349</v>
-      </c>
-      <c r="C47" s="8" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -10077,10 +10077,10 @@
         <v>47</v>
       </c>
       <c r="B48" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="C48" s="8" t="s">
         <v>351</v>
-      </c>
-      <c r="C48" s="8" t="s">
-        <v>352</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -10088,10 +10088,10 @@
         <v>48</v>
       </c>
       <c r="B49" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="C49" s="8" t="s">
         <v>353</v>
-      </c>
-      <c r="C49" s="8" t="s">
-        <v>354</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -10099,10 +10099,10 @@
         <v>49</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -10110,10 +10110,10 @@
         <v>50</v>
       </c>
       <c r="B51" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="C51" s="8" t="s">
         <v>356</v>
-      </c>
-      <c r="C51" s="8" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -10121,10 +10121,10 @@
         <v>51</v>
       </c>
       <c r="B52" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="C52" s="8" t="s">
         <v>358</v>
-      </c>
-      <c r="C52" s="8" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -10143,10 +10143,10 @@
         <v>53</v>
       </c>
       <c r="B54" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="C54" s="8" t="s">
         <v>360</v>
-      </c>
-      <c r="C54" s="8" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -10154,10 +10154,10 @@
         <v>54</v>
       </c>
       <c r="B55" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="C55" s="8" t="s">
         <v>362</v>
-      </c>
-      <c r="C55" s="8" t="s">
-        <v>363</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -10165,10 +10165,10 @@
         <v>55</v>
       </c>
       <c r="B56" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="C56" s="8" t="s">
         <v>364</v>
-      </c>
-      <c r="C56" s="8" t="s">
-        <v>365</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -10176,10 +10176,10 @@
         <v>56</v>
       </c>
       <c r="B57" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="C57" s="8" t="s">
         <v>366</v>
-      </c>
-      <c r="C57" s="8" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -10187,10 +10187,10 @@
         <v>57</v>
       </c>
       <c r="B58" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="C58" s="8" t="s">
         <v>368</v>
-      </c>
-      <c r="C58" s="8" t="s">
-        <v>369</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -10198,10 +10198,10 @@
         <v>58</v>
       </c>
       <c r="B59" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="C59" s="8" t="s">
         <v>370</v>
-      </c>
-      <c r="C59" s="8" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -10209,10 +10209,10 @@
         <v>59</v>
       </c>
       <c r="B60" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="C60" s="8" t="s">
         <v>372</v>
-      </c>
-      <c r="C60" s="8" t="s">
-        <v>373</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
@@ -10220,10 +10220,10 @@
         <v>60</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
   </sheetData>
@@ -10259,10 +10259,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>375</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -10270,10 +10270,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>377</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -10281,10 +10281,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="C4" s="8" t="s">
         <v>379</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>380</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -10292,10 +10292,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="C5" s="8" t="s">
         <v>381</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>382</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -10303,10 +10303,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="C6" s="8" t="s">
         <v>383</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>384</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -10314,10 +10314,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="C7" s="8" t="s">
         <v>385</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>386</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -10325,10 +10325,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="C8" s="8" t="s">
         <v>387</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>388</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -10336,10 +10336,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="C9" s="8" t="s">
         <v>389</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>390</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -10347,10 +10347,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="C10" s="8" t="s">
         <v>391</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -10358,10 +10358,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="C11" s="8" t="s">
         <v>393</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>394</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -10369,10 +10369,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="C12" s="8" t="s">
         <v>395</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>396</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -10380,10 +10380,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="C13" s="8" t="s">
         <v>397</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>398</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -10391,10 +10391,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="C14" s="8" t="s">
         <v>399</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>400</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -10402,10 +10402,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="C15" s="8" t="s">
         <v>401</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -10413,10 +10413,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="C16" s="8" t="s">
         <v>403</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>404</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -10424,10 +10424,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="C17" s="8" t="s">
         <v>405</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -10435,10 +10435,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="C18" s="8" t="s">
         <v>407</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>408</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -10446,10 +10446,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="C19" s="8" t="s">
         <v>409</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>410</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -10457,10 +10457,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="C20" s="8" t="s">
         <v>411</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -10468,10 +10468,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="C21" s="8" t="s">
         <v>413</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>414</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -10479,10 +10479,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="C22" s="8" t="s">
         <v>415</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>416</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -10490,10 +10490,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="C23" s="8" t="s">
         <v>417</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>418</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -10501,10 +10501,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="C24" s="8" t="s">
         <v>419</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>420</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -10512,10 +10512,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="C25" s="8" t="s">
         <v>421</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>422</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -10523,10 +10523,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="C26" s="8" t="s">
         <v>423</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>424</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -10534,10 +10534,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="C27" s="8" t="s">
         <v>425</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>426</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -10545,10 +10545,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="C28" s="8" t="s">
         <v>427</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>428</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -10556,10 +10556,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="C29" s="8" t="s">
         <v>429</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>430</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -10567,10 +10567,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="C30" s="8" t="s">
         <v>431</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>432</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -10578,10 +10578,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="C31" s="8" t="s">
         <v>433</v>
-      </c>
-      <c r="C31" s="8" t="s">
-        <v>434</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -10589,10 +10589,10 @@
         <v>31</v>
       </c>
       <c r="B32" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="C32" s="8" t="s">
         <v>435</v>
-      </c>
-      <c r="C32" s="8" t="s">
-        <v>436</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -10600,10 +10600,10 @@
         <v>32</v>
       </c>
       <c r="B33" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="C33" s="8" t="s">
         <v>437</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>438</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -10611,10 +10611,10 @@
         <v>33</v>
       </c>
       <c r="B34" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="C34" s="8" t="s">
         <v>439</v>
-      </c>
-      <c r="C34" s="8" t="s">
-        <v>440</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -10622,10 +10622,10 @@
         <v>34</v>
       </c>
       <c r="B35" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="C35" s="8" t="s">
         <v>441</v>
-      </c>
-      <c r="C35" s="8" t="s">
-        <v>442</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -10633,10 +10633,10 @@
         <v>35</v>
       </c>
       <c r="B36" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="C36" s="8" t="s">
         <v>443</v>
-      </c>
-      <c r="C36" s="8" t="s">
-        <v>444</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -10644,10 +10644,10 @@
         <v>36</v>
       </c>
       <c r="B37" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="C37" s="8" t="s">
         <v>445</v>
-      </c>
-      <c r="C37" s="8" t="s">
-        <v>446</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -10655,10 +10655,10 @@
         <v>37</v>
       </c>
       <c r="B38" s="7" t="s">
+        <v>446</v>
+      </c>
+      <c r="C38" s="8" t="s">
         <v>447</v>
-      </c>
-      <c r="C38" s="8" t="s">
-        <v>448</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -10666,10 +10666,10 @@
         <v>38</v>
       </c>
       <c r="B39" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="C39" s="8" t="s">
         <v>449</v>
-      </c>
-      <c r="C39" s="8" t="s">
-        <v>450</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -10677,10 +10677,10 @@
         <v>39</v>
       </c>
       <c r="B40" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="C40" s="8" t="s">
         <v>451</v>
-      </c>
-      <c r="C40" s="8" t="s">
-        <v>452</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -10688,10 +10688,10 @@
         <v>40</v>
       </c>
       <c r="B41" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="C41" s="8" t="s">
         <v>453</v>
-      </c>
-      <c r="C41" s="8" t="s">
-        <v>454</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -10699,10 +10699,10 @@
         <v>41</v>
       </c>
       <c r="B42" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="C42" s="8" t="s">
         <v>455</v>
-      </c>
-      <c r="C42" s="8" t="s">
-        <v>456</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -10710,10 +10710,10 @@
         <v>42</v>
       </c>
       <c r="B43" s="7" t="s">
+        <v>456</v>
+      </c>
+      <c r="C43" s="8" t="s">
         <v>457</v>
-      </c>
-      <c r="C43" s="8" t="s">
-        <v>458</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -10721,10 +10721,10 @@
         <v>43</v>
       </c>
       <c r="B44" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="C44" s="8" t="s">
         <v>459</v>
-      </c>
-      <c r="C44" s="8" t="s">
-        <v>460</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -10732,10 +10732,10 @@
         <v>44</v>
       </c>
       <c r="B45" s="7" t="s">
+        <v>460</v>
+      </c>
+      <c r="C45" s="8" t="s">
         <v>461</v>
-      </c>
-      <c r="C45" s="8" t="s">
-        <v>462</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -10743,10 +10743,10 @@
         <v>45</v>
       </c>
       <c r="B46" s="7" t="s">
+        <v>462</v>
+      </c>
+      <c r="C46" s="8" t="s">
         <v>463</v>
-      </c>
-      <c r="C46" s="8" t="s">
-        <v>464</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -10754,10 +10754,10 @@
         <v>46</v>
       </c>
       <c r="B47" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="C47" s="8" t="s">
         <v>465</v>
-      </c>
-      <c r="C47" s="8" t="s">
-        <v>466</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -10765,10 +10765,10 @@
         <v>47</v>
       </c>
       <c r="B48" s="7" t="s">
+        <v>466</v>
+      </c>
+      <c r="C48" s="8" t="s">
         <v>467</v>
-      </c>
-      <c r="C48" s="8" t="s">
-        <v>468</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -10776,10 +10776,10 @@
         <v>48</v>
       </c>
       <c r="B49" s="7" t="s">
+        <v>468</v>
+      </c>
+      <c r="C49" s="8" t="s">
         <v>469</v>
-      </c>
-      <c r="C49" s="8" t="s">
-        <v>470</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -10787,10 +10787,10 @@
         <v>49</v>
       </c>
       <c r="B50" s="7" t="s">
+        <v>470</v>
+      </c>
+      <c r="C50" s="8" t="s">
         <v>471</v>
-      </c>
-      <c r="C50" s="8" t="s">
-        <v>472</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -10798,10 +10798,10 @@
         <v>50</v>
       </c>
       <c r="B51" s="7" t="s">
+        <v>472</v>
+      </c>
+      <c r="C51" s="8" t="s">
         <v>473</v>
-      </c>
-      <c r="C51" s="8" t="s">
-        <v>474</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -10809,10 +10809,10 @@
         <v>51</v>
       </c>
       <c r="B52" s="7" t="s">
+        <v>474</v>
+      </c>
+      <c r="C52" s="8" t="s">
         <v>475</v>
-      </c>
-      <c r="C52" s="8" t="s">
-        <v>476</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -10820,10 +10820,10 @@
         <v>52</v>
       </c>
       <c r="B53" s="7" t="s">
+        <v>476</v>
+      </c>
+      <c r="C53" s="8" t="s">
         <v>477</v>
-      </c>
-      <c r="C53" s="8" t="s">
-        <v>478</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
@@ -10831,7 +10831,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C54" s="8" t="s">
         <v>153</v>
@@ -10842,10 +10842,10 @@
         <v>54</v>
       </c>
       <c r="B55" s="7" t="s">
+        <v>479</v>
+      </c>
+      <c r="C55" s="8" t="s">
         <v>480</v>
-      </c>
-      <c r="C55" s="8" t="s">
-        <v>481</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -10853,10 +10853,10 @@
         <v>55</v>
       </c>
       <c r="B56" s="7" t="s">
+        <v>481</v>
+      </c>
+      <c r="C56" s="8" t="s">
         <v>482</v>
-      </c>
-      <c r="C56" s="8" t="s">
-        <v>483</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -10864,10 +10864,10 @@
         <v>56</v>
       </c>
       <c r="B57" s="7" t="s">
+        <v>483</v>
+      </c>
+      <c r="C57" s="8" t="s">
         <v>484</v>
-      </c>
-      <c r="C57" s="8" t="s">
-        <v>485</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -10875,10 +10875,10 @@
         <v>57</v>
       </c>
       <c r="B58" s="7" t="s">
+        <v>485</v>
+      </c>
+      <c r="C58" s="8" t="s">
         <v>486</v>
-      </c>
-      <c r="C58" s="8" t="s">
-        <v>487</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -10886,10 +10886,10 @@
         <v>58</v>
       </c>
       <c r="B59" s="7" t="s">
+        <v>487</v>
+      </c>
+      <c r="C59" s="8" t="s">
         <v>488</v>
-      </c>
-      <c r="C59" s="8" t="s">
-        <v>489</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -10897,10 +10897,10 @@
         <v>59</v>
       </c>
       <c r="B60" s="7" t="s">
+        <v>489</v>
+      </c>
+      <c r="C60" s="8" t="s">
         <v>490</v>
-      </c>
-      <c r="C60" s="8" t="s">
-        <v>491</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -10908,10 +10908,10 @@
         <v>60</v>
       </c>
       <c r="B61" s="7" t="s">
+        <v>491</v>
+      </c>
+      <c r="C61" s="8" t="s">
         <v>492</v>
-      </c>
-      <c r="C61" s="8" t="s">
-        <v>493</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -10919,10 +10919,10 @@
         <v>61</v>
       </c>
       <c r="B62" s="7" t="s">
+        <v>493</v>
+      </c>
+      <c r="C62" s="8" t="s">
         <v>494</v>
-      </c>
-      <c r="C62" s="8" t="s">
-        <v>495</v>
       </c>
     </row>
   </sheetData>
@@ -10958,10 +10958,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
+        <v>495</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>496</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>497</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -10969,10 +10969,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
+        <v>497</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>498</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>499</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
@@ -10980,10 +10980,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="C4" s="8" t="s">
         <v>500</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>501</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -10991,10 +10991,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
+        <v>501</v>
+      </c>
+      <c r="C5" s="8" t="s">
         <v>502</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>503</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -11002,10 +11002,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="7" t="s">
+        <v>503</v>
+      </c>
+      <c r="C6" s="8" t="s">
         <v>504</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>505</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -11013,10 +11013,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="7" t="s">
+        <v>505</v>
+      </c>
+      <c r="C7" s="8" t="s">
         <v>506</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>507</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -11024,10 +11024,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="7" t="s">
+        <v>507</v>
+      </c>
+      <c r="C8" s="8" t="s">
         <v>508</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>509</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -11035,10 +11035,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="7" t="s">
+        <v>509</v>
+      </c>
+      <c r="C9" s="8" t="s">
         <v>510</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>511</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
@@ -11046,10 +11046,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="7" t="s">
+        <v>511</v>
+      </c>
+      <c r="C10" s="8" t="s">
         <v>512</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>513</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -11057,10 +11057,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="7" t="s">
+        <v>513</v>
+      </c>
+      <c r="C11" s="8" t="s">
         <v>514</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>515</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
@@ -11068,10 +11068,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -11079,10 +11079,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="7" t="s">
+        <v>516</v>
+      </c>
+      <c r="C13" s="8" t="s">
         <v>517</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>518</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -11090,10 +11090,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="7" t="s">
+        <v>518</v>
+      </c>
+      <c r="C14" s="8" t="s">
         <v>519</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>520</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -11101,10 +11101,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="7" t="s">
+        <v>520</v>
+      </c>
+      <c r="C15" s="8" t="s">
         <v>521</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>522</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -11112,10 +11112,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="7" t="s">
+        <v>522</v>
+      </c>
+      <c r="C16" s="8" t="s">
         <v>523</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>524</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -11123,10 +11123,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="7" t="s">
+        <v>524</v>
+      </c>
+      <c r="C17" s="8" t="s">
         <v>525</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>526</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -11134,10 +11134,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="7" t="s">
+        <v>526</v>
+      </c>
+      <c r="C18" s="8" t="s">
         <v>527</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>528</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -11145,10 +11145,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="7" t="s">
+        <v>528</v>
+      </c>
+      <c r="C19" s="8" t="s">
         <v>529</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>530</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -11156,10 +11156,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="7" t="s">
+        <v>530</v>
+      </c>
+      <c r="C20" s="8" t="s">
         <v>531</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>532</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -11167,10 +11167,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="7" t="s">
+        <v>532</v>
+      </c>
+      <c r="C21" s="8" t="s">
         <v>533</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>534</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -11178,10 +11178,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="7" t="s">
+        <v>534</v>
+      </c>
+      <c r="C22" s="8" t="s">
         <v>535</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>536</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -11189,10 +11189,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="7" t="s">
+        <v>536</v>
+      </c>
+      <c r="C23" s="8" t="s">
         <v>537</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>538</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -11200,10 +11200,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="7" t="s">
+        <v>538</v>
+      </c>
+      <c r="C24" s="8" t="s">
         <v>539</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>540</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -11211,10 +11211,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="7" t="s">
+        <v>540</v>
+      </c>
+      <c r="C25" s="8" t="s">
         <v>541</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>542</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -11222,10 +11222,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="7" t="s">
+        <v>542</v>
+      </c>
+      <c r="C26" s="8" t="s">
         <v>543</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>544</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -11233,10 +11233,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="C27" s="8" t="s">
         <v>545</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>546</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -11244,10 +11244,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="7" t="s">
+        <v>546</v>
+      </c>
+      <c r="C28" s="8" t="s">
         <v>547</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>548</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -11255,10 +11255,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="7" t="s">
+        <v>548</v>
+      </c>
+      <c r="C29" s="8" t="s">
         <v>549</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>550</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -11266,10 +11266,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="7" t="s">
+        <v>550</v>
+      </c>
+      <c r="C30" s="8" t="s">
         <v>551</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>552</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -11277,10 +11277,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="7" t="s">
+        <v>552</v>
+      </c>
+      <c r="C31" s="8" t="s">
         <v>553</v>
-      </c>
-      <c r="C31" s="8" t="s">
-        <v>554</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -11288,10 +11288,10 @@
         <v>31</v>
       </c>
       <c r="B32" s="7" t="s">
+        <v>554</v>
+      </c>
+      <c r="C32" s="8" t="s">
         <v>555</v>
-      </c>
-      <c r="C32" s="8" t="s">
-        <v>556</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -11299,10 +11299,10 @@
         <v>32</v>
       </c>
       <c r="B33" s="7" t="s">
+        <v>556</v>
+      </c>
+      <c r="C33" s="8" t="s">
         <v>557</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>558</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -11310,10 +11310,10 @@
         <v>33</v>
       </c>
       <c r="B34" s="7" t="s">
+        <v>558</v>
+      </c>
+      <c r="C34" s="8" t="s">
         <v>559</v>
-      </c>
-      <c r="C34" s="8" t="s">
-        <v>560</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -11321,10 +11321,10 @@
         <v>34</v>
       </c>
       <c r="B35" s="7" t="s">
+        <v>560</v>
+      </c>
+      <c r="C35" s="8" t="s">
         <v>561</v>
-      </c>
-      <c r="C35" s="8" t="s">
-        <v>562</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -11332,10 +11332,10 @@
         <v>35</v>
       </c>
       <c r="B36" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="C36" s="8" t="s">
         <v>563</v>
-      </c>
-      <c r="C36" s="8" t="s">
-        <v>564</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -11343,10 +11343,10 @@
         <v>36</v>
       </c>
       <c r="B37" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="C37" s="8" t="s">
         <v>565</v>
-      </c>
-      <c r="C37" s="8" t="s">
-        <v>566</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -11354,10 +11354,10 @@
         <v>37</v>
       </c>
       <c r="B38" s="7" t="s">
+        <v>566</v>
+      </c>
+      <c r="C38" s="8" t="s">
         <v>567</v>
-      </c>
-      <c r="C38" s="8" t="s">
-        <v>568</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -11365,10 +11365,10 @@
         <v>38</v>
       </c>
       <c r="B39" s="7" t="s">
+        <v>568</v>
+      </c>
+      <c r="C39" s="8" t="s">
         <v>569</v>
-      </c>
-      <c r="C39" s="8" t="s">
-        <v>570</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -11376,10 +11376,10 @@
         <v>39</v>
       </c>
       <c r="B40" s="7" t="s">
+        <v>570</v>
+      </c>
+      <c r="C40" s="8" t="s">
         <v>571</v>
-      </c>
-      <c r="C40" s="8" t="s">
-        <v>572</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -11387,10 +11387,10 @@
         <v>40</v>
       </c>
       <c r="B41" s="7" t="s">
+        <v>572</v>
+      </c>
+      <c r="C41" s="8" t="s">
         <v>573</v>
-      </c>
-      <c r="C41" s="8" t="s">
-        <v>574</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -11398,10 +11398,10 @@
         <v>41</v>
       </c>
       <c r="B42" s="7" t="s">
+        <v>574</v>
+      </c>
+      <c r="C42" s="8" t="s">
         <v>575</v>
-      </c>
-      <c r="C42" s="8" t="s">
-        <v>576</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -11409,10 +11409,10 @@
         <v>42</v>
       </c>
       <c r="B43" s="7" t="s">
+        <v>576</v>
+      </c>
+      <c r="C43" s="8" t="s">
         <v>577</v>
-      </c>
-      <c r="C43" s="8" t="s">
-        <v>578</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -11420,10 +11420,10 @@
         <v>43</v>
       </c>
       <c r="B44" s="7" t="s">
+        <v>578</v>
+      </c>
+      <c r="C44" s="8" t="s">
         <v>579</v>
-      </c>
-      <c r="C44" s="8" t="s">
-        <v>580</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -11431,10 +11431,10 @@
         <v>44</v>
       </c>
       <c r="B45" s="7" t="s">
+        <v>580</v>
+      </c>
+      <c r="C45" s="8" t="s">
         <v>581</v>
-      </c>
-      <c r="C45" s="8" t="s">
-        <v>582</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -11442,10 +11442,10 @@
         <v>45</v>
       </c>
       <c r="B46" s="7" t="s">
+        <v>582</v>
+      </c>
+      <c r="C46" s="8" t="s">
         <v>583</v>
-      </c>
-      <c r="C46" s="8" t="s">
-        <v>584</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -11453,10 +11453,10 @@
         <v>46</v>
       </c>
       <c r="B47" s="7" t="s">
+        <v>584</v>
+      </c>
+      <c r="C47" s="8" t="s">
         <v>585</v>
-      </c>
-      <c r="C47" s="8" t="s">
-        <v>586</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -11464,10 +11464,10 @@
         <v>47</v>
       </c>
       <c r="B48" s="7" t="s">
+        <v>586</v>
+      </c>
+      <c r="C48" s="8" t="s">
         <v>587</v>
-      </c>
-      <c r="C48" s="8" t="s">
-        <v>588</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -11475,10 +11475,10 @@
         <v>48</v>
       </c>
       <c r="B49" s="7" t="s">
+        <v>588</v>
+      </c>
+      <c r="C49" s="8" t="s">
         <v>589</v>
-      </c>
-      <c r="C49" s="8" t="s">
-        <v>590</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -11486,10 +11486,10 @@
         <v>49</v>
       </c>
       <c r="B50" s="7" t="s">
+        <v>590</v>
+      </c>
+      <c r="C50" s="8" t="s">
         <v>591</v>
-      </c>
-      <c r="C50" s="8" t="s">
-        <v>592</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -11497,10 +11497,10 @@
         <v>50</v>
       </c>
       <c r="B51" s="7" t="s">
+        <v>592</v>
+      </c>
+      <c r="C51" s="8" t="s">
         <v>593</v>
-      </c>
-      <c r="C51" s="8" t="s">
-        <v>594</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -11508,10 +11508,10 @@
         <v>51</v>
       </c>
       <c r="B52" s="7" t="s">
+        <v>594</v>
+      </c>
+      <c r="C52" s="8" t="s">
         <v>595</v>
-      </c>
-      <c r="C52" s="8" t="s">
-        <v>596</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -11519,10 +11519,10 @@
         <v>52</v>
       </c>
       <c r="B53" s="7" t="s">
+        <v>596</v>
+      </c>
+      <c r="C53" s="8" t="s">
         <v>597</v>
-      </c>
-      <c r="C53" s="8" t="s">
-        <v>598</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -11530,10 +11530,10 @@
         <v>53</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -11541,10 +11541,10 @@
         <v>54</v>
       </c>
       <c r="B55" s="7" t="s">
+        <v>599</v>
+      </c>
+      <c r="C55" s="8" t="s">
         <v>600</v>
-      </c>
-      <c r="C55" s="8" t="s">
-        <v>601</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -11552,10 +11552,10 @@
         <v>55</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -11620,10 +11620,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
+        <v>603</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>604</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>605</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -11631,10 +11631,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
+        <v>605</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>606</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>607</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -11642,10 +11642,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
+        <v>607</v>
+      </c>
+      <c r="C4" s="8" t="s">
         <v>608</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>609</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -11653,10 +11653,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
+        <v>609</v>
+      </c>
+      <c r="C5" s="8" t="s">
         <v>610</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>611</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="30.6" x14ac:dyDescent="0.3">
@@ -11664,10 +11664,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="7" t="s">
+        <v>611</v>
+      </c>
+      <c r="C6" s="8" t="s">
         <v>612</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>613</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -11675,10 +11675,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="7" t="s">
+        <v>613</v>
+      </c>
+      <c r="C7" s="8" t="s">
         <v>614</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>615</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -11686,10 +11686,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="7" t="s">
+        <v>615</v>
+      </c>
+      <c r="C8" s="8" t="s">
         <v>616</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>617</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -11697,10 +11697,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="7" t="s">
+        <v>617</v>
+      </c>
+      <c r="C9" s="8" t="s">
         <v>618</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>619</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
@@ -11708,10 +11708,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="7" t="s">
+        <v>619</v>
+      </c>
+      <c r="C10" s="8" t="s">
         <v>620</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>621</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -11719,10 +11719,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="7" t="s">
+        <v>621</v>
+      </c>
+      <c r="C11" s="8" t="s">
         <v>622</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>623</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -11730,10 +11730,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="7" t="s">
+        <v>623</v>
+      </c>
+      <c r="C12" s="8" t="s">
         <v>624</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>625</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -11741,10 +11741,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="7" t="s">
+        <v>625</v>
+      </c>
+      <c r="C13" s="8" t="s">
         <v>626</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>627</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -11752,10 +11752,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="7" t="s">
+        <v>627</v>
+      </c>
+      <c r="C14" s="8" t="s">
         <v>628</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>629</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -11763,10 +11763,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="7" t="s">
+        <v>629</v>
+      </c>
+      <c r="C15" s="8" t="s">
         <v>630</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>631</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -11774,10 +11774,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="7" t="s">
+        <v>631</v>
+      </c>
+      <c r="C16" s="8" t="s">
         <v>632</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>633</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -11785,7 +11785,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="C17" s="8" t="s">
         <v>123</v>
@@ -11796,10 +11796,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="7" t="s">
+        <v>634</v>
+      </c>
+      <c r="C18" s="8" t="s">
         <v>635</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>636</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -11807,10 +11807,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="7" t="s">
+        <v>636</v>
+      </c>
+      <c r="C19" s="8" t="s">
         <v>637</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>638</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -11818,10 +11818,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="7" t="s">
+        <v>638</v>
+      </c>
+      <c r="C20" s="8" t="s">
         <v>639</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>640</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -11829,10 +11829,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="7" t="s">
+        <v>640</v>
+      </c>
+      <c r="C21" s="8" t="s">
         <v>641</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>642</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -11840,10 +11840,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="7" t="s">
+        <v>642</v>
+      </c>
+      <c r="C22" s="8" t="s">
         <v>643</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>644</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -11851,10 +11851,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="7" t="s">
+        <v>644</v>
+      </c>
+      <c r="C23" s="8" t="s">
         <v>645</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>646</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -11862,10 +11862,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="7" t="s">
+        <v>646</v>
+      </c>
+      <c r="C24" s="8" t="s">
         <v>647</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>648</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -11873,10 +11873,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="7" t="s">
+        <v>648</v>
+      </c>
+      <c r="C25" s="8" t="s">
         <v>649</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>650</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -11884,10 +11884,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="7" t="s">
+        <v>650</v>
+      </c>
+      <c r="C26" s="8" t="s">
         <v>651</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>652</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -11895,10 +11895,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="7" t="s">
+        <v>652</v>
+      </c>
+      <c r="C27" s="8" t="s">
         <v>653</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>654</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -11906,10 +11906,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="7" t="s">
+        <v>654</v>
+      </c>
+      <c r="C28" s="8" t="s">
         <v>655</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>656</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -11917,10 +11917,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="7" t="s">
+        <v>656</v>
+      </c>
+      <c r="C29" s="8" t="s">
         <v>657</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>658</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -11928,10 +11928,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="7" t="s">
+        <v>658</v>
+      </c>
+      <c r="C30" s="8" t="s">
         <v>659</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>660</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -11939,10 +11939,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="7" t="s">
+        <v>660</v>
+      </c>
+      <c r="C31" s="8" t="s">
         <v>661</v>
-      </c>
-      <c r="C31" s="8" t="s">
-        <v>662</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -11950,10 +11950,10 @@
         <v>31</v>
       </c>
       <c r="B32" s="7" t="s">
+        <v>662</v>
+      </c>
+      <c r="C32" s="8" t="s">
         <v>663</v>
-      </c>
-      <c r="C32" s="8" t="s">
-        <v>664</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -11961,10 +11961,10 @@
         <v>32</v>
       </c>
       <c r="B33" s="7" t="s">
+        <v>664</v>
+      </c>
+      <c r="C33" s="8" t="s">
         <v>665</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>666</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -11972,10 +11972,10 @@
         <v>33</v>
       </c>
       <c r="B34" s="7" t="s">
+        <v>666</v>
+      </c>
+      <c r="C34" s="8" t="s">
         <v>667</v>
-      </c>
-      <c r="C34" s="8" t="s">
-        <v>668</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -11983,10 +11983,10 @@
         <v>34</v>
       </c>
       <c r="B35" s="7" t="s">
+        <v>668</v>
+      </c>
+      <c r="C35" s="8" t="s">
         <v>669</v>
-      </c>
-      <c r="C35" s="8" t="s">
-        <v>670</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -11994,10 +11994,10 @@
         <v>35</v>
       </c>
       <c r="B36" s="7" t="s">
+        <v>670</v>
+      </c>
+      <c r="C36" s="8" t="s">
         <v>671</v>
-      </c>
-      <c r="C36" s="8" t="s">
-        <v>672</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -12005,10 +12005,10 @@
         <v>36</v>
       </c>
       <c r="B37" s="7" t="s">
+        <v>672</v>
+      </c>
+      <c r="C37" s="8" t="s">
         <v>673</v>
-      </c>
-      <c r="C37" s="8" t="s">
-        <v>674</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -12016,10 +12016,10 @@
         <v>37</v>
       </c>
       <c r="B38" s="7" t="s">
+        <v>674</v>
+      </c>
+      <c r="C38" s="8" t="s">
         <v>675</v>
-      </c>
-      <c r="C38" s="8" t="s">
-        <v>676</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -12027,10 +12027,10 @@
         <v>38</v>
       </c>
       <c r="B39" s="7" t="s">
+        <v>676</v>
+      </c>
+      <c r="C39" s="8" t="s">
         <v>677</v>
-      </c>
-      <c r="C39" s="8" t="s">
-        <v>678</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -12038,10 +12038,10 @@
         <v>39</v>
       </c>
       <c r="B40" s="7" t="s">
+        <v>678</v>
+      </c>
+      <c r="C40" s="8" t="s">
         <v>679</v>
-      </c>
-      <c r="C40" s="8" t="s">
-        <v>680</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -12049,10 +12049,10 @@
         <v>40</v>
       </c>
       <c r="B41" s="7" t="s">
+        <v>680</v>
+      </c>
+      <c r="C41" s="8" t="s">
         <v>681</v>
-      </c>
-      <c r="C41" s="8" t="s">
-        <v>682</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="46.8" x14ac:dyDescent="0.3">
@@ -12060,10 +12060,10 @@
         <v>41</v>
       </c>
       <c r="B42" s="7" t="s">
+        <v>682</v>
+      </c>
+      <c r="C42" s="8" t="s">
         <v>683</v>
-      </c>
-      <c r="C42" s="8" t="s">
-        <v>684</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
@@ -12071,10 +12071,10 @@
         <v>42</v>
       </c>
       <c r="B43" s="7" t="s">
+        <v>684</v>
+      </c>
+      <c r="C43" s="8" t="s">
         <v>685</v>
-      </c>
-      <c r="C43" s="8" t="s">
-        <v>686</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -12082,10 +12082,10 @@
         <v>43</v>
       </c>
       <c r="B44" s="7" t="s">
+        <v>686</v>
+      </c>
+      <c r="C44" s="8" t="s">
         <v>687</v>
-      </c>
-      <c r="C44" s="8" t="s">
-        <v>688</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -12093,10 +12093,10 @@
         <v>44</v>
       </c>
       <c r="B45" s="7" t="s">
+        <v>688</v>
+      </c>
+      <c r="C45" s="8" t="s">
         <v>689</v>
-      </c>
-      <c r="C45" s="8" t="s">
-        <v>690</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
@@ -12104,10 +12104,10 @@
         <v>45</v>
       </c>
       <c r="B46" s="7" t="s">
+        <v>690</v>
+      </c>
+      <c r="C46" s="8" t="s">
         <v>691</v>
-      </c>
-      <c r="C46" s="8" t="s">
-        <v>692</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -12115,10 +12115,10 @@
         <v>46</v>
       </c>
       <c r="B47" s="7" t="s">
+        <v>692</v>
+      </c>
+      <c r="C47" s="8" t="s">
         <v>693</v>
-      </c>
-      <c r="C47" s="8" t="s">
-        <v>694</v>
       </c>
     </row>
   </sheetData>
@@ -12155,10 +12155,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="10" t="s">
+        <v>722</v>
+      </c>
+      <c r="C2" s="11" t="s">
         <v>723</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>724</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -12166,10 +12166,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="10" t="s">
+        <v>724</v>
+      </c>
+      <c r="C3" s="11" t="s">
         <v>725</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>726</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -12177,10 +12177,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="10" t="s">
+        <v>726</v>
+      </c>
+      <c r="C4" s="11" t="s">
         <v>727</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>728</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -12188,10 +12188,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="10" t="s">
+        <v>728</v>
+      </c>
+      <c r="C5" s="11" t="s">
         <v>729</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>730</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -12199,10 +12199,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="10" t="s">
+        <v>730</v>
+      </c>
+      <c r="C6" s="11" t="s">
         <v>731</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>732</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -12210,10 +12210,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="10" t="s">
+        <v>732</v>
+      </c>
+      <c r="C7" s="11" t="s">
         <v>733</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>734</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -12221,10 +12221,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="10" t="s">
+        <v>734</v>
+      </c>
+      <c r="C8" s="11" t="s">
         <v>735</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>736</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -12232,10 +12232,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="10" t="s">
+        <v>736</v>
+      </c>
+      <c r="C9" s="11" t="s">
         <v>737</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>738</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -12243,10 +12243,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="10" t="s">
+        <v>738</v>
+      </c>
+      <c r="C10" s="11" t="s">
         <v>739</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>740</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -12254,10 +12254,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="10" t="s">
+        <v>740</v>
+      </c>
+      <c r="C11" s="11" t="s">
         <v>741</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>742</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -12265,10 +12265,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="10" t="s">
+        <v>742</v>
+      </c>
+      <c r="C12" s="11" t="s">
         <v>743</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>744</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -12276,10 +12276,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="10" t="s">
+        <v>744</v>
+      </c>
+      <c r="C13" s="11" t="s">
         <v>745</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>746</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -12287,10 +12287,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="10" t="s">
+        <v>746</v>
+      </c>
+      <c r="C14" s="11" t="s">
         <v>747</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>748</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -12298,10 +12298,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="10" t="s">
+        <v>748</v>
+      </c>
+      <c r="C15" s="11" t="s">
         <v>749</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>750</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -12309,10 +12309,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="10" t="s">
+        <v>750</v>
+      </c>
+      <c r="C16" s="11" t="s">
         <v>751</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>752</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -12320,10 +12320,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="10" t="s">
+        <v>752</v>
+      </c>
+      <c r="C17" s="11" t="s">
         <v>753</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>754</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -12331,10 +12331,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="10" t="s">
+        <v>754</v>
+      </c>
+      <c r="C18" s="11" t="s">
         <v>755</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>756</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -12342,10 +12342,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="10" t="s">
+        <v>756</v>
+      </c>
+      <c r="C19" s="11" t="s">
         <v>757</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>758</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -12353,10 +12353,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="10" t="s">
+        <v>758</v>
+      </c>
+      <c r="C20" s="11" t="s">
         <v>759</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>760</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -12364,10 +12364,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="10" t="s">
+        <v>760</v>
+      </c>
+      <c r="C21" s="11" t="s">
         <v>761</v>
-      </c>
-      <c r="C21" s="11" t="s">
-        <v>762</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -12375,10 +12375,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="10" t="s">
+        <v>762</v>
+      </c>
+      <c r="C22" s="11" t="s">
         <v>763</v>
-      </c>
-      <c r="C22" s="11" t="s">
-        <v>764</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -12386,10 +12386,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="10" t="s">
+        <v>764</v>
+      </c>
+      <c r="C23" s="11" t="s">
         <v>765</v>
-      </c>
-      <c r="C23" s="11" t="s">
-        <v>766</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -12397,10 +12397,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="10" t="s">
+        <v>766</v>
+      </c>
+      <c r="C24" s="11" t="s">
         <v>767</v>
-      </c>
-      <c r="C24" s="11" t="s">
-        <v>768</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -12408,10 +12408,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="10" t="s">
+        <v>768</v>
+      </c>
+      <c r="C25" s="11" t="s">
         <v>769</v>
-      </c>
-      <c r="C25" s="11" t="s">
-        <v>770</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -12419,10 +12419,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="10" t="s">
+        <v>770</v>
+      </c>
+      <c r="C26" s="11" t="s">
         <v>771</v>
-      </c>
-      <c r="C26" s="11" t="s">
-        <v>772</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -12430,10 +12430,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="10" t="s">
+        <v>772</v>
+      </c>
+      <c r="C27" s="11" t="s">
         <v>773</v>
-      </c>
-      <c r="C27" s="11" t="s">
-        <v>774</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -12441,10 +12441,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="10" t="s">
+        <v>774</v>
+      </c>
+      <c r="C28" s="11" t="s">
         <v>775</v>
-      </c>
-      <c r="C28" s="11" t="s">
-        <v>776</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -12452,10 +12452,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="10" t="s">
+        <v>776</v>
+      </c>
+      <c r="C29" s="11" t="s">
         <v>777</v>
-      </c>
-      <c r="C29" s="11" t="s">
-        <v>778</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -12463,10 +12463,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="10" t="s">
+        <v>778</v>
+      </c>
+      <c r="C30" s="11" t="s">
         <v>779</v>
-      </c>
-      <c r="C30" s="11" t="s">
-        <v>780</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -12474,10 +12474,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="10" t="s">
+        <v>780</v>
+      </c>
+      <c r="C31" s="11" t="s">
         <v>781</v>
-      </c>
-      <c r="C31" s="11" t="s">
-        <v>782</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -12485,10 +12485,10 @@
         <v>31</v>
       </c>
       <c r="B32" s="10" t="s">
+        <v>782</v>
+      </c>
+      <c r="C32" s="11" t="s">
         <v>783</v>
-      </c>
-      <c r="C32" s="11" t="s">
-        <v>784</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -12496,10 +12496,10 @@
         <v>32</v>
       </c>
       <c r="B33" s="10" t="s">
+        <v>784</v>
+      </c>
+      <c r="C33" s="11" t="s">
         <v>785</v>
-      </c>
-      <c r="C33" s="11" t="s">
-        <v>786</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -12507,10 +12507,10 @@
         <v>33</v>
       </c>
       <c r="B34" s="10" t="s">
+        <v>786</v>
+      </c>
+      <c r="C34" s="11" t="s">
         <v>787</v>
-      </c>
-      <c r="C34" s="11" t="s">
-        <v>788</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -12518,10 +12518,10 @@
         <v>34</v>
       </c>
       <c r="B35" s="10" t="s">
+        <v>788</v>
+      </c>
+      <c r="C35" s="11" t="s">
         <v>789</v>
-      </c>
-      <c r="C35" s="11" t="s">
-        <v>790</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -12529,10 +12529,10 @@
         <v>35</v>
       </c>
       <c r="B36" s="10" t="s">
+        <v>790</v>
+      </c>
+      <c r="C36" s="11" t="s">
         <v>791</v>
-      </c>
-      <c r="C36" s="11" t="s">
-        <v>792</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -12540,10 +12540,10 @@
         <v>36</v>
       </c>
       <c r="B37" s="10" t="s">
+        <v>792</v>
+      </c>
+      <c r="C37" s="11" t="s">
         <v>793</v>
-      </c>
-      <c r="C37" s="11" t="s">
-        <v>794</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -12551,10 +12551,10 @@
         <v>37</v>
       </c>
       <c r="B38" s="10" t="s">
+        <v>794</v>
+      </c>
+      <c r="C38" s="11" t="s">
         <v>795</v>
-      </c>
-      <c r="C38" s="11" t="s">
-        <v>796</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -12562,10 +12562,10 @@
         <v>38</v>
       </c>
       <c r="B39" s="10" t="s">
+        <v>796</v>
+      </c>
+      <c r="C39" s="11" t="s">
         <v>797</v>
-      </c>
-      <c r="C39" s="11" t="s">
-        <v>798</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -12573,10 +12573,10 @@
         <v>39</v>
       </c>
       <c r="B40" s="10" t="s">
+        <v>798</v>
+      </c>
+      <c r="C40" s="11" t="s">
         <v>799</v>
-      </c>
-      <c r="C40" s="11" t="s">
-        <v>800</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -12584,10 +12584,10 @@
         <v>40</v>
       </c>
       <c r="B41" s="10" t="s">
+        <v>800</v>
+      </c>
+      <c r="C41" s="11" t="s">
         <v>801</v>
-      </c>
-      <c r="C41" s="11" t="s">
-        <v>802</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -12595,10 +12595,10 @@
         <v>41</v>
       </c>
       <c r="B42" s="10" t="s">
+        <v>802</v>
+      </c>
+      <c r="C42" s="11" t="s">
         <v>803</v>
-      </c>
-      <c r="C42" s="11" t="s">
-        <v>804</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -12606,10 +12606,10 @@
         <v>42</v>
       </c>
       <c r="B43" s="10" t="s">
+        <v>804</v>
+      </c>
+      <c r="C43" s="11" t="s">
         <v>805</v>
-      </c>
-      <c r="C43" s="11" t="s">
-        <v>806</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -12617,10 +12617,10 @@
         <v>43</v>
       </c>
       <c r="B44" s="10" t="s">
+        <v>806</v>
+      </c>
+      <c r="C44" s="11" t="s">
         <v>807</v>
-      </c>
-      <c r="C44" s="11" t="s">
-        <v>808</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -12628,10 +12628,10 @@
         <v>44</v>
       </c>
       <c r="B45" s="10" t="s">
+        <v>808</v>
+      </c>
+      <c r="C45" s="11" t="s">
         <v>809</v>
-      </c>
-      <c r="C45" s="11" t="s">
-        <v>810</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -12639,10 +12639,10 @@
         <v>45</v>
       </c>
       <c r="B46" s="10" t="s">
+        <v>810</v>
+      </c>
+      <c r="C46" s="11" t="s">
         <v>811</v>
-      </c>
-      <c r="C46" s="11" t="s">
-        <v>812</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -12650,10 +12650,10 @@
         <v>46</v>
       </c>
       <c r="B47" s="10" t="s">
+        <v>812</v>
+      </c>
+      <c r="C47" s="11" t="s">
         <v>813</v>
-      </c>
-      <c r="C47" s="11" t="s">
-        <v>814</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -12661,10 +12661,10 @@
         <v>47</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -12672,10 +12672,10 @@
         <v>48</v>
       </c>
       <c r="B49" s="10" t="s">
+        <v>815</v>
+      </c>
+      <c r="C49" s="11" t="s">
         <v>816</v>
-      </c>
-      <c r="C49" s="11" t="s">
-        <v>817</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -12683,10 +12683,10 @@
         <v>49</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -12694,10 +12694,10 @@
         <v>50</v>
       </c>
       <c r="B51" s="10" t="s">
+        <v>818</v>
+      </c>
+      <c r="C51" s="11" t="s">
         <v>819</v>
-      </c>
-      <c r="C51" s="11" t="s">
-        <v>820</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -12705,10 +12705,10 @@
         <v>51</v>
       </c>
       <c r="B52" s="10" t="s">
+        <v>820</v>
+      </c>
+      <c r="C52" s="11" t="s">
         <v>821</v>
-      </c>
-      <c r="C52" s="11" t="s">
-        <v>822</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -12716,10 +12716,10 @@
         <v>52</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="C53" s="11" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -12727,10 +12727,10 @@
         <v>53</v>
       </c>
       <c r="B54" s="10" t="s">
+        <v>823</v>
+      </c>
+      <c r="C54" s="11" t="s">
         <v>824</v>
-      </c>
-      <c r="C54" s="11" t="s">
-        <v>825</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -12741,7 +12741,7 @@
         <v>39</v>
       </c>
       <c r="C55" s="11" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -12749,10 +12749,10 @@
         <v>55</v>
       </c>
       <c r="B56" s="10" t="s">
+        <v>826</v>
+      </c>
+      <c r="C56" s="11" t="s">
         <v>827</v>
-      </c>
-      <c r="C56" s="11" t="s">
-        <v>828</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -12760,10 +12760,10 @@
         <v>56</v>
       </c>
       <c r="B57" s="10" t="s">
+        <v>828</v>
+      </c>
+      <c r="C57" s="11" t="s">
         <v>829</v>
-      </c>
-      <c r="C57" s="11" t="s">
-        <v>830</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -12771,10 +12771,10 @@
         <v>57</v>
       </c>
       <c r="B58" s="10" t="s">
+        <v>830</v>
+      </c>
+      <c r="C58" s="11" t="s">
         <v>831</v>
-      </c>
-      <c r="C58" s="11" t="s">
-        <v>832</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -12782,10 +12782,10 @@
         <v>58</v>
       </c>
       <c r="B59" s="10" t="s">
+        <v>832</v>
+      </c>
+      <c r="C59" s="11" t="s">
         <v>833</v>
-      </c>
-      <c r="C59" s="11" t="s">
-        <v>834</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -12793,10 +12793,10 @@
         <v>59</v>
       </c>
       <c r="B60" s="10" t="s">
+        <v>834</v>
+      </c>
+      <c r="C60" s="11" t="s">
         <v>835</v>
-      </c>
-      <c r="C60" s="11" t="s">
-        <v>836</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -12804,10 +12804,10 @@
         <v>60</v>
       </c>
       <c r="B61" s="10" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="C61" s="11" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
     </row>
   </sheetData>
@@ -12843,10 +12843,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
+        <v>1146</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>1147</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>1148</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -12854,10 +12854,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
+        <v>1148</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>1149</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>1150</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -12865,10 +12865,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
+        <v>1150</v>
+      </c>
+      <c r="C4" s="8" t="s">
         <v>1151</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>1152</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -12876,10 +12876,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
+        <v>1152</v>
+      </c>
+      <c r="C5" s="8" t="s">
         <v>1153</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>1154</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -12887,10 +12887,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="7" t="s">
+        <v>1154</v>
+      </c>
+      <c r="C6" s="8" t="s">
         <v>1155</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>1156</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -12898,10 +12898,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="7" t="s">
+        <v>1156</v>
+      </c>
+      <c r="C7" s="8" t="s">
         <v>1157</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>1158</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -12909,10 +12909,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="7" t="s">
+        <v>1158</v>
+      </c>
+      <c r="C8" s="8" t="s">
         <v>1159</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>1160</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -12920,10 +12920,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="7" t="s">
+        <v>1160</v>
+      </c>
+      <c r="C9" s="8" t="s">
         <v>1161</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>1162</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -12931,10 +12931,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="7" t="s">
+        <v>1162</v>
+      </c>
+      <c r="C10" s="8" t="s">
         <v>1163</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>1164</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -12942,10 +12942,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="7" t="s">
+        <v>1164</v>
+      </c>
+      <c r="C11" s="8" t="s">
         <v>1165</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>1166</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -12953,10 +12953,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="7" t="s">
+        <v>1166</v>
+      </c>
+      <c r="C12" s="8" t="s">
         <v>1167</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>1168</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -12964,10 +12964,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="7" t="s">
+        <v>1168</v>
+      </c>
+      <c r="C13" s="8" t="s">
         <v>1169</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>1170</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -12975,10 +12975,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="7" t="s">
+        <v>1170</v>
+      </c>
+      <c r="C14" s="8" t="s">
         <v>1171</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>1172</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -12986,10 +12986,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="7" t="s">
+        <v>1172</v>
+      </c>
+      <c r="C15" s="8" t="s">
         <v>1173</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>1174</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -12997,10 +12997,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="7" t="s">
+        <v>1174</v>
+      </c>
+      <c r="C16" s="8" t="s">
         <v>1175</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>1176</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -13008,10 +13008,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="7" t="s">
+        <v>1176</v>
+      </c>
+      <c r="C17" s="8" t="s">
         <v>1177</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>1178</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -13019,10 +13019,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="7" t="s">
+        <v>1178</v>
+      </c>
+      <c r="C18" s="8" t="s">
         <v>1179</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>1180</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -13030,10 +13030,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="7" t="s">
+        <v>1180</v>
+      </c>
+      <c r="C19" s="8" t="s">
         <v>1181</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>1182</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -13041,10 +13041,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="7" t="s">
+        <v>1182</v>
+      </c>
+      <c r="C20" s="8" t="s">
         <v>1183</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>1184</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -13052,10 +13052,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -13063,10 +13063,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -13074,10 +13074,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="7" t="s">
+        <v>1186</v>
+      </c>
+      <c r="C23" s="8" t="s">
         <v>1187</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>1188</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -13085,10 +13085,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="7" t="s">
+        <v>1188</v>
+      </c>
+      <c r="C24" s="8" t="s">
         <v>1189</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>1190</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -13096,10 +13096,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="7" t="s">
+        <v>1190</v>
+      </c>
+      <c r="C25" s="8" t="s">
         <v>1191</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>1192</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -13107,10 +13107,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="7" t="s">
+        <v>1192</v>
+      </c>
+      <c r="C26" s="8" t="s">
         <v>1193</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>1194</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -13118,10 +13118,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="7" t="s">
+        <v>1194</v>
+      </c>
+      <c r="C27" s="8" t="s">
         <v>1195</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>1196</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -13129,10 +13129,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="7" t="s">
+        <v>1196</v>
+      </c>
+      <c r="C28" s="8" t="s">
         <v>1197</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>1198</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -13140,10 +13140,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="7" t="s">
+        <v>1198</v>
+      </c>
+      <c r="C29" s="8" t="s">
         <v>1199</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>1200</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -13151,10 +13151,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="7" t="s">
+        <v>1200</v>
+      </c>
+      <c r="C30" s="8" t="s">
         <v>1201</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>1202</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -13162,10 +13162,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="7" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C31" s="8" t="s">
         <v>1203</v>
-      </c>
-      <c r="C31" s="8" t="s">
-        <v>1204</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -13173,10 +13173,10 @@
         <v>31</v>
       </c>
       <c r="B32" s="7" t="s">
+        <v>1204</v>
+      </c>
+      <c r="C32" s="8" t="s">
         <v>1205</v>
-      </c>
-      <c r="C32" s="8" t="s">
-        <v>1206</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -13184,10 +13184,10 @@
         <v>32</v>
       </c>
       <c r="B33" s="7" t="s">
+        <v>1206</v>
+      </c>
+      <c r="C33" s="8" t="s">
         <v>1207</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>1208</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -13195,10 +13195,10 @@
         <v>33</v>
       </c>
       <c r="B34" s="7" t="s">
+        <v>1208</v>
+      </c>
+      <c r="C34" s="8" t="s">
         <v>1209</v>
-      </c>
-      <c r="C34" s="8" t="s">
-        <v>1210</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -13206,10 +13206,10 @@
         <v>34</v>
       </c>
       <c r="B35" s="7" t="s">
+        <v>1210</v>
+      </c>
+      <c r="C35" s="8" t="s">
         <v>1211</v>
-      </c>
-      <c r="C35" s="8" t="s">
-        <v>1212</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -13217,10 +13217,10 @@
         <v>35</v>
       </c>
       <c r="B36" s="7" t="s">
+        <v>1212</v>
+      </c>
+      <c r="C36" s="8" t="s">
         <v>1213</v>
-      </c>
-      <c r="C36" s="8" t="s">
-        <v>1214</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -13228,10 +13228,10 @@
         <v>36</v>
       </c>
       <c r="B37" s="7" t="s">
+        <v>1214</v>
+      </c>
+      <c r="C37" s="8" t="s">
         <v>1215</v>
-      </c>
-      <c r="C37" s="8" t="s">
-        <v>1216</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -13239,10 +13239,10 @@
         <v>37</v>
       </c>
       <c r="B38" s="7" t="s">
+        <v>1216</v>
+      </c>
+      <c r="C38" s="8" t="s">
         <v>1217</v>
-      </c>
-      <c r="C38" s="8" t="s">
-        <v>1218</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -13250,10 +13250,10 @@
         <v>38</v>
       </c>
       <c r="B39" s="7" t="s">
+        <v>1218</v>
+      </c>
+      <c r="C39" s="8" t="s">
         <v>1219</v>
-      </c>
-      <c r="C39" s="8" t="s">
-        <v>1220</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -13261,10 +13261,10 @@
         <v>39</v>
       </c>
       <c r="B40" s="7" t="s">
+        <v>1220</v>
+      </c>
+      <c r="C40" s="8" t="s">
         <v>1221</v>
-      </c>
-      <c r="C40" s="8" t="s">
-        <v>1222</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -13272,10 +13272,10 @@
         <v>40</v>
       </c>
       <c r="B41" s="7" t="s">
+        <v>1222</v>
+      </c>
+      <c r="C41" s="8" t="s">
         <v>1223</v>
-      </c>
-      <c r="C41" s="8" t="s">
-        <v>1224</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -13283,10 +13283,10 @@
         <v>41</v>
       </c>
       <c r="B42" s="7" t="s">
+        <v>1224</v>
+      </c>
+      <c r="C42" s="8" t="s">
         <v>1225</v>
-      </c>
-      <c r="C42" s="8" t="s">
-        <v>1226</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -13294,10 +13294,10 @@
         <v>42</v>
       </c>
       <c r="B43" s="7" t="s">
+        <v>1226</v>
+      </c>
+      <c r="C43" s="8" t="s">
         <v>1227</v>
-      </c>
-      <c r="C43" s="8" t="s">
-        <v>1228</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -13305,10 +13305,10 @@
         <v>43</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -13316,10 +13316,10 @@
         <v>44</v>
       </c>
       <c r="B45" s="7" t="s">
+        <v>1229</v>
+      </c>
+      <c r="C45" s="8" t="s">
         <v>1230</v>
-      </c>
-      <c r="C45" s="8" t="s">
-        <v>1231</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -13327,10 +13327,10 @@
         <v>45</v>
       </c>
       <c r="B46" s="7" t="s">
+        <v>1231</v>
+      </c>
+      <c r="C46" s="8" t="s">
         <v>1232</v>
-      </c>
-      <c r="C46" s="8" t="s">
-        <v>1233</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -13338,10 +13338,10 @@
         <v>46</v>
       </c>
       <c r="B47" s="7" t="s">
+        <v>1233</v>
+      </c>
+      <c r="C47" s="8" t="s">
         <v>1234</v>
-      </c>
-      <c r="C47" s="8" t="s">
-        <v>1235</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -13349,10 +13349,10 @@
         <v>47</v>
       </c>
       <c r="B48" s="7" t="s">
+        <v>1235</v>
+      </c>
+      <c r="C48" s="8" t="s">
         <v>1236</v>
-      </c>
-      <c r="C48" s="8" t="s">
-        <v>1237</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -13360,10 +13360,10 @@
         <v>48</v>
       </c>
       <c r="B49" s="7" t="s">
+        <v>1237</v>
+      </c>
+      <c r="C49" s="8" t="s">
         <v>1238</v>
-      </c>
-      <c r="C49" s="8" t="s">
-        <v>1239</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -13371,10 +13371,10 @@
         <v>49</v>
       </c>
       <c r="B50" s="7" t="s">
+        <v>1239</v>
+      </c>
+      <c r="C50" s="8" t="s">
         <v>1240</v>
-      </c>
-      <c r="C50" s="8" t="s">
-        <v>1241</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -13382,10 +13382,10 @@
         <v>50</v>
       </c>
       <c r="B51" s="7" t="s">
+        <v>1241</v>
+      </c>
+      <c r="C51" s="8" t="s">
         <v>1242</v>
-      </c>
-      <c r="C51" s="8" t="s">
-        <v>1243</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -13393,10 +13393,10 @@
         <v>51</v>
       </c>
       <c r="B52" s="7" t="s">
+        <v>1243</v>
+      </c>
+      <c r="C52" s="8" t="s">
         <v>1244</v>
-      </c>
-      <c r="C52" s="8" t="s">
-        <v>1245</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -13404,10 +13404,10 @@
         <v>52</v>
       </c>
       <c r="B53" s="7" t="s">
+        <v>1245</v>
+      </c>
+      <c r="C53" s="8" t="s">
         <v>1246</v>
-      </c>
-      <c r="C53" s="8" t="s">
-        <v>1247</v>
       </c>
     </row>
   </sheetData>

--- a/1.xlsx
+++ b/1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" tabRatio="668" firstSheet="3" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" tabRatio="668" firstSheet="3" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Data1" sheetId="5" r:id="rId1"/>
@@ -22,24 +22,27 @@
     <sheet name="Data8" sheetId="12" r:id="rId8"/>
     <sheet name="Data9" sheetId="28" r:id="rId9"/>
     <sheet name="Data10" sheetId="29" r:id="rId10"/>
-    <sheet name="Verb" sheetId="9" r:id="rId11"/>
-    <sheet name="Bonpoe1" sheetId="10" r:id="rId12"/>
-    <sheet name="Bonpoe2" sheetId="14" r:id="rId13"/>
-    <sheet name="Bonpoe3" sheetId="15" r:id="rId14"/>
-    <sheet name="Bonpoe4" sheetId="16" r:id="rId15"/>
-    <sheet name="Bonpoe5" sheetId="17" r:id="rId16"/>
-    <sheet name="Bonpoe6" sheetId="19" r:id="rId17"/>
-    <sheet name="Bonpoe7" sheetId="18" r:id="rId18"/>
-    <sheet name="hiragana" sheetId="20" r:id="rId19"/>
-    <sheet name="dakuon" sheetId="22" r:id="rId20"/>
-    <sheet name="handakuon" sheetId="23" r:id="rId21"/>
-    <sheet name="youon" sheetId="24" r:id="rId22"/>
-    <sheet name="katakana" sheetId="21" r:id="rId23"/>
-    <sheet name="kdakuon" sheetId="25" r:id="rId24"/>
-    <sheet name="khandakuon" sheetId="26" r:id="rId25"/>
-    <sheet name="kyouon" sheetId="27" r:id="rId26"/>
-    <sheet name="Sheet1" sheetId="13" r:id="rId27"/>
-    <sheet name="Q" sheetId="11" r:id="rId28"/>
+    <sheet name="Data11" sheetId="32" r:id="rId11"/>
+    <sheet name="Data12" sheetId="31" r:id="rId12"/>
+    <sheet name="Data13" sheetId="30" r:id="rId13"/>
+    <sheet name="Verb" sheetId="9" r:id="rId14"/>
+    <sheet name="Bonpoe1" sheetId="10" r:id="rId15"/>
+    <sheet name="Bonpoe2" sheetId="14" r:id="rId16"/>
+    <sheet name="Bonpoe3" sheetId="15" r:id="rId17"/>
+    <sheet name="Bonpoe4" sheetId="16" r:id="rId18"/>
+    <sheet name="Bonpoe5" sheetId="17" r:id="rId19"/>
+    <sheet name="Bonpoe6" sheetId="19" r:id="rId20"/>
+    <sheet name="Bonpoe7" sheetId="18" r:id="rId21"/>
+    <sheet name="hiragana" sheetId="20" r:id="rId22"/>
+    <sheet name="dakuon" sheetId="22" r:id="rId23"/>
+    <sheet name="handakuon" sheetId="23" r:id="rId24"/>
+    <sheet name="youon" sheetId="24" r:id="rId25"/>
+    <sheet name="katakana" sheetId="21" r:id="rId26"/>
+    <sheet name="kdakuon" sheetId="25" r:id="rId27"/>
+    <sheet name="khandakuon" sheetId="26" r:id="rId28"/>
+    <sheet name="kyouon" sheetId="27" r:id="rId29"/>
+    <sheet name="Sheet1" sheetId="13" r:id="rId30"/>
+    <sheet name="Q" sheetId="11" r:id="rId31"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -51,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1533" uniqueCount="1345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1833" uniqueCount="1633">
   <si>
     <t>わたし</t>
   </si>
@@ -4305,6 +4308,870 @@
   </si>
   <si>
     <t>びじゅつかん</t>
+  </si>
+  <si>
+    <t>います「こどもが～」</t>
+  </si>
+  <si>
+    <t>ရှိသည် [ကလေး~]</t>
+  </si>
+  <si>
+    <t>います「にほんに～」</t>
+  </si>
+  <si>
+    <t>ရှိသည် [ဂျပန်မှာ~]</t>
+  </si>
+  <si>
+    <t>かかります</t>
+  </si>
+  <si>
+    <t>ကြာသည်၊ ကုန်ကျသည်</t>
+  </si>
+  <si>
+    <t>やすみます「かいしゃを～」</t>
+  </si>
+  <si>
+    <t>နားသည်၊ အနားယူသည်</t>
+  </si>
+  <si>
+    <t>ひとつ</t>
+  </si>
+  <si>
+    <t>တစ်ခု</t>
+  </si>
+  <si>
+    <t>ふたつ</t>
+  </si>
+  <si>
+    <t>နှစ်ခု</t>
+  </si>
+  <si>
+    <t>みっつ</t>
+  </si>
+  <si>
+    <t>သုံးခု</t>
+  </si>
+  <si>
+    <t>よっつ</t>
+  </si>
+  <si>
+    <t>လေးခု</t>
+  </si>
+  <si>
+    <t>いつつ</t>
+  </si>
+  <si>
+    <t>ငါးခု</t>
+  </si>
+  <si>
+    <t>むっつ</t>
+  </si>
+  <si>
+    <t>ခြောက်ခု</t>
+  </si>
+  <si>
+    <t>ななつ</t>
+  </si>
+  <si>
+    <t>ခုနှစ်ခု</t>
+  </si>
+  <si>
+    <t>やっつ</t>
+  </si>
+  <si>
+    <t>ရှစ်ခု</t>
+  </si>
+  <si>
+    <t>ここのつ</t>
+  </si>
+  <si>
+    <t>ကိုးခု</t>
+  </si>
+  <si>
+    <t>とお</t>
+  </si>
+  <si>
+    <t>ဆယ်ခု</t>
+  </si>
+  <si>
+    <t>いくつ</t>
+  </si>
+  <si>
+    <t>ဘယ်နှစ်ခု</t>
+  </si>
+  <si>
+    <t>ひとり</t>
+  </si>
+  <si>
+    <t>တစ်ယောက်၊ တစ်ဦး</t>
+  </si>
+  <si>
+    <t>ふたり</t>
+  </si>
+  <si>
+    <t>နှစ်ယောက်၊ နှစ်ဦး</t>
+  </si>
+  <si>
+    <t>ーにん</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - ယောက်၊ - ဦး</t>
+  </si>
+  <si>
+    <t>ーだい</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - လုံး၊ - စီး</t>
+  </si>
+  <si>
+    <t>ーまい</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - ချပ်၊ ရွက်</t>
+  </si>
+  <si>
+    <t>ーかい</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - ကြိမ်၊ - ခါ</t>
+  </si>
+  <si>
+    <t>りんご</t>
+  </si>
+  <si>
+    <t>ပန်းသီး</t>
+  </si>
+  <si>
+    <t>みかん</t>
+  </si>
+  <si>
+    <t>လိမ္မော်သီး</t>
+  </si>
+  <si>
+    <t>サンドイッチ</t>
+  </si>
+  <si>
+    <t>ဆန်းဒွစ်ချ်</t>
+  </si>
+  <si>
+    <t>カレー「ライス」</t>
+  </si>
+  <si>
+    <t>မဆလာဟင်း၊ ကာရီ [ထမင်း]</t>
+  </si>
+  <si>
+    <t>アイスクリーム</t>
+  </si>
+  <si>
+    <t>ရေခဲမုန့်</t>
+  </si>
+  <si>
+    <t>きって</t>
+  </si>
+  <si>
+    <t>တံဆိပ်ခေါင်း</t>
+  </si>
+  <si>
+    <t>はがき</t>
+  </si>
+  <si>
+    <t>ပို့စကတ်</t>
+  </si>
+  <si>
+    <t>ふうとう</t>
+  </si>
+  <si>
+    <t>စာအိတ်</t>
+  </si>
+  <si>
+    <t>りょうしん</t>
+  </si>
+  <si>
+    <t>မိဘ</t>
+  </si>
+  <si>
+    <t>きょうだい</t>
+  </si>
+  <si>
+    <t>ညီအစ်ကို၊ မောင်နှမ</t>
+  </si>
+  <si>
+    <t>あに</t>
+  </si>
+  <si>
+    <t>အစ်ကို (မိမိ၏~)</t>
+  </si>
+  <si>
+    <t>おにいさん</t>
+  </si>
+  <si>
+    <t>အစ်ကို (တစ်ပါးသူ၏~)</t>
+  </si>
+  <si>
+    <t>あね</t>
+  </si>
+  <si>
+    <t>အစ်မ (မိမိ၏~)</t>
+  </si>
+  <si>
+    <t>おねえさん</t>
+  </si>
+  <si>
+    <t>အစ်မ (တစ်ပါးသူ၏~)</t>
+  </si>
+  <si>
+    <t>おとうと</t>
+  </si>
+  <si>
+    <t>ညီ၊ မောင် (မိမိ၏~)</t>
+  </si>
+  <si>
+    <t>おとうとさん</t>
+  </si>
+  <si>
+    <t>ညီ၊ မောင် (တစ်ပါးသူ၏~)</t>
+  </si>
+  <si>
+    <t>いもうと</t>
+  </si>
+  <si>
+    <t>ညီမ၊ နှမ (မိမိ၏~)</t>
+  </si>
+  <si>
+    <t>いもうとさん</t>
+  </si>
+  <si>
+    <t>ညီမ၊ နှမ (တစ်ပါးသူ၏~)</t>
+  </si>
+  <si>
+    <t>がいこく</t>
+  </si>
+  <si>
+    <t>နိုင်ငံခြား၊ ပြည်ပ</t>
+  </si>
+  <si>
+    <t>りゅうがくせい</t>
+  </si>
+  <si>
+    <t>နိုင်ငံခြားပညာသင် ကျောင်းသား</t>
+  </si>
+  <si>
+    <t>クラス</t>
+  </si>
+  <si>
+    <t>အတန်း</t>
+  </si>
+  <si>
+    <t>ーじかん</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - နာရီကြာ</t>
+  </si>
+  <si>
+    <t>ーしゅうかん</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - ပတ်ကြာ</t>
+  </si>
+  <si>
+    <t>ーかげつ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - လကြာ</t>
+  </si>
+  <si>
+    <t>～ぐらい</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ~ လောက်၊ ~ ခန့်</t>
+  </si>
+  <si>
+    <t>どのぐらい</t>
+  </si>
+  <si>
+    <t>ဘယ်လောက်ကြာကြာ၊ ဘယ်လောက်လောက်</t>
+  </si>
+  <si>
+    <t>ぜんぶで</t>
+  </si>
+  <si>
+    <t>အားလုံးပေါင်း၊ စုစုပေါင်း</t>
+  </si>
+  <si>
+    <t>みんな</t>
+  </si>
+  <si>
+    <t>အားလုံး</t>
+  </si>
+  <si>
+    <t>～だけ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ~ သာ၊ ~ တည်းသာ</t>
+  </si>
+  <si>
+    <t>かしこまりました</t>
+  </si>
+  <si>
+    <t>いい「お」てんきですね</t>
+  </si>
+  <si>
+    <t>ရာသီဥတုသာယာတယ်နော်</t>
+  </si>
+  <si>
+    <t>おでかけですか</t>
+  </si>
+  <si>
+    <t>အပြင်ထွက်မလို့လား</t>
+  </si>
+  <si>
+    <t>ちょっと　～まで</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ~ နားလေးတင်</t>
+  </si>
+  <si>
+    <t>いってらっしゃい</t>
+  </si>
+  <si>
+    <t>ကောင်းကောင်းသွားနော်</t>
+  </si>
+  <si>
+    <t>いってきます</t>
+  </si>
+  <si>
+    <t>သွားပြီနော်</t>
+  </si>
+  <si>
+    <t>ふなびん</t>
+  </si>
+  <si>
+    <t>ရေကြောင်းစာ၊ ဆီးမေးလ်</t>
+  </si>
+  <si>
+    <t>こうくうびん（エアメール）</t>
+  </si>
+  <si>
+    <t>လေကြောင်းစာ၊ အဲယားမေးလ်</t>
+  </si>
+  <si>
+    <t>おねがいします</t>
+  </si>
+  <si>
+    <t>ဆောင်ရွက်ပေးပါ၊ ကူညီပေးပါ</t>
+  </si>
+  <si>
+    <t>オーストラリア</t>
+  </si>
+  <si>
+    <t>သြစတြေးလျ</t>
+  </si>
+  <si>
+    <t>かんたん「な」</t>
+  </si>
+  <si>
+    <t>လွယ်ကူသော၊ ရိုးရှင်းသော</t>
+  </si>
+  <si>
+    <t>ちかい</t>
+  </si>
+  <si>
+    <t>နီးသော</t>
+  </si>
+  <si>
+    <t>とおい</t>
+  </si>
+  <si>
+    <t>ဝေးသော</t>
+  </si>
+  <si>
+    <t>はやい</t>
+  </si>
+  <si>
+    <t>မြန်သော၊ စောသော</t>
+  </si>
+  <si>
+    <t>おそい</t>
+  </si>
+  <si>
+    <t>နှေးသော၊ နောက်ကျသော</t>
+  </si>
+  <si>
+    <t>おおい「ひとが～」</t>
+  </si>
+  <si>
+    <t>များသော [ လူက ~ ]</t>
+  </si>
+  <si>
+    <t>すくない「ひとが～」</t>
+  </si>
+  <si>
+    <t>နည်းသော [ လူက ~ ]</t>
+  </si>
+  <si>
+    <t>あたたかい</t>
+  </si>
+  <si>
+    <t>နွေးသော၊ နွေးထွေးသော</t>
+  </si>
+  <si>
+    <t>すずしい</t>
+  </si>
+  <si>
+    <t>အေးမြသော</t>
+  </si>
+  <si>
+    <t>あまい</t>
+  </si>
+  <si>
+    <t>ချိုသော</t>
+  </si>
+  <si>
+    <t>からい</t>
+  </si>
+  <si>
+    <t>စပ်သော</t>
+  </si>
+  <si>
+    <t>おもい</t>
+  </si>
+  <si>
+    <t>လေးသော</t>
+  </si>
+  <si>
+    <t>かるい</t>
+  </si>
+  <si>
+    <t>ပေါ့သော</t>
+  </si>
+  <si>
+    <t>いい「コーヒーが～」</t>
+  </si>
+  <si>
+    <t>ကောင်းတယ်</t>
+  </si>
+  <si>
+    <t>きせつ</t>
+  </si>
+  <si>
+    <t>ရာသီ ဥတု</t>
+  </si>
+  <si>
+    <t>はる</t>
+  </si>
+  <si>
+    <t>နွေဦး</t>
+  </si>
+  <si>
+    <t>なつ</t>
+  </si>
+  <si>
+    <t>နွေ</t>
+  </si>
+  <si>
+    <t>あき</t>
+  </si>
+  <si>
+    <t>ဆောင်းဦး</t>
+  </si>
+  <si>
+    <t>ふゆ</t>
+  </si>
+  <si>
+    <t>ဆောင်း</t>
+  </si>
+  <si>
+    <t>てんき</t>
+  </si>
+  <si>
+    <t>မိုးလေဝသ</t>
+  </si>
+  <si>
+    <t>あめ</t>
+  </si>
+  <si>
+    <t>မိုး၊ မိုးရွာသော</t>
+  </si>
+  <si>
+    <t>ゆき</t>
+  </si>
+  <si>
+    <t>နှင်း၊ နှင်းကျသော</t>
+  </si>
+  <si>
+    <t>くもり</t>
+  </si>
+  <si>
+    <t>မိုးအုံ့သော၊ တိမ်ထူသော</t>
+  </si>
+  <si>
+    <t>ホテル</t>
+  </si>
+  <si>
+    <t>ဟိုတယ်</t>
+  </si>
+  <si>
+    <t>くうこう</t>
+  </si>
+  <si>
+    <t>လေဆိပ်၊ လေယာဥ်ကွင်း</t>
+  </si>
+  <si>
+    <t>うみ</t>
+  </si>
+  <si>
+    <t>ပင်လယ်</t>
+  </si>
+  <si>
+    <t>せかい</t>
+  </si>
+  <si>
+    <t>ကမ္ဘာ</t>
+  </si>
+  <si>
+    <t>パーティー</t>
+  </si>
+  <si>
+    <t>ပါတီ</t>
+  </si>
+  <si>
+    <t>「お」まつり</t>
+  </si>
+  <si>
+    <t>ပွဲ</t>
+  </si>
+  <si>
+    <t>すきやき</t>
+  </si>
+  <si>
+    <t>စူခိရခိ</t>
+  </si>
+  <si>
+    <t>さしみ</t>
+  </si>
+  <si>
+    <t>ဆာရှိမိ၊ ငါးစိမ်းလွှာ</t>
+  </si>
+  <si>
+    <t>「お」すし</t>
+  </si>
+  <si>
+    <t>ဆူရှီ</t>
+  </si>
+  <si>
+    <t>てんぷら</t>
+  </si>
+  <si>
+    <t>တန်ပူရာ</t>
+  </si>
+  <si>
+    <t>ぶたにく</t>
+  </si>
+  <si>
+    <t>ဝက်သား</t>
+  </si>
+  <si>
+    <t>とりにく</t>
+  </si>
+  <si>
+    <t>ကြက်သား</t>
+  </si>
+  <si>
+    <t>ぎゅうにく</t>
+  </si>
+  <si>
+    <t>အမဲသား</t>
+  </si>
+  <si>
+    <t>レモン</t>
+  </si>
+  <si>
+    <t>သံပရို၊ လီမွန်</t>
+  </si>
+  <si>
+    <t>いけばな</t>
+  </si>
+  <si>
+    <t>အိခဲဘန၊ ဂျပန်ရိုးရာ ပန်းအလှ</t>
+  </si>
+  <si>
+    <t>もみじ</t>
+  </si>
+  <si>
+    <t>မိုးမိဂျိ၊ မေပယ်ရွက်</t>
+  </si>
+  <si>
+    <t>ဘယ်တစ်ခု</t>
+  </si>
+  <si>
+    <t>どちらも</t>
+  </si>
+  <si>
+    <t>နှစ်ခုစလုံး၊ ဘယ်ဟာဖြစ်ဖြစ်</t>
+  </si>
+  <si>
+    <t>いちばん</t>
+  </si>
+  <si>
+    <t>ပထမ၊ အကြိုက်ဆုံး</t>
+  </si>
+  <si>
+    <t>ずっと</t>
+  </si>
+  <si>
+    <t>အပြတ်အသတ်၊ သိသိသာသာ</t>
+  </si>
+  <si>
+    <t>はじめて</t>
+  </si>
+  <si>
+    <t>ပထမဦးဆုံး</t>
+  </si>
+  <si>
+    <t>ただいま</t>
+  </si>
+  <si>
+    <t>ပြန်ရောက်ပါပြီ</t>
+  </si>
+  <si>
+    <t>おかえりなさい</t>
+  </si>
+  <si>
+    <t>ပြန်လာပြီလား</t>
+  </si>
+  <si>
+    <t>わあ、すごい　ひとですね</t>
+  </si>
+  <si>
+    <t>ဟယ်... လူတော်တော်စည်တယ်နော်</t>
+  </si>
+  <si>
+    <t>つかれました</t>
+  </si>
+  <si>
+    <t>ပင်ပန်းတယ်၊ ပင်ပန်းသွားပြီ</t>
+  </si>
+  <si>
+    <t>ぎおんまつり</t>
+  </si>
+  <si>
+    <t>ဂိအွန်းပွဲတော်</t>
+  </si>
+  <si>
+    <t>ホンコン</t>
+  </si>
+  <si>
+    <t>ဟောင်ကောင်</t>
+  </si>
+  <si>
+    <t>シンガポール</t>
+  </si>
+  <si>
+    <t>စင်္ကာပူ</t>
+  </si>
+  <si>
+    <t>ABC ストア</t>
+  </si>
+  <si>
+    <t>ジャパン</t>
+  </si>
+  <si>
+    <t>あそびます</t>
+  </si>
+  <si>
+    <t>လျှောက်လည်သည်၊ လည်ပတ်သည်၊ ကစားသည်</t>
+  </si>
+  <si>
+    <t>およぎます</t>
+  </si>
+  <si>
+    <t>ရေကူးသည်</t>
+  </si>
+  <si>
+    <t>むかえます</t>
+  </si>
+  <si>
+    <t>ကြိုဆိုသည်</t>
+  </si>
+  <si>
+    <t>つかれます</t>
+  </si>
+  <si>
+    <t>ပင်ပန်းသည်</t>
+  </si>
+  <si>
+    <t>けっこんします</t>
+  </si>
+  <si>
+    <t>လက်ထပ်သည်၊ မင်္ဂလာဆောင်သည်</t>
+  </si>
+  <si>
+    <t>かいものします</t>
+  </si>
+  <si>
+    <t>စျေးဝယ်သည်</t>
+  </si>
+  <si>
+    <t>しょくじします</t>
+  </si>
+  <si>
+    <t>ထမင်းစားသည်၊ စားသောက်သည်</t>
+  </si>
+  <si>
+    <t>さんぽします「こうえんを～」</t>
+  </si>
+  <si>
+    <t>လမ်းလျှောက်သည်</t>
+  </si>
+  <si>
+    <t>たいへん「な」</t>
+  </si>
+  <si>
+    <t>ဒုက္ခကြီးသော၊ မလွယ်လှသော</t>
+  </si>
+  <si>
+    <t>ほしい</t>
+  </si>
+  <si>
+    <t>လိုချင်သော၊ တပ်မက်သော</t>
+  </si>
+  <si>
+    <t>ひろい</t>
+  </si>
+  <si>
+    <t>ကျယ်ဝန်းသော</t>
+  </si>
+  <si>
+    <t>せまい</t>
+  </si>
+  <si>
+    <t>ကျဥ်းမြောင်းသော</t>
+  </si>
+  <si>
+    <t>プール</t>
+  </si>
+  <si>
+    <t>ရေကူးကန်</t>
+  </si>
+  <si>
+    <t>かわ</t>
+  </si>
+  <si>
+    <t>မြစ်၊ ချောင်း</t>
+  </si>
+  <si>
+    <t>びじゅつ</t>
+  </si>
+  <si>
+    <t>အနုပညာ</t>
+  </si>
+  <si>
+    <t>つり</t>
+  </si>
+  <si>
+    <t>ငါးမျှားခြင်း</t>
+  </si>
+  <si>
+    <t>スキー</t>
+  </si>
+  <si>
+    <t>စကီး၊ နှင်းလျှော</t>
+  </si>
+  <si>
+    <t>しゅうまつ</t>
+  </si>
+  <si>
+    <t>စနေ၊ တနင်္ဂနွေ</t>
+  </si>
+  <si>
+    <t>「お」しょうがつ</t>
+  </si>
+  <si>
+    <t>နှစ်သစ်ကူး</t>
+  </si>
+  <si>
+    <t>～ごろ</t>
+  </si>
+  <si>
+    <t>~ လောက်၊ ~ ဝန်းကျင်</t>
+  </si>
+  <si>
+    <t>なにか</t>
+  </si>
+  <si>
+    <t>တစ်ခုခု</t>
+  </si>
+  <si>
+    <t>どこか</t>
+  </si>
+  <si>
+    <t>တစ်နေရာရာ</t>
+  </si>
+  <si>
+    <t>のどが　かわきます</t>
+  </si>
+  <si>
+    <t>ရေဆာသည်၊ အာခေါင်ခြောက်သည်</t>
+  </si>
+  <si>
+    <t>おなかが　すきます</t>
+  </si>
+  <si>
+    <t>ဗိုက်ဆာသည်</t>
+  </si>
+  <si>
+    <t>そう　しましょう</t>
+  </si>
+  <si>
+    <t>အဲဒီလိုပဲ လုပ်ကြတာပေါ့</t>
+  </si>
+  <si>
+    <t>ごちゅうもんは？</t>
+  </si>
+  <si>
+    <t>ဘာမှာ လိုပါသလဲ</t>
+  </si>
+  <si>
+    <t>ていしょく</t>
+  </si>
+  <si>
+    <t>အမျိုး အမယ် အရေအတွက် သတ်မှတ်ထားသော အစား အသောက်တစ်စုံစာ၊ တစ်ယောက်စာ စားပွဲတစ်စုံ</t>
+  </si>
+  <si>
+    <t>ぎゅうどん</t>
+  </si>
+  <si>
+    <t>အမဲသားဟင်းပုံ ထမင်း</t>
+  </si>
+  <si>
+    <t>「しょうしょう」おまちください</t>
+  </si>
+  <si>
+    <t>[ ခဏလောက် ] စောင့်ပေးပါ</t>
+  </si>
+  <si>
+    <t>～で　ございます</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ~ ဖြစ်ပါတယ်</t>
+  </si>
+  <si>
+    <t>べつべつ</t>
+  </si>
+  <si>
+    <t>သတ်သတ်စီ၊ သီးခြားစီ</t>
+  </si>
+  <si>
+    <t>アキックス</t>
+  </si>
+  <si>
+    <t>ကုမ္ပဏီ အမည်</t>
+  </si>
+  <si>
+    <t>おはよう　テレビ</t>
+  </si>
+  <si>
+    <t>ရုပ်သံလိုင်း အမည်</t>
   </si>
 </sst>
 </file>
@@ -4473,7 +5340,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4592,6 +5459,10 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5311,7 +6182,7 @@
   <dimension ref="A1:C50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5874,6 +6745,1710 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C62"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.88671875" style="33"/>
+    <col min="2" max="2" width="40.21875" style="33" customWidth="1"/>
+    <col min="3" max="3" width="26.6640625" style="33" customWidth="1"/>
+    <col min="4" max="16384" width="8.88671875" style="33"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B1" s="23" t="s">
+        <v>138</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>1345</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>1346</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>1347</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>1348</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>1349</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>1351</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>1352</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="4">
+        <v>5</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="4">
+        <v>6</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>1355</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>1356</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="4">
+        <v>7</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>1357</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="4">
+        <v>8</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>1359</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="4">
+        <v>9</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>1361</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="4">
+        <v>10</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>1363</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="4">
+        <v>11</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>1365</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>1366</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="4">
+        <v>12</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>1367</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>1368</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="4">
+        <v>13</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>1369</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>1370</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="4">
+        <v>14</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>1371</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>1372</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="4">
+        <v>15</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>1373</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>1374</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="4">
+        <v>16</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>1375</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>1376</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="4">
+        <v>17</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>1377</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>1378</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A19" s="4">
+        <v>18</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>1379</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A20" s="4">
+        <v>19</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>1381</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A21" s="4">
+        <v>20</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>1383</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>1384</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A22" s="4">
+        <v>21</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>1385</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A23" s="4">
+        <v>22</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>1387</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A24" s="4">
+        <v>23</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>1389</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A25" s="4">
+        <v>24</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>1391</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A26" s="4">
+        <v>25</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>1393</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>1394</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A27" s="4">
+        <v>26</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>1395</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>1396</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A28" s="4">
+        <v>27</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>1397</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>1398</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A29" s="4">
+        <v>28</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>1399</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A30" s="4">
+        <v>29</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>1401</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>1402</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A31" s="4">
+        <v>30</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>1403</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>1404</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A32" s="4">
+        <v>31</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>1405</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A33" s="4">
+        <v>32</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>1407</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A34" s="4">
+        <v>33</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>1409</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A35" s="4">
+        <v>34</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>1411</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>1412</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A36" s="4">
+        <v>35</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>1413</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>1414</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A37" s="4">
+        <v>36</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>1415</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A38" s="4">
+        <v>37</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>1417</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>1418</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A39" s="4">
+        <v>38</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>1419</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>1420</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A40" s="4">
+        <v>39</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>1421</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>1422</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A41" s="4">
+        <v>40</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>1423</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>1424</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A42" s="4">
+        <v>41</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>1425</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>1426</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A43" s="4">
+        <v>42</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>1427</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>1428</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A44" s="4">
+        <v>43</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>1429</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>1430</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A45" s="4">
+        <v>44</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>1431</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>1432</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A46" s="4">
+        <v>45</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>1433</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>1434</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A47" s="4">
+        <v>46</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A48" s="4">
+        <v>47</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>1435</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A49" s="4">
+        <v>48</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>1437</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>1438</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A50" s="4">
+        <v>49</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>1439</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A51" s="4">
+        <v>50</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>1441</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>1442</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A52" s="4">
+        <v>51</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>1443</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>1444</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A53" s="4">
+        <v>52</v>
+      </c>
+      <c r="B53" s="7" t="s">
+        <v>1445</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A54" s="4">
+        <v>53</v>
+      </c>
+      <c r="B54" s="7" t="s">
+        <v>1446</v>
+      </c>
+      <c r="C54" s="8" t="s">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A55" s="4">
+        <v>54</v>
+      </c>
+      <c r="B55" s="7" t="s">
+        <v>1448</v>
+      </c>
+      <c r="C55" s="8" t="s">
+        <v>1449</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A56" s="4">
+        <v>55</v>
+      </c>
+      <c r="B56" s="7" t="s">
+        <v>1450</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>1451</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A57" s="4">
+        <v>56</v>
+      </c>
+      <c r="B57" s="7" t="s">
+        <v>1452</v>
+      </c>
+      <c r="C57" s="8" t="s">
+        <v>1453</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A58" s="4">
+        <v>57</v>
+      </c>
+      <c r="B58" s="7" t="s">
+        <v>1454</v>
+      </c>
+      <c r="C58" s="8" t="s">
+        <v>1455</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A59" s="4">
+        <v>58</v>
+      </c>
+      <c r="B59" s="7" t="s">
+        <v>1456</v>
+      </c>
+      <c r="C59" s="8" t="s">
+        <v>1457</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A60" s="4">
+        <v>59</v>
+      </c>
+      <c r="B60" s="7" t="s">
+        <v>1458</v>
+      </c>
+      <c r="C60" s="8" t="s">
+        <v>1459</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A61" s="4">
+        <v>60</v>
+      </c>
+      <c r="B61" s="7" t="s">
+        <v>1460</v>
+      </c>
+      <c r="C61" s="8" t="s">
+        <v>1461</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A62" s="4">
+        <v>61</v>
+      </c>
+      <c r="B62" s="7" t="s">
+        <v>1462</v>
+      </c>
+      <c r="C62" s="8" t="s">
+        <v>1463</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C54"/>
+  <sheetViews>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.88671875" style="41"/>
+    <col min="2" max="2" width="26" style="41" customWidth="1"/>
+    <col min="3" max="3" width="35.6640625" style="41" customWidth="1"/>
+    <col min="4" max="16384" width="8.88671875" style="41"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B1" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>1464</v>
+      </c>
+      <c r="C2" s="42" t="s">
+        <v>1465</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>1466</v>
+      </c>
+      <c r="C3" s="42" t="s">
+        <v>1467</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>1468</v>
+      </c>
+      <c r="C4" s="42" t="s">
+        <v>1469</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>1470</v>
+      </c>
+      <c r="C5" s="42" t="s">
+        <v>1471</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="4">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>1472</v>
+      </c>
+      <c r="C6" s="42" t="s">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="4">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C7" s="42" t="s">
+        <v>1475</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="4">
+        <v>7</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>1476</v>
+      </c>
+      <c r="C8" s="42" t="s">
+        <v>1477</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="4">
+        <v>8</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>1478</v>
+      </c>
+      <c r="C9" s="42" t="s">
+        <v>1479</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="4">
+        <v>9</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>1480</v>
+      </c>
+      <c r="C10" s="42" t="s">
+        <v>1481</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="4">
+        <v>10</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>1482</v>
+      </c>
+      <c r="C11" s="42" t="s">
+        <v>1483</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="4">
+        <v>11</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>1484</v>
+      </c>
+      <c r="C12" s="42" t="s">
+        <v>1485</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="4">
+        <v>12</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>1486</v>
+      </c>
+      <c r="C13" s="42" t="s">
+        <v>1487</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="4">
+        <v>13</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>1488</v>
+      </c>
+      <c r="C14" s="42" t="s">
+        <v>1489</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="4">
+        <v>14</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>1490</v>
+      </c>
+      <c r="C15" s="42" t="s">
+        <v>1491</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="4">
+        <v>15</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>1492</v>
+      </c>
+      <c r="C16" s="42" t="s">
+        <v>1493</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="4">
+        <v>16</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>1494</v>
+      </c>
+      <c r="C17" s="42" t="s">
+        <v>1495</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="4">
+        <v>17</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>1496</v>
+      </c>
+      <c r="C18" s="42" t="s">
+        <v>1497</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A19" s="4">
+        <v>18</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>1498</v>
+      </c>
+      <c r="C19" s="42" t="s">
+        <v>1499</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A20" s="4">
+        <v>19</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>1500</v>
+      </c>
+      <c r="C20" s="42" t="s">
+        <v>1501</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A21" s="4">
+        <v>20</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>1502</v>
+      </c>
+      <c r="C21" s="42" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A22" s="4">
+        <v>21</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>1504</v>
+      </c>
+      <c r="C22" s="42" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A23" s="4">
+        <v>22</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>1506</v>
+      </c>
+      <c r="C23" s="42" t="s">
+        <v>1507</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A24" s="4">
+        <v>23</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>1508</v>
+      </c>
+      <c r="C24" s="42" t="s">
+        <v>1509</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A25" s="4">
+        <v>24</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>1510</v>
+      </c>
+      <c r="C25" s="42" t="s">
+        <v>1511</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A26" s="4">
+        <v>25</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>1512</v>
+      </c>
+      <c r="C26" s="42" t="s">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A27" s="4">
+        <v>26</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>1514</v>
+      </c>
+      <c r="C27" s="42" t="s">
+        <v>1515</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A28" s="4">
+        <v>27</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>1516</v>
+      </c>
+      <c r="C28" s="42" t="s">
+        <v>1517</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A29" s="4">
+        <v>28</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>1518</v>
+      </c>
+      <c r="C29" s="42" t="s">
+        <v>1519</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A30" s="4">
+        <v>29</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>1520</v>
+      </c>
+      <c r="C30" s="42" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A31" s="4">
+        <v>30</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>1522</v>
+      </c>
+      <c r="C31" s="42" t="s">
+        <v>1523</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A32" s="4">
+        <v>31</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>1524</v>
+      </c>
+      <c r="C32" s="42" t="s">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A33" s="4">
+        <v>32</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>1526</v>
+      </c>
+      <c r="C33" s="42" t="s">
+        <v>1527</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A34" s="4">
+        <v>33</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>1528</v>
+      </c>
+      <c r="C34" s="42" t="s">
+        <v>1529</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A35" s="4">
+        <v>34</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>1530</v>
+      </c>
+      <c r="C35" s="42" t="s">
+        <v>1531</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A36" s="4">
+        <v>35</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>1532</v>
+      </c>
+      <c r="C36" s="42" t="s">
+        <v>1533</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A37" s="4">
+        <v>36</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>1534</v>
+      </c>
+      <c r="C37" s="42" t="s">
+        <v>1535</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A38" s="4">
+        <v>37</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>1536</v>
+      </c>
+      <c r="C38" s="42" t="s">
+        <v>1537</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A39" s="4">
+        <v>38</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>1538</v>
+      </c>
+      <c r="C39" s="42" t="s">
+        <v>1539</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A40" s="4">
+        <v>39</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>1540</v>
+      </c>
+      <c r="C40" s="42" t="s">
+        <v>1541</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A41" s="4">
+        <v>40</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="C41" s="42" t="s">
+        <v>1542</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A42" s="4">
+        <v>41</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>1543</v>
+      </c>
+      <c r="C42" s="42" t="s">
+        <v>1544</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A43" s="4">
+        <v>42</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>1545</v>
+      </c>
+      <c r="C43" s="42" t="s">
+        <v>1546</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A44" s="4">
+        <v>43</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>1547</v>
+      </c>
+      <c r="C44" s="42" t="s">
+        <v>1548</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A45" s="4">
+        <v>44</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>1549</v>
+      </c>
+      <c r="C45" s="42" t="s">
+        <v>1550</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A46" s="4">
+        <v>45</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>1551</v>
+      </c>
+      <c r="C46" s="42" t="s">
+        <v>1552</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A47" s="4">
+        <v>46</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>1553</v>
+      </c>
+      <c r="C47" s="42" t="s">
+        <v>1554</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A48" s="4">
+        <v>47</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>1555</v>
+      </c>
+      <c r="C48" s="42" t="s">
+        <v>1556</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A49" s="4">
+        <v>48</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>1557</v>
+      </c>
+      <c r="C49" s="42" t="s">
+        <v>1558</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A50" s="4">
+        <v>49</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>1559</v>
+      </c>
+      <c r="C50" s="42" t="s">
+        <v>1560</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A51" s="4">
+        <v>50</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>1561</v>
+      </c>
+      <c r="C51" s="42" t="s">
+        <v>1562</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A52" s="4">
+        <v>51</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>1563</v>
+      </c>
+      <c r="C52" s="42" t="s">
+        <v>1564</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A53" s="4">
+        <v>52</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>1565</v>
+      </c>
+      <c r="C53" s="42" t="s">
+        <v>1342</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A54" s="4">
+        <v>53</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>1566</v>
+      </c>
+      <c r="C54" s="42" t="s">
+        <v>1342</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C34"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="6.77734375" customWidth="1"/>
+    <col min="2" max="2" width="28.88671875" customWidth="1"/>
+    <col min="3" max="3" width="31" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="41"/>
+      <c r="B1" s="41" t="s">
+        <v>138</v>
+      </c>
+      <c r="C1" s="41" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>1567</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>1568</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>1569</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>1570</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>1571</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>1572</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>1573</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="4">
+        <v>5</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>1575</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>1576</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="4">
+        <v>6</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>1577</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="4">
+        <v>7</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>1579</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>1580</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A9" s="4">
+        <v>8</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>1581</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="4">
+        <v>9</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>1583</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>1584</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="4">
+        <v>10</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>1585</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>1586</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="4">
+        <v>11</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>1587</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>1588</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="4">
+        <v>12</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>1589</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>1590</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="4">
+        <v>13</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>1591</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>1592</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="4">
+        <v>14</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>1593</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="4">
+        <v>15</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>1595</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>1596</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="4">
+        <v>16</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>1597</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>1598</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="4">
+        <v>17</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>1599</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A19" s="4">
+        <v>18</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>1601</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>1602</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A20" s="4">
+        <v>19</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>1603</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A21" s="4">
+        <v>20</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>1605</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>1606</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A22" s="4">
+        <v>21</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>1607</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>1608</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A23" s="4">
+        <v>22</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>1609</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>1610</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A24" s="4">
+        <v>23</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>1611</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>1612</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A25" s="4">
+        <v>24</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>1613</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>1614</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A26" s="4">
+        <v>25</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>1615</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>1616</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A27" s="4">
+        <v>26</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>1617</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>1618</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="A28" s="4">
+        <v>27</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>1619</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>1620</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A29" s="4">
+        <v>28</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>1621</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>1622</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A30" s="4">
+        <v>29</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>1623</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>1624</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A31" s="4">
+        <v>30</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>1625</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>1626</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A32" s="4">
+        <v>31</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>1627</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>1628</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A33" s="4">
+        <v>32</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>1629</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>1630</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A34" s="4">
+        <v>33</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>1631</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>1632</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C30"/>
   <sheetViews>
@@ -6221,7 +8796,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D45"/>
   <sheetViews>
@@ -6437,7 +9012,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D29"/>
   <sheetViews>
@@ -6551,7 +9126,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D29"/>
   <sheetViews>
@@ -6643,7 +9218,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A34"/>
   <sheetViews>
@@ -6798,7 +9373,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A10"/>
   <sheetViews>
@@ -6853,370 +9428,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A15"/>
-  <sheetViews>
-    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="79.109375" style="36" customWidth="1"/>
-    <col min="2" max="16384" width="8.88671875" style="36"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="36" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="36" t="s">
-        <v>915</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="36" t="s">
-        <v>917</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="36" t="s">
-        <v>916</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="36" t="s">
-        <v>918</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="36" t="s">
-        <v>920</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="36" t="s">
-        <v>919</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" s="36" t="s">
-        <v>922</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" s="36" t="s">
-        <v>921</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" s="36" t="s">
-        <v>923</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A18"/>
-  <sheetViews>
-    <sheetView zoomScale="265" zoomScaleNormal="265" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="76.21875" style="36" customWidth="1"/>
-    <col min="2" max="16384" width="8.88671875" style="36"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="36" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="36" t="s">
-        <v>929</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="36" t="s">
-        <v>930</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="36" t="s">
-        <v>924</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="36" t="s">
-        <v>931</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="36" t="s">
-        <v>932</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="36" t="s">
-        <v>925</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="36" t="s">
-        <v>933</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" s="36" t="s">
-        <v>934</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" s="36" t="s">
-        <v>926</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" s="36" t="s">
-        <v>935</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" s="36" t="s">
-        <v>936</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="36" t="s">
-        <v>927</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="36" t="s">
-        <v>928</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E11"/>
-  <sheetViews>
-    <sheetView zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="16384" width="8.88671875" style="38"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="39" t="s">
-        <v>974</v>
-      </c>
-      <c r="B1" s="39" t="s">
-        <v>975</v>
-      </c>
-      <c r="C1" s="39" t="s">
-        <v>976</v>
-      </c>
-      <c r="D1" s="39" t="s">
-        <v>977</v>
-      </c>
-      <c r="E1" s="39" t="s">
-        <v>978</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="38" t="s">
-        <v>158</v>
-      </c>
-      <c r="B2" s="38" t="s">
-        <v>937</v>
-      </c>
-      <c r="C2" s="38" t="s">
-        <v>938</v>
-      </c>
-      <c r="D2" s="38" t="s">
-        <v>939</v>
-      </c>
-      <c r="E2" s="38" t="s">
-        <v>940</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="38" t="s">
-        <v>941</v>
-      </c>
-      <c r="B3" s="38" t="s">
-        <v>942</v>
-      </c>
-      <c r="C3" s="38" t="s">
-        <v>943</v>
-      </c>
-      <c r="D3" s="38" t="s">
-        <v>944</v>
-      </c>
-      <c r="E3" s="38" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="38" t="s">
-        <v>946</v>
-      </c>
-      <c r="B4" s="38" t="s">
-        <v>947</v>
-      </c>
-      <c r="C4" s="38" t="s">
-        <v>948</v>
-      </c>
-      <c r="D4" s="38" t="s">
-        <v>949</v>
-      </c>
-      <c r="E4" s="38" t="s">
-        <v>950</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="38" t="s">
-        <v>951</v>
-      </c>
-      <c r="B5" s="38" t="s">
-        <v>952</v>
-      </c>
-      <c r="C5" s="38" t="s">
-        <v>953</v>
-      </c>
-      <c r="D5" s="38" t="s">
-        <v>621</v>
-      </c>
-      <c r="E5" s="38" t="s">
-        <v>954</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="38" t="s">
-        <v>955</v>
-      </c>
-      <c r="B6" s="38" t="s">
-        <v>956</v>
-      </c>
-      <c r="C6" s="38" t="s">
-        <v>957</v>
-      </c>
-      <c r="D6" s="38" t="s">
-        <v>958</v>
-      </c>
-      <c r="E6" s="38" t="s">
-        <v>959</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="38" t="s">
-        <v>960</v>
-      </c>
-      <c r="B7" s="38" t="s">
-        <v>961</v>
-      </c>
-      <c r="C7" s="38" t="s">
-        <v>962</v>
-      </c>
-      <c r="D7" s="38" t="s">
-        <v>963</v>
-      </c>
-      <c r="E7" s="38" t="s">
-        <v>964</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="38" t="s">
-        <v>965</v>
-      </c>
-      <c r="B8" s="38" t="s">
-        <v>968</v>
-      </c>
-      <c r="C8" s="38" t="s">
-        <v>969</v>
-      </c>
-      <c r="D8" s="38" t="s">
-        <v>970</v>
-      </c>
-      <c r="E8" s="38" t="s">
-        <v>971</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="38" t="s">
-        <v>966</v>
-      </c>
-      <c r="B9" s="38" t="s">
-        <v>979</v>
-      </c>
-      <c r="C9" s="38" t="s">
-        <v>967</v>
-      </c>
-      <c r="D9" s="38" t="s">
-        <v>979</v>
-      </c>
-      <c r="E9" s="38" t="s">
-        <v>972</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="38" t="s">
-        <v>1027</v>
-      </c>
-      <c r="B10" s="38" t="s">
-        <v>1028</v>
-      </c>
-      <c r="C10" s="38" t="s">
-        <v>1029</v>
-      </c>
-      <c r="D10" s="38" t="s">
-        <v>1030</v>
-      </c>
-      <c r="E10" s="38" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="38" t="s">
-        <v>979</v>
-      </c>
-      <c r="B11" s="38" t="s">
-        <v>979</v>
-      </c>
-      <c r="C11" s="38" t="s">
-        <v>973</v>
-      </c>
-      <c r="D11" s="38" t="s">
-        <v>979</v>
-      </c>
-      <c r="E11" s="38" t="s">
-        <v>979</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -7755,6 +9966,370 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A15"/>
+  <sheetViews>
+    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="79.109375" style="36" customWidth="1"/>
+    <col min="2" max="16384" width="8.88671875" style="36"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="36" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="36" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="36" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="36" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="36" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="36" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="36" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="36" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="36" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" s="36" t="s">
+        <v>923</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A18"/>
+  <sheetViews>
+    <sheetView zoomScale="265" zoomScaleNormal="265" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="76.21875" style="36" customWidth="1"/>
+    <col min="2" max="16384" width="8.88671875" style="36"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="36" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="36" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="36" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="36" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="36" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="36" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="36" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="36" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="36" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="36" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" s="36" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="36" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="36" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="36" t="s">
+        <v>928</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E11"/>
+  <sheetViews>
+    <sheetView zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="16384" width="8.88671875" style="38"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="39" t="s">
+        <v>974</v>
+      </c>
+      <c r="B1" s="39" t="s">
+        <v>975</v>
+      </c>
+      <c r="C1" s="39" t="s">
+        <v>976</v>
+      </c>
+      <c r="D1" s="39" t="s">
+        <v>977</v>
+      </c>
+      <c r="E1" s="39" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="38" t="s">
+        <v>158</v>
+      </c>
+      <c r="B2" s="38" t="s">
+        <v>937</v>
+      </c>
+      <c r="C2" s="38" t="s">
+        <v>938</v>
+      </c>
+      <c r="D2" s="38" t="s">
+        <v>939</v>
+      </c>
+      <c r="E2" s="38" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="38" t="s">
+        <v>941</v>
+      </c>
+      <c r="B3" s="38" t="s">
+        <v>942</v>
+      </c>
+      <c r="C3" s="38" t="s">
+        <v>943</v>
+      </c>
+      <c r="D3" s="38" t="s">
+        <v>944</v>
+      </c>
+      <c r="E3" s="38" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="38" t="s">
+        <v>946</v>
+      </c>
+      <c r="B4" s="38" t="s">
+        <v>947</v>
+      </c>
+      <c r="C4" s="38" t="s">
+        <v>948</v>
+      </c>
+      <c r="D4" s="38" t="s">
+        <v>949</v>
+      </c>
+      <c r="E4" s="38" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="38" t="s">
+        <v>951</v>
+      </c>
+      <c r="B5" s="38" t="s">
+        <v>952</v>
+      </c>
+      <c r="C5" s="38" t="s">
+        <v>953</v>
+      </c>
+      <c r="D5" s="38" t="s">
+        <v>621</v>
+      </c>
+      <c r="E5" s="38" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="38" t="s">
+        <v>955</v>
+      </c>
+      <c r="B6" s="38" t="s">
+        <v>956</v>
+      </c>
+      <c r="C6" s="38" t="s">
+        <v>957</v>
+      </c>
+      <c r="D6" s="38" t="s">
+        <v>958</v>
+      </c>
+      <c r="E6" s="38" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="38" t="s">
+        <v>960</v>
+      </c>
+      <c r="B7" s="38" t="s">
+        <v>961</v>
+      </c>
+      <c r="C7" s="38" t="s">
+        <v>962</v>
+      </c>
+      <c r="D7" s="38" t="s">
+        <v>963</v>
+      </c>
+      <c r="E7" s="38" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="38" t="s">
+        <v>965</v>
+      </c>
+      <c r="B8" s="38" t="s">
+        <v>968</v>
+      </c>
+      <c r="C8" s="38" t="s">
+        <v>969</v>
+      </c>
+      <c r="D8" s="38" t="s">
+        <v>970</v>
+      </c>
+      <c r="E8" s="38" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="38" t="s">
+        <v>966</v>
+      </c>
+      <c r="B9" s="38" t="s">
+        <v>979</v>
+      </c>
+      <c r="C9" s="38" t="s">
+        <v>967</v>
+      </c>
+      <c r="D9" s="38" t="s">
+        <v>979</v>
+      </c>
+      <c r="E9" s="38" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="38" t="s">
+        <v>1027</v>
+      </c>
+      <c r="B10" s="38" t="s">
+        <v>1028</v>
+      </c>
+      <c r="C10" s="38" t="s">
+        <v>1029</v>
+      </c>
+      <c r="D10" s="38" t="s">
+        <v>1030</v>
+      </c>
+      <c r="E10" s="38" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="38" t="s">
+        <v>979</v>
+      </c>
+      <c r="B11" s="38" t="s">
+        <v>979</v>
+      </c>
+      <c r="C11" s="38" t="s">
+        <v>973</v>
+      </c>
+      <c r="D11" s="38" t="s">
+        <v>979</v>
+      </c>
+      <c r="E11" s="38" t="s">
+        <v>979</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView zoomScale="310" zoomScaleNormal="310" workbookViewId="0">
@@ -7856,7 +10431,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
@@ -7908,7 +10483,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C12"/>
   <sheetViews>
@@ -8058,7 +10633,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E12"/>
   <sheetViews>
@@ -8280,7 +10855,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
@@ -8383,7 +10958,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
@@ -8435,7 +11010,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C12"/>
   <sheetViews>
@@ -8579,390 +11154,6 @@
       <c r="C12" s="37" t="s">
         <v>1145</v>
       </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A34"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="56.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A1" s="22" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="A2" s="22" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="22" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="22" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" s="23"/>
-    </row>
-    <row r="6" spans="1:1" ht="19.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="24" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="22" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A8" s="23"/>
-    </row>
-    <row r="9" spans="1:1" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="25" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A10" s="25"/>
-    </row>
-    <row r="11" spans="1:1" ht="18" x14ac:dyDescent="0.3">
-      <c r="A11" s="26" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A12" s="27" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A13" s="27" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A14" s="27"/>
-    </row>
-    <row r="15" spans="1:1" ht="18" x14ac:dyDescent="0.3">
-      <c r="A15" s="26" t="s">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A16" s="28" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" s="23"/>
-    </row>
-    <row r="18" spans="1:1" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A18" s="28" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A19" s="28"/>
-    </row>
-    <row r="20" spans="1:1" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A20" s="29" t="s">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A21" s="29" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A22" s="27" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" s="27"/>
-    </row>
-    <row r="24" spans="1:1" ht="19.8" x14ac:dyDescent="0.3">
-      <c r="A24" s="30" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A25" s="22" t="s">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A26" s="22"/>
-    </row>
-    <row r="27" spans="1:1" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A27" s="22" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A28" s="22"/>
-    </row>
-    <row r="29" spans="1:1" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A29" s="22" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A30" s="22" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A31" s="22" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A32" s="22"/>
-    </row>
-    <row r="33" spans="1:1" ht="19.8" x14ac:dyDescent="0.3">
-      <c r="A33" s="30" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A34" s="22" t="s">
-        <v>701</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A40"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="53.33203125" style="19" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" s="19" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" s="18" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" s="18" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" s="18" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" s="18" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7" s="18" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A8" s="18" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A9" s="18" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A10" s="18" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A11" s="18" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A12" s="18" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A13" s="18" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A14" s="18" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A15" s="18" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A16" s="18" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" s="18" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" s="18" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" s="18" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" s="18" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" s="18" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" s="18" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" s="18" t="s">
-        <v>696</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24" s="18" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25" s="18" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A26" s="18" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A27" s="18" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A28" s="18" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A29" s="18" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A30" s="18" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A31" s="18" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A32" s="18" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A33" s="18" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A34" s="18" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A35" s="18" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A36" s="18" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A37" s="18" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A38" s="18" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A39" s="18" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A40" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9542,11 +11733,395 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="56.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="A1" s="22" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A2" s="22" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="22" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="22" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" s="23"/>
+    </row>
+    <row r="6" spans="1:1" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="24" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="22" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" s="23"/>
+    </row>
+    <row r="9" spans="1:1" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="25" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="25"/>
+    </row>
+    <row r="11" spans="1:1" ht="18" x14ac:dyDescent="0.3">
+      <c r="A11" s="26" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" s="27" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A13" s="27" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14" s="27"/>
+    </row>
+    <row r="15" spans="1:1" ht="18" x14ac:dyDescent="0.3">
+      <c r="A15" s="26" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A16" s="28" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="23"/>
+    </row>
+    <row r="18" spans="1:1" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A18" s="28" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A19" s="28"/>
+    </row>
+    <row r="20" spans="1:1" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="A20" s="29" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="A21" s="29" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A22" s="27" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" s="27"/>
+    </row>
+    <row r="24" spans="1:1" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A24" s="30" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="A25" s="22" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="A26" s="22"/>
+    </row>
+    <row r="27" spans="1:1" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="A27" s="22" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="A28" s="22"/>
+    </row>
+    <row r="29" spans="1:1" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="A29" s="22" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="A30" s="22" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="A31" s="22" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="A32" s="22"/>
+    </row>
+    <row r="33" spans="1:1" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A33" s="30" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="A34" s="22" t="s">
+        <v>701</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A40"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="53.33203125" style="19" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="19" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" s="19" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" s="18" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" s="18" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" s="18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" s="18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" s="18" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" s="18" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" s="18" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" s="18" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" s="18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" s="18" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" s="18" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14" s="18" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15" s="18" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="18" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="18" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="18" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="18" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" s="18" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" s="18" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" s="18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" s="18" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" s="18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" s="18" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" s="18" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" s="18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" s="18" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31" s="18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32" s="18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" s="18" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" s="18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35" s="18" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36" s="18" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37" s="18" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A38" s="18" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A39" s="18" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A40" s="18"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C61"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
